--- a/documentacion/desarrollo/Product Backlog Sibica.xlsx
+++ b/documentacion/desarrollo/Product Backlog Sibica.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeg76\Documents\sibica\documentacion\desarrollo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LUIS\Documents\sibica\documentacion\desarrollo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABE5E34-F328-4100-BF80-8E655B1839CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D77447D8-9D5F-4030-908C-E620017E4846}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PB" sheetId="1" r:id="rId1"/>
     <sheet name="SB1" sheetId="2" r:id="rId2"/>
     <sheet name="SB2" sheetId="4" r:id="rId3"/>
+    <sheet name="SB3" sheetId="5" r:id="rId4"/>
+    <sheet name="SB4" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_ftn1" localSheetId="0">PB!$C$17</definedName>
     <definedName name="_ftnref1" localSheetId="0">PB!$C$11</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="181">
   <si>
     <t>Enunciado de la Historia</t>
   </si>
@@ -2174,13 +2175,19 @@
   </si>
   <si>
     <t>Definir con el cliente</t>
+  </si>
+  <si>
+    <t>SPRINT BACKLOG - SPRINT 3</t>
+  </si>
+  <si>
+    <t>SPRINT BACKLOG - SPRINT 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2228,6 +2235,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2406,7 +2421,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2436,6 +2451,21 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2469,24 +2499,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Accent1" xfId="1" builtinId="29"/>
+    <cellStyle name="Énfasis1" xfId="1" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2798,78 +2814,78 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0204FB9A-F3B2-48B7-B3ED-60E599717323}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+    <sheetView topLeftCell="A50" workbookViewId="0">
       <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="81.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="81.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="72.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" customWidth="1"/>
     <col min="8" max="8" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-    </row>
-    <row r="2" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-    </row>
-    <row r="3" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-    </row>
-    <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+    </row>
+    <row r="3" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+    </row>
+    <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+    </row>
+    <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+    </row>
+    <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>111</v>
       </c>
@@ -2895,7 +2911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -2917,7 +2933,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>132</v>
       </c>
@@ -2939,7 +2955,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
@@ -2961,7 +2977,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>137</v>
       </c>
@@ -2983,7 +2999,7 @@
       </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
@@ -3005,7 +3021,7 @@
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>143</v>
       </c>
@@ -3027,7 +3043,7 @@
       </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>10</v>
       </c>
@@ -3049,7 +3065,7 @@
       </c>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>146</v>
       </c>
@@ -3071,14 +3087,14 @@
       </c>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="11" t="s">
         <v>150</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -3095,14 +3111,14 @@
         <v>153</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>149</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="11" t="s">
         <v>151</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -3119,14 +3135,14 @@
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="11" t="s">
         <v>154</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -3143,14 +3159,14 @@
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="11" t="s">
         <v>156</v>
       </c>
       <c r="D18" s="6" t="s">
@@ -3167,14 +3183,14 @@
         <v>153</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>158</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="11" t="s">
         <v>157</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -3191,7 +3207,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>14</v>
       </c>
@@ -3213,7 +3229,7 @@
       </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>159</v>
       </c>
@@ -3235,7 +3251,7 @@
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>15</v>
       </c>
@@ -3257,7 +3273,7 @@
       </c>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>162</v>
       </c>
@@ -3279,7 +3295,7 @@
       </c>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>16</v>
       </c>
@@ -3301,7 +3317,7 @@
       </c>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>163</v>
       </c>
@@ -3323,54 +3339,54 @@
       </c>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="23" t="s">
+    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24" t="s">
+      <c r="D26" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="23" t="s">
+    <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24" t="s">
+      <c r="D27" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="14" t="s">
         <v>170</v>
       </c>
       <c r="D28" s="6" t="s">
@@ -3387,14 +3403,14 @@
         <v>168</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>171</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="14" t="s">
         <v>169</v>
       </c>
       <c r="D29" s="6" t="s">
@@ -3409,7 +3425,7 @@
       </c>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>63</v>
       </c>
@@ -3433,7 +3449,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>64</v>
       </c>
@@ -3457,7 +3473,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>65</v>
       </c>
@@ -3479,7 +3495,7 @@
       </c>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>176</v>
       </c>
@@ -3501,7 +3517,7 @@
       </c>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>67</v>
       </c>
@@ -3523,7 +3539,7 @@
       </c>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>68</v>
       </c>
@@ -3545,7 +3561,7 @@
       </c>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>96</v>
       </c>
@@ -3567,7 +3583,7 @@
       </c>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>97</v>
       </c>
@@ -3589,7 +3605,7 @@
       </c>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>98</v>
       </c>
@@ -3611,7 +3627,7 @@
       </c>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>99</v>
       </c>
@@ -3633,14 +3649,14 @@
       </c>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>100</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="15" t="s">
         <v>73</v>
       </c>
       <c r="D40" s="6" t="s">
@@ -3655,7 +3671,7 @@
       </c>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>101</v>
       </c>
@@ -3677,7 +3693,7 @@
       </c>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>102</v>
       </c>
@@ -3699,7 +3715,7 @@
       </c>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>103</v>
       </c>
@@ -3721,7 +3737,7 @@
       </c>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>104</v>
       </c>
@@ -3743,7 +3759,7 @@
       </c>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>105</v>
       </c>
@@ -3767,7 +3783,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>106</v>
       </c>
@@ -3789,7 +3805,7 @@
       </c>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>95</v>
       </c>
@@ -3811,7 +3827,7 @@
       </c>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>107</v>
       </c>
@@ -3833,7 +3849,7 @@
       </c>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>108</v>
       </c>
@@ -3855,7 +3871,7 @@
       </c>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>109</v>
       </c>
@@ -3877,7 +3893,7 @@
       </c>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>110</v>
       </c>
@@ -3899,7 +3915,7 @@
       </c>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>94</v>
       </c>
@@ -3917,7 +3933,7 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>93</v>
       </c>
@@ -3935,7 +3951,7 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>92</v>
       </c>
@@ -3953,7 +3969,7 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>91</v>
       </c>
@@ -3971,7 +3987,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>90</v>
       </c>
@@ -3989,20 +4005,20 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C58" s="3"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C60" s="3"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C62" s="3"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C64" s="3"/>
     </row>
   </sheetData>
@@ -4016,77 +4032,77 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D8B6ED-F09C-4FA4-8C88-3E239E7DB1C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="81.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="81.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" customWidth="1"/>
-    <col min="4" max="4" width="72.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="72.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-    </row>
-    <row r="2" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-    </row>
-    <row r="3" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-    </row>
-    <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+    </row>
+    <row r="3" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+    </row>
+    <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+    </row>
+    <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+    </row>
+    <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>111</v>
       </c>
@@ -4112,7 +4128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -4126,13 +4142,13 @@
       <c r="E7" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="26"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="6" t="s">
         <v>117</v>
       </c>
@@ -4146,9 +4162,9 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="6" t="s">
         <v>118</v>
       </c>
@@ -4162,9 +4178,9 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="6" t="s">
         <v>119</v>
       </c>
@@ -4178,9 +4194,9 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="6" t="s">
         <v>120</v>
       </c>
@@ -4194,9 +4210,9 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="6"/>
       <c r="D12" s="1"/>
       <c r="E12" s="6"/>
@@ -4204,9 +4220,9 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="6"/>
       <c r="D13" s="1"/>
       <c r="E13" s="6"/>
@@ -4214,9 +4230,9 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -4224,7 +4240,7 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
@@ -4238,13 +4254,13 @@
       <c r="E15" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="21"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="26"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="6" t="s">
         <v>117</v>
       </c>
@@ -4258,9 +4274,9 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="6" t="s">
         <v>118</v>
       </c>
@@ -4274,9 +4290,9 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="6" t="s">
         <v>119</v>
       </c>
@@ -4290,9 +4306,9 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="6" t="s">
         <v>120</v>
       </c>
@@ -4306,9 +4322,9 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="6"/>
       <c r="D20" s="1"/>
       <c r="E20" s="6"/>
@@ -4316,9 +4332,9 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="20"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="6"/>
       <c r="D21" s="1"/>
       <c r="E21" s="6"/>
@@ -4326,9 +4342,9 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -4336,7 +4352,7 @@
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D23" s="3"/>
     </row>
   </sheetData>
@@ -4353,77 +4369,77 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3378ECBF-3583-448A-8760-A5E5A1700641}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection sqref="A1:H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="81.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="81.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" customWidth="1"/>
-    <col min="4" max="4" width="72.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="72.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-    </row>
-    <row r="2" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-    </row>
-    <row r="3" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-    </row>
-    <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+    </row>
+    <row r="3" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+    </row>
+    <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+    </row>
+    <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+    </row>
+    <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>111</v>
       </c>
@@ -4449,19 +4465,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="1"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="26"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="6"/>
       <c r="D8" s="1"/>
       <c r="E8" s="6"/>
@@ -4469,9 +4485,9 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="6"/>
       <c r="D9" s="1"/>
       <c r="E9" s="6"/>
@@ -4479,9 +4495,9 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="6"/>
       <c r="D10" s="1"/>
       <c r="E10" s="6"/>
@@ -4489,9 +4505,9 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="6"/>
       <c r="D11" s="1"/>
       <c r="E11" s="6"/>
@@ -4499,9 +4515,9 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="6"/>
       <c r="D12" s="1"/>
       <c r="E12" s="6"/>
@@ -4509,9 +4525,9 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="6"/>
       <c r="D13" s="1"/>
       <c r="E13" s="6"/>
@@ -4519,9 +4535,9 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -4529,19 +4545,19 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="4"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="21"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="26"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="6"/>
       <c r="D16" s="1"/>
       <c r="E16" s="6"/>
@@ -4549,9 +4565,9 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="6"/>
       <c r="D17" s="1"/>
       <c r="E17" s="6"/>
@@ -4559,9 +4575,9 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="6"/>
       <c r="D18" s="1"/>
       <c r="E18" s="6"/>
@@ -4569,9 +4585,9 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="6"/>
       <c r="D19" s="1"/>
       <c r="E19" s="6"/>
@@ -4579,9 +4595,9 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="6"/>
       <c r="D20" s="1"/>
       <c r="E20" s="6"/>
@@ -4589,9 +4605,9 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="20"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="6"/>
       <c r="D21" s="1"/>
       <c r="E21" s="6"/>
@@ -4599,9 +4615,9 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -4609,7 +4625,7 @@
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D23" s="3"/>
     </row>
   </sheetData>
@@ -4622,4 +4638,526 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection sqref="A1:H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+    </row>
+    <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="26"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="26"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="20"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:H5"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="A8:B14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="A16:B22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+    </row>
+    <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="26"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="J8" s="27"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="26"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="20"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:H5"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="A8:B14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="A16:B22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/documentacion/desarrollo/Product Backlog Sibica.xlsx
+++ b/documentacion/desarrollo/Product Backlog Sibica.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LUIS\Documents\sibica\documentacion\desarrollo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sibica\documentacion\desarrollo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="4"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PB" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="210">
   <si>
     <t>Enunciado de la Historia</t>
   </si>
@@ -1336,42 +1336,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Como </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>usuario</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, necesito poder visualizar en añplicativo web cada polígono que representa un predio, ubicado en el mapa de Cali a partir de sus coordenadas geográficas tomadas de una Base de Datos PostgreSQL alojada en un servidor de la UAEGBS, con la finalidad de </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>visualizar geográficamente todos los predios de uso público y Fiscal en el mapa de la ciudad de Santiago de Cali.</t>
-    </r>
-  </si>
-  <si>
     <t>Alta</t>
   </si>
   <si>
@@ -2181,6 +2145,130 @@
   </si>
   <si>
     <t>SPRINT BACKLOG - SPRINT 4</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Como </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>usuario</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, necesito poder visualizar en el aplicativo web cada polígono que representa un predio, ubicado en el mapa de Cali a partir de sus coordenadas geográficas tomadas de una Base de Datos PostgreSQL alojada en un servidor de la UAEGBS, con la finalidad de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>visualizar geográficamente todos los predios de uso público y Fiscal en el mapa de la ciudad de Santiago de Cali.</t>
+    </r>
+  </si>
+  <si>
+    <t>Como usuario, necesito que la aplicación web permita advertir que la información mostrada actualmente no corresponde a la totalidad de predios del Municipio ya que se está actualizando constantemente.</t>
+  </si>
+  <si>
+    <t>Como usuario Administrador, necesito que la aplicación web permita la creación, edición, activación e inactivación de usuarios:
+Conforme a lo expuesto en el requerimiento RF1, se requiere que la aplicación permita crear, editar, activar e inactivar a un usuario y asignarle un determinado rol, dicha información reposará en la Base de Datos de la aplicación.</t>
+  </si>
+  <si>
+    <t>Como usuario, necesito que la aplicación web permita gestionar automáticamente el cierre de cesión transcurrido cinco (5) minutos de inactividad.</t>
+  </si>
+  <si>
+    <t>Como usuario, necesito que la aplicación permita bloquear al usuario cuando tenga más de tres (3) intentos fallidos de logueo.</t>
+  </si>
+  <si>
+    <t>Como usuario, necesito que la aplicación permita mostrar u ocultar otros campos de información alfanumérica de la base de Datos y restringir su visualización por roles.</t>
+  </si>
+  <si>
+    <t>Como usuario Administrador, necesito que la aplicación permita establecer qué campos de información de la Base de Datos pueden ver cada uno de los roles creados.</t>
+  </si>
+  <si>
+    <t>Identificar el punto en donde se realiza la consulta de los predios</t>
+  </si>
+  <si>
+    <t>Generar modal emergente indicando al usuario que la informacion mostrada actualmente no corresponde a la totalidad de predios del Municipio ya que se está actualizando constantemente.</t>
+  </si>
+  <si>
+    <t>Realizar CRUD de roles</t>
+  </si>
+  <si>
+    <t>Realizar CRUD de usuarios</t>
+  </si>
+  <si>
+    <t>Realizar CRUD de de tablas</t>
+  </si>
+  <si>
+    <t>Realizar CRUD de campos</t>
+  </si>
+  <si>
+    <t>Realizar modulo para gestionar la permisoogia para roles</t>
+  </si>
+  <si>
+    <t>Realizar modulo para gestionar los roles de un usuario</t>
+  </si>
+  <si>
+    <t>Validar a que tablas y que campos de esta, tiene permisos un rol determinado</t>
+  </si>
+  <si>
+    <t>Validar la permisologia del usuario, de acuerdo a los roles que posee</t>
+  </si>
+  <si>
+    <t>T005</t>
+  </si>
+  <si>
+    <t>T006</t>
+  </si>
+  <si>
+    <t>Validar la inactividad del usuario en sesion</t>
+  </si>
+  <si>
+    <t>Cerrar session despues de trascurrido el tiempo estipulado</t>
+  </si>
+  <si>
+    <t>Como usuario Administrador, necesito que la aplicación web permita crear, editar, activar e inactivar tipos de amoblamientos y definir su icono para la representación gráfica, los cuales toma de la base de datos.</t>
+  </si>
+  <si>
+    <t>Validar la cantidad de veces que el usuario falla al iniciar sesion</t>
+  </si>
+  <si>
+    <t>Cuando los intestos fallidos lleguen a la cifra estpulada, pasar el estado del usuario, a usuario bloqueado</t>
+  </si>
+  <si>
+    <t>Realizar CRUD de para tipo de amoblamientos</t>
+  </si>
+  <si>
+    <t>Ajustar la representacion de este amoblamiento en el mapa, con base al icono definido en este</t>
+  </si>
+  <si>
+    <t>Validar a la hora de consultar, que campos puede visualizar el usuario en sesion, de acuerdo a los roles que este contenga</t>
+  </si>
+  <si>
+    <t>Mostrar al usuario solo los campos permitidos., de acuerdo a los roles que contenga.</t>
+  </si>
+  <si>
+    <t>Validar a la hora de consultar predios, que campos se encuentran con valor null</t>
+  </si>
+  <si>
+    <t>Omitir en la visualizacion aquellos campos del predio que contengan null como valor</t>
   </si>
 </sst>
 </file>
@@ -2285,7 +2373,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -2416,12 +2504,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2466,6 +2563,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2499,7 +2600,45 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Énfasis1" xfId="1" builtinId="29"/>
@@ -2817,8 +2956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="81.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2834,56 +2973,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -2919,7 +3058,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>113</v>
@@ -2929,7 +3068,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H7" s="1"/>
     </row>
@@ -2951,7 +3090,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H8" s="1"/>
     </row>
@@ -2963,7 +3102,7 @@
         <v>25</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>113</v>
@@ -2973,19 +3112,19 @@
         <v>2</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>113</v>
@@ -2995,7 +3134,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H10" s="1"/>
     </row>
@@ -3007,7 +3146,7 @@
         <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>113</v>
@@ -3017,19 +3156,19 @@
         <v>3</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>113</v>
@@ -3039,7 +3178,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H12" s="1"/>
     </row>
@@ -3051,7 +3190,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>113</v>
@@ -3061,19 +3200,19 @@
         <v>2</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>113</v>
@@ -3083,7 +3222,7 @@
         <v>2</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H14" s="1"/>
     </row>
@@ -3095,7 +3234,7 @@
         <v>29</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>113</v>
@@ -3105,21 +3244,21 @@
         <v>2</v>
       </c>
       <c r="G15" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>113</v>
@@ -3129,10 +3268,10 @@
         <v>2</v>
       </c>
       <c r="G16" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3143,7 +3282,7 @@
         <v>30</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>113</v>
@@ -3153,10 +3292,10 @@
         <v>3</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3167,44 +3306,44 @@
         <v>31</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>113</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="1">
+      <c r="F18" s="29">
         <v>2</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>113</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="1">
+      <c r="F19" s="29">
         <v>2</v>
       </c>
       <c r="G19" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -3215,39 +3354,39 @@
         <v>32</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>113</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="1">
+      <c r="F20" s="29">
         <v>2</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>113</v>
       </c>
       <c r="E21" s="1"/>
-      <c r="F21" s="1">
+      <c r="F21" s="29">
         <v>2</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H21" s="1"/>
     </row>
@@ -3265,17 +3404,17 @@
         <v>113</v>
       </c>
       <c r="E22" s="1"/>
-      <c r="F22" s="1">
+      <c r="F22" s="29">
         <v>4</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>33</v>
@@ -3287,11 +3426,11 @@
         <v>113</v>
       </c>
       <c r="E23" s="1"/>
-      <c r="F23" s="1">
+      <c r="F23" s="29">
         <v>4</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H23" s="1"/>
     </row>
@@ -3303,39 +3442,39 @@
         <v>34</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>113</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="1">
+      <c r="F24" s="29">
         <v>1</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>113</v>
       </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="1">
+      <c r="F25" s="29">
         <v>1</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H25" s="1"/>
     </row>
@@ -3353,10 +3492,10 @@
         <v>113</v>
       </c>
       <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
+      <c r="F26" s="30"/>
       <c r="G26" s="13"/>
       <c r="H26" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3373,10 +3512,10 @@
         <v>113</v>
       </c>
       <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
+      <c r="F27" s="30"/>
       <c r="G27" s="13"/>
       <c r="H27" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -3387,41 +3526,41 @@
         <v>38</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>113</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="1">
+      <c r="F28" s="29">
         <v>1</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>113</v>
       </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="1">
+      <c r="F29" s="29">
         <v>1</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H29" s="1"/>
     </row>
@@ -3433,20 +3572,20 @@
         <v>39</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>113</v>
       </c>
       <c r="E30" s="1"/>
-      <c r="F30" s="1">
+      <c r="F30" s="29">
         <v>1</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -3457,20 +3596,20 @@
         <v>40</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>113</v>
       </c>
       <c r="E31" s="1"/>
-      <c r="F31" s="1">
+      <c r="F31" s="29">
         <v>1</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3481,39 +3620,39 @@
         <v>41</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>113</v>
       </c>
       <c r="E32" s="1"/>
-      <c r="F32" s="1">
+      <c r="F32" s="29">
         <v>1</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>113</v>
       </c>
       <c r="E33" s="1"/>
-      <c r="F33" s="1">
+      <c r="F33" s="29">
         <v>1</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H33" s="1"/>
     </row>
@@ -3531,11 +3670,11 @@
         <v>113</v>
       </c>
       <c r="E34" s="1"/>
-      <c r="F34" s="1">
+      <c r="F34" s="29">
         <v>1</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H34" s="1"/>
     </row>
@@ -3547,17 +3686,17 @@
         <v>43</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>113</v>
       </c>
       <c r="E35" s="1"/>
-      <c r="F35" s="1">
+      <c r="F35" s="29">
         <v>2</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H35" s="1"/>
     </row>
@@ -3575,11 +3714,11 @@
         <v>113</v>
       </c>
       <c r="E36" s="1"/>
-      <c r="F36" s="1">
+      <c r="F36" s="29">
         <v>1</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H36" s="1"/>
     </row>
@@ -3597,11 +3736,11 @@
         <v>113</v>
       </c>
       <c r="E37" s="1"/>
-      <c r="F37" s="1">
+      <c r="F37" s="29">
         <v>1</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H37" s="1"/>
     </row>
@@ -3619,11 +3758,11 @@
         <v>113</v>
       </c>
       <c r="E38" s="1"/>
-      <c r="F38" s="1">
+      <c r="F38" s="29">
         <v>1</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H38" s="1"/>
     </row>
@@ -3641,11 +3780,11 @@
         <v>113</v>
       </c>
       <c r="E39" s="1"/>
-      <c r="F39" s="1">
+      <c r="F39" s="29">
         <v>4</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H39" s="1"/>
     </row>
@@ -3663,11 +3802,11 @@
         <v>113</v>
       </c>
       <c r="E40" s="1"/>
-      <c r="F40" s="1">
+      <c r="F40" s="29">
         <v>2</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H40" s="1"/>
     </row>
@@ -3685,11 +3824,11 @@
         <v>113</v>
       </c>
       <c r="E41" s="1"/>
-      <c r="F41" s="1">
+      <c r="F41" s="29">
         <v>2</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H41" s="1"/>
     </row>
@@ -3707,11 +3846,11 @@
         <v>113</v>
       </c>
       <c r="E42" s="1"/>
-      <c r="F42" s="1">
+      <c r="F42" s="29">
         <v>2</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H42" s="1"/>
     </row>
@@ -3729,11 +3868,11 @@
         <v>113</v>
       </c>
       <c r="E43" s="1"/>
-      <c r="F43" s="1">
+      <c r="F43" s="29">
         <v>4</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H43" s="1"/>
     </row>
@@ -3751,11 +3890,11 @@
         <v>113</v>
       </c>
       <c r="E44" s="1"/>
-      <c r="F44" s="1">
+      <c r="F44" s="29">
         <v>3</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H44" s="1"/>
     </row>
@@ -3773,14 +3912,14 @@
         <v>113</v>
       </c>
       <c r="E45" s="1"/>
-      <c r="F45" s="1">
+      <c r="F45" s="29">
         <v>3</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -3797,11 +3936,11 @@
         <v>113</v>
       </c>
       <c r="E46" s="1"/>
-      <c r="F46" s="1">
+      <c r="F46" s="29">
         <v>3</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H46" s="1"/>
     </row>
@@ -3819,11 +3958,11 @@
         <v>113</v>
       </c>
       <c r="E47" s="1"/>
-      <c r="F47" s="1">
+      <c r="F47" s="29">
         <v>4</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H47" s="1"/>
     </row>
@@ -3841,11 +3980,11 @@
         <v>113</v>
       </c>
       <c r="E48" s="1"/>
-      <c r="F48" s="1">
+      <c r="F48" s="29">
         <v>4</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H48" s="1"/>
     </row>
@@ -3863,11 +4002,11 @@
         <v>113</v>
       </c>
       <c r="E49" s="1"/>
-      <c r="F49" s="1">
+      <c r="F49" s="29">
         <v>4</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H49" s="1"/>
     </row>
@@ -3885,11 +4024,11 @@
         <v>113</v>
       </c>
       <c r="E50" s="1"/>
-      <c r="F50" s="1">
+      <c r="F50" s="29">
         <v>4</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H50" s="1"/>
     </row>
@@ -3907,11 +4046,11 @@
         <v>113</v>
       </c>
       <c r="E51" s="1"/>
-      <c r="F51" s="1">
+      <c r="F51" s="29">
         <v>4</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H51" s="1"/>
     </row>
@@ -3929,7 +4068,7 @@
         <v>113</v>
       </c>
       <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
+      <c r="F52" s="29"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
@@ -3947,7 +4086,7 @@
         <v>113</v>
       </c>
       <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
+      <c r="F53" s="29"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
@@ -3965,7 +4104,7 @@
         <v>113</v>
       </c>
       <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
+      <c r="F54" s="29"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
@@ -3983,7 +4122,7 @@
         <v>113</v>
       </c>
       <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
+      <c r="F55" s="29"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
@@ -3992,7 +4131,7 @@
         <v>90</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>89</v>
@@ -4001,7 +4140,7 @@
         <v>113</v>
       </c>
       <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
+      <c r="F56" s="29"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
@@ -4033,10 +4172,1229 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H89"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84:E86"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="81.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="72.28515625" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+    </row>
+    <row r="2" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+    </row>
+    <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+    </row>
+    <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+    </row>
+    <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="24"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="24"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="20"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="22"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="22"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="22"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="22"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="22"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="24"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="20"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F32" s="6"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="22"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="22"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F34" s="6"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="22"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F35" s="6"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="22"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F36" s="6"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="22"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F37" s="6"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="24"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+    </row>
+    <row r="39" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="20"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F40" s="6"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="22"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F41" s="6"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="22"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F42" s="6"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="22"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F43" s="6"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="22"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="22"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="24"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+    </row>
+    <row r="47" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" s="10"/>
+      <c r="D47" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="38"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F48" s="6"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="39"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F49" s="6"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="39"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="39"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="39"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="39"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" s="10"/>
+      <c r="D54" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="20"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F55" s="6"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="22"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F56" s="6"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="22"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="22"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="24"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+    </row>
+    <row r="60" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C60" s="10"/>
+      <c r="D60" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="20"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F61" s="6"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="22"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F62" s="6"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="22"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="22"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="24"/>
+      <c r="B65" s="37"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+    </row>
+    <row r="66" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+    </row>
+    <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="20"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F67" s="6"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="22"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F68" s="6"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="22"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="22"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="22"/>
+      <c r="B71" s="36"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="22"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="24"/>
+      <c r="B73" s="37"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+    </row>
+    <row r="74" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C74" s="5"/>
+      <c r="D74" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="20"/>
+      <c r="B75" s="35"/>
+      <c r="C75" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F75" s="6"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+    </row>
+    <row r="76" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="22"/>
+      <c r="B76" s="36"/>
+      <c r="C76" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F76" s="6"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="22"/>
+      <c r="B77" s="36"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="22"/>
+      <c r="B78" s="36"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="22"/>
+      <c r="B79" s="36"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="22"/>
+      <c r="B80" s="36"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="24"/>
+      <c r="B81" s="37"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="31"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+    </row>
+    <row r="82" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A82" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C82" s="5"/>
+      <c r="D82" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="20"/>
+      <c r="B83" s="35"/>
+      <c r="C83" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F83" s="6"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="22"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="22"/>
+      <c r="B85" s="36"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="22"/>
+      <c r="B86" s="36"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="22"/>
+      <c r="B87" s="36"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="22"/>
+      <c r="B88" s="36"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="24"/>
+      <c r="B89" s="37"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="31"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A55:B59"/>
+    <mergeCell ref="A67:B73"/>
+    <mergeCell ref="A75:B81"/>
+    <mergeCell ref="A83:B89"/>
+    <mergeCell ref="A61:B65"/>
+    <mergeCell ref="A24:B30"/>
+    <mergeCell ref="A32:B38"/>
+    <mergeCell ref="A40:B46"/>
+    <mergeCell ref="A1:H5"/>
+    <mergeCell ref="A8:B14"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="A16:B22"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="81.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4051,56 +5409,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="A1" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -4128,91 +5486,59 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>23</v>
-      </c>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="26"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="28"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>113</v>
-      </c>
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>113</v>
-      </c>
+      <c r="A9" s="22"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>113</v>
-      </c>
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>113</v>
-      </c>
+      <c r="A11" s="22"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="6"/>
       <c r="D12" s="1"/>
       <c r="E12" s="6"/>
@@ -4221,8 +5547,8 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="6"/>
       <c r="D13" s="1"/>
       <c r="E13" s="6"/>
@@ -4231,8 +5557,8 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -4240,91 +5566,59 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>24</v>
-      </c>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="26"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>113</v>
-      </c>
+      <c r="A16" s="20"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>113</v>
-      </c>
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>113</v>
-      </c>
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>113</v>
-      </c>
+      <c r="A19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="6"/>
       <c r="D20" s="1"/>
       <c r="E20" s="6"/>
@@ -4333,8 +5627,8 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="6"/>
       <c r="D21" s="1"/>
       <c r="E21" s="6"/>
@@ -4343,281 +5637,8 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D23" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:H5"/>
-    <mergeCell ref="A8:B14"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="A16:B22"/>
-  </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:H22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="81.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="72.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-    </row>
-    <row r="2" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-    </row>
-    <row r="3" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-    </row>
-    <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-    </row>
-    <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="26"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="26"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="23"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -4651,56 +5672,56 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="A1" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -4734,13 +5755,13 @@
       <c r="C7" s="6"/>
       <c r="D7" s="1"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="28"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="6"/>
       <c r="D8" s="1"/>
       <c r="E8" s="6"/>
@@ -4749,8 +5770,8 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="6"/>
       <c r="D9" s="1"/>
       <c r="E9" s="6"/>
@@ -4759,8 +5780,8 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="6"/>
       <c r="D10" s="1"/>
       <c r="E10" s="6"/>
@@ -4769,8 +5790,8 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="6"/>
       <c r="D11" s="1"/>
       <c r="E11" s="6"/>
@@ -4779,8 +5800,8 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="6"/>
       <c r="D12" s="1"/>
       <c r="E12" s="6"/>
@@ -4789,8 +5810,8 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="6"/>
       <c r="D13" s="1"/>
       <c r="E13" s="6"/>
@@ -4799,8 +5820,8 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -4814,13 +5835,13 @@
       <c r="C15" s="6"/>
       <c r="D15" s="4"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="6"/>
       <c r="D16" s="1"/>
       <c r="E16" s="6"/>
@@ -4829,8 +5850,8 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="6"/>
       <c r="D17" s="1"/>
       <c r="E17" s="6"/>
@@ -4839,8 +5860,8 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="6"/>
       <c r="D18" s="1"/>
       <c r="E18" s="6"/>
@@ -4849,8 +5870,8 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="6"/>
       <c r="D19" s="1"/>
       <c r="E19" s="6"/>
@@ -4859,8 +5880,8 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="6"/>
       <c r="D20" s="1"/>
       <c r="E20" s="6"/>
@@ -4869,8 +5890,8 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="6"/>
       <c r="D21" s="1"/>
       <c r="E21" s="6"/>
@@ -4879,8 +5900,8 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="23"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -4904,63 +5925,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="A1" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -4994,24 +6015,24 @@
       <c r="C7" s="6"/>
       <c r="D7" s="1"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="28"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="6"/>
       <c r="D8" s="1"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="J8" s="27"/>
+      <c r="J8" s="17"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="6"/>
       <c r="D9" s="1"/>
       <c r="E9" s="6"/>
@@ -5020,8 +6041,8 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="6"/>
       <c r="D10" s="1"/>
       <c r="E10" s="6"/>
@@ -5030,8 +6051,8 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="6"/>
       <c r="D11" s="1"/>
       <c r="E11" s="6"/>
@@ -5040,8 +6061,8 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="6"/>
       <c r="D12" s="1"/>
       <c r="E12" s="6"/>
@@ -5050,8 +6071,8 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="6"/>
       <c r="D13" s="1"/>
       <c r="E13" s="6"/>
@@ -5060,8 +6081,8 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -5075,13 +6096,13 @@
       <c r="C15" s="6"/>
       <c r="D15" s="4"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="6"/>
       <c r="D16" s="1"/>
       <c r="E16" s="6"/>
@@ -5090,8 +6111,8 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="6"/>
       <c r="D17" s="1"/>
       <c r="E17" s="6"/>
@@ -5100,8 +6121,8 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="6"/>
       <c r="D18" s="1"/>
       <c r="E18" s="6"/>
@@ -5110,8 +6131,8 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="6"/>
       <c r="D19" s="1"/>
       <c r="E19" s="6"/>
@@ -5120,8 +6141,8 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="6"/>
       <c r="D20" s="1"/>
       <c r="E20" s="6"/>
@@ -5130,8 +6151,8 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="6"/>
       <c r="D21" s="1"/>
       <c r="E21" s="6"/>
@@ -5140,8 +6161,8 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="23"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>

--- a/documentacion/desarrollo/Product Backlog Sibica.xlsx
+++ b/documentacion/desarrollo/Product Backlog Sibica.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sibica\documentacion\desarrollo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josgarey\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831CE2EA-EAA3-474B-A394-8BB7935DAA1C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PB" sheetId="1" r:id="rId1"/>
@@ -27,18 +28,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="211">
   <si>
     <t>Enunciado de la Historia</t>
   </si>
@@ -2269,12 +2264,15 @@
   </si>
   <si>
     <t>Omitir en la visualizacion aquellos campos del predio que contengan null como valor</t>
+  </si>
+  <si>
+    <t>Realizar modulo para gestionar la permisologia para roles</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2336,7 +2334,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2369,6 +2367,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2518,7 +2540,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2563,16 +2585,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2585,19 +2598,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2618,26 +2619,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2953,11 +2993,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="81.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2973,56 +3013,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -3051,7 +3091,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="46" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -3073,7 +3113,7 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="46" t="s">
         <v>132</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -3095,7 +3135,7 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="43" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -3117,7 +3157,7 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="43" t="s">
         <v>136</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -3139,7 +3179,7 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="44" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -3161,7 +3201,7 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="44" t="s">
         <v>142</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -3183,7 +3223,7 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="43" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -3205,7 +3245,7 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="43" t="s">
         <v>145</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -3227,7 +3267,7 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="43" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -3251,7 +3291,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="43" t="s">
         <v>148</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -3275,7 +3315,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="44" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -3299,7 +3339,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="43" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -3312,7 +3352,7 @@
         <v>113</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="29">
+      <c r="F18" s="22">
         <v>2</v>
       </c>
       <c r="G18" s="1" t="s">
@@ -3323,7 +3363,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="43" t="s">
         <v>157</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -3336,7 +3376,7 @@
         <v>113</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="29">
+      <c r="F19" s="22">
         <v>2</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -3347,7 +3387,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="43" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -3360,7 +3400,7 @@
         <v>113</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="29">
+      <c r="F20" s="22">
         <v>2</v>
       </c>
       <c r="G20" s="1" t="s">
@@ -3369,7 +3409,7 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="43" t="s">
         <v>158</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -3382,7 +3422,7 @@
         <v>113</v>
       </c>
       <c r="E21" s="1"/>
-      <c r="F21" s="29">
+      <c r="F21" s="22">
         <v>2</v>
       </c>
       <c r="G21" s="1" t="s">
@@ -3391,7 +3431,7 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="45" t="s">
         <v>15</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -3404,7 +3444,7 @@
         <v>113</v>
       </c>
       <c r="E22" s="1"/>
-      <c r="F22" s="29">
+      <c r="F22" s="22">
         <v>4</v>
       </c>
       <c r="G22" s="1" t="s">
@@ -3413,7 +3453,7 @@
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="45" t="s">
         <v>161</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -3426,7 +3466,7 @@
         <v>113</v>
       </c>
       <c r="E23" s="1"/>
-      <c r="F23" s="29">
+      <c r="F23" s="22">
         <v>4</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -3435,7 +3475,7 @@
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="46" t="s">
         <v>16</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -3448,7 +3488,7 @@
         <v>113</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="29">
+      <c r="F24" s="22">
         <v>1</v>
       </c>
       <c r="G24" s="1" t="s">
@@ -3457,7 +3497,7 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="46" t="s">
         <v>162</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -3470,7 +3510,7 @@
         <v>113</v>
       </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="29">
+      <c r="F25" s="22">
         <v>1</v>
       </c>
       <c r="G25" s="1" t="s">
@@ -3492,7 +3532,7 @@
         <v>113</v>
       </c>
       <c r="E26" s="13"/>
-      <c r="F26" s="30"/>
+      <c r="F26" s="23"/>
       <c r="G26" s="13"/>
       <c r="H26" s="13" t="s">
         <v>165</v>
@@ -3512,14 +3552,14 @@
         <v>113</v>
       </c>
       <c r="E27" s="13"/>
-      <c r="F27" s="30"/>
+      <c r="F27" s="23"/>
       <c r="G27" s="13"/>
       <c r="H27" s="13" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="46" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -3532,7 +3572,7 @@
         <v>113</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="29">
+      <c r="F28" s="22">
         <v>1</v>
       </c>
       <c r="G28" s="1" t="s">
@@ -3543,7 +3583,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="46" t="s">
         <v>170</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -3556,7 +3596,7 @@
         <v>113</v>
       </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="29">
+      <c r="F29" s="22">
         <v>1</v>
       </c>
       <c r="G29" s="1" t="s">
@@ -3565,7 +3605,7 @@
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="46" t="s">
         <v>63</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -3578,7 +3618,7 @@
         <v>113</v>
       </c>
       <c r="E30" s="1"/>
-      <c r="F30" s="29">
+      <c r="F30" s="22">
         <v>1</v>
       </c>
       <c r="G30" s="1" t="s">
@@ -3589,7 +3629,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="46" t="s">
         <v>64</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -3602,7 +3642,7 @@
         <v>113</v>
       </c>
       <c r="E31" s="1"/>
-      <c r="F31" s="29">
+      <c r="F31" s="22">
         <v>1</v>
       </c>
       <c r="G31" s="1" t="s">
@@ -3613,7 +3653,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="46" t="s">
         <v>65</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -3626,7 +3666,7 @@
         <v>113</v>
       </c>
       <c r="E32" s="1"/>
-      <c r="F32" s="29">
+      <c r="F32" s="22">
         <v>1</v>
       </c>
       <c r="G32" s="1" t="s">
@@ -3635,7 +3675,7 @@
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="46" t="s">
         <v>175</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -3648,7 +3688,7 @@
         <v>113</v>
       </c>
       <c r="E33" s="1"/>
-      <c r="F33" s="29">
+      <c r="F33" s="22">
         <v>1</v>
       </c>
       <c r="G33" s="1" t="s">
@@ -3657,7 +3697,7 @@
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="46" t="s">
         <v>67</v>
       </c>
       <c r="B34" s="6" t="s">
@@ -3670,7 +3710,7 @@
         <v>113</v>
       </c>
       <c r="E34" s="1"/>
-      <c r="F34" s="29">
+      <c r="F34" s="22">
         <v>1</v>
       </c>
       <c r="G34" s="1" t="s">
@@ -3679,7 +3719,7 @@
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="44" t="s">
         <v>68</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -3692,7 +3732,7 @@
         <v>113</v>
       </c>
       <c r="E35" s="1"/>
-      <c r="F35" s="29">
+      <c r="F35" s="22">
         <v>2</v>
       </c>
       <c r="G35" s="1" t="s">
@@ -3701,7 +3741,7 @@
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="46" t="s">
         <v>96</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -3714,7 +3754,7 @@
         <v>113</v>
       </c>
       <c r="E36" s="1"/>
-      <c r="F36" s="29">
+      <c r="F36" s="22">
         <v>1</v>
       </c>
       <c r="G36" s="1" t="s">
@@ -3723,7 +3763,7 @@
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="46" t="s">
         <v>97</v>
       </c>
       <c r="B37" s="6" t="s">
@@ -3736,7 +3776,7 @@
         <v>113</v>
       </c>
       <c r="E37" s="1"/>
-      <c r="F37" s="29">
+      <c r="F37" s="22">
         <v>1</v>
       </c>
       <c r="G37" s="1" t="s">
@@ -3745,7 +3785,7 @@
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="46" t="s">
         <v>98</v>
       </c>
       <c r="B38" s="6" t="s">
@@ -3758,7 +3798,7 @@
         <v>113</v>
       </c>
       <c r="E38" s="1"/>
-      <c r="F38" s="29">
+      <c r="F38" s="22">
         <v>1</v>
       </c>
       <c r="G38" s="1" t="s">
@@ -3767,7 +3807,7 @@
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="45" t="s">
         <v>99</v>
       </c>
       <c r="B39" s="6" t="s">
@@ -3780,7 +3820,7 @@
         <v>113</v>
       </c>
       <c r="E39" s="1"/>
-      <c r="F39" s="29">
+      <c r="F39" s="22">
         <v>4</v>
       </c>
       <c r="G39" s="1" t="s">
@@ -3789,7 +3829,7 @@
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="43" t="s">
         <v>100</v>
       </c>
       <c r="B40" s="6" t="s">
@@ -3802,7 +3842,7 @@
         <v>113</v>
       </c>
       <c r="E40" s="1"/>
-      <c r="F40" s="29">
+      <c r="F40" s="22">
         <v>2</v>
       </c>
       <c r="G40" s="1" t="s">
@@ -3811,7 +3851,7 @@
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="43" t="s">
         <v>101</v>
       </c>
       <c r="B41" s="6" t="s">
@@ -3824,7 +3864,7 @@
         <v>113</v>
       </c>
       <c r="E41" s="1"/>
-      <c r="F41" s="29">
+      <c r="F41" s="22">
         <v>2</v>
       </c>
       <c r="G41" s="1" t="s">
@@ -3833,7 +3873,7 @@
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="43" t="s">
         <v>102</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -3846,7 +3886,7 @@
         <v>113</v>
       </c>
       <c r="E42" s="1"/>
-      <c r="F42" s="29">
+      <c r="F42" s="22">
         <v>2</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -3855,7 +3895,7 @@
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="45" t="s">
         <v>103</v>
       </c>
       <c r="B43" s="6" t="s">
@@ -3868,7 +3908,7 @@
         <v>113</v>
       </c>
       <c r="E43" s="1"/>
-      <c r="F43" s="29">
+      <c r="F43" s="22">
         <v>4</v>
       </c>
       <c r="G43" s="1" t="s">
@@ -3877,7 +3917,7 @@
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="44" t="s">
         <v>104</v>
       </c>
       <c r="B44" s="6" t="s">
@@ -3890,7 +3930,7 @@
         <v>113</v>
       </c>
       <c r="E44" s="1"/>
-      <c r="F44" s="29">
+      <c r="F44" s="22">
         <v>3</v>
       </c>
       <c r="G44" s="1" t="s">
@@ -3899,7 +3939,7 @@
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="44" t="s">
         <v>105</v>
       </c>
       <c r="B45" s="6" t="s">
@@ -3912,7 +3952,7 @@
         <v>113</v>
       </c>
       <c r="E45" s="1"/>
-      <c r="F45" s="29">
+      <c r="F45" s="22">
         <v>3</v>
       </c>
       <c r="G45" s="1" t="s">
@@ -3923,7 +3963,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -3936,7 +3976,7 @@
         <v>113</v>
       </c>
       <c r="E46" s="1"/>
-      <c r="F46" s="29">
+      <c r="F46" s="22">
         <v>3</v>
       </c>
       <c r="G46" s="1" t="s">
@@ -3945,7 +3985,7 @@
       <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="45" t="s">
         <v>95</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -3958,7 +3998,7 @@
         <v>113</v>
       </c>
       <c r="E47" s="1"/>
-      <c r="F47" s="29">
+      <c r="F47" s="22">
         <v>4</v>
       </c>
       <c r="G47" s="1" t="s">
@@ -3967,7 +4007,7 @@
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="45" t="s">
         <v>107</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -3980,7 +4020,7 @@
         <v>113</v>
       </c>
       <c r="E48" s="1"/>
-      <c r="F48" s="29">
+      <c r="F48" s="22">
         <v>4</v>
       </c>
       <c r="G48" s="1" t="s">
@@ -3989,7 +4029,7 @@
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="45" t="s">
         <v>108</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -4002,7 +4042,7 @@
         <v>113</v>
       </c>
       <c r="E49" s="1"/>
-      <c r="F49" s="29">
+      <c r="F49" s="22">
         <v>4</v>
       </c>
       <c r="G49" s="1" t="s">
@@ -4011,7 +4051,7 @@
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="45" t="s">
         <v>109</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -4024,7 +4064,7 @@
         <v>113</v>
       </c>
       <c r="E50" s="1"/>
-      <c r="F50" s="29">
+      <c r="F50" s="22">
         <v>4</v>
       </c>
       <c r="G50" s="1" t="s">
@@ -4033,7 +4073,7 @@
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="45" t="s">
         <v>110</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -4046,7 +4086,7 @@
         <v>113</v>
       </c>
       <c r="E51" s="1"/>
-      <c r="F51" s="29">
+      <c r="F51" s="22">
         <v>4</v>
       </c>
       <c r="G51" s="1" t="s">
@@ -4068,7 +4108,7 @@
         <v>113</v>
       </c>
       <c r="E52" s="1"/>
-      <c r="F52" s="29"/>
+      <c r="F52" s="22"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
@@ -4086,7 +4126,7 @@
         <v>113</v>
       </c>
       <c r="E53" s="1"/>
-      <c r="F53" s="29"/>
+      <c r="F53" s="22"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
@@ -4104,7 +4144,7 @@
         <v>113</v>
       </c>
       <c r="E54" s="1"/>
-      <c r="F54" s="29"/>
+      <c r="F54" s="22"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
@@ -4122,7 +4162,7 @@
         <v>113</v>
       </c>
       <c r="E55" s="1"/>
-      <c r="F55" s="29"/>
+      <c r="F55" s="22"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
@@ -4140,7 +4180,7 @@
         <v>113</v>
       </c>
       <c r="E56" s="1"/>
-      <c r="F56" s="29"/>
+      <c r="F56" s="22"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
@@ -4171,75 +4211,75 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84:E86"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="81.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="72.28515625" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72.28515625" style="25" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12.28515625" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -4268,10 +4308,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="6"/>
@@ -4281,13 +4321,13 @@
       <c r="E7" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="35"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="6" t="s">
         <v>117</v>
       </c>
@@ -4302,8 +4342,8 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="36"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="6" t="s">
         <v>118</v>
       </c>
@@ -4318,8 +4358,8 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="36"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="6" t="s">
         <v>119</v>
       </c>
@@ -4334,8 +4374,8 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="B11" s="36"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="6" t="s">
         <v>120</v>
       </c>
@@ -4350,8 +4390,8 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="36"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="6"/>
       <c r="D12" s="1"/>
       <c r="E12" s="6"/>
@@ -4360,8 +4400,8 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="36"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="6"/>
       <c r="D13" s="1"/>
       <c r="E13" s="6"/>
@@ -4370,20 +4410,20 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="37"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="31"/>
+      <c r="D14" s="24"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="21" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="6"/>
@@ -4393,13 +4433,13 @@
       <c r="E15" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="35"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="6" t="s">
         <v>117</v>
       </c>
@@ -4414,8 +4454,8 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="36"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="6" t="s">
         <v>118</v>
       </c>
@@ -4430,8 +4470,8 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="36"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="6" t="s">
         <v>119</v>
       </c>
@@ -4446,8 +4486,8 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="36"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="6" t="s">
         <v>120</v>
       </c>
@@ -4462,8 +4502,8 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="36"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="6"/>
       <c r="D20" s="1"/>
       <c r="E20" s="6"/>
@@ -4472,8 +4512,8 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="36"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="6"/>
       <c r="D21" s="1"/>
       <c r="E21" s="6"/>
@@ -4482,24 +4522,24 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="37"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="31"/>
+      <c r="D22" s="24"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="34" t="s">
+      <c r="D23" s="27" t="s">
         <v>181</v>
       </c>
       <c r="E23" s="6" t="s">
@@ -4510,8 +4550,8 @@
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="35"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="6" t="s">
         <v>117</v>
       </c>
@@ -4526,8 +4566,8 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
-      <c r="B25" s="36"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="6" t="s">
         <v>118</v>
       </c>
@@ -4542,8 +4582,8 @@
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
-      <c r="B26" s="36"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="33"/>
       <c r="C26" s="6"/>
       <c r="D26" s="1"/>
       <c r="E26" s="6"/>
@@ -4552,8 +4592,8 @@
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
-      <c r="B27" s="36"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="33"/>
       <c r="C27" s="6"/>
       <c r="D27" s="1"/>
       <c r="E27" s="6"/>
@@ -4562,8 +4602,8 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
-      <c r="B28" s="36"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="33"/>
       <c r="C28" s="6"/>
       <c r="D28" s="1"/>
       <c r="E28" s="6"/>
@@ -4572,8 +4612,8 @@
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
-      <c r="B29" s="36"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="6"/>
       <c r="D29" s="1"/>
       <c r="E29" s="6"/>
@@ -4582,24 +4622,24 @@
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="24"/>
-      <c r="B30" s="37"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="35"/>
       <c r="C30" s="10"/>
-      <c r="D30" s="31"/>
+      <c r="D30" s="24"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
     </row>
     <row r="31" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="47" t="s">
         <v>38</v>
       </c>
       <c r="C31" s="10"/>
-      <c r="D31" s="31" t="s">
+      <c r="D31" s="24" t="s">
         <v>169</v>
       </c>
       <c r="E31" s="6" t="s">
@@ -4610,8 +4650,8 @@
       <c r="H31" s="10"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
-      <c r="B32" s="35"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="6" t="s">
         <v>117</v>
       </c>
@@ -4626,8 +4666,8 @@
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
-      <c r="B33" s="36"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="33"/>
       <c r="C33" s="6" t="s">
         <v>118</v>
       </c>
@@ -4642,8 +4682,8 @@
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
-      <c r="B34" s="36"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="33"/>
       <c r="C34" s="6" t="s">
         <v>119</v>
       </c>
@@ -4658,8 +4698,8 @@
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
-      <c r="B35" s="36"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="33"/>
       <c r="C35" s="6" t="s">
         <v>120</v>
       </c>
@@ -4674,8 +4714,8 @@
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
-      <c r="B36" s="36"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="33"/>
       <c r="C36" s="6" t="s">
         <v>197</v>
       </c>
@@ -4690,8 +4730,8 @@
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
-      <c r="B37" s="36"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="33"/>
       <c r="C37" s="6" t="s">
         <v>198</v>
       </c>
@@ -4706,24 +4746,24 @@
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="24"/>
-      <c r="B38" s="37"/>
+      <c r="A38" s="34"/>
+      <c r="B38" s="35"/>
       <c r="C38" s="10"/>
-      <c r="D38" s="31"/>
+      <c r="D38" s="24"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
     </row>
     <row r="39" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="47" t="s">
         <v>39</v>
       </c>
       <c r="C39" s="10"/>
-      <c r="D39" s="31" t="s">
+      <c r="D39" s="24" t="s">
         <v>182</v>
       </c>
       <c r="E39" s="6" t="s">
@@ -4734,8 +4774,8 @@
       <c r="H39" s="10"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="20"/>
-      <c r="B40" s="35"/>
+      <c r="A40" s="30"/>
+      <c r="B40" s="31"/>
       <c r="C40" s="6" t="s">
         <v>117</v>
       </c>
@@ -4750,8 +4790,8 @@
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
-      <c r="B41" s="36"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="33"/>
       <c r="C41" s="6" t="s">
         <v>118</v>
       </c>
@@ -4766,8 +4806,8 @@
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
-      <c r="B42" s="36"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="33"/>
       <c r="C42" s="6" t="s">
         <v>119</v>
       </c>
@@ -4780,8 +4820,8 @@
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
-      <c r="B43" s="36"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="33"/>
       <c r="C43" s="6" t="s">
         <v>120</v>
       </c>
@@ -4794,8 +4834,8 @@
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="22"/>
-      <c r="B44" s="36"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="33"/>
       <c r="C44" s="6"/>
       <c r="D44" s="1"/>
       <c r="E44" s="6"/>
@@ -4804,8 +4844,8 @@
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="22"/>
-      <c r="B45" s="36"/>
+      <c r="A45" s="32"/>
+      <c r="B45" s="33"/>
       <c r="C45" s="6"/>
       <c r="D45" s="1"/>
       <c r="E45" s="6"/>
@@ -4814,24 +4854,24 @@
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="24"/>
-      <c r="B46" s="37"/>
+      <c r="A46" s="34"/>
+      <c r="B46" s="35"/>
       <c r="C46" s="10"/>
-      <c r="D46" s="31"/>
+      <c r="D46" s="24"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
     </row>
     <row r="47" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="47" t="s">
         <v>41</v>
       </c>
       <c r="C47" s="10"/>
-      <c r="D47" s="31" t="s">
+      <c r="D47" s="24" t="s">
         <v>183</v>
       </c>
       <c r="E47" s="6" t="s">
@@ -4842,8 +4882,8 @@
       <c r="H47" s="10"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="38"/>
-      <c r="B48" s="40"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="18"/>
       <c r="C48" s="6" t="s">
         <v>117</v>
       </c>
@@ -4858,8 +4898,8 @@
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="39"/>
-      <c r="B49" s="41"/>
+      <c r="A49" s="19"/>
+      <c r="B49" s="20"/>
       <c r="C49" s="6" t="s">
         <v>118</v>
       </c>
@@ -4874,8 +4914,8 @@
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="39"/>
-      <c r="B50" s="41"/>
+      <c r="A50" s="19"/>
+      <c r="B50" s="20"/>
       <c r="C50" s="6"/>
       <c r="D50" s="1"/>
       <c r="E50" s="6"/>
@@ -4884,8 +4924,8 @@
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="39"/>
-      <c r="B51" s="41"/>
+      <c r="A51" s="19"/>
+      <c r="B51" s="20"/>
       <c r="C51" s="6"/>
       <c r="D51" s="1"/>
       <c r="E51" s="6"/>
@@ -4894,8 +4934,8 @@
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="39"/>
-      <c r="B52" s="41"/>
+      <c r="A52" s="19"/>
+      <c r="B52" s="20"/>
       <c r="C52" s="6"/>
       <c r="D52" s="1"/>
       <c r="E52" s="6"/>
@@ -4904,8 +4944,8 @@
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="39"/>
-      <c r="B53" s="41"/>
+      <c r="A53" s="19"/>
+      <c r="B53" s="20"/>
       <c r="C53" s="6"/>
       <c r="D53" s="1"/>
       <c r="E53" s="6"/>
@@ -4914,14 +4954,14 @@
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="47" t="s">
         <v>42</v>
       </c>
       <c r="C54" s="10"/>
-      <c r="D54" s="31" t="s">
+      <c r="D54" s="24" t="s">
         <v>184</v>
       </c>
       <c r="E54" s="6" t="s">
@@ -4932,8 +4972,8 @@
       <c r="H54" s="10"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="20"/>
-      <c r="B55" s="35"/>
+      <c r="A55" s="30"/>
+      <c r="B55" s="31"/>
       <c r="C55" s="6" t="s">
         <v>117</v>
       </c>
@@ -4948,8 +4988,8 @@
       <c r="H55" s="1"/>
     </row>
     <row r="56" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="22"/>
-      <c r="B56" s="36"/>
+      <c r="A56" s="32"/>
+      <c r="B56" s="33"/>
       <c r="C56" s="6" t="s">
         <v>118</v>
       </c>
@@ -4964,8 +5004,8 @@
       <c r="H56" s="1"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="22"/>
-      <c r="B57" s="36"/>
+      <c r="A57" s="32"/>
+      <c r="B57" s="33"/>
       <c r="C57" s="6"/>
       <c r="D57" s="1"/>
       <c r="E57" s="6"/>
@@ -4974,8 +5014,8 @@
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="22"/>
-      <c r="B58" s="36"/>
+      <c r="A58" s="32"/>
+      <c r="B58" s="33"/>
       <c r="C58" s="6"/>
       <c r="D58" s="1"/>
       <c r="E58" s="6"/>
@@ -4984,24 +5024,24 @@
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="24"/>
-      <c r="B59" s="37"/>
+      <c r="A59" s="34"/>
+      <c r="B59" s="35"/>
       <c r="C59" s="10"/>
-      <c r="D59" s="31"/>
+      <c r="D59" s="24"/>
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
       <c r="G59" s="10"/>
       <c r="H59" s="10"/>
     </row>
     <row r="60" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="47" t="s">
         <v>43</v>
       </c>
       <c r="C60" s="10"/>
-      <c r="D60" s="31" t="s">
+      <c r="D60" s="24" t="s">
         <v>201</v>
       </c>
       <c r="E60" s="6" t="s">
@@ -5012,8 +5052,8 @@
       <c r="H60" s="10"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="20"/>
-      <c r="B61" s="35"/>
+      <c r="A61" s="30"/>
+      <c r="B61" s="31"/>
       <c r="C61" s="6" t="s">
         <v>117</v>
       </c>
@@ -5028,8 +5068,8 @@
       <c r="H61" s="1"/>
     </row>
     <row r="62" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="22"/>
-      <c r="B62" s="36"/>
+      <c r="A62" s="32"/>
+      <c r="B62" s="33"/>
       <c r="C62" s="6" t="s">
         <v>118</v>
       </c>
@@ -5044,8 +5084,8 @@
       <c r="H62" s="1"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="22"/>
-      <c r="B63" s="36"/>
+      <c r="A63" s="32"/>
+      <c r="B63" s="33"/>
       <c r="C63" s="6"/>
       <c r="D63" s="1"/>
       <c r="E63" s="6"/>
@@ -5054,8 +5094,8 @@
       <c r="H63" s="1"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="22"/>
-      <c r="B64" s="36"/>
+      <c r="A64" s="32"/>
+      <c r="B64" s="33"/>
       <c r="C64" s="6"/>
       <c r="D64" s="1"/>
       <c r="E64" s="6"/>
@@ -5064,24 +5104,24 @@
       <c r="H64" s="1"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="24"/>
-      <c r="B65" s="37"/>
+      <c r="A65" s="34"/>
+      <c r="B65" s="35"/>
       <c r="C65" s="10"/>
-      <c r="D65" s="31"/>
+      <c r="D65" s="24"/>
       <c r="E65" s="10"/>
       <c r="F65" s="10"/>
       <c r="G65" s="10"/>
       <c r="H65" s="10"/>
     </row>
     <row r="66" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="B66" s="21" t="s">
         <v>44</v>
       </c>
       <c r="C66" s="5"/>
-      <c r="D66" s="31" t="s">
+      <c r="D66" s="24" t="s">
         <v>185</v>
       </c>
       <c r="E66" s="6" t="s">
@@ -5092,8 +5132,8 @@
       <c r="H66" s="10"/>
     </row>
     <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="20"/>
-      <c r="B67" s="35"/>
+      <c r="A67" s="30"/>
+      <c r="B67" s="31"/>
       <c r="C67" s="6" t="s">
         <v>117</v>
       </c>
@@ -5108,8 +5148,8 @@
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="22"/>
-      <c r="B68" s="36"/>
+      <c r="A68" s="32"/>
+      <c r="B68" s="33"/>
       <c r="C68" s="6" t="s">
         <v>118</v>
       </c>
@@ -5124,8 +5164,8 @@
       <c r="H68" s="1"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="22"/>
-      <c r="B69" s="36"/>
+      <c r="A69" s="32"/>
+      <c r="B69" s="33"/>
       <c r="C69" s="6"/>
       <c r="D69" s="1"/>
       <c r="E69" s="6"/>
@@ -5134,8 +5174,8 @@
       <c r="H69" s="1"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="22"/>
-      <c r="B70" s="36"/>
+      <c r="A70" s="32"/>
+      <c r="B70" s="33"/>
       <c r="C70" s="6"/>
       <c r="D70" s="1"/>
       <c r="E70" s="6"/>
@@ -5144,8 +5184,8 @@
       <c r="H70" s="1"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="22"/>
-      <c r="B71" s="36"/>
+      <c r="A71" s="32"/>
+      <c r="B71" s="33"/>
       <c r="C71" s="6"/>
       <c r="D71" s="1"/>
       <c r="E71" s="6"/>
@@ -5154,8 +5194,8 @@
       <c r="H71" s="1"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="22"/>
-      <c r="B72" s="36"/>
+      <c r="A72" s="32"/>
+      <c r="B72" s="33"/>
       <c r="C72" s="6"/>
       <c r="D72" s="1"/>
       <c r="E72" s="6"/>
@@ -5164,24 +5204,24 @@
       <c r="H72" s="1"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="24"/>
-      <c r="B73" s="37"/>
+      <c r="A73" s="34"/>
+      <c r="B73" s="35"/>
       <c r="C73" s="10"/>
-      <c r="D73" s="31"/>
+      <c r="D73" s="24"/>
       <c r="E73" s="10"/>
       <c r="F73" s="10"/>
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
     </row>
     <row r="74" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="6" t="s">
+      <c r="A74" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B74" s="16" t="s">
+      <c r="B74" s="21" t="s">
         <v>45</v>
       </c>
       <c r="C74" s="5"/>
-      <c r="D74" s="31" t="s">
+      <c r="D74" s="24" t="s">
         <v>70</v>
       </c>
       <c r="E74" s="6" t="s">
@@ -5192,8 +5232,8 @@
       <c r="H74" s="10"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="20"/>
-      <c r="B75" s="35"/>
+      <c r="A75" s="30"/>
+      <c r="B75" s="31"/>
       <c r="C75" s="6" t="s">
         <v>117</v>
       </c>
@@ -5208,8 +5248,8 @@
       <c r="H75" s="1"/>
     </row>
     <row r="76" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="22"/>
-      <c r="B76" s="36"/>
+      <c r="A76" s="32"/>
+      <c r="B76" s="33"/>
       <c r="C76" s="6" t="s">
         <v>118</v>
       </c>
@@ -5224,8 +5264,8 @@
       <c r="H76" s="1"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="22"/>
-      <c r="B77" s="36"/>
+      <c r="A77" s="32"/>
+      <c r="B77" s="33"/>
       <c r="C77" s="6"/>
       <c r="D77" s="1"/>
       <c r="E77" s="6"/>
@@ -5234,8 +5274,8 @@
       <c r="H77" s="1"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="22"/>
-      <c r="B78" s="36"/>
+      <c r="A78" s="32"/>
+      <c r="B78" s="33"/>
       <c r="C78" s="6"/>
       <c r="D78" s="1"/>
       <c r="E78" s="6"/>
@@ -5244,8 +5284,8 @@
       <c r="H78" s="1"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="22"/>
-      <c r="B79" s="36"/>
+      <c r="A79" s="32"/>
+      <c r="B79" s="33"/>
       <c r="C79" s="6"/>
       <c r="D79" s="1"/>
       <c r="E79" s="6"/>
@@ -5254,8 +5294,8 @@
       <c r="H79" s="1"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="22"/>
-      <c r="B80" s="36"/>
+      <c r="A80" s="32"/>
+      <c r="B80" s="33"/>
       <c r="C80" s="6"/>
       <c r="D80" s="1"/>
       <c r="E80" s="6"/>
@@ -5264,24 +5304,24 @@
       <c r="H80" s="1"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="24"/>
-      <c r="B81" s="37"/>
+      <c r="A81" s="34"/>
+      <c r="B81" s="35"/>
       <c r="C81" s="10"/>
-      <c r="D81" s="31"/>
+      <c r="D81" s="24"/>
       <c r="E81" s="10"/>
       <c r="F81" s="10"/>
       <c r="G81" s="10"/>
       <c r="H81" s="10"/>
     </row>
     <row r="82" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A82" s="6" t="s">
+      <c r="A82" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="B82" s="16" t="s">
+      <c r="B82" s="21" t="s">
         <v>46</v>
       </c>
       <c r="C82" s="5"/>
-      <c r="D82" s="31" t="s">
+      <c r="D82" s="24" t="s">
         <v>186</v>
       </c>
       <c r="E82" s="6" t="s">
@@ -5292,13 +5332,13 @@
       <c r="H82" s="10"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="20"/>
-      <c r="B83" s="35"/>
+      <c r="A83" s="30"/>
+      <c r="B83" s="31"/>
       <c r="C83" s="6" t="s">
         <v>117</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>113</v>
@@ -5308,8 +5348,8 @@
       <c r="H83" s="1"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="22"/>
-      <c r="B84" s="36"/>
+      <c r="A84" s="32"/>
+      <c r="B84" s="33"/>
       <c r="C84" s="6"/>
       <c r="D84" s="1"/>
       <c r="E84" s="6"/>
@@ -5318,8 +5358,8 @@
       <c r="H84" s="1"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="22"/>
-      <c r="B85" s="36"/>
+      <c r="A85" s="32"/>
+      <c r="B85" s="33"/>
       <c r="C85" s="6"/>
       <c r="D85" s="1"/>
       <c r="E85" s="6"/>
@@ -5328,8 +5368,8 @@
       <c r="H85" s="1"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="22"/>
-      <c r="B86" s="36"/>
+      <c r="A86" s="32"/>
+      <c r="B86" s="33"/>
       <c r="C86" s="6"/>
       <c r="D86" s="1"/>
       <c r="E86" s="6"/>
@@ -5338,8 +5378,8 @@
       <c r="H86" s="1"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="22"/>
-      <c r="B87" s="36"/>
+      <c r="A87" s="32"/>
+      <c r="B87" s="33"/>
       <c r="C87" s="6"/>
       <c r="D87" s="1"/>
       <c r="E87" s="6"/>
@@ -5348,8 +5388,8 @@
       <c r="H87" s="1"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="22"/>
-      <c r="B88" s="36"/>
+      <c r="A88" s="32"/>
+      <c r="B88" s="33"/>
       <c r="C88" s="6"/>
       <c r="D88" s="1"/>
       <c r="E88" s="6"/>
@@ -5358,22 +5398,599 @@
       <c r="H88" s="1"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="24"/>
-      <c r="B89" s="37"/>
+      <c r="A89" s="34"/>
+      <c r="B89" s="35"/>
       <c r="C89" s="10"/>
-      <c r="D89" s="31"/>
+      <c r="D89" s="24"/>
       <c r="E89" s="10"/>
       <c r="F89" s="10"/>
       <c r="G89" s="10"/>
       <c r="H89" s="10"/>
     </row>
+    <row r="90" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A90" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="B90" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E90" s="26"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="10"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="30"/>
+      <c r="B91" s="31"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="26"/>
+      <c r="F91" s="26"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="32"/>
+      <c r="B92" s="33"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="26"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="32"/>
+      <c r="B93" s="33"/>
+      <c r="C93" s="26"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="26"/>
+      <c r="F93" s="26"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="32"/>
+      <c r="B94" s="33"/>
+      <c r="C94" s="26"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="26"/>
+      <c r="F94" s="26"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="32"/>
+      <c r="B95" s="33"/>
+      <c r="C95" s="26"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="26"/>
+      <c r="F95" s="26"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="32"/>
+      <c r="B96" s="33"/>
+      <c r="C96" s="26"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="26"/>
+      <c r="F96" s="26"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="34"/>
+      <c r="B97" s="35"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="10"/>
+    </row>
+    <row r="98" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A98" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="B98" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E98" s="26"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="10"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="30"/>
+      <c r="B99" s="31"/>
+      <c r="C99" s="26"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="26"/>
+      <c r="F99" s="26"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="32"/>
+      <c r="B100" s="33"/>
+      <c r="C100" s="26"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="26"/>
+      <c r="F100" s="26"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="32"/>
+      <c r="B101" s="33"/>
+      <c r="C101" s="26"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="26"/>
+      <c r="F101" s="26"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="32"/>
+      <c r="B102" s="33"/>
+      <c r="C102" s="26"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="26"/>
+      <c r="F102" s="26"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="32"/>
+      <c r="B103" s="33"/>
+      <c r="C103" s="26"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="26"/>
+      <c r="F103" s="26"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="32"/>
+      <c r="B104" s="33"/>
+      <c r="C104" s="26"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="26"/>
+      <c r="F104" s="26"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="34"/>
+      <c r="B105" s="35"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="24"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
+      <c r="H105" s="10"/>
+    </row>
+    <row r="106" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A106" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="B106" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D106" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="E106" s="26"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
+      <c r="H106" s="10"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="30"/>
+      <c r="B107" s="31"/>
+      <c r="C107" s="26"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="26"/>
+      <c r="F107" s="26"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="32"/>
+      <c r="B108" s="33"/>
+      <c r="C108" s="26"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="26"/>
+      <c r="F108" s="26"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="32"/>
+      <c r="B109" s="33"/>
+      <c r="C109" s="26"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="26"/>
+      <c r="F109" s="26"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="32"/>
+      <c r="B110" s="33"/>
+      <c r="C110" s="26"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="26"/>
+      <c r="F110" s="26"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="32"/>
+      <c r="B111" s="33"/>
+      <c r="C111" s="26"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="26"/>
+      <c r="F111" s="26"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="32"/>
+      <c r="B112" s="33"/>
+      <c r="C112" s="26"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="26"/>
+      <c r="F112" s="26"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="34"/>
+      <c r="B113" s="35"/>
+      <c r="C113" s="10"/>
+      <c r="D113" s="24"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10"/>
+      <c r="H113" s="10"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="26"/>
+      <c r="B114" s="21"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="24"/>
+      <c r="E114" s="26"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="10"/>
+      <c r="H114" s="10"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="30"/>
+      <c r="B115" s="31"/>
+      <c r="C115" s="26"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="26"/>
+      <c r="F115" s="26"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="32"/>
+      <c r="B116" s="33"/>
+      <c r="C116" s="26"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="26"/>
+      <c r="F116" s="26"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="32"/>
+      <c r="B117" s="33"/>
+      <c r="C117" s="26"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="26"/>
+      <c r="F117" s="26"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="32"/>
+      <c r="B118" s="33"/>
+      <c r="C118" s="26"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="26"/>
+      <c r="F118" s="26"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="32"/>
+      <c r="B119" s="33"/>
+      <c r="C119" s="26"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="26"/>
+      <c r="F119" s="26"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="32"/>
+      <c r="B120" s="33"/>
+      <c r="C120" s="26"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="26"/>
+      <c r="F120" s="26"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="34"/>
+      <c r="B121" s="35"/>
+      <c r="C121" s="10"/>
+      <c r="D121" s="24"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10"/>
+      <c r="H121" s="10"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="26"/>
+      <c r="B122" s="21"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="24"/>
+      <c r="E122" s="26"/>
+      <c r="F122" s="10"/>
+      <c r="G122" s="10"/>
+      <c r="H122" s="10"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="30"/>
+      <c r="B123" s="31"/>
+      <c r="C123" s="26"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="26"/>
+      <c r="F123" s="26"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="32"/>
+      <c r="B124" s="33"/>
+      <c r="C124" s="26"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="26"/>
+      <c r="F124" s="26"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="32"/>
+      <c r="B125" s="33"/>
+      <c r="C125" s="26"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="26"/>
+      <c r="F125" s="26"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="32"/>
+      <c r="B126" s="33"/>
+      <c r="C126" s="26"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="26"/>
+      <c r="F126" s="26"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="32"/>
+      <c r="B127" s="33"/>
+      <c r="C127" s="26"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="26"/>
+      <c r="F127" s="26"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="32"/>
+      <c r="B128" s="33"/>
+      <c r="C128" s="26"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="26"/>
+      <c r="F128" s="26"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="34"/>
+      <c r="B129" s="35"/>
+      <c r="C129" s="10"/>
+      <c r="D129" s="24"/>
+      <c r="E129" s="10"/>
+      <c r="F129" s="10"/>
+      <c r="G129" s="10"/>
+      <c r="H129" s="10"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="26"/>
+      <c r="B130" s="21"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="24"/>
+      <c r="E130" s="26"/>
+      <c r="F130" s="10"/>
+      <c r="G130" s="10"/>
+      <c r="H130" s="10"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="30"/>
+      <c r="B131" s="31"/>
+      <c r="C131" s="26"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="26"/>
+      <c r="F131" s="26"/>
+      <c r="G131" s="1"/>
+      <c r="H131" s="1"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="32"/>
+      <c r="B132" s="33"/>
+      <c r="C132" s="26"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="26"/>
+      <c r="F132" s="26"/>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="32"/>
+      <c r="B133" s="33"/>
+      <c r="C133" s="26"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="26"/>
+      <c r="F133" s="26"/>
+      <c r="G133" s="1"/>
+      <c r="H133" s="1"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="32"/>
+      <c r="B134" s="33"/>
+      <c r="C134" s="26"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="26"/>
+      <c r="F134" s="26"/>
+      <c r="G134" s="1"/>
+      <c r="H134" s="1"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="32"/>
+      <c r="B135" s="33"/>
+      <c r="C135" s="26"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="26"/>
+      <c r="F135" s="26"/>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="32"/>
+      <c r="B136" s="33"/>
+      <c r="C136" s="26"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="26"/>
+      <c r="F136" s="26"/>
+      <c r="G136" s="1"/>
+      <c r="H136" s="1"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="34"/>
+      <c r="B137" s="35"/>
+      <c r="C137" s="10"/>
+      <c r="D137" s="24"/>
+      <c r="E137" s="10"/>
+      <c r="F137" s="10"/>
+      <c r="G137" s="10"/>
+      <c r="H137" s="10"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="26"/>
+      <c r="B138" s="21"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="24"/>
+      <c r="E138" s="26"/>
+      <c r="F138" s="10"/>
+      <c r="G138" s="10"/>
+      <c r="H138" s="10"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="30"/>
+      <c r="B139" s="31"/>
+      <c r="C139" s="26"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="26"/>
+      <c r="F139" s="26"/>
+      <c r="G139" s="1"/>
+      <c r="H139" s="1"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="32"/>
+      <c r="B140" s="33"/>
+      <c r="C140" s="26"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="26"/>
+      <c r="F140" s="26"/>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="32"/>
+      <c r="B141" s="33"/>
+      <c r="C141" s="26"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="26"/>
+      <c r="F141" s="26"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="32"/>
+      <c r="B142" s="33"/>
+      <c r="C142" s="26"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="26"/>
+      <c r="F142" s="26"/>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="32"/>
+      <c r="B143" s="33"/>
+      <c r="C143" s="26"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="26"/>
+      <c r="F143" s="26"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="32"/>
+      <c r="B144" s="33"/>
+      <c r="C144" s="26"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="26"/>
+      <c r="F144" s="26"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="34"/>
+      <c r="B145" s="35"/>
+      <c r="C145" s="10"/>
+      <c r="D145" s="24"/>
+      <c r="E145" s="10"/>
+      <c r="F145" s="10"/>
+      <c r="G145" s="10"/>
+      <c r="H145" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A55:B59"/>
-    <mergeCell ref="A67:B73"/>
-    <mergeCell ref="A75:B81"/>
-    <mergeCell ref="A83:B89"/>
-    <mergeCell ref="A61:B65"/>
+  <mergeCells count="20">
+    <mergeCell ref="A131:B137"/>
+    <mergeCell ref="A139:B145"/>
+    <mergeCell ref="A91:B97"/>
+    <mergeCell ref="A99:B105"/>
+    <mergeCell ref="A107:B113"/>
+    <mergeCell ref="A115:B121"/>
+    <mergeCell ref="A123:B129"/>
     <mergeCell ref="A24:B30"/>
     <mergeCell ref="A32:B38"/>
     <mergeCell ref="A40:B46"/>
@@ -5382,6 +5999,11 @@
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="A16:B22"/>
+    <mergeCell ref="A55:B59"/>
+    <mergeCell ref="A67:B73"/>
+    <mergeCell ref="A75:B81"/>
+    <mergeCell ref="A83:B89"/>
+    <mergeCell ref="A61:B65"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5390,11 +6012,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="81.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5409,56 +6031,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -5486,19 +6108,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="1"/>
+    <row r="7" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="28"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="39"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="6"/>
       <c r="D8" s="1"/>
       <c r="E8" s="6"/>
@@ -5507,8 +6134,8 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="6"/>
       <c r="D9" s="1"/>
       <c r="E9" s="6"/>
@@ -5517,8 +6144,8 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="23"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="6"/>
       <c r="D10" s="1"/>
       <c r="E10" s="6"/>
@@ -5527,8 +6154,8 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="B11" s="23"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="6"/>
       <c r="D11" s="1"/>
       <c r="E11" s="6"/>
@@ -5537,8 +6164,8 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="23"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="6"/>
       <c r="D12" s="1"/>
       <c r="E12" s="6"/>
@@ -5547,8 +6174,8 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="6"/>
       <c r="D13" s="1"/>
       <c r="E13" s="6"/>
@@ -5557,8 +6184,8 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="42"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -5566,19 +6193,24 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="4"/>
+    <row r="15" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="E15" s="6"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="28"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="39"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="6"/>
       <c r="D16" s="1"/>
       <c r="E16" s="6"/>
@@ -5587,8 +6219,8 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="41"/>
       <c r="C17" s="6"/>
       <c r="D17" s="1"/>
       <c r="E17" s="6"/>
@@ -5597,8 +6229,8 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="23"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="41"/>
       <c r="C18" s="6"/>
       <c r="D18" s="1"/>
       <c r="E18" s="6"/>
@@ -5607,8 +6239,8 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="23"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="6"/>
       <c r="D19" s="1"/>
       <c r="E19" s="6"/>
@@ -5617,8 +6249,8 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="23"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="41"/>
       <c r="C20" s="6"/>
       <c r="D20" s="1"/>
       <c r="E20" s="6"/>
@@ -5627,8 +6259,8 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="23"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="41"/>
       <c r="C21" s="6"/>
       <c r="D21" s="1"/>
       <c r="E21" s="6"/>
@@ -5637,8 +6269,8 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="25"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="42"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -5646,11 +6278,1134 @@
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D23" s="3"/>
+    <row r="23" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E23" s="26"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="39"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="30"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="32"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="32"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="32"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="32"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="32"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="34"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A31" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E31" s="26"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="39"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="30"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="32"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="32"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="32"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="32"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="32"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="34"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+    </row>
+    <row r="39" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A39" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="E39" s="26"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="39"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="30"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="32"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="32"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="32"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="32"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="32"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="34"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+    </row>
+    <row r="47" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A47" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E47" s="26"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="39"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="30"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="32"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="32"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="32"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="32"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="32"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="34"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+    </row>
+    <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E55" s="26"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="39"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="30"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="32"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="32"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="32"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="32"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="32"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="34"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+    </row>
+    <row r="63" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="B63" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E63" s="26"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="38"/>
+      <c r="H63" s="39"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="30"/>
+      <c r="B64" s="40"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="32"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="32"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="32"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="32"/>
+      <c r="B68" s="41"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="32"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="34"/>
+      <c r="B70" s="42"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+    </row>
+    <row r="71" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A71" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E71" s="26"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="38"/>
+      <c r="H71" s="39"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="30"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="26"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="32"/>
+      <c r="B73" s="41"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="32"/>
+      <c r="B74" s="41"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="32"/>
+      <c r="B75" s="41"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="26"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="32"/>
+      <c r="B76" s="41"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="26"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="32"/>
+      <c r="B77" s="41"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="34"/>
+      <c r="B78" s="42"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+    </row>
+    <row r="79" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A79" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="B79" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E79" s="26"/>
+      <c r="F79" s="37"/>
+      <c r="G79" s="38"/>
+      <c r="H79" s="39"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="30"/>
+      <c r="B80" s="40"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="26"/>
+      <c r="F80" s="26"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="32"/>
+      <c r="B81" s="41"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="26"/>
+      <c r="F81" s="26"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="32"/>
+      <c r="B82" s="41"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="26"/>
+      <c r="F82" s="26"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="32"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="26"/>
+      <c r="F83" s="26"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="32"/>
+      <c r="B84" s="41"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="26"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="32"/>
+      <c r="B85" s="41"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="26"/>
+      <c r="F85" s="26"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="34"/>
+      <c r="B86" s="42"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="10"/>
+    </row>
+    <row r="87" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B87" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D87" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E87" s="26"/>
+      <c r="F87" s="37"/>
+      <c r="G87" s="38"/>
+      <c r="H87" s="39"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="30"/>
+      <c r="B88" s="40"/>
+      <c r="C88" s="26"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="26"/>
+      <c r="F88" s="26"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="32"/>
+      <c r="B89" s="41"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="26"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="32"/>
+      <c r="B90" s="41"/>
+      <c r="C90" s="26"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="26"/>
+      <c r="F90" s="26"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="32"/>
+      <c r="B91" s="41"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="26"/>
+      <c r="F91" s="26"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="32"/>
+      <c r="B92" s="41"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="26"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="32"/>
+      <c r="B93" s="41"/>
+      <c r="C93" s="26"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="26"/>
+      <c r="F93" s="26"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="34"/>
+      <c r="B94" s="42"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="10"/>
+    </row>
+    <row r="95" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B95" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E95" s="26"/>
+      <c r="F95" s="37"/>
+      <c r="G95" s="38"/>
+      <c r="H95" s="39"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="30"/>
+      <c r="B96" s="40"/>
+      <c r="C96" s="26"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="26"/>
+      <c r="F96" s="26"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="32"/>
+      <c r="B97" s="41"/>
+      <c r="C97" s="26"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="26"/>
+      <c r="F97" s="26"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="32"/>
+      <c r="B98" s="41"/>
+      <c r="C98" s="26"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="26"/>
+      <c r="F98" s="26"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="32"/>
+      <c r="B99" s="41"/>
+      <c r="C99" s="26"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="26"/>
+      <c r="F99" s="26"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="32"/>
+      <c r="B100" s="41"/>
+      <c r="C100" s="26"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="26"/>
+      <c r="F100" s="26"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="32"/>
+      <c r="B101" s="41"/>
+      <c r="C101" s="26"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="26"/>
+      <c r="F101" s="26"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="34"/>
+      <c r="B102" s="42"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="10"/>
+    </row>
+    <row r="103" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E103" s="26"/>
+      <c r="F103" s="37"/>
+      <c r="G103" s="38"/>
+      <c r="H103" s="39"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="30"/>
+      <c r="B104" s="40"/>
+      <c r="C104" s="26"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="26"/>
+      <c r="F104" s="26"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="32"/>
+      <c r="B105" s="41"/>
+      <c r="C105" s="26"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="26"/>
+      <c r="F105" s="26"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="32"/>
+      <c r="B106" s="41"/>
+      <c r="C106" s="26"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="26"/>
+      <c r="F106" s="26"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="32"/>
+      <c r="B107" s="41"/>
+      <c r="C107" s="26"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="26"/>
+      <c r="F107" s="26"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="32"/>
+      <c r="B108" s="41"/>
+      <c r="C108" s="26"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="26"/>
+      <c r="F108" s="26"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="32"/>
+      <c r="B109" s="41"/>
+      <c r="C109" s="26"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="26"/>
+      <c r="F109" s="26"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="34"/>
+      <c r="B110" s="42"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="10"/>
+    </row>
+    <row r="111" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A111" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B111" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E111" s="26"/>
+      <c r="F111" s="37"/>
+      <c r="G111" s="38"/>
+      <c r="H111" s="39"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="30"/>
+      <c r="B112" s="40"/>
+      <c r="C112" s="26"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="26"/>
+      <c r="F112" s="26"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="32"/>
+      <c r="B113" s="41"/>
+      <c r="C113" s="26"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="26"/>
+      <c r="F113" s="26"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="32"/>
+      <c r="B114" s="41"/>
+      <c r="C114" s="26"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="26"/>
+      <c r="F114" s="26"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="32"/>
+      <c r="B115" s="41"/>
+      <c r="C115" s="26"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="26"/>
+      <c r="F115" s="26"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="32"/>
+      <c r="B116" s="41"/>
+      <c r="C116" s="26"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="26"/>
+      <c r="F116" s="26"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="32"/>
+      <c r="B117" s="41"/>
+      <c r="C117" s="26"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="26"/>
+      <c r="F117" s="26"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="34"/>
+      <c r="B118" s="42"/>
+      <c r="C118" s="10"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="10"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="10"/>
+      <c r="H118" s="10"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="26"/>
+      <c r="B119" s="26"/>
+      <c r="C119" s="26"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="26"/>
+      <c r="F119" s="37"/>
+      <c r="G119" s="38"/>
+      <c r="H119" s="39"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="30"/>
+      <c r="B120" s="40"/>
+      <c r="C120" s="26"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="26"/>
+      <c r="F120" s="26"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="32"/>
+      <c r="B121" s="41"/>
+      <c r="C121" s="26"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="26"/>
+      <c r="F121" s="26"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="32"/>
+      <c r="B122" s="41"/>
+      <c r="C122" s="26"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="26"/>
+      <c r="F122" s="26"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="32"/>
+      <c r="B123" s="41"/>
+      <c r="C123" s="26"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="26"/>
+      <c r="F123" s="26"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="32"/>
+      <c r="B124" s="41"/>
+      <c r="C124" s="26"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="26"/>
+      <c r="F124" s="26"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="32"/>
+      <c r="B125" s="41"/>
+      <c r="C125" s="26"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="26"/>
+      <c r="F125" s="26"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="34"/>
+      <c r="B126" s="42"/>
+      <c r="C126" s="10"/>
+      <c r="D126" s="10"/>
+      <c r="E126" s="10"/>
+      <c r="F126" s="10"/>
+      <c r="G126" s="10"/>
+      <c r="H126" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="31">
+    <mergeCell ref="A120:B126"/>
+    <mergeCell ref="F103:H103"/>
+    <mergeCell ref="A104:B110"/>
+    <mergeCell ref="F111:H111"/>
+    <mergeCell ref="A112:B118"/>
+    <mergeCell ref="F119:H119"/>
+    <mergeCell ref="A80:B86"/>
+    <mergeCell ref="F87:H87"/>
+    <mergeCell ref="A88:B94"/>
+    <mergeCell ref="F95:H95"/>
+    <mergeCell ref="A96:B102"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="A64:B70"/>
+    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="A72:B78"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="A40:B46"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="A48:B54"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="A56:B62"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="A24:B30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="A32:B38"/>
+    <mergeCell ref="F39:H39"/>
     <mergeCell ref="A1:H5"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="A8:B14"/>
@@ -5662,66 +7417,72 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection sqref="A1:H22"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="49.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="31.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -5749,19 +7510,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="1"/>
+    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="28"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="39"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="6"/>
       <c r="D8" s="1"/>
       <c r="E8" s="6"/>
@@ -5770,8 +7536,8 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="6"/>
       <c r="D9" s="1"/>
       <c r="E9" s="6"/>
@@ -5780,8 +7546,8 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="23"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="6"/>
       <c r="D10" s="1"/>
       <c r="E10" s="6"/>
@@ -5790,8 +7556,8 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="B11" s="23"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="6"/>
       <c r="D11" s="1"/>
       <c r="E11" s="6"/>
@@ -5800,8 +7566,8 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="23"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="6"/>
       <c r="D12" s="1"/>
       <c r="E12" s="6"/>
@@ -5810,8 +7576,8 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="6"/>
       <c r="D13" s="1"/>
       <c r="E13" s="6"/>
@@ -5820,8 +7586,8 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="42"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -5829,19 +7595,24 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="4"/>
+    <row r="15" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E15" s="6"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="28"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="39"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="6"/>
       <c r="D16" s="1"/>
       <c r="E16" s="6"/>
@@ -5850,8 +7621,8 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="41"/>
       <c r="C17" s="6"/>
       <c r="D17" s="1"/>
       <c r="E17" s="6"/>
@@ -5860,8 +7631,8 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="23"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="41"/>
       <c r="C18" s="6"/>
       <c r="D18" s="1"/>
       <c r="E18" s="6"/>
@@ -5870,8 +7641,8 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="23"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="6"/>
       <c r="D19" s="1"/>
       <c r="E19" s="6"/>
@@ -5880,8 +7651,8 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="23"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="41"/>
       <c r="C20" s="6"/>
       <c r="D20" s="1"/>
       <c r="E20" s="6"/>
@@ -5890,8 +7661,8 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="23"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="41"/>
       <c r="C21" s="6"/>
       <c r="D21" s="1"/>
       <c r="E21" s="6"/>
@@ -5900,8 +7671,8 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="25"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="42"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -5909,8 +7680,602 @@
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
     </row>
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E23" s="26"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="39"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="30"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="32"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="32"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="32"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="32"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="32"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="34"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A31" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="26"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="39"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="30"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="32"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="32"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="32"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="32"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="32"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="34"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+    </row>
+    <row r="39" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="26"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="39"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="30"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="32"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="32"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="32"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="32"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="32"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="34"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+    </row>
+    <row r="47" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A47" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E47" s="26"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="39"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="30"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="32"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="32"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="32"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="32"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="32"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="34"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="26"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="39"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="30"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="32"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="32"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="32"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="32"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="32"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="34"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="26"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="38"/>
+      <c r="H63" s="39"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="30"/>
+      <c r="B64" s="40"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="32"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="32"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="32"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="32"/>
+      <c r="B68" s="41"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="32"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="34"/>
+      <c r="B70" s="42"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="26"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="38"/>
+      <c r="H71" s="39"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="30"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="26"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="32"/>
+      <c r="B73" s="41"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="32"/>
+      <c r="B74" s="41"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="32"/>
+      <c r="B75" s="41"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="26"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="32"/>
+      <c r="B76" s="41"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="26"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="32"/>
+      <c r="B77" s="41"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="34"/>
+      <c r="B78" s="42"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="19">
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="A64:B70"/>
+    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="A72:B78"/>
+    <mergeCell ref="A40:B46"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="A48:B54"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="A56:B62"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="A24:B30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="A32:B38"/>
+    <mergeCell ref="F39:H39"/>
     <mergeCell ref="A1:H5"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="A8:B14"/>
@@ -5922,66 +8287,72 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:J110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="50.140625" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="34.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -6009,30 +8380,35 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="1"/>
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="28"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="39"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="6"/>
       <c r="D8" s="1"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="J8" s="17"/>
+      <c r="J8" s="16"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="6"/>
       <c r="D9" s="1"/>
       <c r="E9" s="6"/>
@@ -6041,8 +8417,8 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="23"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="6"/>
       <c r="D10" s="1"/>
       <c r="E10" s="6"/>
@@ -6051,8 +8427,8 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="B11" s="23"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="6"/>
       <c r="D11" s="1"/>
       <c r="E11" s="6"/>
@@ -6061,8 +8437,8 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="23"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="6"/>
       <c r="D12" s="1"/>
       <c r="E12" s="6"/>
@@ -6071,8 +8447,8 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="6"/>
       <c r="D13" s="1"/>
       <c r="E13" s="6"/>
@@ -6081,8 +8457,8 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="42"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -6090,19 +8466,24 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="4"/>
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E15" s="6"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="28"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="39"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="6"/>
       <c r="D16" s="1"/>
       <c r="E16" s="6"/>
@@ -6111,8 +8492,8 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="41"/>
       <c r="C17" s="6"/>
       <c r="D17" s="1"/>
       <c r="E17" s="6"/>
@@ -6121,8 +8502,8 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="23"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="41"/>
       <c r="C18" s="6"/>
       <c r="D18" s="1"/>
       <c r="E18" s="6"/>
@@ -6131,8 +8512,8 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="23"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="6"/>
       <c r="D19" s="1"/>
       <c r="E19" s="6"/>
@@ -6141,8 +8522,8 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="23"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="41"/>
       <c r="C20" s="6"/>
       <c r="D20" s="1"/>
       <c r="E20" s="6"/>
@@ -6151,8 +8532,8 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="23"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="41"/>
       <c r="C21" s="6"/>
       <c r="D21" s="1"/>
       <c r="E21" s="6"/>
@@ -6161,8 +8542,8 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="25"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="42"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -6170,8 +8551,953 @@
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
     </row>
+    <row r="23" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="26"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="39"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="30"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="32"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="32"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="32"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="32"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="32"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="34"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A31" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="26"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="39"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="30"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="32"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="32"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="32"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="32"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="32"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="34"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+    </row>
+    <row r="39" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" s="26"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="39"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="30"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="32"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="32"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="32"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="32"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="32"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="34"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+    </row>
+    <row r="47" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E47" s="26"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="39"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="30"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="32"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="32"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="32"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="32"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="32"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="34"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+    </row>
+    <row r="55" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A55" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E55" s="26"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="39"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="30"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="32"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="32"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="32"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="32"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="32"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="34"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+    </row>
+    <row r="63" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A63" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B63" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E63" s="26"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="38"/>
+      <c r="H63" s="39"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="30"/>
+      <c r="B64" s="40"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="32"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="32"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="32"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="32"/>
+      <c r="B68" s="41"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="32"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="34"/>
+      <c r="B70" s="42"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+    </row>
+    <row r="71" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A71" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B71" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E71" s="26"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="38"/>
+      <c r="H71" s="39"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="30"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="26"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="32"/>
+      <c r="B73" s="41"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="32"/>
+      <c r="B74" s="41"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="32"/>
+      <c r="B75" s="41"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="26"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="32"/>
+      <c r="B76" s="41"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="26"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="32"/>
+      <c r="B77" s="41"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="34"/>
+      <c r="B78" s="42"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+    </row>
+    <row r="79" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A79" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="B79" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E79" s="26"/>
+      <c r="F79" s="37"/>
+      <c r="G79" s="38"/>
+      <c r="H79" s="39"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="30"/>
+      <c r="B80" s="40"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="26"/>
+      <c r="F80" s="26"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="32"/>
+      <c r="B81" s="41"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="26"/>
+      <c r="F81" s="26"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="32"/>
+      <c r="B82" s="41"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="26"/>
+      <c r="F82" s="26"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="32"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="26"/>
+      <c r="F83" s="26"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="32"/>
+      <c r="B84" s="41"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="26"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="32"/>
+      <c r="B85" s="41"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="26"/>
+      <c r="F85" s="26"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="34"/>
+      <c r="B86" s="42"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="10"/>
+    </row>
+    <row r="87" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A87" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="B87" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E87" s="26"/>
+      <c r="F87" s="37"/>
+      <c r="G87" s="38"/>
+      <c r="H87" s="39"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="30"/>
+      <c r="B88" s="40"/>
+      <c r="C88" s="26"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="26"/>
+      <c r="F88" s="26"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="32"/>
+      <c r="B89" s="41"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="26"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="32"/>
+      <c r="B90" s="41"/>
+      <c r="C90" s="26"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="26"/>
+      <c r="F90" s="26"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="32"/>
+      <c r="B91" s="41"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="26"/>
+      <c r="F91" s="26"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="32"/>
+      <c r="B92" s="41"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="26"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="32"/>
+      <c r="B93" s="41"/>
+      <c r="C93" s="26"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="26"/>
+      <c r="F93" s="26"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="34"/>
+      <c r="B94" s="42"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="10"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="26"/>
+      <c r="B95" s="26"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="26"/>
+      <c r="F95" s="37"/>
+      <c r="G95" s="38"/>
+      <c r="H95" s="39"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="30"/>
+      <c r="B96" s="40"/>
+      <c r="C96" s="26"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="26"/>
+      <c r="F96" s="26"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="32"/>
+      <c r="B97" s="41"/>
+      <c r="C97" s="26"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="26"/>
+      <c r="F97" s="26"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="32"/>
+      <c r="B98" s="41"/>
+      <c r="C98" s="26"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="26"/>
+      <c r="F98" s="26"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="32"/>
+      <c r="B99" s="41"/>
+      <c r="C99" s="26"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="26"/>
+      <c r="F99" s="26"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="32"/>
+      <c r="B100" s="41"/>
+      <c r="C100" s="26"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="26"/>
+      <c r="F100" s="26"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="32"/>
+      <c r="B101" s="41"/>
+      <c r="C101" s="26"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="26"/>
+      <c r="F101" s="26"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="34"/>
+      <c r="B102" s="42"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="10"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="26"/>
+      <c r="B103" s="26"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="26"/>
+      <c r="F103" s="37"/>
+      <c r="G103" s="38"/>
+      <c r="H103" s="39"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="30"/>
+      <c r="B104" s="40"/>
+      <c r="C104" s="26"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="26"/>
+      <c r="F104" s="26"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="32"/>
+      <c r="B105" s="41"/>
+      <c r="C105" s="26"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="26"/>
+      <c r="F105" s="26"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="32"/>
+      <c r="B106" s="41"/>
+      <c r="C106" s="26"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="26"/>
+      <c r="F106" s="26"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="32"/>
+      <c r="B107" s="41"/>
+      <c r="C107" s="26"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="26"/>
+      <c r="F107" s="26"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="32"/>
+      <c r="B108" s="41"/>
+      <c r="C108" s="26"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="26"/>
+      <c r="F108" s="26"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="32"/>
+      <c r="B109" s="41"/>
+      <c r="C109" s="26"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="26"/>
+      <c r="F109" s="26"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="34"/>
+      <c r="B110" s="42"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="27">
+    <mergeCell ref="F103:H103"/>
+    <mergeCell ref="A104:B110"/>
+    <mergeCell ref="A80:B86"/>
+    <mergeCell ref="F87:H87"/>
+    <mergeCell ref="A88:B94"/>
+    <mergeCell ref="F95:H95"/>
+    <mergeCell ref="A96:B102"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="A64:B70"/>
+    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="A72:B78"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="A40:B46"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="A48:B54"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="A56:B62"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="A24:B30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="A32:B38"/>
+    <mergeCell ref="F39:H39"/>
     <mergeCell ref="A1:H5"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="A8:B14"/>

--- a/documentacion/desarrollo/Product Backlog Sibica.xlsx
+++ b/documentacion/desarrollo/Product Backlog Sibica.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josgarey\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LUIS\Documents\sibica\documentacion\desarrollo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831CE2EA-EAA3-474B-A394-8BB7935DAA1C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PB" sheetId="1" r:id="rId1"/>
-    <sheet name="SB1" sheetId="2" r:id="rId2"/>
-    <sheet name="SB2" sheetId="4" r:id="rId3"/>
-    <sheet name="SB3" sheetId="5" r:id="rId4"/>
-    <sheet name="SB4" sheetId="6" r:id="rId5"/>
+    <sheet name="sf" sheetId="7" r:id="rId2"/>
+    <sheet name="SB1" sheetId="2" r:id="rId3"/>
+    <sheet name="SB2" sheetId="4" r:id="rId4"/>
+    <sheet name="SB3" sheetId="5" r:id="rId5"/>
+    <sheet name="SB4" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_ftn1" localSheetId="0">PB!$C$17</definedName>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="219">
   <si>
     <t>Enunciado de la Historia</t>
   </si>
@@ -2267,13 +2267,37 @@
   </si>
   <si>
     <t>Realizar modulo para gestionar la permisologia para roles</t>
+  </si>
+  <si>
+    <t>CRONONOGRAMA DE SPRINT</t>
+  </si>
+  <si>
+    <t>SPIRNG</t>
+  </si>
+  <si>
+    <t>FECHA INICIO</t>
+  </si>
+  <si>
+    <t>FECHA FIN</t>
+  </si>
+  <si>
+    <t>31/09/2019</t>
+  </si>
+  <si>
+    <t>Definir con el cliente como se crea el reporte si el predio no existe</t>
+  </si>
+  <si>
+    <t>medio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* el sprint 5 está destinado para documentacion del proyecto y temas contraactuales </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2333,8 +2357,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2394,8 +2425,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -2535,12 +2578,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2619,6 +2686,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2646,6 +2728,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2655,29 +2746,40 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2993,11 +3095,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="81.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3013,56 +3115,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
     </row>
     <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
     </row>
     <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
     </row>
     <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -3091,7 +3193,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -3113,7 +3215,7 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="31" t="s">
         <v>132</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -3135,7 +3237,7 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="28" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -3157,7 +3259,7 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="28" t="s">
         <v>136</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -3179,7 +3281,7 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="29" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -3201,7 +3303,7 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="29" t="s">
         <v>142</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -3223,7 +3325,7 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="28" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -3245,7 +3347,7 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="28" t="s">
         <v>145</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -3267,7 +3369,7 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="28" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -3291,7 +3393,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="28" t="s">
         <v>148</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -3315,7 +3417,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="29" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -3339,7 +3441,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="28" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -3363,7 +3465,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="28" t="s">
         <v>157</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -3387,7 +3489,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="28" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -3409,7 +3511,7 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="28" t="s">
         <v>158</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -3431,7 +3533,7 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="30" t="s">
         <v>15</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -3453,7 +3555,7 @@
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="30" t="s">
         <v>161</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -3475,7 +3577,7 @@
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="31" t="s">
         <v>16</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -3497,7 +3599,7 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="31" t="s">
         <v>162</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -3559,7 +3661,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="46" t="s">
+      <c r="A28" s="31" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -3583,7 +3685,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A29" s="46" t="s">
+      <c r="A29" s="31" t="s">
         <v>170</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -3605,7 +3707,7 @@
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A30" s="46" t="s">
+      <c r="A30" s="31" t="s">
         <v>63</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -3629,7 +3731,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="46" t="s">
+      <c r="A31" s="31" t="s">
         <v>64</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -3653,7 +3755,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="46" t="s">
+      <c r="A32" s="31" t="s">
         <v>65</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -3675,7 +3777,7 @@
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="46" t="s">
+      <c r="A33" s="31" t="s">
         <v>175</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -3697,7 +3799,7 @@
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="46" t="s">
+      <c r="A34" s="31" t="s">
         <v>67</v>
       </c>
       <c r="B34" s="6" t="s">
@@ -3719,7 +3821,7 @@
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="44" t="s">
+      <c r="A35" s="29" t="s">
         <v>68</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -3741,7 +3843,7 @@
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="46" t="s">
+      <c r="A36" s="31" t="s">
         <v>96</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -3763,7 +3865,7 @@
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="46" t="s">
+      <c r="A37" s="31" t="s">
         <v>97</v>
       </c>
       <c r="B37" s="6" t="s">
@@ -3785,7 +3887,7 @@
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="46" t="s">
+      <c r="A38" s="31" t="s">
         <v>98</v>
       </c>
       <c r="B38" s="6" t="s">
@@ -3807,7 +3909,7 @@
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A39" s="45" t="s">
+      <c r="A39" s="30" t="s">
         <v>99</v>
       </c>
       <c r="B39" s="6" t="s">
@@ -3829,7 +3931,7 @@
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="43" t="s">
+      <c r="A40" s="28" t="s">
         <v>100</v>
       </c>
       <c r="B40" s="6" t="s">
@@ -3851,7 +3953,7 @@
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="43" t="s">
+      <c r="A41" s="28" t="s">
         <v>101</v>
       </c>
       <c r="B41" s="6" t="s">
@@ -3873,7 +3975,7 @@
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="43" t="s">
+      <c r="A42" s="28" t="s">
         <v>102</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -3895,7 +3997,7 @@
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A43" s="45" t="s">
+      <c r="A43" s="30" t="s">
         <v>103</v>
       </c>
       <c r="B43" s="6" t="s">
@@ -3917,7 +4019,7 @@
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="44" t="s">
+      <c r="A44" s="29" t="s">
         <v>104</v>
       </c>
       <c r="B44" s="6" t="s">
@@ -3939,7 +4041,7 @@
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="44" t="s">
+      <c r="A45" s="29" t="s">
         <v>105</v>
       </c>
       <c r="B45" s="6" t="s">
@@ -3963,7 +4065,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A46" s="44" t="s">
+      <c r="A46" s="29" t="s">
         <v>106</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -3985,7 +4087,7 @@
       <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="45" t="s">
+      <c r="A47" s="30" t="s">
         <v>95</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -4007,7 +4109,7 @@
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="45" t="s">
+      <c r="A48" s="30" t="s">
         <v>107</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -4029,7 +4131,7 @@
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="45" t="s">
+      <c r="A49" s="30" t="s">
         <v>108</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -4051,7 +4153,7 @@
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="45" t="s">
+      <c r="A50" s="30" t="s">
         <v>109</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -4073,7 +4175,7 @@
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="45" t="s">
+      <c r="A51" s="30" t="s">
         <v>110</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -4095,7 +4197,7 @@
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="63" t="s">
         <v>94</v>
       </c>
       <c r="B52" s="6" t="s">
@@ -4108,12 +4210,16 @@
         <v>113</v>
       </c>
       <c r="E52" s="1"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="1"/>
+      <c r="F52" s="22">
+        <v>4</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="63" t="s">
         <v>93</v>
       </c>
       <c r="B53" s="6" t="s">
@@ -4126,12 +4232,16 @@
         <v>113</v>
       </c>
       <c r="E53" s="1"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="1"/>
+      <c r="F53" s="22">
+        <v>4</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="63" t="s">
         <v>92</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -4144,12 +4254,16 @@
         <v>113</v>
       </c>
       <c r="E54" s="1"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="1"/>
+      <c r="F54" s="22">
+        <v>4</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="H54" s="1"/>
     </row>
     <row r="55" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="63" t="s">
         <v>91</v>
       </c>
       <c r="B55" s="6" t="s">
@@ -4158,16 +4272,22 @@
       <c r="C55" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D55" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="E55" s="1"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="50">
+        <v>4</v>
+      </c>
+      <c r="G55" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="56" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="64" t="s">
         <v>90</v>
       </c>
       <c r="B56" s="6" t="s">
@@ -4180,8 +4300,12 @@
         <v>113</v>
       </c>
       <c r="E56" s="1"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="1"/>
+      <c r="F56" s="22">
+        <v>2</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="H56" s="1"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -4211,11 +4335,114 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="62"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="56">
+        <v>1</v>
+      </c>
+      <c r="B3" s="51">
+        <v>43689</v>
+      </c>
+      <c r="C3" s="52">
+        <v>43707</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="56">
+        <v>2</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" s="52">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="56">
+        <v>3</v>
+      </c>
+      <c r="B5" s="51">
+        <v>43729</v>
+      </c>
+      <c r="C5" s="52">
+        <v>43749</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="57">
+        <v>4</v>
+      </c>
+      <c r="B6" s="54">
+        <v>43750</v>
+      </c>
+      <c r="C6" s="55">
+        <v>43770</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>5</v>
+      </c>
+      <c r="B7" s="58">
+        <v>43771</v>
+      </c>
+      <c r="C7" s="58">
+        <v>43779</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="59" t="s">
+        <v>218</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H145"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="D106" sqref="D106"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="81.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4230,56 +4457,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
     </row>
     <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
     </row>
     <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
     </row>
     <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -4321,13 +4548,13 @@
       <c r="E7" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="31"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="6" t="s">
         <v>117</v>
       </c>
@@ -4342,8 +4569,8 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="33"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="6" t="s">
         <v>118</v>
       </c>
@@ -4358,8 +4585,8 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="33"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="6" t="s">
         <v>119</v>
       </c>
@@ -4374,8 +4601,8 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
-      <c r="B11" s="33"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="6" t="s">
         <v>120</v>
       </c>
@@ -4390,8 +4617,8 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
-      <c r="B12" s="33"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="6"/>
       <c r="D12" s="1"/>
       <c r="E12" s="6"/>
@@ -4400,8 +4627,8 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
-      <c r="B13" s="33"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="6"/>
       <c r="D13" s="1"/>
       <c r="E13" s="6"/>
@@ -4410,8 +4637,8 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="35"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="10"/>
       <c r="D14" s="24"/>
       <c r="E14" s="10"/>
@@ -4433,13 +4660,13 @@
       <c r="E15" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="31"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="6" t="s">
         <v>117</v>
       </c>
@@ -4454,8 +4681,8 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="33"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="6" t="s">
         <v>118</v>
       </c>
@@ -4470,8 +4697,8 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="33"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="38"/>
       <c r="C18" s="6" t="s">
         <v>119</v>
       </c>
@@ -4486,8 +4713,8 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="33"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="38"/>
       <c r="C19" s="6" t="s">
         <v>120</v>
       </c>
@@ -4502,8 +4729,8 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="33"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="38"/>
       <c r="C20" s="6"/>
       <c r="D20" s="1"/>
       <c r="E20" s="6"/>
@@ -4512,8 +4739,8 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="33"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="38"/>
       <c r="C21" s="6"/>
       <c r="D21" s="1"/>
       <c r="E21" s="6"/>
@@ -4522,8 +4749,8 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-      <c r="B22" s="35"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="40"/>
       <c r="C22" s="10"/>
       <c r="D22" s="24"/>
       <c r="E22" s="10"/>
@@ -4550,8 +4777,8 @@
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
-      <c r="B24" s="31"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="6" t="s">
         <v>117</v>
       </c>
@@ -4566,8 +4793,8 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="33"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="38"/>
       <c r="C25" s="6" t="s">
         <v>118</v>
       </c>
@@ -4582,8 +4809,8 @@
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
-      <c r="B26" s="33"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="38"/>
       <c r="C26" s="6"/>
       <c r="D26" s="1"/>
       <c r="E26" s="6"/>
@@ -4592,8 +4819,8 @@
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
-      <c r="B27" s="33"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="38"/>
       <c r="C27" s="6"/>
       <c r="D27" s="1"/>
       <c r="E27" s="6"/>
@@ -4602,8 +4829,8 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
-      <c r="B28" s="33"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="38"/>
       <c r="C28" s="6"/>
       <c r="D28" s="1"/>
       <c r="E28" s="6"/>
@@ -4612,8 +4839,8 @@
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
-      <c r="B29" s="33"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="38"/>
       <c r="C29" s="6"/>
       <c r="D29" s="1"/>
       <c r="E29" s="6"/>
@@ -4622,8 +4849,8 @@
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
-      <c r="B30" s="35"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="40"/>
       <c r="C30" s="10"/>
       <c r="D30" s="24"/>
       <c r="E30" s="10"/>
@@ -4632,10 +4859,10 @@
       <c r="H30" s="10"/>
     </row>
     <row r="31" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="47" t="s">
+      <c r="B31" s="32" t="s">
         <v>38</v>
       </c>
       <c r="C31" s="10"/>
@@ -4650,8 +4877,8 @@
       <c r="H31" s="10"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
-      <c r="B32" s="31"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="36"/>
       <c r="C32" s="6" t="s">
         <v>117</v>
       </c>
@@ -4666,8 +4893,8 @@
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="32"/>
-      <c r="B33" s="33"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="38"/>
       <c r="C33" s="6" t="s">
         <v>118</v>
       </c>
@@ -4682,8 +4909,8 @@
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="32"/>
-      <c r="B34" s="33"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="38"/>
       <c r="C34" s="6" t="s">
         <v>119</v>
       </c>
@@ -4698,8 +4925,8 @@
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="32"/>
-      <c r="B35" s="33"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="38"/>
       <c r="C35" s="6" t="s">
         <v>120</v>
       </c>
@@ -4714,8 +4941,8 @@
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="32"/>
-      <c r="B36" s="33"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="38"/>
       <c r="C36" s="6" t="s">
         <v>197</v>
       </c>
@@ -4730,8 +4957,8 @@
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="32"/>
-      <c r="B37" s="33"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="38"/>
       <c r="C37" s="6" t="s">
         <v>198</v>
       </c>
@@ -4746,8 +4973,8 @@
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="34"/>
-      <c r="B38" s="35"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="40"/>
       <c r="C38" s="10"/>
       <c r="D38" s="24"/>
       <c r="E38" s="10"/>
@@ -4759,7 +4986,7 @@
       <c r="A39" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="47" t="s">
+      <c r="B39" s="32" t="s">
         <v>39</v>
       </c>
       <c r="C39" s="10"/>
@@ -4774,8 +5001,8 @@
       <c r="H39" s="10"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="30"/>
-      <c r="B40" s="31"/>
+      <c r="A40" s="35"/>
+      <c r="B40" s="36"/>
       <c r="C40" s="6" t="s">
         <v>117</v>
       </c>
@@ -4790,8 +5017,8 @@
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="32"/>
-      <c r="B41" s="33"/>
+      <c r="A41" s="37"/>
+      <c r="B41" s="38"/>
       <c r="C41" s="6" t="s">
         <v>118</v>
       </c>
@@ -4806,8 +5033,8 @@
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="32"/>
-      <c r="B42" s="33"/>
+      <c r="A42" s="37"/>
+      <c r="B42" s="38"/>
       <c r="C42" s="6" t="s">
         <v>119</v>
       </c>
@@ -4820,8 +5047,8 @@
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="32"/>
-      <c r="B43" s="33"/>
+      <c r="A43" s="37"/>
+      <c r="B43" s="38"/>
       <c r="C43" s="6" t="s">
         <v>120</v>
       </c>
@@ -4834,8 +5061,8 @@
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="32"/>
-      <c r="B44" s="33"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="38"/>
       <c r="C44" s="6"/>
       <c r="D44" s="1"/>
       <c r="E44" s="6"/>
@@ -4844,8 +5071,8 @@
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="32"/>
-      <c r="B45" s="33"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="38"/>
       <c r="C45" s="6"/>
       <c r="D45" s="1"/>
       <c r="E45" s="6"/>
@@ -4854,8 +5081,8 @@
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="34"/>
-      <c r="B46" s="35"/>
+      <c r="A46" s="39"/>
+      <c r="B46" s="40"/>
       <c r="C46" s="10"/>
       <c r="D46" s="24"/>
       <c r="E46" s="10"/>
@@ -4864,10 +5091,10 @@
       <c r="H46" s="10"/>
     </row>
     <row r="47" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="47" t="s">
+      <c r="A47" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="47" t="s">
+      <c r="B47" s="32" t="s">
         <v>41</v>
       </c>
       <c r="C47" s="10"/>
@@ -4954,10 +5181,10 @@
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="47" t="s">
+      <c r="A54" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B54" s="47" t="s">
+      <c r="B54" s="32" t="s">
         <v>42</v>
       </c>
       <c r="C54" s="10"/>
@@ -4972,8 +5199,8 @@
       <c r="H54" s="10"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="30"/>
-      <c r="B55" s="31"/>
+      <c r="A55" s="35"/>
+      <c r="B55" s="36"/>
       <c r="C55" s="6" t="s">
         <v>117</v>
       </c>
@@ -4988,8 +5215,8 @@
       <c r="H55" s="1"/>
     </row>
     <row r="56" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="32"/>
-      <c r="B56" s="33"/>
+      <c r="A56" s="37"/>
+      <c r="B56" s="38"/>
       <c r="C56" s="6" t="s">
         <v>118</v>
       </c>
@@ -5004,8 +5231,8 @@
       <c r="H56" s="1"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="32"/>
-      <c r="B57" s="33"/>
+      <c r="A57" s="37"/>
+      <c r="B57" s="38"/>
       <c r="C57" s="6"/>
       <c r="D57" s="1"/>
       <c r="E57" s="6"/>
@@ -5014,8 +5241,8 @@
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="32"/>
-      <c r="B58" s="33"/>
+      <c r="A58" s="37"/>
+      <c r="B58" s="38"/>
       <c r="C58" s="6"/>
       <c r="D58" s="1"/>
       <c r="E58" s="6"/>
@@ -5024,8 +5251,8 @@
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="34"/>
-      <c r="B59" s="35"/>
+      <c r="A59" s="39"/>
+      <c r="B59" s="40"/>
       <c r="C59" s="10"/>
       <c r="D59" s="24"/>
       <c r="E59" s="10"/>
@@ -5034,10 +5261,10 @@
       <c r="H59" s="10"/>
     </row>
     <row r="60" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="47" t="s">
+      <c r="A60" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="B60" s="47" t="s">
+      <c r="B60" s="32" t="s">
         <v>43</v>
       </c>
       <c r="C60" s="10"/>
@@ -5052,8 +5279,8 @@
       <c r="H60" s="10"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="30"/>
-      <c r="B61" s="31"/>
+      <c r="A61" s="35"/>
+      <c r="B61" s="36"/>
       <c r="C61" s="6" t="s">
         <v>117</v>
       </c>
@@ -5068,8 +5295,8 @@
       <c r="H61" s="1"/>
     </row>
     <row r="62" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="32"/>
-      <c r="B62" s="33"/>
+      <c r="A62" s="37"/>
+      <c r="B62" s="38"/>
       <c r="C62" s="6" t="s">
         <v>118</v>
       </c>
@@ -5084,8 +5311,8 @@
       <c r="H62" s="1"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="32"/>
-      <c r="B63" s="33"/>
+      <c r="A63" s="37"/>
+      <c r="B63" s="38"/>
       <c r="C63" s="6"/>
       <c r="D63" s="1"/>
       <c r="E63" s="6"/>
@@ -5094,8 +5321,8 @@
       <c r="H63" s="1"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="32"/>
-      <c r="B64" s="33"/>
+      <c r="A64" s="37"/>
+      <c r="B64" s="38"/>
       <c r="C64" s="6"/>
       <c r="D64" s="1"/>
       <c r="E64" s="6"/>
@@ -5104,8 +5331,8 @@
       <c r="H64" s="1"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="34"/>
-      <c r="B65" s="35"/>
+      <c r="A65" s="39"/>
+      <c r="B65" s="40"/>
       <c r="C65" s="10"/>
       <c r="D65" s="24"/>
       <c r="E65" s="10"/>
@@ -5132,8 +5359,8 @@
       <c r="H66" s="10"/>
     </row>
     <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="30"/>
-      <c r="B67" s="31"/>
+      <c r="A67" s="35"/>
+      <c r="B67" s="36"/>
       <c r="C67" s="6" t="s">
         <v>117</v>
       </c>
@@ -5148,8 +5375,8 @@
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="32"/>
-      <c r="B68" s="33"/>
+      <c r="A68" s="37"/>
+      <c r="B68" s="38"/>
       <c r="C68" s="6" t="s">
         <v>118</v>
       </c>
@@ -5164,8 +5391,8 @@
       <c r="H68" s="1"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="32"/>
-      <c r="B69" s="33"/>
+      <c r="A69" s="37"/>
+      <c r="B69" s="38"/>
       <c r="C69" s="6"/>
       <c r="D69" s="1"/>
       <c r="E69" s="6"/>
@@ -5174,8 +5401,8 @@
       <c r="H69" s="1"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="32"/>
-      <c r="B70" s="33"/>
+      <c r="A70" s="37"/>
+      <c r="B70" s="38"/>
       <c r="C70" s="6"/>
       <c r="D70" s="1"/>
       <c r="E70" s="6"/>
@@ -5184,8 +5411,8 @@
       <c r="H70" s="1"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="32"/>
-      <c r="B71" s="33"/>
+      <c r="A71" s="37"/>
+      <c r="B71" s="38"/>
       <c r="C71" s="6"/>
       <c r="D71" s="1"/>
       <c r="E71" s="6"/>
@@ -5194,8 +5421,8 @@
       <c r="H71" s="1"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="32"/>
-      <c r="B72" s="33"/>
+      <c r="A72" s="37"/>
+      <c r="B72" s="38"/>
       <c r="C72" s="6"/>
       <c r="D72" s="1"/>
       <c r="E72" s="6"/>
@@ -5204,8 +5431,8 @@
       <c r="H72" s="1"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="34"/>
-      <c r="B73" s="35"/>
+      <c r="A73" s="39"/>
+      <c r="B73" s="40"/>
       <c r="C73" s="10"/>
       <c r="D73" s="24"/>
       <c r="E73" s="10"/>
@@ -5232,8 +5459,8 @@
       <c r="H74" s="10"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="30"/>
-      <c r="B75" s="31"/>
+      <c r="A75" s="35"/>
+      <c r="B75" s="36"/>
       <c r="C75" s="6" t="s">
         <v>117</v>
       </c>
@@ -5248,8 +5475,8 @@
       <c r="H75" s="1"/>
     </row>
     <row r="76" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="32"/>
-      <c r="B76" s="33"/>
+      <c r="A76" s="37"/>
+      <c r="B76" s="38"/>
       <c r="C76" s="6" t="s">
         <v>118</v>
       </c>
@@ -5264,8 +5491,8 @@
       <c r="H76" s="1"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="32"/>
-      <c r="B77" s="33"/>
+      <c r="A77" s="37"/>
+      <c r="B77" s="38"/>
       <c r="C77" s="6"/>
       <c r="D77" s="1"/>
       <c r="E77" s="6"/>
@@ -5274,8 +5501,8 @@
       <c r="H77" s="1"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="32"/>
-      <c r="B78" s="33"/>
+      <c r="A78" s="37"/>
+      <c r="B78" s="38"/>
       <c r="C78" s="6"/>
       <c r="D78" s="1"/>
       <c r="E78" s="6"/>
@@ -5284,8 +5511,8 @@
       <c r="H78" s="1"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="32"/>
-      <c r="B79" s="33"/>
+      <c r="A79" s="37"/>
+      <c r="B79" s="38"/>
       <c r="C79" s="6"/>
       <c r="D79" s="1"/>
       <c r="E79" s="6"/>
@@ -5294,8 +5521,8 @@
       <c r="H79" s="1"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="32"/>
-      <c r="B80" s="33"/>
+      <c r="A80" s="37"/>
+      <c r="B80" s="38"/>
       <c r="C80" s="6"/>
       <c r="D80" s="1"/>
       <c r="E80" s="6"/>
@@ -5304,8 +5531,8 @@
       <c r="H80" s="1"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="34"/>
-      <c r="B81" s="35"/>
+      <c r="A81" s="39"/>
+      <c r="B81" s="40"/>
       <c r="C81" s="10"/>
       <c r="D81" s="24"/>
       <c r="E81" s="10"/>
@@ -5332,8 +5559,8 @@
       <c r="H82" s="10"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="30"/>
-      <c r="B83" s="31"/>
+      <c r="A83" s="35"/>
+      <c r="B83" s="36"/>
       <c r="C83" s="6" t="s">
         <v>117</v>
       </c>
@@ -5348,8 +5575,8 @@
       <c r="H83" s="1"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="32"/>
-      <c r="B84" s="33"/>
+      <c r="A84" s="37"/>
+      <c r="B84" s="38"/>
       <c r="C84" s="6"/>
       <c r="D84" s="1"/>
       <c r="E84" s="6"/>
@@ -5358,8 +5585,8 @@
       <c r="H84" s="1"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="32"/>
-      <c r="B85" s="33"/>
+      <c r="A85" s="37"/>
+      <c r="B85" s="38"/>
       <c r="C85" s="6"/>
       <c r="D85" s="1"/>
       <c r="E85" s="6"/>
@@ -5368,8 +5595,8 @@
       <c r="H85" s="1"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="32"/>
-      <c r="B86" s="33"/>
+      <c r="A86" s="37"/>
+      <c r="B86" s="38"/>
       <c r="C86" s="6"/>
       <c r="D86" s="1"/>
       <c r="E86" s="6"/>
@@ -5378,8 +5605,8 @@
       <c r="H86" s="1"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="32"/>
-      <c r="B87" s="33"/>
+      <c r="A87" s="37"/>
+      <c r="B87" s="38"/>
       <c r="C87" s="6"/>
       <c r="D87" s="1"/>
       <c r="E87" s="6"/>
@@ -5388,8 +5615,8 @@
       <c r="H87" s="1"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="32"/>
-      <c r="B88" s="33"/>
+      <c r="A88" s="37"/>
+      <c r="B88" s="38"/>
       <c r="C88" s="6"/>
       <c r="D88" s="1"/>
       <c r="E88" s="6"/>
@@ -5398,8 +5625,8 @@
       <c r="H88" s="1"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="34"/>
-      <c r="B89" s="35"/>
+      <c r="A89" s="39"/>
+      <c r="B89" s="40"/>
       <c r="C89" s="10"/>
       <c r="D89" s="24"/>
       <c r="E89" s="10"/>
@@ -5423,8 +5650,8 @@
       <c r="H90" s="10"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="30"/>
-      <c r="B91" s="31"/>
+      <c r="A91" s="35"/>
+      <c r="B91" s="36"/>
       <c r="C91" s="26"/>
       <c r="D91" s="1"/>
       <c r="E91" s="26"/>
@@ -5433,8 +5660,8 @@
       <c r="H91" s="1"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="32"/>
-      <c r="B92" s="33"/>
+      <c r="A92" s="37"/>
+      <c r="B92" s="38"/>
       <c r="C92" s="26"/>
       <c r="D92" s="1"/>
       <c r="E92" s="26"/>
@@ -5443,8 +5670,8 @@
       <c r="H92" s="1"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="32"/>
-      <c r="B93" s="33"/>
+      <c r="A93" s="37"/>
+      <c r="B93" s="38"/>
       <c r="C93" s="26"/>
       <c r="D93" s="1"/>
       <c r="E93" s="26"/>
@@ -5453,8 +5680,8 @@
       <c r="H93" s="1"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="32"/>
-      <c r="B94" s="33"/>
+      <c r="A94" s="37"/>
+      <c r="B94" s="38"/>
       <c r="C94" s="26"/>
       <c r="D94" s="1"/>
       <c r="E94" s="26"/>
@@ -5463,8 +5690,8 @@
       <c r="H94" s="1"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="32"/>
-      <c r="B95" s="33"/>
+      <c r="A95" s="37"/>
+      <c r="B95" s="38"/>
       <c r="C95" s="26"/>
       <c r="D95" s="1"/>
       <c r="E95" s="26"/>
@@ -5473,8 +5700,8 @@
       <c r="H95" s="1"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="32"/>
-      <c r="B96" s="33"/>
+      <c r="A96" s="37"/>
+      <c r="B96" s="38"/>
       <c r="C96" s="26"/>
       <c r="D96" s="1"/>
       <c r="E96" s="26"/>
@@ -5483,8 +5710,8 @@
       <c r="H96" s="1"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="34"/>
-      <c r="B97" s="35"/>
+      <c r="A97" s="39"/>
+      <c r="B97" s="40"/>
       <c r="C97" s="10"/>
       <c r="D97" s="24"/>
       <c r="E97" s="10"/>
@@ -5508,8 +5735,8 @@
       <c r="H98" s="10"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="30"/>
-      <c r="B99" s="31"/>
+      <c r="A99" s="35"/>
+      <c r="B99" s="36"/>
       <c r="C99" s="26"/>
       <c r="D99" s="1"/>
       <c r="E99" s="26"/>
@@ -5518,8 +5745,8 @@
       <c r="H99" s="1"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="32"/>
-      <c r="B100" s="33"/>
+      <c r="A100" s="37"/>
+      <c r="B100" s="38"/>
       <c r="C100" s="26"/>
       <c r="D100" s="1"/>
       <c r="E100" s="26"/>
@@ -5528,8 +5755,8 @@
       <c r="H100" s="1"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="32"/>
-      <c r="B101" s="33"/>
+      <c r="A101" s="37"/>
+      <c r="B101" s="38"/>
       <c r="C101" s="26"/>
       <c r="D101" s="1"/>
       <c r="E101" s="26"/>
@@ -5538,8 +5765,8 @@
       <c r="H101" s="1"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="32"/>
-      <c r="B102" s="33"/>
+      <c r="A102" s="37"/>
+      <c r="B102" s="38"/>
       <c r="C102" s="26"/>
       <c r="D102" s="1"/>
       <c r="E102" s="26"/>
@@ -5548,8 +5775,8 @@
       <c r="H102" s="1"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="32"/>
-      <c r="B103" s="33"/>
+      <c r="A103" s="37"/>
+      <c r="B103" s="38"/>
       <c r="C103" s="26"/>
       <c r="D103" s="1"/>
       <c r="E103" s="26"/>
@@ -5558,8 +5785,8 @@
       <c r="H103" s="1"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="32"/>
-      <c r="B104" s="33"/>
+      <c r="A104" s="37"/>
+      <c r="B104" s="38"/>
       <c r="C104" s="26"/>
       <c r="D104" s="1"/>
       <c r="E104" s="26"/>
@@ -5568,8 +5795,8 @@
       <c r="H104" s="1"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="34"/>
-      <c r="B105" s="35"/>
+      <c r="A105" s="39"/>
+      <c r="B105" s="40"/>
       <c r="C105" s="10"/>
       <c r="D105" s="24"/>
       <c r="E105" s="10"/>
@@ -5593,8 +5820,8 @@
       <c r="H106" s="10"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="30"/>
-      <c r="B107" s="31"/>
+      <c r="A107" s="35"/>
+      <c r="B107" s="36"/>
       <c r="C107" s="26"/>
       <c r="D107" s="1"/>
       <c r="E107" s="26"/>
@@ -5603,8 +5830,8 @@
       <c r="H107" s="1"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="32"/>
-      <c r="B108" s="33"/>
+      <c r="A108" s="37"/>
+      <c r="B108" s="38"/>
       <c r="C108" s="26"/>
       <c r="D108" s="1"/>
       <c r="E108" s="26"/>
@@ -5613,8 +5840,8 @@
       <c r="H108" s="1"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="32"/>
-      <c r="B109" s="33"/>
+      <c r="A109" s="37"/>
+      <c r="B109" s="38"/>
       <c r="C109" s="26"/>
       <c r="D109" s="1"/>
       <c r="E109" s="26"/>
@@ -5623,8 +5850,8 @@
       <c r="H109" s="1"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="32"/>
-      <c r="B110" s="33"/>
+      <c r="A110" s="37"/>
+      <c r="B110" s="38"/>
       <c r="C110" s="26"/>
       <c r="D110" s="1"/>
       <c r="E110" s="26"/>
@@ -5633,8 +5860,8 @@
       <c r="H110" s="1"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="32"/>
-      <c r="B111" s="33"/>
+      <c r="A111" s="37"/>
+      <c r="B111" s="38"/>
       <c r="C111" s="26"/>
       <c r="D111" s="1"/>
       <c r="E111" s="26"/>
@@ -5643,8 +5870,8 @@
       <c r="H111" s="1"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="32"/>
-      <c r="B112" s="33"/>
+      <c r="A112" s="37"/>
+      <c r="B112" s="38"/>
       <c r="C112" s="26"/>
       <c r="D112" s="1"/>
       <c r="E112" s="26"/>
@@ -5653,8 +5880,8 @@
       <c r="H112" s="1"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="34"/>
-      <c r="B113" s="35"/>
+      <c r="A113" s="39"/>
+      <c r="B113" s="40"/>
       <c r="C113" s="10"/>
       <c r="D113" s="24"/>
       <c r="E113" s="10"/>
@@ -5673,8 +5900,8 @@
       <c r="H114" s="10"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="30"/>
-      <c r="B115" s="31"/>
+      <c r="A115" s="35"/>
+      <c r="B115" s="36"/>
       <c r="C115" s="26"/>
       <c r="D115" s="1"/>
       <c r="E115" s="26"/>
@@ -5683,8 +5910,8 @@
       <c r="H115" s="1"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="32"/>
-      <c r="B116" s="33"/>
+      <c r="A116" s="37"/>
+      <c r="B116" s="38"/>
       <c r="C116" s="26"/>
       <c r="D116" s="1"/>
       <c r="E116" s="26"/>
@@ -5693,8 +5920,8 @@
       <c r="H116" s="1"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="32"/>
-      <c r="B117" s="33"/>
+      <c r="A117" s="37"/>
+      <c r="B117" s="38"/>
       <c r="C117" s="26"/>
       <c r="D117" s="1"/>
       <c r="E117" s="26"/>
@@ -5703,8 +5930,8 @@
       <c r="H117" s="1"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="32"/>
-      <c r="B118" s="33"/>
+      <c r="A118" s="37"/>
+      <c r="B118" s="38"/>
       <c r="C118" s="26"/>
       <c r="D118" s="1"/>
       <c r="E118" s="26"/>
@@ -5713,8 +5940,8 @@
       <c r="H118" s="1"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="32"/>
-      <c r="B119" s="33"/>
+      <c r="A119" s="37"/>
+      <c r="B119" s="38"/>
       <c r="C119" s="26"/>
       <c r="D119" s="1"/>
       <c r="E119" s="26"/>
@@ -5723,8 +5950,8 @@
       <c r="H119" s="1"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="32"/>
-      <c r="B120" s="33"/>
+      <c r="A120" s="37"/>
+      <c r="B120" s="38"/>
       <c r="C120" s="26"/>
       <c r="D120" s="1"/>
       <c r="E120" s="26"/>
@@ -5733,8 +5960,8 @@
       <c r="H120" s="1"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="34"/>
-      <c r="B121" s="35"/>
+      <c r="A121" s="39"/>
+      <c r="B121" s="40"/>
       <c r="C121" s="10"/>
       <c r="D121" s="24"/>
       <c r="E121" s="10"/>
@@ -5753,8 +5980,8 @@
       <c r="H122" s="10"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="30"/>
-      <c r="B123" s="31"/>
+      <c r="A123" s="35"/>
+      <c r="B123" s="36"/>
       <c r="C123" s="26"/>
       <c r="D123" s="1"/>
       <c r="E123" s="26"/>
@@ -5763,8 +5990,8 @@
       <c r="H123" s="1"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="32"/>
-      <c r="B124" s="33"/>
+      <c r="A124" s="37"/>
+      <c r="B124" s="38"/>
       <c r="C124" s="26"/>
       <c r="D124" s="1"/>
       <c r="E124" s="26"/>
@@ -5773,8 +6000,8 @@
       <c r="H124" s="1"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="32"/>
-      <c r="B125" s="33"/>
+      <c r="A125" s="37"/>
+      <c r="B125" s="38"/>
       <c r="C125" s="26"/>
       <c r="D125" s="1"/>
       <c r="E125" s="26"/>
@@ -5783,8 +6010,8 @@
       <c r="H125" s="1"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="32"/>
-      <c r="B126" s="33"/>
+      <c r="A126" s="37"/>
+      <c r="B126" s="38"/>
       <c r="C126" s="26"/>
       <c r="D126" s="1"/>
       <c r="E126" s="26"/>
@@ -5793,8 +6020,8 @@
       <c r="H126" s="1"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="32"/>
-      <c r="B127" s="33"/>
+      <c r="A127" s="37"/>
+      <c r="B127" s="38"/>
       <c r="C127" s="26"/>
       <c r="D127" s="1"/>
       <c r="E127" s="26"/>
@@ -5803,8 +6030,8 @@
       <c r="H127" s="1"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="32"/>
-      <c r="B128" s="33"/>
+      <c r="A128" s="37"/>
+      <c r="B128" s="38"/>
       <c r="C128" s="26"/>
       <c r="D128" s="1"/>
       <c r="E128" s="26"/>
@@ -5813,8 +6040,8 @@
       <c r="H128" s="1"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="34"/>
-      <c r="B129" s="35"/>
+      <c r="A129" s="39"/>
+      <c r="B129" s="40"/>
       <c r="C129" s="10"/>
       <c r="D129" s="24"/>
       <c r="E129" s="10"/>
@@ -5833,8 +6060,8 @@
       <c r="H130" s="10"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="30"/>
-      <c r="B131" s="31"/>
+      <c r="A131" s="35"/>
+      <c r="B131" s="36"/>
       <c r="C131" s="26"/>
       <c r="D131" s="1"/>
       <c r="E131" s="26"/>
@@ -5843,8 +6070,8 @@
       <c r="H131" s="1"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="32"/>
-      <c r="B132" s="33"/>
+      <c r="A132" s="37"/>
+      <c r="B132" s="38"/>
       <c r="C132" s="26"/>
       <c r="D132" s="1"/>
       <c r="E132" s="26"/>
@@ -5853,8 +6080,8 @@
       <c r="H132" s="1"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="32"/>
-      <c r="B133" s="33"/>
+      <c r="A133" s="37"/>
+      <c r="B133" s="38"/>
       <c r="C133" s="26"/>
       <c r="D133" s="1"/>
       <c r="E133" s="26"/>
@@ -5863,8 +6090,8 @@
       <c r="H133" s="1"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="32"/>
-      <c r="B134" s="33"/>
+      <c r="A134" s="37"/>
+      <c r="B134" s="38"/>
       <c r="C134" s="26"/>
       <c r="D134" s="1"/>
       <c r="E134" s="26"/>
@@ -5873,8 +6100,8 @@
       <c r="H134" s="1"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="32"/>
-      <c r="B135" s="33"/>
+      <c r="A135" s="37"/>
+      <c r="B135" s="38"/>
       <c r="C135" s="26"/>
       <c r="D135" s="1"/>
       <c r="E135" s="26"/>
@@ -5883,8 +6110,8 @@
       <c r="H135" s="1"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="32"/>
-      <c r="B136" s="33"/>
+      <c r="A136" s="37"/>
+      <c r="B136" s="38"/>
       <c r="C136" s="26"/>
       <c r="D136" s="1"/>
       <c r="E136" s="26"/>
@@ -5893,8 +6120,8 @@
       <c r="H136" s="1"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="34"/>
-      <c r="B137" s="35"/>
+      <c r="A137" s="39"/>
+      <c r="B137" s="40"/>
       <c r="C137" s="10"/>
       <c r="D137" s="24"/>
       <c r="E137" s="10"/>
@@ -5913,8 +6140,8 @@
       <c r="H138" s="10"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="30"/>
-      <c r="B139" s="31"/>
+      <c r="A139" s="35"/>
+      <c r="B139" s="36"/>
       <c r="C139" s="26"/>
       <c r="D139" s="1"/>
       <c r="E139" s="26"/>
@@ -5923,8 +6150,8 @@
       <c r="H139" s="1"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="32"/>
-      <c r="B140" s="33"/>
+      <c r="A140" s="37"/>
+      <c r="B140" s="38"/>
       <c r="C140" s="26"/>
       <c r="D140" s="1"/>
       <c r="E140" s="26"/>
@@ -5933,8 +6160,8 @@
       <c r="H140" s="1"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="32"/>
-      <c r="B141" s="33"/>
+      <c r="A141" s="37"/>
+      <c r="B141" s="38"/>
       <c r="C141" s="26"/>
       <c r="D141" s="1"/>
       <c r="E141" s="26"/>
@@ -5943,8 +6170,8 @@
       <c r="H141" s="1"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="32"/>
-      <c r="B142" s="33"/>
+      <c r="A142" s="37"/>
+      <c r="B142" s="38"/>
       <c r="C142" s="26"/>
       <c r="D142" s="1"/>
       <c r="E142" s="26"/>
@@ -5953,8 +6180,8 @@
       <c r="H142" s="1"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="32"/>
-      <c r="B143" s="33"/>
+      <c r="A143" s="37"/>
+      <c r="B143" s="38"/>
       <c r="C143" s="26"/>
       <c r="D143" s="1"/>
       <c r="E143" s="26"/>
@@ -5963,8 +6190,8 @@
       <c r="H143" s="1"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="32"/>
-      <c r="B144" s="33"/>
+      <c r="A144" s="37"/>
+      <c r="B144" s="38"/>
       <c r="C144" s="26"/>
       <c r="D144" s="1"/>
       <c r="E144" s="26"/>
@@ -5973,8 +6200,8 @@
       <c r="H144" s="1"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="34"/>
-      <c r="B145" s="35"/>
+      <c r="A145" s="39"/>
+      <c r="B145" s="40"/>
       <c r="C145" s="10"/>
       <c r="D145" s="24"/>
       <c r="E145" s="10"/>
@@ -5984,13 +6211,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A131:B137"/>
-    <mergeCell ref="A139:B145"/>
-    <mergeCell ref="A91:B97"/>
-    <mergeCell ref="A99:B105"/>
-    <mergeCell ref="A107:B113"/>
-    <mergeCell ref="A115:B121"/>
-    <mergeCell ref="A123:B129"/>
+    <mergeCell ref="A55:B59"/>
+    <mergeCell ref="A67:B73"/>
+    <mergeCell ref="A75:B81"/>
+    <mergeCell ref="A83:B89"/>
+    <mergeCell ref="A61:B65"/>
     <mergeCell ref="A24:B30"/>
     <mergeCell ref="A32:B38"/>
     <mergeCell ref="A40:B46"/>
@@ -5999,11 +6224,13 @@
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="A16:B22"/>
-    <mergeCell ref="A55:B59"/>
-    <mergeCell ref="A67:B73"/>
-    <mergeCell ref="A75:B81"/>
-    <mergeCell ref="A83:B89"/>
-    <mergeCell ref="A61:B65"/>
+    <mergeCell ref="A131:B137"/>
+    <mergeCell ref="A139:B145"/>
+    <mergeCell ref="A91:B97"/>
+    <mergeCell ref="A99:B105"/>
+    <mergeCell ref="A107:B113"/>
+    <mergeCell ref="A115:B121"/>
+    <mergeCell ref="A123:B129"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6011,11 +6238,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H126"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
@@ -6031,56 +6258,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
     </row>
     <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
     </row>
     <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
     </row>
     <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -6119,13 +6346,13 @@
         <v>137</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="39"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="47"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="40"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="42"/>
       <c r="C8" s="6"/>
       <c r="D8" s="1"/>
       <c r="E8" s="6"/>
@@ -6134,8 +6361,8 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="41"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="6"/>
       <c r="D9" s="1"/>
       <c r="E9" s="6"/>
@@ -6144,8 +6371,8 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="41"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="6"/>
       <c r="D10" s="1"/>
       <c r="E10" s="6"/>
@@ -6154,8 +6381,8 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
-      <c r="B11" s="41"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="6"/>
       <c r="D11" s="1"/>
       <c r="E11" s="6"/>
@@ -6164,8 +6391,8 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
-      <c r="B12" s="41"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="6"/>
       <c r="D12" s="1"/>
       <c r="E12" s="6"/>
@@ -6174,8 +6401,8 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
-      <c r="B13" s="41"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="6"/>
       <c r="D13" s="1"/>
       <c r="E13" s="6"/>
@@ -6184,8 +6411,8 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="42"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -6204,13 +6431,13 @@
         <v>138</v>
       </c>
       <c r="E15" s="6"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="39"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="47"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="40"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="42"/>
       <c r="C16" s="6"/>
       <c r="D16" s="1"/>
       <c r="E16" s="6"/>
@@ -6219,8 +6446,8 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="41"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="43"/>
       <c r="C17" s="6"/>
       <c r="D17" s="1"/>
       <c r="E17" s="6"/>
@@ -6229,8 +6456,8 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="41"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="43"/>
       <c r="C18" s="6"/>
       <c r="D18" s="1"/>
       <c r="E18" s="6"/>
@@ -6239,8 +6466,8 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="41"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="43"/>
       <c r="C19" s="6"/>
       <c r="D19" s="1"/>
       <c r="E19" s="6"/>
@@ -6249,8 +6476,8 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="41"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="43"/>
       <c r="C20" s="6"/>
       <c r="D20" s="1"/>
       <c r="E20" s="6"/>
@@ -6259,8 +6486,8 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="41"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="43"/>
       <c r="C21" s="6"/>
       <c r="D21" s="1"/>
       <c r="E21" s="6"/>
@@ -6269,8 +6496,8 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-      <c r="B22" s="42"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -6289,13 +6516,13 @@
         <v>146</v>
       </c>
       <c r="E23" s="26"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="39"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="47"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
-      <c r="B24" s="40"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="42"/>
       <c r="C24" s="26"/>
       <c r="D24" s="1"/>
       <c r="E24" s="26"/>
@@ -6304,8 +6531,8 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="41"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="43"/>
       <c r="C25" s="26"/>
       <c r="D25" s="1"/>
       <c r="E25" s="26"/>
@@ -6314,8 +6541,8 @@
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
-      <c r="B26" s="41"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="43"/>
       <c r="C26" s="26"/>
       <c r="D26" s="1"/>
       <c r="E26" s="26"/>
@@ -6324,8 +6551,8 @@
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
-      <c r="B27" s="41"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="43"/>
       <c r="C27" s="26"/>
       <c r="D27" s="1"/>
       <c r="E27" s="26"/>
@@ -6334,8 +6561,8 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
-      <c r="B28" s="41"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="43"/>
       <c r="C28" s="26"/>
       <c r="D28" s="1"/>
       <c r="E28" s="26"/>
@@ -6344,8 +6571,8 @@
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
-      <c r="B29" s="41"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="43"/>
       <c r="C29" s="26"/>
       <c r="D29" s="1"/>
       <c r="E29" s="26"/>
@@ -6354,8 +6581,8 @@
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
-      <c r="B30" s="42"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
@@ -6374,13 +6601,13 @@
         <v>147</v>
       </c>
       <c r="E31" s="26"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="39"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="47"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
-      <c r="B32" s="40"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="42"/>
       <c r="C32" s="26"/>
       <c r="D32" s="1"/>
       <c r="E32" s="26"/>
@@ -6389,8 +6616,8 @@
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="32"/>
-      <c r="B33" s="41"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="43"/>
       <c r="C33" s="26"/>
       <c r="D33" s="1"/>
       <c r="E33" s="26"/>
@@ -6399,8 +6626,8 @@
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="32"/>
-      <c r="B34" s="41"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="43"/>
       <c r="C34" s="26"/>
       <c r="D34" s="1"/>
       <c r="E34" s="26"/>
@@ -6409,8 +6636,8 @@
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="32"/>
-      <c r="B35" s="41"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="43"/>
       <c r="C35" s="26"/>
       <c r="D35" s="1"/>
       <c r="E35" s="26"/>
@@ -6419,8 +6646,8 @@
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="32"/>
-      <c r="B36" s="41"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="43"/>
       <c r="C36" s="26"/>
       <c r="D36" s="1"/>
       <c r="E36" s="26"/>
@@ -6429,8 +6656,8 @@
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="32"/>
-      <c r="B37" s="41"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="43"/>
       <c r="C37" s="26"/>
       <c r="D37" s="1"/>
       <c r="E37" s="26"/>
@@ -6439,8 +6666,8 @@
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="34"/>
-      <c r="B38" s="42"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="44"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
@@ -6459,13 +6686,13 @@
         <v>149</v>
       </c>
       <c r="E39" s="26"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="39"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="47"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="30"/>
-      <c r="B40" s="40"/>
+      <c r="A40" s="35"/>
+      <c r="B40" s="42"/>
       <c r="C40" s="26"/>
       <c r="D40" s="1"/>
       <c r="E40" s="26"/>
@@ -6474,8 +6701,8 @@
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="32"/>
-      <c r="B41" s="41"/>
+      <c r="A41" s="37"/>
+      <c r="B41" s="43"/>
       <c r="C41" s="26"/>
       <c r="D41" s="1"/>
       <c r="E41" s="26"/>
@@ -6484,8 +6711,8 @@
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="32"/>
-      <c r="B42" s="41"/>
+      <c r="A42" s="37"/>
+      <c r="B42" s="43"/>
       <c r="C42" s="26"/>
       <c r="D42" s="1"/>
       <c r="E42" s="26"/>
@@ -6494,8 +6721,8 @@
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="32"/>
-      <c r="B43" s="41"/>
+      <c r="A43" s="37"/>
+      <c r="B43" s="43"/>
       <c r="C43" s="26"/>
       <c r="D43" s="1"/>
       <c r="E43" s="26"/>
@@ -6504,8 +6731,8 @@
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="32"/>
-      <c r="B44" s="41"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="43"/>
       <c r="C44" s="26"/>
       <c r="D44" s="1"/>
       <c r="E44" s="26"/>
@@ -6514,8 +6741,8 @@
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="32"/>
-      <c r="B45" s="41"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="43"/>
       <c r="C45" s="26"/>
       <c r="D45" s="1"/>
       <c r="E45" s="26"/>
@@ -6524,8 +6751,8 @@
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="34"/>
-      <c r="B46" s="42"/>
+      <c r="A46" s="39"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
@@ -6544,13 +6771,13 @@
         <v>150</v>
       </c>
       <c r="E47" s="26"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="39"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="47"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="30"/>
-      <c r="B48" s="40"/>
+      <c r="A48" s="35"/>
+      <c r="B48" s="42"/>
       <c r="C48" s="26"/>
       <c r="D48" s="1"/>
       <c r="E48" s="26"/>
@@ -6559,8 +6786,8 @@
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="32"/>
-      <c r="B49" s="41"/>
+      <c r="A49" s="37"/>
+      <c r="B49" s="43"/>
       <c r="C49" s="26"/>
       <c r="D49" s="1"/>
       <c r="E49" s="26"/>
@@ -6569,8 +6796,8 @@
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="32"/>
-      <c r="B50" s="41"/>
+      <c r="A50" s="37"/>
+      <c r="B50" s="43"/>
       <c r="C50" s="26"/>
       <c r="D50" s="1"/>
       <c r="E50" s="26"/>
@@ -6579,8 +6806,8 @@
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="32"/>
-      <c r="B51" s="41"/>
+      <c r="A51" s="37"/>
+      <c r="B51" s="43"/>
       <c r="C51" s="26"/>
       <c r="D51" s="1"/>
       <c r="E51" s="26"/>
@@ -6589,8 +6816,8 @@
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="32"/>
-      <c r="B52" s="41"/>
+      <c r="A52" s="37"/>
+      <c r="B52" s="43"/>
       <c r="C52" s="26"/>
       <c r="D52" s="1"/>
       <c r="E52" s="26"/>
@@ -6599,8 +6826,8 @@
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="32"/>
-      <c r="B53" s="41"/>
+      <c r="A53" s="37"/>
+      <c r="B53" s="43"/>
       <c r="C53" s="26"/>
       <c r="D53" s="1"/>
       <c r="E53" s="26"/>
@@ -6609,8 +6836,8 @@
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="34"/>
-      <c r="B54" s="42"/>
+      <c r="A54" s="39"/>
+      <c r="B54" s="44"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
@@ -6629,13 +6856,13 @@
         <v>155</v>
       </c>
       <c r="E55" s="26"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="39"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="47"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="30"/>
-      <c r="B56" s="40"/>
+      <c r="A56" s="35"/>
+      <c r="B56" s="42"/>
       <c r="C56" s="26"/>
       <c r="D56" s="1"/>
       <c r="E56" s="26"/>
@@ -6644,8 +6871,8 @@
       <c r="H56" s="1"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="32"/>
-      <c r="B57" s="41"/>
+      <c r="A57" s="37"/>
+      <c r="B57" s="43"/>
       <c r="C57" s="26"/>
       <c r="D57" s="1"/>
       <c r="E57" s="26"/>
@@ -6654,8 +6881,8 @@
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="32"/>
-      <c r="B58" s="41"/>
+      <c r="A58" s="37"/>
+      <c r="B58" s="43"/>
       <c r="C58" s="26"/>
       <c r="D58" s="1"/>
       <c r="E58" s="26"/>
@@ -6664,8 +6891,8 @@
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="32"/>
-      <c r="B59" s="41"/>
+      <c r="A59" s="37"/>
+      <c r="B59" s="43"/>
       <c r="C59" s="26"/>
       <c r="D59" s="1"/>
       <c r="E59" s="26"/>
@@ -6674,8 +6901,8 @@
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="32"/>
-      <c r="B60" s="41"/>
+      <c r="A60" s="37"/>
+      <c r="B60" s="43"/>
       <c r="C60" s="26"/>
       <c r="D60" s="1"/>
       <c r="E60" s="26"/>
@@ -6684,8 +6911,8 @@
       <c r="H60" s="1"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="32"/>
-      <c r="B61" s="41"/>
+      <c r="A61" s="37"/>
+      <c r="B61" s="43"/>
       <c r="C61" s="26"/>
       <c r="D61" s="1"/>
       <c r="E61" s="26"/>
@@ -6694,8 +6921,8 @@
       <c r="H61" s="1"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="34"/>
-      <c r="B62" s="42"/>
+      <c r="A62" s="39"/>
+      <c r="B62" s="44"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
       <c r="E62" s="10"/>
@@ -6714,13 +6941,13 @@
         <v>156</v>
       </c>
       <c r="E63" s="26"/>
-      <c r="F63" s="37"/>
-      <c r="G63" s="38"/>
-      <c r="H63" s="39"/>
+      <c r="F63" s="45"/>
+      <c r="G63" s="46"/>
+      <c r="H63" s="47"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="30"/>
-      <c r="B64" s="40"/>
+      <c r="A64" s="35"/>
+      <c r="B64" s="42"/>
       <c r="C64" s="26"/>
       <c r="D64" s="1"/>
       <c r="E64" s="26"/>
@@ -6729,8 +6956,8 @@
       <c r="H64" s="1"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="32"/>
-      <c r="B65" s="41"/>
+      <c r="A65" s="37"/>
+      <c r="B65" s="43"/>
       <c r="C65" s="26"/>
       <c r="D65" s="1"/>
       <c r="E65" s="26"/>
@@ -6739,8 +6966,8 @@
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="32"/>
-      <c r="B66" s="41"/>
+      <c r="A66" s="37"/>
+      <c r="B66" s="43"/>
       <c r="C66" s="26"/>
       <c r="D66" s="1"/>
       <c r="E66" s="26"/>
@@ -6749,8 +6976,8 @@
       <c r="H66" s="1"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="32"/>
-      <c r="B67" s="41"/>
+      <c r="A67" s="37"/>
+      <c r="B67" s="43"/>
       <c r="C67" s="26"/>
       <c r="D67" s="1"/>
       <c r="E67" s="26"/>
@@ -6759,8 +6986,8 @@
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="32"/>
-      <c r="B68" s="41"/>
+      <c r="A68" s="37"/>
+      <c r="B68" s="43"/>
       <c r="C68" s="26"/>
       <c r="D68" s="1"/>
       <c r="E68" s="26"/>
@@ -6769,8 +6996,8 @@
       <c r="H68" s="1"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="32"/>
-      <c r="B69" s="41"/>
+      <c r="A69" s="37"/>
+      <c r="B69" s="43"/>
       <c r="C69" s="26"/>
       <c r="D69" s="1"/>
       <c r="E69" s="26"/>
@@ -6779,8 +7006,8 @@
       <c r="H69" s="1"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="34"/>
-      <c r="B70" s="42"/>
+      <c r="A70" s="39"/>
+      <c r="B70" s="44"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
       <c r="E70" s="10"/>
@@ -6799,13 +7026,13 @@
         <v>160</v>
       </c>
       <c r="E71" s="26"/>
-      <c r="F71" s="37"/>
-      <c r="G71" s="38"/>
-      <c r="H71" s="39"/>
+      <c r="F71" s="45"/>
+      <c r="G71" s="46"/>
+      <c r="H71" s="47"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="30"/>
-      <c r="B72" s="40"/>
+      <c r="A72" s="35"/>
+      <c r="B72" s="42"/>
       <c r="C72" s="26"/>
       <c r="D72" s="1"/>
       <c r="E72" s="26"/>
@@ -6814,8 +7041,8 @@
       <c r="H72" s="1"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="32"/>
-      <c r="B73" s="41"/>
+      <c r="A73" s="37"/>
+      <c r="B73" s="43"/>
       <c r="C73" s="26"/>
       <c r="D73" s="1"/>
       <c r="E73" s="26"/>
@@ -6824,8 +7051,8 @@
       <c r="H73" s="1"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="32"/>
-      <c r="B74" s="41"/>
+      <c r="A74" s="37"/>
+      <c r="B74" s="43"/>
       <c r="C74" s="26"/>
       <c r="D74" s="1"/>
       <c r="E74" s="26"/>
@@ -6834,8 +7061,8 @@
       <c r="H74" s="1"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="32"/>
-      <c r="B75" s="41"/>
+      <c r="A75" s="37"/>
+      <c r="B75" s="43"/>
       <c r="C75" s="26"/>
       <c r="D75" s="1"/>
       <c r="E75" s="26"/>
@@ -6844,8 +7071,8 @@
       <c r="H75" s="1"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="32"/>
-      <c r="B76" s="41"/>
+      <c r="A76" s="37"/>
+      <c r="B76" s="43"/>
       <c r="C76" s="26"/>
       <c r="D76" s="1"/>
       <c r="E76" s="26"/>
@@ -6854,8 +7081,8 @@
       <c r="H76" s="1"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="32"/>
-      <c r="B77" s="41"/>
+      <c r="A77" s="37"/>
+      <c r="B77" s="43"/>
       <c r="C77" s="26"/>
       <c r="D77" s="1"/>
       <c r="E77" s="26"/>
@@ -6864,8 +7091,8 @@
       <c r="H77" s="1"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="34"/>
-      <c r="B78" s="42"/>
+      <c r="A78" s="39"/>
+      <c r="B78" s="44"/>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
       <c r="E78" s="10"/>
@@ -6884,13 +7111,13 @@
         <v>159</v>
       </c>
       <c r="E79" s="26"/>
-      <c r="F79" s="37"/>
-      <c r="G79" s="38"/>
-      <c r="H79" s="39"/>
+      <c r="F79" s="45"/>
+      <c r="G79" s="46"/>
+      <c r="H79" s="47"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="30"/>
-      <c r="B80" s="40"/>
+      <c r="A80" s="35"/>
+      <c r="B80" s="42"/>
       <c r="C80" s="26"/>
       <c r="D80" s="1"/>
       <c r="E80" s="26"/>
@@ -6899,8 +7126,8 @@
       <c r="H80" s="1"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="32"/>
-      <c r="B81" s="41"/>
+      <c r="A81" s="37"/>
+      <c r="B81" s="43"/>
       <c r="C81" s="26"/>
       <c r="D81" s="1"/>
       <c r="E81" s="26"/>
@@ -6909,8 +7136,8 @@
       <c r="H81" s="1"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="32"/>
-      <c r="B82" s="41"/>
+      <c r="A82" s="37"/>
+      <c r="B82" s="43"/>
       <c r="C82" s="26"/>
       <c r="D82" s="1"/>
       <c r="E82" s="26"/>
@@ -6919,8 +7146,8 @@
       <c r="H82" s="1"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="32"/>
-      <c r="B83" s="41"/>
+      <c r="A83" s="37"/>
+      <c r="B83" s="43"/>
       <c r="C83" s="26"/>
       <c r="D83" s="1"/>
       <c r="E83" s="26"/>
@@ -6929,8 +7156,8 @@
       <c r="H83" s="1"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="32"/>
-      <c r="B84" s="41"/>
+      <c r="A84" s="37"/>
+      <c r="B84" s="43"/>
       <c r="C84" s="26"/>
       <c r="D84" s="1"/>
       <c r="E84" s="26"/>
@@ -6939,8 +7166,8 @@
       <c r="H84" s="1"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="32"/>
-      <c r="B85" s="41"/>
+      <c r="A85" s="37"/>
+      <c r="B85" s="43"/>
       <c r="C85" s="26"/>
       <c r="D85" s="1"/>
       <c r="E85" s="26"/>
@@ -6949,8 +7176,8 @@
       <c r="H85" s="1"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="34"/>
-      <c r="B86" s="42"/>
+      <c r="A86" s="39"/>
+      <c r="B86" s="44"/>
       <c r="C86" s="10"/>
       <c r="D86" s="10"/>
       <c r="E86" s="10"/>
@@ -6969,13 +7196,13 @@
         <v>73</v>
       </c>
       <c r="E87" s="26"/>
-      <c r="F87" s="37"/>
-      <c r="G87" s="38"/>
-      <c r="H87" s="39"/>
+      <c r="F87" s="45"/>
+      <c r="G87" s="46"/>
+      <c r="H87" s="47"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="30"/>
-      <c r="B88" s="40"/>
+      <c r="A88" s="35"/>
+      <c r="B88" s="42"/>
       <c r="C88" s="26"/>
       <c r="D88" s="1"/>
       <c r="E88" s="26"/>
@@ -6984,8 +7211,8 @@
       <c r="H88" s="1"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="32"/>
-      <c r="B89" s="41"/>
+      <c r="A89" s="37"/>
+      <c r="B89" s="43"/>
       <c r="C89" s="26"/>
       <c r="D89" s="1"/>
       <c r="E89" s="26"/>
@@ -6994,8 +7221,8 @@
       <c r="H89" s="1"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="32"/>
-      <c r="B90" s="41"/>
+      <c r="A90" s="37"/>
+      <c r="B90" s="43"/>
       <c r="C90" s="26"/>
       <c r="D90" s="1"/>
       <c r="E90" s="26"/>
@@ -7004,8 +7231,8 @@
       <c r="H90" s="1"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="32"/>
-      <c r="B91" s="41"/>
+      <c r="A91" s="37"/>
+      <c r="B91" s="43"/>
       <c r="C91" s="26"/>
       <c r="D91" s="1"/>
       <c r="E91" s="26"/>
@@ -7014,8 +7241,8 @@
       <c r="H91" s="1"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="32"/>
-      <c r="B92" s="41"/>
+      <c r="A92" s="37"/>
+      <c r="B92" s="43"/>
       <c r="C92" s="26"/>
       <c r="D92" s="1"/>
       <c r="E92" s="26"/>
@@ -7024,8 +7251,8 @@
       <c r="H92" s="1"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="32"/>
-      <c r="B93" s="41"/>
+      <c r="A93" s="37"/>
+      <c r="B93" s="43"/>
       <c r="C93" s="26"/>
       <c r="D93" s="1"/>
       <c r="E93" s="26"/>
@@ -7034,8 +7261,8 @@
       <c r="H93" s="1"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="34"/>
-      <c r="B94" s="42"/>
+      <c r="A94" s="39"/>
+      <c r="B94" s="44"/>
       <c r="C94" s="10"/>
       <c r="D94" s="10"/>
       <c r="E94" s="10"/>
@@ -7054,13 +7281,13 @@
         <v>74</v>
       </c>
       <c r="E95" s="26"/>
-      <c r="F95" s="37"/>
-      <c r="G95" s="38"/>
-      <c r="H95" s="39"/>
+      <c r="F95" s="45"/>
+      <c r="G95" s="46"/>
+      <c r="H95" s="47"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="30"/>
-      <c r="B96" s="40"/>
+      <c r="A96" s="35"/>
+      <c r="B96" s="42"/>
       <c r="C96" s="26"/>
       <c r="D96" s="1"/>
       <c r="E96" s="26"/>
@@ -7069,8 +7296,8 @@
       <c r="H96" s="1"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="32"/>
-      <c r="B97" s="41"/>
+      <c r="A97" s="37"/>
+      <c r="B97" s="43"/>
       <c r="C97" s="26"/>
       <c r="D97" s="1"/>
       <c r="E97" s="26"/>
@@ -7079,8 +7306,8 @@
       <c r="H97" s="1"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="32"/>
-      <c r="B98" s="41"/>
+      <c r="A98" s="37"/>
+      <c r="B98" s="43"/>
       <c r="C98" s="26"/>
       <c r="D98" s="1"/>
       <c r="E98" s="26"/>
@@ -7089,8 +7316,8 @@
       <c r="H98" s="1"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="32"/>
-      <c r="B99" s="41"/>
+      <c r="A99" s="37"/>
+      <c r="B99" s="43"/>
       <c r="C99" s="26"/>
       <c r="D99" s="1"/>
       <c r="E99" s="26"/>
@@ -7099,8 +7326,8 @@
       <c r="H99" s="1"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="32"/>
-      <c r="B100" s="41"/>
+      <c r="A100" s="37"/>
+      <c r="B100" s="43"/>
       <c r="C100" s="26"/>
       <c r="D100" s="1"/>
       <c r="E100" s="26"/>
@@ -7109,8 +7336,8 @@
       <c r="H100" s="1"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="32"/>
-      <c r="B101" s="41"/>
+      <c r="A101" s="37"/>
+      <c r="B101" s="43"/>
       <c r="C101" s="26"/>
       <c r="D101" s="1"/>
       <c r="E101" s="26"/>
@@ -7119,8 +7346,8 @@
       <c r="H101" s="1"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="34"/>
-      <c r="B102" s="42"/>
+      <c r="A102" s="39"/>
+      <c r="B102" s="44"/>
       <c r="C102" s="10"/>
       <c r="D102" s="10"/>
       <c r="E102" s="10"/>
@@ -7139,13 +7366,13 @@
         <v>75</v>
       </c>
       <c r="E103" s="26"/>
-      <c r="F103" s="37"/>
-      <c r="G103" s="38"/>
-      <c r="H103" s="39"/>
+      <c r="F103" s="45"/>
+      <c r="G103" s="46"/>
+      <c r="H103" s="47"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="30"/>
-      <c r="B104" s="40"/>
+      <c r="A104" s="35"/>
+      <c r="B104" s="42"/>
       <c r="C104" s="26"/>
       <c r="D104" s="1"/>
       <c r="E104" s="26"/>
@@ -7154,8 +7381,8 @@
       <c r="H104" s="1"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="32"/>
-      <c r="B105" s="41"/>
+      <c r="A105" s="37"/>
+      <c r="B105" s="43"/>
       <c r="C105" s="26"/>
       <c r="D105" s="1"/>
       <c r="E105" s="26"/>
@@ -7164,8 +7391,8 @@
       <c r="H105" s="1"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="32"/>
-      <c r="B106" s="41"/>
+      <c r="A106" s="37"/>
+      <c r="B106" s="43"/>
       <c r="C106" s="26"/>
       <c r="D106" s="1"/>
       <c r="E106" s="26"/>
@@ -7174,8 +7401,8 @@
       <c r="H106" s="1"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="32"/>
-      <c r="B107" s="41"/>
+      <c r="A107" s="37"/>
+      <c r="B107" s="43"/>
       <c r="C107" s="26"/>
       <c r="D107" s="1"/>
       <c r="E107" s="26"/>
@@ -7184,8 +7411,8 @@
       <c r="H107" s="1"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="32"/>
-      <c r="B108" s="41"/>
+      <c r="A108" s="37"/>
+      <c r="B108" s="43"/>
       <c r="C108" s="26"/>
       <c r="D108" s="1"/>
       <c r="E108" s="26"/>
@@ -7194,8 +7421,8 @@
       <c r="H108" s="1"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="32"/>
-      <c r="B109" s="41"/>
+      <c r="A109" s="37"/>
+      <c r="B109" s="43"/>
       <c r="C109" s="26"/>
       <c r="D109" s="1"/>
       <c r="E109" s="26"/>
@@ -7204,8 +7431,8 @@
       <c r="H109" s="1"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="34"/>
-      <c r="B110" s="42"/>
+      <c r="A110" s="39"/>
+      <c r="B110" s="44"/>
       <c r="C110" s="10"/>
       <c r="D110" s="10"/>
       <c r="E110" s="10"/>
@@ -7224,13 +7451,13 @@
         <v>176</v>
       </c>
       <c r="E111" s="26"/>
-      <c r="F111" s="37"/>
-      <c r="G111" s="38"/>
-      <c r="H111" s="39"/>
+      <c r="F111" s="45"/>
+      <c r="G111" s="46"/>
+      <c r="H111" s="47"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="30"/>
-      <c r="B112" s="40"/>
+      <c r="A112" s="35"/>
+      <c r="B112" s="42"/>
       <c r="C112" s="26"/>
       <c r="D112" s="1"/>
       <c r="E112" s="26"/>
@@ -7239,8 +7466,8 @@
       <c r="H112" s="1"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="32"/>
-      <c r="B113" s="41"/>
+      <c r="A113" s="37"/>
+      <c r="B113" s="43"/>
       <c r="C113" s="26"/>
       <c r="D113" s="1"/>
       <c r="E113" s="26"/>
@@ -7249,8 +7476,8 @@
       <c r="H113" s="1"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="32"/>
-      <c r="B114" s="41"/>
+      <c r="A114" s="37"/>
+      <c r="B114" s="43"/>
       <c r="C114" s="26"/>
       <c r="D114" s="1"/>
       <c r="E114" s="26"/>
@@ -7259,8 +7486,8 @@
       <c r="H114" s="1"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="32"/>
-      <c r="B115" s="41"/>
+      <c r="A115" s="37"/>
+      <c r="B115" s="43"/>
       <c r="C115" s="26"/>
       <c r="D115" s="1"/>
       <c r="E115" s="26"/>
@@ -7269,8 +7496,8 @@
       <c r="H115" s="1"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="32"/>
-      <c r="B116" s="41"/>
+      <c r="A116" s="37"/>
+      <c r="B116" s="43"/>
       <c r="C116" s="26"/>
       <c r="D116" s="1"/>
       <c r="E116" s="26"/>
@@ -7279,8 +7506,8 @@
       <c r="H116" s="1"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="32"/>
-      <c r="B117" s="41"/>
+      <c r="A117" s="37"/>
+      <c r="B117" s="43"/>
       <c r="C117" s="26"/>
       <c r="D117" s="1"/>
       <c r="E117" s="26"/>
@@ -7289,8 +7516,8 @@
       <c r="H117" s="1"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="34"/>
-      <c r="B118" s="42"/>
+      <c r="A118" s="39"/>
+      <c r="B118" s="44"/>
       <c r="C118" s="10"/>
       <c r="D118" s="10"/>
       <c r="E118" s="10"/>
@@ -7304,13 +7531,13 @@
       <c r="C119" s="26"/>
       <c r="D119" s="4"/>
       <c r="E119" s="26"/>
-      <c r="F119" s="37"/>
-      <c r="G119" s="38"/>
-      <c r="H119" s="39"/>
+      <c r="F119" s="45"/>
+      <c r="G119" s="46"/>
+      <c r="H119" s="47"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="30"/>
-      <c r="B120" s="40"/>
+      <c r="A120" s="35"/>
+      <c r="B120" s="42"/>
       <c r="C120" s="26"/>
       <c r="D120" s="1"/>
       <c r="E120" s="26"/>
@@ -7319,8 +7546,8 @@
       <c r="H120" s="1"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="32"/>
-      <c r="B121" s="41"/>
+      <c r="A121" s="37"/>
+      <c r="B121" s="43"/>
       <c r="C121" s="26"/>
       <c r="D121" s="1"/>
       <c r="E121" s="26"/>
@@ -7329,8 +7556,8 @@
       <c r="H121" s="1"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="32"/>
-      <c r="B122" s="41"/>
+      <c r="A122" s="37"/>
+      <c r="B122" s="43"/>
       <c r="C122" s="26"/>
       <c r="D122" s="1"/>
       <c r="E122" s="26"/>
@@ -7339,8 +7566,8 @@
       <c r="H122" s="1"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="32"/>
-      <c r="B123" s="41"/>
+      <c r="A123" s="37"/>
+      <c r="B123" s="43"/>
       <c r="C123" s="26"/>
       <c r="D123" s="1"/>
       <c r="E123" s="26"/>
@@ -7349,8 +7576,8 @@
       <c r="H123" s="1"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="32"/>
-      <c r="B124" s="41"/>
+      <c r="A124" s="37"/>
+      <c r="B124" s="43"/>
       <c r="C124" s="26"/>
       <c r="D124" s="1"/>
       <c r="E124" s="26"/>
@@ -7359,8 +7586,8 @@
       <c r="H124" s="1"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="32"/>
-      <c r="B125" s="41"/>
+      <c r="A125" s="37"/>
+      <c r="B125" s="43"/>
       <c r="C125" s="26"/>
       <c r="D125" s="1"/>
       <c r="E125" s="26"/>
@@ -7369,8 +7596,8 @@
       <c r="H125" s="1"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="34"/>
-      <c r="B126" s="42"/>
+      <c r="A126" s="39"/>
+      <c r="B126" s="44"/>
       <c r="C126" s="10"/>
       <c r="D126" s="10"/>
       <c r="E126" s="10"/>
@@ -7380,47 +7607,47 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A1:H5"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="A8:B14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="A16:B22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="A24:B30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="A32:B38"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="A40:B46"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="A48:B54"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="A56:B62"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="A64:B70"/>
+    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="A72:B78"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="A80:B86"/>
+    <mergeCell ref="F87:H87"/>
+    <mergeCell ref="A88:B94"/>
+    <mergeCell ref="F95:H95"/>
+    <mergeCell ref="A96:B102"/>
     <mergeCell ref="A120:B126"/>
     <mergeCell ref="F103:H103"/>
     <mergeCell ref="A104:B110"/>
     <mergeCell ref="F111:H111"/>
     <mergeCell ref="A112:B118"/>
     <mergeCell ref="F119:H119"/>
-    <mergeCell ref="A80:B86"/>
-    <mergeCell ref="F87:H87"/>
-    <mergeCell ref="A88:B94"/>
-    <mergeCell ref="F95:H95"/>
-    <mergeCell ref="A96:B102"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="A64:B70"/>
-    <mergeCell ref="F71:H71"/>
-    <mergeCell ref="A72:B78"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="A40:B46"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="A48:B54"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="A56:B62"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="A24:B30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="A32:B38"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="A1:H5"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="A8:B14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="A16:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
@@ -7433,56 +7660,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
     </row>
     <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -7521,13 +7748,13 @@
         <v>143</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="39"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="47"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="40"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="42"/>
       <c r="C8" s="6"/>
       <c r="D8" s="1"/>
       <c r="E8" s="6"/>
@@ -7536,8 +7763,8 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="41"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="6"/>
       <c r="D9" s="1"/>
       <c r="E9" s="6"/>
@@ -7546,8 +7773,8 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="41"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="6"/>
       <c r="D10" s="1"/>
       <c r="E10" s="6"/>
@@ -7556,8 +7783,8 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
-      <c r="B11" s="41"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="6"/>
       <c r="D11" s="1"/>
       <c r="E11" s="6"/>
@@ -7566,8 +7793,8 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
-      <c r="B12" s="41"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="6"/>
       <c r="D12" s="1"/>
       <c r="E12" s="6"/>
@@ -7576,8 +7803,8 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
-      <c r="B13" s="41"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="6"/>
       <c r="D13" s="1"/>
       <c r="E13" s="6"/>
@@ -7586,8 +7813,8 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="42"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -7606,13 +7833,13 @@
         <v>144</v>
       </c>
       <c r="E15" s="6"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="39"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="47"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="40"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="42"/>
       <c r="C16" s="6"/>
       <c r="D16" s="1"/>
       <c r="E16" s="6"/>
@@ -7621,8 +7848,8 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="41"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="43"/>
       <c r="C17" s="6"/>
       <c r="D17" s="1"/>
       <c r="E17" s="6"/>
@@ -7631,8 +7858,8 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="41"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="43"/>
       <c r="C18" s="6"/>
       <c r="D18" s="1"/>
       <c r="E18" s="6"/>
@@ -7641,8 +7868,8 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="41"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="43"/>
       <c r="C19" s="6"/>
       <c r="D19" s="1"/>
       <c r="E19" s="6"/>
@@ -7651,8 +7878,8 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="41"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="43"/>
       <c r="C20" s="6"/>
       <c r="D20" s="1"/>
       <c r="E20" s="6"/>
@@ -7661,8 +7888,8 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="41"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="43"/>
       <c r="C21" s="6"/>
       <c r="D21" s="1"/>
       <c r="E21" s="6"/>
@@ -7671,8 +7898,8 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-      <c r="B22" s="42"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -7691,13 +7918,13 @@
         <v>153</v>
       </c>
       <c r="E23" s="26"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="39"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="47"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
-      <c r="B24" s="40"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="42"/>
       <c r="C24" s="26"/>
       <c r="D24" s="1"/>
       <c r="E24" s="26"/>
@@ -7706,8 +7933,8 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="41"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="43"/>
       <c r="C25" s="26"/>
       <c r="D25" s="1"/>
       <c r="E25" s="26"/>
@@ -7716,8 +7943,8 @@
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
-      <c r="B26" s="41"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="43"/>
       <c r="C26" s="26"/>
       <c r="D26" s="1"/>
       <c r="E26" s="26"/>
@@ -7726,8 +7953,8 @@
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
-      <c r="B27" s="41"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="43"/>
       <c r="C27" s="26"/>
       <c r="D27" s="1"/>
       <c r="E27" s="26"/>
@@ -7736,8 +7963,8 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
-      <c r="B28" s="41"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="43"/>
       <c r="C28" s="26"/>
       <c r="D28" s="1"/>
       <c r="E28" s="26"/>
@@ -7746,8 +7973,8 @@
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
-      <c r="B29" s="41"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="43"/>
       <c r="C29" s="26"/>
       <c r="D29" s="1"/>
       <c r="E29" s="26"/>
@@ -7756,8 +7983,8 @@
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
-      <c r="B30" s="42"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
@@ -7776,13 +8003,13 @@
         <v>77</v>
       </c>
       <c r="E31" s="26"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="39"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="47"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
-      <c r="B32" s="40"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="42"/>
       <c r="C32" s="26"/>
       <c r="D32" s="1"/>
       <c r="E32" s="26"/>
@@ -7791,8 +8018,8 @@
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="32"/>
-      <c r="B33" s="41"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="43"/>
       <c r="C33" s="26"/>
       <c r="D33" s="1"/>
       <c r="E33" s="26"/>
@@ -7801,8 +8028,8 @@
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="32"/>
-      <c r="B34" s="41"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="43"/>
       <c r="C34" s="26"/>
       <c r="D34" s="1"/>
       <c r="E34" s="26"/>
@@ -7811,8 +8038,8 @@
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="32"/>
-      <c r="B35" s="41"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="43"/>
       <c r="C35" s="26"/>
       <c r="D35" s="1"/>
       <c r="E35" s="26"/>
@@ -7821,8 +8048,8 @@
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="32"/>
-      <c r="B36" s="41"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="43"/>
       <c r="C36" s="26"/>
       <c r="D36" s="1"/>
       <c r="E36" s="26"/>
@@ -7831,8 +8058,8 @@
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="32"/>
-      <c r="B37" s="41"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="43"/>
       <c r="C37" s="26"/>
       <c r="D37" s="1"/>
       <c r="E37" s="26"/>
@@ -7841,8 +8068,8 @@
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="34"/>
-      <c r="B38" s="42"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="44"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
@@ -7861,13 +8088,13 @@
         <v>78</v>
       </c>
       <c r="E39" s="26"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="39"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="47"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="30"/>
-      <c r="B40" s="40"/>
+      <c r="A40" s="35"/>
+      <c r="B40" s="42"/>
       <c r="C40" s="26"/>
       <c r="D40" s="1"/>
       <c r="E40" s="26"/>
@@ -7876,8 +8103,8 @@
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="32"/>
-      <c r="B41" s="41"/>
+      <c r="A41" s="37"/>
+      <c r="B41" s="43"/>
       <c r="C41" s="26"/>
       <c r="D41" s="1"/>
       <c r="E41" s="26"/>
@@ -7886,8 +8113,8 @@
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="32"/>
-      <c r="B42" s="41"/>
+      <c r="A42" s="37"/>
+      <c r="B42" s="43"/>
       <c r="C42" s="26"/>
       <c r="D42" s="1"/>
       <c r="E42" s="26"/>
@@ -7896,8 +8123,8 @@
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="32"/>
-      <c r="B43" s="41"/>
+      <c r="A43" s="37"/>
+      <c r="B43" s="43"/>
       <c r="C43" s="26"/>
       <c r="D43" s="1"/>
       <c r="E43" s="26"/>
@@ -7906,8 +8133,8 @@
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="32"/>
-      <c r="B44" s="41"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="43"/>
       <c r="C44" s="26"/>
       <c r="D44" s="1"/>
       <c r="E44" s="26"/>
@@ -7916,8 +8143,8 @@
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="32"/>
-      <c r="B45" s="41"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="43"/>
       <c r="C45" s="26"/>
       <c r="D45" s="1"/>
       <c r="E45" s="26"/>
@@ -7926,8 +8153,8 @@
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="34"/>
-      <c r="B46" s="42"/>
+      <c r="A46" s="39"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
@@ -7946,13 +8173,13 @@
         <v>79</v>
       </c>
       <c r="E47" s="26"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="39"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="47"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="30"/>
-      <c r="B48" s="40"/>
+      <c r="A48" s="35"/>
+      <c r="B48" s="42"/>
       <c r="C48" s="26"/>
       <c r="D48" s="1"/>
       <c r="E48" s="26"/>
@@ -7961,8 +8188,8 @@
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="32"/>
-      <c r="B49" s="41"/>
+      <c r="A49" s="37"/>
+      <c r="B49" s="43"/>
       <c r="C49" s="26"/>
       <c r="D49" s="1"/>
       <c r="E49" s="26"/>
@@ -7971,8 +8198,8 @@
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="32"/>
-      <c r="B50" s="41"/>
+      <c r="A50" s="37"/>
+      <c r="B50" s="43"/>
       <c r="C50" s="26"/>
       <c r="D50" s="1"/>
       <c r="E50" s="26"/>
@@ -7981,8 +8208,8 @@
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="32"/>
-      <c r="B51" s="41"/>
+      <c r="A51" s="37"/>
+      <c r="B51" s="43"/>
       <c r="C51" s="26"/>
       <c r="D51" s="1"/>
       <c r="E51" s="26"/>
@@ -7991,8 +8218,8 @@
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="32"/>
-      <c r="B52" s="41"/>
+      <c r="A52" s="37"/>
+      <c r="B52" s="43"/>
       <c r="C52" s="26"/>
       <c r="D52" s="1"/>
       <c r="E52" s="26"/>
@@ -8001,8 +8228,8 @@
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="32"/>
-      <c r="B53" s="41"/>
+      <c r="A53" s="37"/>
+      <c r="B53" s="43"/>
       <c r="C53" s="26"/>
       <c r="D53" s="1"/>
       <c r="E53" s="26"/>
@@ -8011,8 +8238,8 @@
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="34"/>
-      <c r="B54" s="42"/>
+      <c r="A54" s="39"/>
+      <c r="B54" s="44"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
@@ -8026,13 +8253,13 @@
       <c r="C55" s="26"/>
       <c r="D55" s="4"/>
       <c r="E55" s="26"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="39"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="47"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="30"/>
-      <c r="B56" s="40"/>
+      <c r="A56" s="35"/>
+      <c r="B56" s="42"/>
       <c r="C56" s="26"/>
       <c r="D56" s="1"/>
       <c r="E56" s="26"/>
@@ -8041,8 +8268,8 @@
       <c r="H56" s="1"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="32"/>
-      <c r="B57" s="41"/>
+      <c r="A57" s="37"/>
+      <c r="B57" s="43"/>
       <c r="C57" s="26"/>
       <c r="D57" s="1"/>
       <c r="E57" s="26"/>
@@ -8051,8 +8278,8 @@
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="32"/>
-      <c r="B58" s="41"/>
+      <c r="A58" s="37"/>
+      <c r="B58" s="43"/>
       <c r="C58" s="26"/>
       <c r="D58" s="1"/>
       <c r="E58" s="26"/>
@@ -8061,8 +8288,8 @@
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="32"/>
-      <c r="B59" s="41"/>
+      <c r="A59" s="37"/>
+      <c r="B59" s="43"/>
       <c r="C59" s="26"/>
       <c r="D59" s="1"/>
       <c r="E59" s="26"/>
@@ -8071,8 +8298,8 @@
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="32"/>
-      <c r="B60" s="41"/>
+      <c r="A60" s="37"/>
+      <c r="B60" s="43"/>
       <c r="C60" s="26"/>
       <c r="D60" s="1"/>
       <c r="E60" s="26"/>
@@ -8081,8 +8308,8 @@
       <c r="H60" s="1"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="32"/>
-      <c r="B61" s="41"/>
+      <c r="A61" s="37"/>
+      <c r="B61" s="43"/>
       <c r="C61" s="26"/>
       <c r="D61" s="1"/>
       <c r="E61" s="26"/>
@@ -8091,8 +8318,8 @@
       <c r="H61" s="1"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="34"/>
-      <c r="B62" s="42"/>
+      <c r="A62" s="39"/>
+      <c r="B62" s="44"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
       <c r="E62" s="10"/>
@@ -8106,13 +8333,13 @@
       <c r="C63" s="26"/>
       <c r="D63" s="4"/>
       <c r="E63" s="26"/>
-      <c r="F63" s="37"/>
-      <c r="G63" s="38"/>
-      <c r="H63" s="39"/>
+      <c r="F63" s="45"/>
+      <c r="G63" s="46"/>
+      <c r="H63" s="47"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="30"/>
-      <c r="B64" s="40"/>
+      <c r="A64" s="35"/>
+      <c r="B64" s="42"/>
       <c r="C64" s="26"/>
       <c r="D64" s="1"/>
       <c r="E64" s="26"/>
@@ -8121,8 +8348,8 @@
       <c r="H64" s="1"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="32"/>
-      <c r="B65" s="41"/>
+      <c r="A65" s="37"/>
+      <c r="B65" s="43"/>
       <c r="C65" s="26"/>
       <c r="D65" s="1"/>
       <c r="E65" s="26"/>
@@ -8131,8 +8358,8 @@
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="32"/>
-      <c r="B66" s="41"/>
+      <c r="A66" s="37"/>
+      <c r="B66" s="43"/>
       <c r="C66" s="26"/>
       <c r="D66" s="1"/>
       <c r="E66" s="26"/>
@@ -8141,8 +8368,8 @@
       <c r="H66" s="1"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="32"/>
-      <c r="B67" s="41"/>
+      <c r="A67" s="37"/>
+      <c r="B67" s="43"/>
       <c r="C67" s="26"/>
       <c r="D67" s="1"/>
       <c r="E67" s="26"/>
@@ -8151,8 +8378,8 @@
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="32"/>
-      <c r="B68" s="41"/>
+      <c r="A68" s="37"/>
+      <c r="B68" s="43"/>
       <c r="C68" s="26"/>
       <c r="D68" s="1"/>
       <c r="E68" s="26"/>
@@ -8161,8 +8388,8 @@
       <c r="H68" s="1"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="32"/>
-      <c r="B69" s="41"/>
+      <c r="A69" s="37"/>
+      <c r="B69" s="43"/>
       <c r="C69" s="26"/>
       <c r="D69" s="1"/>
       <c r="E69" s="26"/>
@@ -8171,8 +8398,8 @@
       <c r="H69" s="1"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="34"/>
-      <c r="B70" s="42"/>
+      <c r="A70" s="39"/>
+      <c r="B70" s="44"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
       <c r="E70" s="10"/>
@@ -8186,13 +8413,13 @@
       <c r="C71" s="26"/>
       <c r="D71" s="4"/>
       <c r="E71" s="26"/>
-      <c r="F71" s="37"/>
-      <c r="G71" s="38"/>
-      <c r="H71" s="39"/>
+      <c r="F71" s="45"/>
+      <c r="G71" s="46"/>
+      <c r="H71" s="47"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="30"/>
-      <c r="B72" s="40"/>
+      <c r="A72" s="35"/>
+      <c r="B72" s="42"/>
       <c r="C72" s="26"/>
       <c r="D72" s="1"/>
       <c r="E72" s="26"/>
@@ -8201,8 +8428,8 @@
       <c r="H72" s="1"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="32"/>
-      <c r="B73" s="41"/>
+      <c r="A73" s="37"/>
+      <c r="B73" s="43"/>
       <c r="C73" s="26"/>
       <c r="D73" s="1"/>
       <c r="E73" s="26"/>
@@ -8211,8 +8438,8 @@
       <c r="H73" s="1"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="32"/>
-      <c r="B74" s="41"/>
+      <c r="A74" s="37"/>
+      <c r="B74" s="43"/>
       <c r="C74" s="26"/>
       <c r="D74" s="1"/>
       <c r="E74" s="26"/>
@@ -8221,8 +8448,8 @@
       <c r="H74" s="1"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="32"/>
-      <c r="B75" s="41"/>
+      <c r="A75" s="37"/>
+      <c r="B75" s="43"/>
       <c r="C75" s="26"/>
       <c r="D75" s="1"/>
       <c r="E75" s="26"/>
@@ -8231,8 +8458,8 @@
       <c r="H75" s="1"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="32"/>
-      <c r="B76" s="41"/>
+      <c r="A76" s="37"/>
+      <c r="B76" s="43"/>
       <c r="C76" s="26"/>
       <c r="D76" s="1"/>
       <c r="E76" s="26"/>
@@ -8241,8 +8468,8 @@
       <c r="H76" s="1"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="32"/>
-      <c r="B77" s="41"/>
+      <c r="A77" s="37"/>
+      <c r="B77" s="43"/>
       <c r="C77" s="26"/>
       <c r="D77" s="1"/>
       <c r="E77" s="26"/>
@@ -8251,8 +8478,8 @@
       <c r="H77" s="1"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="34"/>
-      <c r="B78" s="42"/>
+      <c r="A78" s="39"/>
+      <c r="B78" s="44"/>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
       <c r="E78" s="10"/>
@@ -8262,6 +8489,16 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:H5"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="A8:B14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="A16:B22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="A24:B30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="A32:B38"/>
+    <mergeCell ref="F39:H39"/>
     <mergeCell ref="F63:H63"/>
     <mergeCell ref="A64:B70"/>
     <mergeCell ref="F71:H71"/>
@@ -8271,23 +8508,13 @@
     <mergeCell ref="A48:B54"/>
     <mergeCell ref="F55:H55"/>
     <mergeCell ref="A56:B62"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="A24:B30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="A32:B38"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="A1:H5"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="A8:B14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="A16:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J110"/>
   <sheetViews>
     <sheetView topLeftCell="A87" workbookViewId="0">
@@ -8303,56 +8530,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
     </row>
     <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -8391,13 +8618,13 @@
         <v>19</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="39"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="47"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="40"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="42"/>
       <c r="C8" s="6"/>
       <c r="D8" s="1"/>
       <c r="E8" s="6"/>
@@ -8407,8 +8634,8 @@
       <c r="J8" s="16"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="41"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="6"/>
       <c r="D9" s="1"/>
       <c r="E9" s="6"/>
@@ -8417,8 +8644,8 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="41"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="6"/>
       <c r="D10" s="1"/>
       <c r="E10" s="6"/>
@@ -8427,8 +8654,8 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
-      <c r="B11" s="41"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="6"/>
       <c r="D11" s="1"/>
       <c r="E11" s="6"/>
@@ -8437,8 +8664,8 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
-      <c r="B12" s="41"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="6"/>
       <c r="D12" s="1"/>
       <c r="E12" s="6"/>
@@ -8447,8 +8674,8 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
-      <c r="B13" s="41"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="6"/>
       <c r="D13" s="1"/>
       <c r="E13" s="6"/>
@@ -8457,8 +8684,8 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="42"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -8477,13 +8704,13 @@
         <v>19</v>
       </c>
       <c r="E15" s="6"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="39"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="47"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="40"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="42"/>
       <c r="C16" s="6"/>
       <c r="D16" s="1"/>
       <c r="E16" s="6"/>
@@ -8492,8 +8719,8 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="41"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="43"/>
       <c r="C17" s="6"/>
       <c r="D17" s="1"/>
       <c r="E17" s="6"/>
@@ -8502,8 +8729,8 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="41"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="43"/>
       <c r="C18" s="6"/>
       <c r="D18" s="1"/>
       <c r="E18" s="6"/>
@@ -8512,8 +8739,8 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="41"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="43"/>
       <c r="C19" s="6"/>
       <c r="D19" s="1"/>
       <c r="E19" s="6"/>
@@ -8522,8 +8749,8 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="41"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="43"/>
       <c r="C20" s="6"/>
       <c r="D20" s="1"/>
       <c r="E20" s="6"/>
@@ -8532,8 +8759,8 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="41"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="43"/>
       <c r="C21" s="6"/>
       <c r="D21" s="1"/>
       <c r="E21" s="6"/>
@@ -8542,8 +8769,8 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-      <c r="B22" s="42"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -8562,13 +8789,13 @@
         <v>72</v>
       </c>
       <c r="E23" s="26"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="39"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="47"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
-      <c r="B24" s="40"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="42"/>
       <c r="C24" s="26"/>
       <c r="D24" s="1"/>
       <c r="E24" s="26"/>
@@ -8577,8 +8804,8 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="41"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="43"/>
       <c r="C25" s="26"/>
       <c r="D25" s="1"/>
       <c r="E25" s="26"/>
@@ -8587,8 +8814,8 @@
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
-      <c r="B26" s="41"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="43"/>
       <c r="C26" s="26"/>
       <c r="D26" s="1"/>
       <c r="E26" s="26"/>
@@ -8597,8 +8824,8 @@
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
-      <c r="B27" s="41"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="43"/>
       <c r="C27" s="26"/>
       <c r="D27" s="1"/>
       <c r="E27" s="26"/>
@@ -8607,8 +8834,8 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
-      <c r="B28" s="41"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="43"/>
       <c r="C28" s="26"/>
       <c r="D28" s="1"/>
       <c r="E28" s="26"/>
@@ -8617,8 +8844,8 @@
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
-      <c r="B29" s="41"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="43"/>
       <c r="C29" s="26"/>
       <c r="D29" s="1"/>
       <c r="E29" s="26"/>
@@ -8627,8 +8854,8 @@
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
-      <c r="B30" s="42"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
@@ -8647,13 +8874,13 @@
         <v>80</v>
       </c>
       <c r="E31" s="26"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="39"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="47"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
-      <c r="B32" s="40"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="42"/>
       <c r="C32" s="26"/>
       <c r="D32" s="1"/>
       <c r="E32" s="26"/>
@@ -8662,8 +8889,8 @@
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="32"/>
-      <c r="B33" s="41"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="43"/>
       <c r="C33" s="26"/>
       <c r="D33" s="1"/>
       <c r="E33" s="26"/>
@@ -8672,8 +8899,8 @@
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="32"/>
-      <c r="B34" s="41"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="43"/>
       <c r="C34" s="26"/>
       <c r="D34" s="1"/>
       <c r="E34" s="26"/>
@@ -8682,8 +8909,8 @@
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="32"/>
-      <c r="B35" s="41"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="43"/>
       <c r="C35" s="26"/>
       <c r="D35" s="1"/>
       <c r="E35" s="26"/>
@@ -8692,8 +8919,8 @@
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="32"/>
-      <c r="B36" s="41"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="43"/>
       <c r="C36" s="26"/>
       <c r="D36" s="1"/>
       <c r="E36" s="26"/>
@@ -8702,8 +8929,8 @@
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="32"/>
-      <c r="B37" s="41"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="43"/>
       <c r="C37" s="26"/>
       <c r="D37" s="1"/>
       <c r="E37" s="26"/>
@@ -8712,8 +8939,8 @@
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="34"/>
-      <c r="B38" s="42"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="44"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
@@ -8732,13 +8959,13 @@
         <v>81</v>
       </c>
       <c r="E39" s="26"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="39"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="47"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="30"/>
-      <c r="B40" s="40"/>
+      <c r="A40" s="35"/>
+      <c r="B40" s="42"/>
       <c r="C40" s="26"/>
       <c r="D40" s="1"/>
       <c r="E40" s="26"/>
@@ -8747,8 +8974,8 @@
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="32"/>
-      <c r="B41" s="41"/>
+      <c r="A41" s="37"/>
+      <c r="B41" s="43"/>
       <c r="C41" s="26"/>
       <c r="D41" s="1"/>
       <c r="E41" s="26"/>
@@ -8757,8 +8984,8 @@
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="32"/>
-      <c r="B42" s="41"/>
+      <c r="A42" s="37"/>
+      <c r="B42" s="43"/>
       <c r="C42" s="26"/>
       <c r="D42" s="1"/>
       <c r="E42" s="26"/>
@@ -8767,8 +8994,8 @@
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="32"/>
-      <c r="B43" s="41"/>
+      <c r="A43" s="37"/>
+      <c r="B43" s="43"/>
       <c r="C43" s="26"/>
       <c r="D43" s="1"/>
       <c r="E43" s="26"/>
@@ -8777,8 +9004,8 @@
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="32"/>
-      <c r="B44" s="41"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="43"/>
       <c r="C44" s="26"/>
       <c r="D44" s="1"/>
       <c r="E44" s="26"/>
@@ -8787,8 +9014,8 @@
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="32"/>
-      <c r="B45" s="41"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="43"/>
       <c r="C45" s="26"/>
       <c r="D45" s="1"/>
       <c r="E45" s="26"/>
@@ -8797,8 +9024,8 @@
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="34"/>
-      <c r="B46" s="42"/>
+      <c r="A46" s="39"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
@@ -8817,13 +9044,13 @@
         <v>82</v>
       </c>
       <c r="E47" s="26"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="39"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="47"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="30"/>
-      <c r="B48" s="40"/>
+      <c r="A48" s="35"/>
+      <c r="B48" s="42"/>
       <c r="C48" s="26"/>
       <c r="D48" s="1"/>
       <c r="E48" s="26"/>
@@ -8832,8 +9059,8 @@
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="32"/>
-      <c r="B49" s="41"/>
+      <c r="A49" s="37"/>
+      <c r="B49" s="43"/>
       <c r="C49" s="26"/>
       <c r="D49" s="1"/>
       <c r="E49" s="26"/>
@@ -8842,8 +9069,8 @@
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="32"/>
-      <c r="B50" s="41"/>
+      <c r="A50" s="37"/>
+      <c r="B50" s="43"/>
       <c r="C50" s="26"/>
       <c r="D50" s="1"/>
       <c r="E50" s="26"/>
@@ -8852,8 +9079,8 @@
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="32"/>
-      <c r="B51" s="41"/>
+      <c r="A51" s="37"/>
+      <c r="B51" s="43"/>
       <c r="C51" s="26"/>
       <c r="D51" s="1"/>
       <c r="E51" s="26"/>
@@ -8862,8 +9089,8 @@
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="32"/>
-      <c r="B52" s="41"/>
+      <c r="A52" s="37"/>
+      <c r="B52" s="43"/>
       <c r="C52" s="26"/>
       <c r="D52" s="1"/>
       <c r="E52" s="26"/>
@@ -8872,8 +9099,8 @@
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="32"/>
-      <c r="B53" s="41"/>
+      <c r="A53" s="37"/>
+      <c r="B53" s="43"/>
       <c r="C53" s="26"/>
       <c r="D53" s="1"/>
       <c r="E53" s="26"/>
@@ -8882,8 +9109,8 @@
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="34"/>
-      <c r="B54" s="42"/>
+      <c r="A54" s="39"/>
+      <c r="B54" s="44"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
@@ -8902,13 +9129,13 @@
         <v>83</v>
       </c>
       <c r="E55" s="26"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="39"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="47"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="30"/>
-      <c r="B56" s="40"/>
+      <c r="A56" s="35"/>
+      <c r="B56" s="42"/>
       <c r="C56" s="26"/>
       <c r="D56" s="1"/>
       <c r="E56" s="26"/>
@@ -8917,8 +9144,8 @@
       <c r="H56" s="1"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="32"/>
-      <c r="B57" s="41"/>
+      <c r="A57" s="37"/>
+      <c r="B57" s="43"/>
       <c r="C57" s="26"/>
       <c r="D57" s="1"/>
       <c r="E57" s="26"/>
@@ -8927,8 +9154,8 @@
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="32"/>
-      <c r="B58" s="41"/>
+      <c r="A58" s="37"/>
+      <c r="B58" s="43"/>
       <c r="C58" s="26"/>
       <c r="D58" s="1"/>
       <c r="E58" s="26"/>
@@ -8937,8 +9164,8 @@
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="32"/>
-      <c r="B59" s="41"/>
+      <c r="A59" s="37"/>
+      <c r="B59" s="43"/>
       <c r="C59" s="26"/>
       <c r="D59" s="1"/>
       <c r="E59" s="26"/>
@@ -8947,8 +9174,8 @@
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="32"/>
-      <c r="B60" s="41"/>
+      <c r="A60" s="37"/>
+      <c r="B60" s="43"/>
       <c r="C60" s="26"/>
       <c r="D60" s="1"/>
       <c r="E60" s="26"/>
@@ -8957,8 +9184,8 @@
       <c r="H60" s="1"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="32"/>
-      <c r="B61" s="41"/>
+      <c r="A61" s="37"/>
+      <c r="B61" s="43"/>
       <c r="C61" s="26"/>
       <c r="D61" s="1"/>
       <c r="E61" s="26"/>
@@ -8967,8 +9194,8 @@
       <c r="H61" s="1"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="34"/>
-      <c r="B62" s="42"/>
+      <c r="A62" s="39"/>
+      <c r="B62" s="44"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
       <c r="E62" s="10"/>
@@ -8987,13 +9214,13 @@
         <v>84</v>
       </c>
       <c r="E63" s="26"/>
-      <c r="F63" s="37"/>
-      <c r="G63" s="38"/>
-      <c r="H63" s="39"/>
+      <c r="F63" s="45"/>
+      <c r="G63" s="46"/>
+      <c r="H63" s="47"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="30"/>
-      <c r="B64" s="40"/>
+      <c r="A64" s="35"/>
+      <c r="B64" s="42"/>
       <c r="C64" s="26"/>
       <c r="D64" s="1"/>
       <c r="E64" s="26"/>
@@ -9002,8 +9229,8 @@
       <c r="H64" s="1"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="32"/>
-      <c r="B65" s="41"/>
+      <c r="A65" s="37"/>
+      <c r="B65" s="43"/>
       <c r="C65" s="26"/>
       <c r="D65" s="1"/>
       <c r="E65" s="26"/>
@@ -9012,8 +9239,8 @@
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="32"/>
-      <c r="B66" s="41"/>
+      <c r="A66" s="37"/>
+      <c r="B66" s="43"/>
       <c r="C66" s="26"/>
       <c r="D66" s="1"/>
       <c r="E66" s="26"/>
@@ -9022,8 +9249,8 @@
       <c r="H66" s="1"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="32"/>
-      <c r="B67" s="41"/>
+      <c r="A67" s="37"/>
+      <c r="B67" s="43"/>
       <c r="C67" s="26"/>
       <c r="D67" s="1"/>
       <c r="E67" s="26"/>
@@ -9032,8 +9259,8 @@
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="32"/>
-      <c r="B68" s="41"/>
+      <c r="A68" s="37"/>
+      <c r="B68" s="43"/>
       <c r="C68" s="26"/>
       <c r="D68" s="1"/>
       <c r="E68" s="26"/>
@@ -9042,8 +9269,8 @@
       <c r="H68" s="1"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="32"/>
-      <c r="B69" s="41"/>
+      <c r="A69" s="37"/>
+      <c r="B69" s="43"/>
       <c r="C69" s="26"/>
       <c r="D69" s="1"/>
       <c r="E69" s="26"/>
@@ -9052,8 +9279,8 @@
       <c r="H69" s="1"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="34"/>
-      <c r="B70" s="42"/>
+      <c r="A70" s="39"/>
+      <c r="B70" s="44"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
       <c r="E70" s="10"/>
@@ -9072,13 +9299,13 @@
         <v>172</v>
       </c>
       <c r="E71" s="26"/>
-      <c r="F71" s="37"/>
-      <c r="G71" s="38"/>
-      <c r="H71" s="39"/>
+      <c r="F71" s="45"/>
+      <c r="G71" s="46"/>
+      <c r="H71" s="47"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="30"/>
-      <c r="B72" s="40"/>
+      <c r="A72" s="35"/>
+      <c r="B72" s="42"/>
       <c r="C72" s="26"/>
       <c r="D72" s="1"/>
       <c r="E72" s="26"/>
@@ -9087,8 +9314,8 @@
       <c r="H72" s="1"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="32"/>
-      <c r="B73" s="41"/>
+      <c r="A73" s="37"/>
+      <c r="B73" s="43"/>
       <c r="C73" s="26"/>
       <c r="D73" s="1"/>
       <c r="E73" s="26"/>
@@ -9097,8 +9324,8 @@
       <c r="H73" s="1"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="32"/>
-      <c r="B74" s="41"/>
+      <c r="A74" s="37"/>
+      <c r="B74" s="43"/>
       <c r="C74" s="26"/>
       <c r="D74" s="1"/>
       <c r="E74" s="26"/>
@@ -9107,8 +9334,8 @@
       <c r="H74" s="1"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="32"/>
-      <c r="B75" s="41"/>
+      <c r="A75" s="37"/>
+      <c r="B75" s="43"/>
       <c r="C75" s="26"/>
       <c r="D75" s="1"/>
       <c r="E75" s="26"/>
@@ -9117,8 +9344,8 @@
       <c r="H75" s="1"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="32"/>
-      <c r="B76" s="41"/>
+      <c r="A76" s="37"/>
+      <c r="B76" s="43"/>
       <c r="C76" s="26"/>
       <c r="D76" s="1"/>
       <c r="E76" s="26"/>
@@ -9127,8 +9354,8 @@
       <c r="H76" s="1"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="32"/>
-      <c r="B77" s="41"/>
+      <c r="A77" s="37"/>
+      <c r="B77" s="43"/>
       <c r="C77" s="26"/>
       <c r="D77" s="1"/>
       <c r="E77" s="26"/>
@@ -9137,8 +9364,8 @@
       <c r="H77" s="1"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="34"/>
-      <c r="B78" s="42"/>
+      <c r="A78" s="39"/>
+      <c r="B78" s="44"/>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
       <c r="E78" s="10"/>
@@ -9157,13 +9384,13 @@
         <v>174</v>
       </c>
       <c r="E79" s="26"/>
-      <c r="F79" s="37"/>
-      <c r="G79" s="38"/>
-      <c r="H79" s="39"/>
+      <c r="F79" s="45"/>
+      <c r="G79" s="46"/>
+      <c r="H79" s="47"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="30"/>
-      <c r="B80" s="40"/>
+      <c r="A80" s="35"/>
+      <c r="B80" s="42"/>
       <c r="C80" s="26"/>
       <c r="D80" s="1"/>
       <c r="E80" s="26"/>
@@ -9172,8 +9399,8 @@
       <c r="H80" s="1"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="32"/>
-      <c r="B81" s="41"/>
+      <c r="A81" s="37"/>
+      <c r="B81" s="43"/>
       <c r="C81" s="26"/>
       <c r="D81" s="1"/>
       <c r="E81" s="26"/>
@@ -9182,8 +9409,8 @@
       <c r="H81" s="1"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="32"/>
-      <c r="B82" s="41"/>
+      <c r="A82" s="37"/>
+      <c r="B82" s="43"/>
       <c r="C82" s="26"/>
       <c r="D82" s="1"/>
       <c r="E82" s="26"/>
@@ -9192,8 +9419,8 @@
       <c r="H82" s="1"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="32"/>
-      <c r="B83" s="41"/>
+      <c r="A83" s="37"/>
+      <c r="B83" s="43"/>
       <c r="C83" s="26"/>
       <c r="D83" s="1"/>
       <c r="E83" s="26"/>
@@ -9202,8 +9429,8 @@
       <c r="H83" s="1"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="32"/>
-      <c r="B84" s="41"/>
+      <c r="A84" s="37"/>
+      <c r="B84" s="43"/>
       <c r="C84" s="26"/>
       <c r="D84" s="1"/>
       <c r="E84" s="26"/>
@@ -9212,8 +9439,8 @@
       <c r="H84" s="1"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="32"/>
-      <c r="B85" s="41"/>
+      <c r="A85" s="37"/>
+      <c r="B85" s="43"/>
       <c r="C85" s="26"/>
       <c r="D85" s="1"/>
       <c r="E85" s="26"/>
@@ -9222,8 +9449,8 @@
       <c r="H85" s="1"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="34"/>
-      <c r="B86" s="42"/>
+      <c r="A86" s="39"/>
+      <c r="B86" s="44"/>
       <c r="C86" s="10"/>
       <c r="D86" s="10"/>
       <c r="E86" s="10"/>
@@ -9242,13 +9469,13 @@
         <v>76</v>
       </c>
       <c r="E87" s="26"/>
-      <c r="F87" s="37"/>
-      <c r="G87" s="38"/>
-      <c r="H87" s="39"/>
+      <c r="F87" s="45"/>
+      <c r="G87" s="46"/>
+      <c r="H87" s="47"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="30"/>
-      <c r="B88" s="40"/>
+      <c r="A88" s="35"/>
+      <c r="B88" s="42"/>
       <c r="C88" s="26"/>
       <c r="D88" s="1"/>
       <c r="E88" s="26"/>
@@ -9257,8 +9484,8 @@
       <c r="H88" s="1"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="32"/>
-      <c r="B89" s="41"/>
+      <c r="A89" s="37"/>
+      <c r="B89" s="43"/>
       <c r="C89" s="26"/>
       <c r="D89" s="1"/>
       <c r="E89" s="26"/>
@@ -9267,8 +9494,8 @@
       <c r="H89" s="1"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="32"/>
-      <c r="B90" s="41"/>
+      <c r="A90" s="37"/>
+      <c r="B90" s="43"/>
       <c r="C90" s="26"/>
       <c r="D90" s="1"/>
       <c r="E90" s="26"/>
@@ -9277,8 +9504,8 @@
       <c r="H90" s="1"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="32"/>
-      <c r="B91" s="41"/>
+      <c r="A91" s="37"/>
+      <c r="B91" s="43"/>
       <c r="C91" s="26"/>
       <c r="D91" s="1"/>
       <c r="E91" s="26"/>
@@ -9287,8 +9514,8 @@
       <c r="H91" s="1"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="32"/>
-      <c r="B92" s="41"/>
+      <c r="A92" s="37"/>
+      <c r="B92" s="43"/>
       <c r="C92" s="26"/>
       <c r="D92" s="1"/>
       <c r="E92" s="26"/>
@@ -9297,8 +9524,8 @@
       <c r="H92" s="1"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="32"/>
-      <c r="B93" s="41"/>
+      <c r="A93" s="37"/>
+      <c r="B93" s="43"/>
       <c r="C93" s="26"/>
       <c r="D93" s="1"/>
       <c r="E93" s="26"/>
@@ -9307,8 +9534,8 @@
       <c r="H93" s="1"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="34"/>
-      <c r="B94" s="42"/>
+      <c r="A94" s="39"/>
+      <c r="B94" s="44"/>
       <c r="C94" s="10"/>
       <c r="D94" s="10"/>
       <c r="E94" s="10"/>
@@ -9321,13 +9548,13 @@
       <c r="B95" s="26"/>
       <c r="D95" s="5"/>
       <c r="E95" s="26"/>
-      <c r="F95" s="37"/>
-      <c r="G95" s="38"/>
-      <c r="H95" s="39"/>
+      <c r="F95" s="45"/>
+      <c r="G95" s="46"/>
+      <c r="H95" s="47"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="30"/>
-      <c r="B96" s="40"/>
+      <c r="A96" s="35"/>
+      <c r="B96" s="42"/>
       <c r="C96" s="26"/>
       <c r="D96" s="1"/>
       <c r="E96" s="26"/>
@@ -9336,8 +9563,8 @@
       <c r="H96" s="1"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="32"/>
-      <c r="B97" s="41"/>
+      <c r="A97" s="37"/>
+      <c r="B97" s="43"/>
       <c r="C97" s="26"/>
       <c r="D97" s="1"/>
       <c r="E97" s="26"/>
@@ -9346,8 +9573,8 @@
       <c r="H97" s="1"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="32"/>
-      <c r="B98" s="41"/>
+      <c r="A98" s="37"/>
+      <c r="B98" s="43"/>
       <c r="C98" s="26"/>
       <c r="D98" s="1"/>
       <c r="E98" s="26"/>
@@ -9356,8 +9583,8 @@
       <c r="H98" s="1"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="32"/>
-      <c r="B99" s="41"/>
+      <c r="A99" s="37"/>
+      <c r="B99" s="43"/>
       <c r="C99" s="26"/>
       <c r="D99" s="1"/>
       <c r="E99" s="26"/>
@@ -9366,8 +9593,8 @@
       <c r="H99" s="1"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="32"/>
-      <c r="B100" s="41"/>
+      <c r="A100" s="37"/>
+      <c r="B100" s="43"/>
       <c r="C100" s="26"/>
       <c r="D100" s="1"/>
       <c r="E100" s="26"/>
@@ -9376,8 +9603,8 @@
       <c r="H100" s="1"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="32"/>
-      <c r="B101" s="41"/>
+      <c r="A101" s="37"/>
+      <c r="B101" s="43"/>
       <c r="C101" s="26"/>
       <c r="D101" s="1"/>
       <c r="E101" s="26"/>
@@ -9386,8 +9613,8 @@
       <c r="H101" s="1"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="34"/>
-      <c r="B102" s="42"/>
+      <c r="A102" s="39"/>
+      <c r="B102" s="44"/>
       <c r="C102" s="10"/>
       <c r="D102" s="10"/>
       <c r="E102" s="10"/>
@@ -9400,13 +9627,13 @@
       <c r="B103" s="26"/>
       <c r="D103" s="5"/>
       <c r="E103" s="26"/>
-      <c r="F103" s="37"/>
-      <c r="G103" s="38"/>
-      <c r="H103" s="39"/>
+      <c r="F103" s="45"/>
+      <c r="G103" s="46"/>
+      <c r="H103" s="47"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="30"/>
-      <c r="B104" s="40"/>
+      <c r="A104" s="35"/>
+      <c r="B104" s="42"/>
       <c r="C104" s="26"/>
       <c r="D104" s="1"/>
       <c r="E104" s="26"/>
@@ -9415,8 +9642,8 @@
       <c r="H104" s="1"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="32"/>
-      <c r="B105" s="41"/>
+      <c r="A105" s="37"/>
+      <c r="B105" s="43"/>
       <c r="C105" s="26"/>
       <c r="D105" s="1"/>
       <c r="E105" s="26"/>
@@ -9425,8 +9652,8 @@
       <c r="H105" s="1"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="32"/>
-      <c r="B106" s="41"/>
+      <c r="A106" s="37"/>
+      <c r="B106" s="43"/>
       <c r="C106" s="26"/>
       <c r="D106" s="1"/>
       <c r="E106" s="26"/>
@@ -9435,8 +9662,8 @@
       <c r="H106" s="1"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="32"/>
-      <c r="B107" s="41"/>
+      <c r="A107" s="37"/>
+      <c r="B107" s="43"/>
       <c r="C107" s="26"/>
       <c r="D107" s="1"/>
       <c r="E107" s="26"/>
@@ -9445,8 +9672,8 @@
       <c r="H107" s="1"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="32"/>
-      <c r="B108" s="41"/>
+      <c r="A108" s="37"/>
+      <c r="B108" s="43"/>
       <c r="C108" s="26"/>
       <c r="D108" s="1"/>
       <c r="E108" s="26"/>
@@ -9455,8 +9682,8 @@
       <c r="H108" s="1"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="32"/>
-      <c r="B109" s="41"/>
+      <c r="A109" s="37"/>
+      <c r="B109" s="43"/>
       <c r="C109" s="26"/>
       <c r="D109" s="1"/>
       <c r="E109" s="26"/>
@@ -9465,8 +9692,8 @@
       <c r="H109" s="1"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="34"/>
-      <c r="B110" s="42"/>
+      <c r="A110" s="39"/>
+      <c r="B110" s="44"/>
       <c r="C110" s="10"/>
       <c r="D110" s="10"/>
       <c r="E110" s="10"/>
@@ -9476,6 +9703,26 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A1:H5"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="A8:B14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="A16:B22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="A24:B30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="A32:B38"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="A40:B46"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="A48:B54"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="A56:B62"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="A64:B70"/>
+    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="A72:B78"/>
+    <mergeCell ref="F79:H79"/>
     <mergeCell ref="F103:H103"/>
     <mergeCell ref="A104:B110"/>
     <mergeCell ref="A80:B86"/>
@@ -9483,26 +9730,6 @@
     <mergeCell ref="A88:B94"/>
     <mergeCell ref="F95:H95"/>
     <mergeCell ref="A96:B102"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="A64:B70"/>
-    <mergeCell ref="F71:H71"/>
-    <mergeCell ref="A72:B78"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="A40:B46"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="A48:B54"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="A56:B62"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="A24:B30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="A32:B38"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="A1:H5"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="A8:B14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="A16:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/documentacion/desarrollo/Product Backlog Sibica.xlsx
+++ b/documentacion/desarrollo/Product Backlog Sibica.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LUIS\Documents\sibica\documentacion\desarrollo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sibica\documentacion\desarrollo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="PB" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="242">
   <si>
     <t>Enunciado de la Historia</t>
   </si>
@@ -2291,6 +2291,75 @@
   </si>
   <si>
     <t xml:space="preserve">* el sprint 5 está destinado para documentacion del proyecto y temas contraactuales </t>
+  </si>
+  <si>
+    <t>qq</t>
+  </si>
+  <si>
+    <t>Crear filtro con las opciones de predio anteriormente mensionadas.</t>
+  </si>
+  <si>
+    <t>Realizar consulta de predios aplicando el filtro seleccionado</t>
+  </si>
+  <si>
+    <t>Pintar en el mapa, los predios resultantes de la busquedad</t>
+  </si>
+  <si>
+    <t>Consultar la informacion pertinente del predio seleccionado</t>
+  </si>
+  <si>
+    <t>Pintar en un tooltip los campos a los que el usuario tenga permiso, de acuerdo a los roles que este posea.</t>
+  </si>
+  <si>
+    <t>Al seleccionar un predio, pintar una opcion para reportar irregularidad</t>
+  </si>
+  <si>
+    <t>Mostrar modal con los campos pertinentes (los anteriormente mensionados) para el reporte de la irregulida.</t>
+  </si>
+  <si>
+    <t>Enviar reporte de la irregularidad a Orfeo y persistir esta en la base de datos</t>
+  </si>
+  <si>
+    <t>Consultar mediante la pocision actual, los zonas verdes ubicadas a maximo 400 mtros a la redonda</t>
+  </si>
+  <si>
+    <t>Identificar que predios se encuentran reportados con irregularidad de invasion o fraude</t>
+  </si>
+  <si>
+    <t>Pintar icono que represente dicha irregularidad</t>
+  </si>
+  <si>
+    <t>Pintar icono del escudo de la alcaldia a aquellos predios que no presenten irregulidad alguna activa</t>
+  </si>
+  <si>
+    <t>Realizar CRUD pa tipo de reporte de irregularidad</t>
+  </si>
+  <si>
+    <t>Al consultar las iregularidades de un predio, y seleccionar alguna, se debe visualizar su detallado y un campo observacion para estipular aluna descripcion del cliente.</t>
+  </si>
+  <si>
+    <t>Al pintar el formulario de repotes y escoger el tipo de reporte, en la parte superior se debe pintar un texto que describa sobre ese tipode reporte.</t>
+  </si>
+  <si>
+    <t>Se debe reproducir un audio definido para la descripcion deal tipo de report</t>
+  </si>
+  <si>
+    <t>Realizar CRUD para tipo de amoblamiento</t>
+  </si>
+  <si>
+    <t>Pintar filtro con las opcione mencionadas anteriormente.</t>
+  </si>
+  <si>
+    <t>Consultar predios que correspondan a dicho filtro</t>
+  </si>
+  <si>
+    <t>Pintar e el mapa los predios consultados y permitir hacer zoom</t>
+  </si>
+  <si>
+    <t>Pintar en el menu, la opcoin para visualizar el manual de uso</t>
+  </si>
+  <si>
+    <t>Descargar o vusualizar el manual de uso</t>
   </si>
 </sst>
 </file>
@@ -2365,7 +2434,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2434,6 +2503,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2607,7 +2682,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2701,11 +2776,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2728,6 +2841,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2737,48 +2859,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3115,56 +3209,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
     </row>
     <row r="3" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
     </row>
     <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
     </row>
     <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
     </row>
     <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -4197,7 +4291,7 @@
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A52" s="63" t="s">
+      <c r="A52" s="46" t="s">
         <v>94</v>
       </c>
       <c r="B52" s="6" t="s">
@@ -4219,7 +4313,7 @@
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A53" s="63" t="s">
+      <c r="A53" s="46" t="s">
         <v>93</v>
       </c>
       <c r="B53" s="6" t="s">
@@ -4241,7 +4335,7 @@
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="63" t="s">
+      <c r="A54" s="46" t="s">
         <v>92</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -4263,7 +4357,7 @@
       <c r="H54" s="1"/>
     </row>
     <row r="55" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="63" t="s">
+      <c r="A55" s="46" t="s">
         <v>91</v>
       </c>
       <c r="B55" s="6" t="s">
@@ -4272,14 +4366,14 @@
       <c r="C55" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D55" s="48" t="s">
+      <c r="D55" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="E55" s="49"/>
-      <c r="F55" s="50">
+      <c r="E55" s="35"/>
+      <c r="F55" s="36">
         <v>4</v>
       </c>
-      <c r="G55" s="49" t="s">
+      <c r="G55" s="35" t="s">
         <v>217</v>
       </c>
       <c r="H55" s="1" t="s">
@@ -4287,7 +4381,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="64" t="s">
+      <c r="A56" s="47" t="s">
         <v>90</v>
       </c>
       <c r="B56" s="6" t="s">
@@ -4352,11 +4446,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="50" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="52"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -4370,46 +4464,46 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="56">
+      <c r="A3" s="42">
         <v>1</v>
       </c>
-      <c r="B3" s="51">
+      <c r="B3" s="37">
         <v>43689</v>
       </c>
-      <c r="C3" s="52">
+      <c r="C3" s="38">
         <v>43707</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="56">
+      <c r="A4" s="42">
         <v>2</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="C4" s="52">
+      <c r="C4" s="38">
         <v>43728</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="56">
+      <c r="A5" s="42">
         <v>3</v>
       </c>
-      <c r="B5" s="51">
+      <c r="B5" s="37">
         <v>43729</v>
       </c>
-      <c r="C5" s="52">
+      <c r="C5" s="38">
         <v>43749</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="57">
+      <c r="A6" s="43">
         <v>4</v>
       </c>
-      <c r="B6" s="54">
+      <c r="B6" s="40">
         <v>43750</v>
       </c>
-      <c r="C6" s="55">
+      <c r="C6" s="41">
         <v>43770</v>
       </c>
     </row>
@@ -4417,15 +4511,15 @@
       <c r="A7" s="10">
         <v>5</v>
       </c>
-      <c r="B7" s="58">
+      <c r="B7" s="44">
         <v>43771</v>
       </c>
-      <c r="C7" s="58">
+      <c r="C7" s="44">
         <v>43779</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="45" t="s">
         <v>218</v>
       </c>
     </row>
@@ -4441,8 +4535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:H7"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="81.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4457,56 +4551,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
     </row>
     <row r="3" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
     </row>
     <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
     </row>
     <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
     </row>
     <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -4548,13 +4642,13 @@
       <c r="E7" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
-      <c r="B8" s="36"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="6" t="s">
         <v>117</v>
       </c>
@@ -4569,8 +4663,8 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="38"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="56"/>
       <c r="C9" s="6" t="s">
         <v>118</v>
       </c>
@@ -4585,8 +4679,8 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="38"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="56"/>
       <c r="C10" s="6" t="s">
         <v>119</v>
       </c>
@@ -4601,8 +4695,8 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="38"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="56"/>
       <c r="C11" s="6" t="s">
         <v>120</v>
       </c>
@@ -4617,8 +4711,8 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="38"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="56"/>
       <c r="C12" s="6"/>
       <c r="D12" s="1"/>
       <c r="E12" s="6"/>
@@ -4627,8 +4721,8 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="38"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="6"/>
       <c r="D13" s="1"/>
       <c r="E13" s="6"/>
@@ -4637,8 +4731,8 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
-      <c r="B14" s="40"/>
+      <c r="A14" s="57"/>
+      <c r="B14" s="58"/>
       <c r="C14" s="10"/>
       <c r="D14" s="24"/>
       <c r="E14" s="10"/>
@@ -4660,13 +4754,13 @@
       <c r="E15" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
-      <c r="B16" s="36"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="54"/>
       <c r="C16" s="6" t="s">
         <v>117</v>
       </c>
@@ -4681,8 +4775,8 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="38"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="56"/>
       <c r="C17" s="6" t="s">
         <v>118</v>
       </c>
@@ -4697,8 +4791,8 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="38"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="56"/>
       <c r="C18" s="6" t="s">
         <v>119</v>
       </c>
@@ -4713,8 +4807,8 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="38"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="56"/>
       <c r="C19" s="6" t="s">
         <v>120</v>
       </c>
@@ -4729,8 +4823,8 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="38"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="56"/>
       <c r="C20" s="6"/>
       <c r="D20" s="1"/>
       <c r="E20" s="6"/>
@@ -4739,8 +4833,8 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="38"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="56"/>
       <c r="C21" s="6"/>
       <c r="D21" s="1"/>
       <c r="E21" s="6"/>
@@ -4749,8 +4843,8 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
-      <c r="B22" s="40"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="58"/>
       <c r="C22" s="10"/>
       <c r="D22" s="24"/>
       <c r="E22" s="10"/>
@@ -4777,8 +4871,8 @@
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="36"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="54"/>
       <c r="C24" s="6" t="s">
         <v>117</v>
       </c>
@@ -4793,8 +4887,8 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="38"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="56"/>
       <c r="C25" s="6" t="s">
         <v>118</v>
       </c>
@@ -4809,8 +4903,8 @@
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="38"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="56"/>
       <c r="C26" s="6"/>
       <c r="D26" s="1"/>
       <c r="E26" s="6"/>
@@ -4819,8 +4913,8 @@
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="38"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="56"/>
       <c r="C27" s="6"/>
       <c r="D27" s="1"/>
       <c r="E27" s="6"/>
@@ -4829,8 +4923,8 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
-      <c r="B28" s="38"/>
+      <c r="A28" s="55"/>
+      <c r="B28" s="56"/>
       <c r="C28" s="6"/>
       <c r="D28" s="1"/>
       <c r="E28" s="6"/>
@@ -4839,8 +4933,8 @@
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="38"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="56"/>
       <c r="C29" s="6"/>
       <c r="D29" s="1"/>
       <c r="E29" s="6"/>
@@ -4849,8 +4943,8 @@
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
-      <c r="B30" s="40"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="58"/>
       <c r="C30" s="10"/>
       <c r="D30" s="24"/>
       <c r="E30" s="10"/>
@@ -4877,8 +4971,8 @@
       <c r="H31" s="10"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="35"/>
-      <c r="B32" s="36"/>
+      <c r="A32" s="53"/>
+      <c r="B32" s="54"/>
       <c r="C32" s="6" t="s">
         <v>117</v>
       </c>
@@ -4893,8 +4987,8 @@
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="37"/>
-      <c r="B33" s="38"/>
+      <c r="A33" s="55"/>
+      <c r="B33" s="56"/>
       <c r="C33" s="6" t="s">
         <v>118</v>
       </c>
@@ -4909,8 +5003,8 @@
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="37"/>
-      <c r="B34" s="38"/>
+      <c r="A34" s="55"/>
+      <c r="B34" s="56"/>
       <c r="C34" s="6" t="s">
         <v>119</v>
       </c>
@@ -4925,8 +5019,8 @@
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="37"/>
-      <c r="B35" s="38"/>
+      <c r="A35" s="55"/>
+      <c r="B35" s="56"/>
       <c r="C35" s="6" t="s">
         <v>120</v>
       </c>
@@ -4941,8 +5035,8 @@
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="37"/>
-      <c r="B36" s="38"/>
+      <c r="A36" s="55"/>
+      <c r="B36" s="56"/>
       <c r="C36" s="6" t="s">
         <v>197</v>
       </c>
@@ -4957,8 +5051,8 @@
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="37"/>
-      <c r="B37" s="38"/>
+      <c r="A37" s="55"/>
+      <c r="B37" s="56"/>
       <c r="C37" s="6" t="s">
         <v>198</v>
       </c>
@@ -4973,8 +5067,8 @@
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="39"/>
-      <c r="B38" s="40"/>
+      <c r="A38" s="57"/>
+      <c r="B38" s="58"/>
       <c r="C38" s="10"/>
       <c r="D38" s="24"/>
       <c r="E38" s="10"/>
@@ -5001,8 +5095,8 @@
       <c r="H39" s="10"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="35"/>
-      <c r="B40" s="36"/>
+      <c r="A40" s="53"/>
+      <c r="B40" s="54"/>
       <c r="C40" s="6" t="s">
         <v>117</v>
       </c>
@@ -5017,8 +5111,8 @@
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="37"/>
-      <c r="B41" s="38"/>
+      <c r="A41" s="55"/>
+      <c r="B41" s="56"/>
       <c r="C41" s="6" t="s">
         <v>118</v>
       </c>
@@ -5033,8 +5127,8 @@
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="37"/>
-      <c r="B42" s="38"/>
+      <c r="A42" s="55"/>
+      <c r="B42" s="56"/>
       <c r="C42" s="6" t="s">
         <v>119</v>
       </c>
@@ -5047,8 +5141,8 @@
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="37"/>
-      <c r="B43" s="38"/>
+      <c r="A43" s="55"/>
+      <c r="B43" s="56"/>
       <c r="C43" s="6" t="s">
         <v>120</v>
       </c>
@@ -5061,8 +5155,8 @@
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="37"/>
-      <c r="B44" s="38"/>
+      <c r="A44" s="55"/>
+      <c r="B44" s="56"/>
       <c r="C44" s="6"/>
       <c r="D44" s="1"/>
       <c r="E44" s="6"/>
@@ -5071,8 +5165,8 @@
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="37"/>
-      <c r="B45" s="38"/>
+      <c r="A45" s="55"/>
+      <c r="B45" s="56"/>
       <c r="C45" s="6"/>
       <c r="D45" s="1"/>
       <c r="E45" s="6"/>
@@ -5081,8 +5175,8 @@
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="39"/>
-      <c r="B46" s="40"/>
+      <c r="A46" s="57"/>
+      <c r="B46" s="58"/>
       <c r="C46" s="10"/>
       <c r="D46" s="24"/>
       <c r="E46" s="10"/>
@@ -5199,8 +5293,8 @@
       <c r="H54" s="10"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="35"/>
-      <c r="B55" s="36"/>
+      <c r="A55" s="53"/>
+      <c r="B55" s="54"/>
       <c r="C55" s="6" t="s">
         <v>117</v>
       </c>
@@ -5215,8 +5309,8 @@
       <c r="H55" s="1"/>
     </row>
     <row r="56" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="37"/>
-      <c r="B56" s="38"/>
+      <c r="A56" s="55"/>
+      <c r="B56" s="56"/>
       <c r="C56" s="6" t="s">
         <v>118</v>
       </c>
@@ -5231,8 +5325,8 @@
       <c r="H56" s="1"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="37"/>
-      <c r="B57" s="38"/>
+      <c r="A57" s="55"/>
+      <c r="B57" s="56"/>
       <c r="C57" s="6"/>
       <c r="D57" s="1"/>
       <c r="E57" s="6"/>
@@ -5241,8 +5335,8 @@
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="37"/>
-      <c r="B58" s="38"/>
+      <c r="A58" s="55"/>
+      <c r="B58" s="56"/>
       <c r="C58" s="6"/>
       <c r="D58" s="1"/>
       <c r="E58" s="6"/>
@@ -5251,8 +5345,8 @@
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="39"/>
-      <c r="B59" s="40"/>
+      <c r="A59" s="57"/>
+      <c r="B59" s="58"/>
       <c r="C59" s="10"/>
       <c r="D59" s="24"/>
       <c r="E59" s="10"/>
@@ -5279,8 +5373,8 @@
       <c r="H60" s="10"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="35"/>
-      <c r="B61" s="36"/>
+      <c r="A61" s="53"/>
+      <c r="B61" s="54"/>
       <c r="C61" s="6" t="s">
         <v>117</v>
       </c>
@@ -5295,8 +5389,8 @@
       <c r="H61" s="1"/>
     </row>
     <row r="62" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="37"/>
-      <c r="B62" s="38"/>
+      <c r="A62" s="55"/>
+      <c r="B62" s="56"/>
       <c r="C62" s="6" t="s">
         <v>118</v>
       </c>
@@ -5311,8 +5405,8 @@
       <c r="H62" s="1"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="37"/>
-      <c r="B63" s="38"/>
+      <c r="A63" s="55"/>
+      <c r="B63" s="56"/>
       <c r="C63" s="6"/>
       <c r="D63" s="1"/>
       <c r="E63" s="6"/>
@@ -5321,8 +5415,8 @@
       <c r="H63" s="1"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="37"/>
-      <c r="B64" s="38"/>
+      <c r="A64" s="55"/>
+      <c r="B64" s="56"/>
       <c r="C64" s="6"/>
       <c r="D64" s="1"/>
       <c r="E64" s="6"/>
@@ -5331,8 +5425,8 @@
       <c r="H64" s="1"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="39"/>
-      <c r="B65" s="40"/>
+      <c r="A65" s="57"/>
+      <c r="B65" s="58"/>
       <c r="C65" s="10"/>
       <c r="D65" s="24"/>
       <c r="E65" s="10"/>
@@ -5359,8 +5453,8 @@
       <c r="H66" s="10"/>
     </row>
     <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="35"/>
-      <c r="B67" s="36"/>
+      <c r="A67" s="53"/>
+      <c r="B67" s="54"/>
       <c r="C67" s="6" t="s">
         <v>117</v>
       </c>
@@ -5375,8 +5469,8 @@
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="37"/>
-      <c r="B68" s="38"/>
+      <c r="A68" s="55"/>
+      <c r="B68" s="56"/>
       <c r="C68" s="6" t="s">
         <v>118</v>
       </c>
@@ -5391,8 +5485,8 @@
       <c r="H68" s="1"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="37"/>
-      <c r="B69" s="38"/>
+      <c r="A69" s="55"/>
+      <c r="B69" s="56"/>
       <c r="C69" s="6"/>
       <c r="D69" s="1"/>
       <c r="E69" s="6"/>
@@ -5401,8 +5495,8 @@
       <c r="H69" s="1"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="37"/>
-      <c r="B70" s="38"/>
+      <c r="A70" s="55"/>
+      <c r="B70" s="56"/>
       <c r="C70" s="6"/>
       <c r="D70" s="1"/>
       <c r="E70" s="6"/>
@@ -5411,8 +5505,8 @@
       <c r="H70" s="1"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="37"/>
-      <c r="B71" s="38"/>
+      <c r="A71" s="55"/>
+      <c r="B71" s="56"/>
       <c r="C71" s="6"/>
       <c r="D71" s="1"/>
       <c r="E71" s="6"/>
@@ -5421,8 +5515,8 @@
       <c r="H71" s="1"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="37"/>
-      <c r="B72" s="38"/>
+      <c r="A72" s="55"/>
+      <c r="B72" s="56"/>
       <c r="C72" s="6"/>
       <c r="D72" s="1"/>
       <c r="E72" s="6"/>
@@ -5431,8 +5525,8 @@
       <c r="H72" s="1"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="39"/>
-      <c r="B73" s="40"/>
+      <c r="A73" s="57"/>
+      <c r="B73" s="58"/>
       <c r="C73" s="10"/>
       <c r="D73" s="24"/>
       <c r="E73" s="10"/>
@@ -5459,8 +5553,8 @@
       <c r="H74" s="10"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="35"/>
-      <c r="B75" s="36"/>
+      <c r="A75" s="53"/>
+      <c r="B75" s="54"/>
       <c r="C75" s="6" t="s">
         <v>117</v>
       </c>
@@ -5475,8 +5569,8 @@
       <c r="H75" s="1"/>
     </row>
     <row r="76" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="37"/>
-      <c r="B76" s="38"/>
+      <c r="A76" s="55"/>
+      <c r="B76" s="56"/>
       <c r="C76" s="6" t="s">
         <v>118</v>
       </c>
@@ -5491,8 +5585,8 @@
       <c r="H76" s="1"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="37"/>
-      <c r="B77" s="38"/>
+      <c r="A77" s="55"/>
+      <c r="B77" s="56"/>
       <c r="C77" s="6"/>
       <c r="D77" s="1"/>
       <c r="E77" s="6"/>
@@ -5501,8 +5595,8 @@
       <c r="H77" s="1"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="37"/>
-      <c r="B78" s="38"/>
+      <c r="A78" s="55"/>
+      <c r="B78" s="56"/>
       <c r="C78" s="6"/>
       <c r="D78" s="1"/>
       <c r="E78" s="6"/>
@@ -5511,8 +5605,8 @@
       <c r="H78" s="1"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="37"/>
-      <c r="B79" s="38"/>
+      <c r="A79" s="55"/>
+      <c r="B79" s="56"/>
       <c r="C79" s="6"/>
       <c r="D79" s="1"/>
       <c r="E79" s="6"/>
@@ -5521,8 +5615,8 @@
       <c r="H79" s="1"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="37"/>
-      <c r="B80" s="38"/>
+      <c r="A80" s="55"/>
+      <c r="B80" s="56"/>
       <c r="C80" s="6"/>
       <c r="D80" s="1"/>
       <c r="E80" s="6"/>
@@ -5531,8 +5625,8 @@
       <c r="H80" s="1"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="39"/>
-      <c r="B81" s="40"/>
+      <c r="A81" s="57"/>
+      <c r="B81" s="58"/>
       <c r="C81" s="10"/>
       <c r="D81" s="24"/>
       <c r="E81" s="10"/>
@@ -5559,8 +5653,8 @@
       <c r="H82" s="10"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="35"/>
-      <c r="B83" s="36"/>
+      <c r="A83" s="53"/>
+      <c r="B83" s="54"/>
       <c r="C83" s="6" t="s">
         <v>117</v>
       </c>
@@ -5575,8 +5669,8 @@
       <c r="H83" s="1"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="37"/>
-      <c r="B84" s="38"/>
+      <c r="A84" s="55"/>
+      <c r="B84" s="56"/>
       <c r="C84" s="6"/>
       <c r="D84" s="1"/>
       <c r="E84" s="6"/>
@@ -5585,8 +5679,8 @@
       <c r="H84" s="1"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="37"/>
-      <c r="B85" s="38"/>
+      <c r="A85" s="55"/>
+      <c r="B85" s="56"/>
       <c r="C85" s="6"/>
       <c r="D85" s="1"/>
       <c r="E85" s="6"/>
@@ -5595,8 +5689,8 @@
       <c r="H85" s="1"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="37"/>
-      <c r="B86" s="38"/>
+      <c r="A86" s="55"/>
+      <c r="B86" s="56"/>
       <c r="C86" s="6"/>
       <c r="D86" s="1"/>
       <c r="E86" s="6"/>
@@ -5605,8 +5699,8 @@
       <c r="H86" s="1"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="37"/>
-      <c r="B87" s="38"/>
+      <c r="A87" s="55"/>
+      <c r="B87" s="56"/>
       <c r="C87" s="6"/>
       <c r="D87" s="1"/>
       <c r="E87" s="6"/>
@@ -5615,8 +5709,8 @@
       <c r="H87" s="1"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="37"/>
-      <c r="B88" s="38"/>
+      <c r="A88" s="55"/>
+      <c r="B88" s="56"/>
       <c r="C88" s="6"/>
       <c r="D88" s="1"/>
       <c r="E88" s="6"/>
@@ -5625,8 +5719,8 @@
       <c r="H88" s="1"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="39"/>
-      <c r="B89" s="40"/>
+      <c r="A89" s="57"/>
+      <c r="B89" s="58"/>
       <c r="C89" s="10"/>
       <c r="D89" s="24"/>
       <c r="E89" s="10"/>
@@ -5650,8 +5744,8 @@
       <c r="H90" s="10"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="35"/>
-      <c r="B91" s="36"/>
+      <c r="A91" s="53"/>
+      <c r="B91" s="54"/>
       <c r="C91" s="26"/>
       <c r="D91" s="1"/>
       <c r="E91" s="26"/>
@@ -5660,8 +5754,8 @@
       <c r="H91" s="1"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="37"/>
-      <c r="B92" s="38"/>
+      <c r="A92" s="55"/>
+      <c r="B92" s="56"/>
       <c r="C92" s="26"/>
       <c r="D92" s="1"/>
       <c r="E92" s="26"/>
@@ -5670,8 +5764,8 @@
       <c r="H92" s="1"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="37"/>
-      <c r="B93" s="38"/>
+      <c r="A93" s="55"/>
+      <c r="B93" s="56"/>
       <c r="C93" s="26"/>
       <c r="D93" s="1"/>
       <c r="E93" s="26"/>
@@ -5680,8 +5774,8 @@
       <c r="H93" s="1"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="37"/>
-      <c r="B94" s="38"/>
+      <c r="A94" s="55"/>
+      <c r="B94" s="56"/>
       <c r="C94" s="26"/>
       <c r="D94" s="1"/>
       <c r="E94" s="26"/>
@@ -5690,8 +5784,8 @@
       <c r="H94" s="1"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="37"/>
-      <c r="B95" s="38"/>
+      <c r="A95" s="55"/>
+      <c r="B95" s="56"/>
       <c r="C95" s="26"/>
       <c r="D95" s="1"/>
       <c r="E95" s="26"/>
@@ -5700,8 +5794,8 @@
       <c r="H95" s="1"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="37"/>
-      <c r="B96" s="38"/>
+      <c r="A96" s="55"/>
+      <c r="B96" s="56"/>
       <c r="C96" s="26"/>
       <c r="D96" s="1"/>
       <c r="E96" s="26"/>
@@ -5710,8 +5804,8 @@
       <c r="H96" s="1"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="39"/>
-      <c r="B97" s="40"/>
+      <c r="A97" s="57"/>
+      <c r="B97" s="58"/>
       <c r="C97" s="10"/>
       <c r="D97" s="24"/>
       <c r="E97" s="10"/>
@@ -5735,8 +5829,8 @@
       <c r="H98" s="10"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="35"/>
-      <c r="B99" s="36"/>
+      <c r="A99" s="53"/>
+      <c r="B99" s="54"/>
       <c r="C99" s="26"/>
       <c r="D99" s="1"/>
       <c r="E99" s="26"/>
@@ -5745,8 +5839,8 @@
       <c r="H99" s="1"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="37"/>
-      <c r="B100" s="38"/>
+      <c r="A100" s="55"/>
+      <c r="B100" s="56"/>
       <c r="C100" s="26"/>
       <c r="D100" s="1"/>
       <c r="E100" s="26"/>
@@ -5755,8 +5849,8 @@
       <c r="H100" s="1"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="37"/>
-      <c r="B101" s="38"/>
+      <c r="A101" s="55"/>
+      <c r="B101" s="56"/>
       <c r="C101" s="26"/>
       <c r="D101" s="1"/>
       <c r="E101" s="26"/>
@@ -5765,8 +5859,8 @@
       <c r="H101" s="1"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="37"/>
-      <c r="B102" s="38"/>
+      <c r="A102" s="55"/>
+      <c r="B102" s="56"/>
       <c r="C102" s="26"/>
       <c r="D102" s="1"/>
       <c r="E102" s="26"/>
@@ -5775,8 +5869,8 @@
       <c r="H102" s="1"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="37"/>
-      <c r="B103" s="38"/>
+      <c r="A103" s="55"/>
+      <c r="B103" s="56"/>
       <c r="C103" s="26"/>
       <c r="D103" s="1"/>
       <c r="E103" s="26"/>
@@ -5785,8 +5879,8 @@
       <c r="H103" s="1"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="37"/>
-      <c r="B104" s="38"/>
+      <c r="A104" s="55"/>
+      <c r="B104" s="56"/>
       <c r="C104" s="26"/>
       <c r="D104" s="1"/>
       <c r="E104" s="26"/>
@@ -5795,8 +5889,8 @@
       <c r="H104" s="1"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="39"/>
-      <c r="B105" s="40"/>
+      <c r="A105" s="57"/>
+      <c r="B105" s="58"/>
       <c r="C105" s="10"/>
       <c r="D105" s="24"/>
       <c r="E105" s="10"/>
@@ -5820,8 +5914,8 @@
       <c r="H106" s="10"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="35"/>
-      <c r="B107" s="36"/>
+      <c r="A107" s="53"/>
+      <c r="B107" s="54"/>
       <c r="C107" s="26"/>
       <c r="D107" s="1"/>
       <c r="E107" s="26"/>
@@ -5830,8 +5924,8 @@
       <c r="H107" s="1"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="37"/>
-      <c r="B108" s="38"/>
+      <c r="A108" s="55"/>
+      <c r="B108" s="56"/>
       <c r="C108" s="26"/>
       <c r="D108" s="1"/>
       <c r="E108" s="26"/>
@@ -5840,8 +5934,8 @@
       <c r="H108" s="1"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="37"/>
-      <c r="B109" s="38"/>
+      <c r="A109" s="55"/>
+      <c r="B109" s="56"/>
       <c r="C109" s="26"/>
       <c r="D109" s="1"/>
       <c r="E109" s="26"/>
@@ -5850,8 +5944,8 @@
       <c r="H109" s="1"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="37"/>
-      <c r="B110" s="38"/>
+      <c r="A110" s="55"/>
+      <c r="B110" s="56"/>
       <c r="C110" s="26"/>
       <c r="D110" s="1"/>
       <c r="E110" s="26"/>
@@ -5860,8 +5954,8 @@
       <c r="H110" s="1"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="37"/>
-      <c r="B111" s="38"/>
+      <c r="A111" s="55"/>
+      <c r="B111" s="56"/>
       <c r="C111" s="26"/>
       <c r="D111" s="1"/>
       <c r="E111" s="26"/>
@@ -5870,8 +5964,8 @@
       <c r="H111" s="1"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="37"/>
-      <c r="B112" s="38"/>
+      <c r="A112" s="55"/>
+      <c r="B112" s="56"/>
       <c r="C112" s="26"/>
       <c r="D112" s="1"/>
       <c r="E112" s="26"/>
@@ -5880,8 +5974,8 @@
       <c r="H112" s="1"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="39"/>
-      <c r="B113" s="40"/>
+      <c r="A113" s="57"/>
+      <c r="B113" s="58"/>
       <c r="C113" s="10"/>
       <c r="D113" s="24"/>
       <c r="E113" s="10"/>
@@ -5900,8 +5994,8 @@
       <c r="H114" s="10"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="35"/>
-      <c r="B115" s="36"/>
+      <c r="A115" s="53"/>
+      <c r="B115" s="54"/>
       <c r="C115" s="26"/>
       <c r="D115" s="1"/>
       <c r="E115" s="26"/>
@@ -5910,8 +6004,8 @@
       <c r="H115" s="1"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="37"/>
-      <c r="B116" s="38"/>
+      <c r="A116" s="55"/>
+      <c r="B116" s="56"/>
       <c r="C116" s="26"/>
       <c r="D116" s="1"/>
       <c r="E116" s="26"/>
@@ -5920,8 +6014,8 @@
       <c r="H116" s="1"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="37"/>
-      <c r="B117" s="38"/>
+      <c r="A117" s="55"/>
+      <c r="B117" s="56"/>
       <c r="C117" s="26"/>
       <c r="D117" s="1"/>
       <c r="E117" s="26"/>
@@ -5930,8 +6024,8 @@
       <c r="H117" s="1"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="37"/>
-      <c r="B118" s="38"/>
+      <c r="A118" s="55"/>
+      <c r="B118" s="56"/>
       <c r="C118" s="26"/>
       <c r="D118" s="1"/>
       <c r="E118" s="26"/>
@@ -5940,8 +6034,8 @@
       <c r="H118" s="1"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="37"/>
-      <c r="B119" s="38"/>
+      <c r="A119" s="55"/>
+      <c r="B119" s="56"/>
       <c r="C119" s="26"/>
       <c r="D119" s="1"/>
       <c r="E119" s="26"/>
@@ -5950,8 +6044,8 @@
       <c r="H119" s="1"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="37"/>
-      <c r="B120" s="38"/>
+      <c r="A120" s="55"/>
+      <c r="B120" s="56"/>
       <c r="C120" s="26"/>
       <c r="D120" s="1"/>
       <c r="E120" s="26"/>
@@ -5960,8 +6054,8 @@
       <c r="H120" s="1"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="39"/>
-      <c r="B121" s="40"/>
+      <c r="A121" s="57"/>
+      <c r="B121" s="58"/>
       <c r="C121" s="10"/>
       <c r="D121" s="24"/>
       <c r="E121" s="10"/>
@@ -5980,8 +6074,8 @@
       <c r="H122" s="10"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="35"/>
-      <c r="B123" s="36"/>
+      <c r="A123" s="53"/>
+      <c r="B123" s="54"/>
       <c r="C123" s="26"/>
       <c r="D123" s="1"/>
       <c r="E123" s="26"/>
@@ -5990,8 +6084,8 @@
       <c r="H123" s="1"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="37"/>
-      <c r="B124" s="38"/>
+      <c r="A124" s="55"/>
+      <c r="B124" s="56"/>
       <c r="C124" s="26"/>
       <c r="D124" s="1"/>
       <c r="E124" s="26"/>
@@ -6000,8 +6094,8 @@
       <c r="H124" s="1"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="37"/>
-      <c r="B125" s="38"/>
+      <c r="A125" s="55"/>
+      <c r="B125" s="56"/>
       <c r="C125" s="26"/>
       <c r="D125" s="1"/>
       <c r="E125" s="26"/>
@@ -6010,8 +6104,8 @@
       <c r="H125" s="1"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="37"/>
-      <c r="B126" s="38"/>
+      <c r="A126" s="55"/>
+      <c r="B126" s="56"/>
       <c r="C126" s="26"/>
       <c r="D126" s="1"/>
       <c r="E126" s="26"/>
@@ -6020,8 +6114,8 @@
       <c r="H126" s="1"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="37"/>
-      <c r="B127" s="38"/>
+      <c r="A127" s="55"/>
+      <c r="B127" s="56"/>
       <c r="C127" s="26"/>
       <c r="D127" s="1"/>
       <c r="E127" s="26"/>
@@ -6030,8 +6124,8 @@
       <c r="H127" s="1"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="37"/>
-      <c r="B128" s="38"/>
+      <c r="A128" s="55"/>
+      <c r="B128" s="56"/>
       <c r="C128" s="26"/>
       <c r="D128" s="1"/>
       <c r="E128" s="26"/>
@@ -6040,8 +6134,8 @@
       <c r="H128" s="1"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="39"/>
-      <c r="B129" s="40"/>
+      <c r="A129" s="57"/>
+      <c r="B129" s="58"/>
       <c r="C129" s="10"/>
       <c r="D129" s="24"/>
       <c r="E129" s="10"/>
@@ -6060,8 +6154,8 @@
       <c r="H130" s="10"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="35"/>
-      <c r="B131" s="36"/>
+      <c r="A131" s="53"/>
+      <c r="B131" s="54"/>
       <c r="C131" s="26"/>
       <c r="D131" s="1"/>
       <c r="E131" s="26"/>
@@ -6070,8 +6164,8 @@
       <c r="H131" s="1"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="37"/>
-      <c r="B132" s="38"/>
+      <c r="A132" s="55"/>
+      <c r="B132" s="56"/>
       <c r="C132" s="26"/>
       <c r="D132" s="1"/>
       <c r="E132" s="26"/>
@@ -6080,8 +6174,8 @@
       <c r="H132" s="1"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="37"/>
-      <c r="B133" s="38"/>
+      <c r="A133" s="55"/>
+      <c r="B133" s="56"/>
       <c r="C133" s="26"/>
       <c r="D133" s="1"/>
       <c r="E133" s="26"/>
@@ -6090,8 +6184,8 @@
       <c r="H133" s="1"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="37"/>
-      <c r="B134" s="38"/>
+      <c r="A134" s="55"/>
+      <c r="B134" s="56"/>
       <c r="C134" s="26"/>
       <c r="D134" s="1"/>
       <c r="E134" s="26"/>
@@ -6100,8 +6194,8 @@
       <c r="H134" s="1"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="37"/>
-      <c r="B135" s="38"/>
+      <c r="A135" s="55"/>
+      <c r="B135" s="56"/>
       <c r="C135" s="26"/>
       <c r="D135" s="1"/>
       <c r="E135" s="26"/>
@@ -6110,8 +6204,8 @@
       <c r="H135" s="1"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="37"/>
-      <c r="B136" s="38"/>
+      <c r="A136" s="55"/>
+      <c r="B136" s="56"/>
       <c r="C136" s="26"/>
       <c r="D136" s="1"/>
       <c r="E136" s="26"/>
@@ -6120,8 +6214,8 @@
       <c r="H136" s="1"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="39"/>
-      <c r="B137" s="40"/>
+      <c r="A137" s="57"/>
+      <c r="B137" s="58"/>
       <c r="C137" s="10"/>
       <c r="D137" s="24"/>
       <c r="E137" s="10"/>
@@ -6140,8 +6234,8 @@
       <c r="H138" s="10"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="35"/>
-      <c r="B139" s="36"/>
+      <c r="A139" s="53"/>
+      <c r="B139" s="54"/>
       <c r="C139" s="26"/>
       <c r="D139" s="1"/>
       <c r="E139" s="26"/>
@@ -6150,8 +6244,8 @@
       <c r="H139" s="1"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="37"/>
-      <c r="B140" s="38"/>
+      <c r="A140" s="55"/>
+      <c r="B140" s="56"/>
       <c r="C140" s="26"/>
       <c r="D140" s="1"/>
       <c r="E140" s="26"/>
@@ -6160,8 +6254,8 @@
       <c r="H140" s="1"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="37"/>
-      <c r="B141" s="38"/>
+      <c r="A141" s="55"/>
+      <c r="B141" s="56"/>
       <c r="C141" s="26"/>
       <c r="D141" s="1"/>
       <c r="E141" s="26"/>
@@ -6170,8 +6264,8 @@
       <c r="H141" s="1"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="37"/>
-      <c r="B142" s="38"/>
+      <c r="A142" s="55"/>
+      <c r="B142" s="56"/>
       <c r="C142" s="26"/>
       <c r="D142" s="1"/>
       <c r="E142" s="26"/>
@@ -6180,8 +6274,8 @@
       <c r="H142" s="1"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="37"/>
-      <c r="B143" s="38"/>
+      <c r="A143" s="55"/>
+      <c r="B143" s="56"/>
       <c r="C143" s="26"/>
       <c r="D143" s="1"/>
       <c r="E143" s="26"/>
@@ -6190,8 +6284,8 @@
       <c r="H143" s="1"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="37"/>
-      <c r="B144" s="38"/>
+      <c r="A144" s="55"/>
+      <c r="B144" s="56"/>
       <c r="C144" s="26"/>
       <c r="D144" s="1"/>
       <c r="E144" s="26"/>
@@ -6200,8 +6294,8 @@
       <c r="H144" s="1"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="39"/>
-      <c r="B145" s="40"/>
+      <c r="A145" s="57"/>
+      <c r="B145" s="58"/>
       <c r="C145" s="10"/>
       <c r="D145" s="24"/>
       <c r="E145" s="10"/>
@@ -6211,11 +6305,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A55:B59"/>
-    <mergeCell ref="A67:B73"/>
-    <mergeCell ref="A75:B81"/>
-    <mergeCell ref="A83:B89"/>
-    <mergeCell ref="A61:B65"/>
+    <mergeCell ref="A131:B137"/>
+    <mergeCell ref="A139:B145"/>
+    <mergeCell ref="A91:B97"/>
+    <mergeCell ref="A99:B105"/>
+    <mergeCell ref="A107:B113"/>
+    <mergeCell ref="A115:B121"/>
+    <mergeCell ref="A123:B129"/>
     <mergeCell ref="A24:B30"/>
     <mergeCell ref="A32:B38"/>
     <mergeCell ref="A40:B46"/>
@@ -6224,13 +6320,11 @@
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="A16:B22"/>
-    <mergeCell ref="A131:B137"/>
-    <mergeCell ref="A139:B145"/>
-    <mergeCell ref="A91:B97"/>
-    <mergeCell ref="A99:B105"/>
-    <mergeCell ref="A107:B113"/>
-    <mergeCell ref="A115:B121"/>
-    <mergeCell ref="A123:B129"/>
+    <mergeCell ref="A55:B59"/>
+    <mergeCell ref="A67:B73"/>
+    <mergeCell ref="A75:B81"/>
+    <mergeCell ref="A83:B89"/>
+    <mergeCell ref="A61:B65"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6242,8 +6336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D111" sqref="D111"/>
+    <sheetView topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104:C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="81.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6258,56 +6352,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
     </row>
     <row r="3" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
     </row>
     <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
     </row>
     <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
     </row>
     <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -6346,43 +6440,57 @@
         <v>137</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="47"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="62"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="1"/>
+      <c r="A8" s="53" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" s="63"/>
+      <c r="C8" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="1"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>221</v>
+      </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="1"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="43"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="64"/>
       <c r="C11" s="6"/>
       <c r="D11" s="1"/>
       <c r="E11" s="6"/>
@@ -6391,8 +6499,8 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="43"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="64"/>
       <c r="C12" s="6"/>
       <c r="D12" s="1"/>
       <c r="E12" s="6"/>
@@ -6401,8 +6509,8 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="43"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="6"/>
       <c r="D13" s="1"/>
       <c r="E13" s="6"/>
@@ -6411,8 +6519,8 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
-      <c r="B14" s="44"/>
+      <c r="A14" s="57"/>
+      <c r="B14" s="65"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -6431,14 +6539,16 @@
         <v>138</v>
       </c>
       <c r="E15" s="6"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="47"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="62"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="6"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="33" t="s">
+        <v>117</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -6446,9 +6556,11 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="6"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="33" t="s">
+        <v>118</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -6456,9 +6568,11 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="6"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="33" t="s">
+        <v>119</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -6466,8 +6580,8 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="43"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="64"/>
       <c r="C19" s="6"/>
       <c r="D19" s="1"/>
       <c r="E19" s="6"/>
@@ -6476,8 +6590,8 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="43"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="64"/>
       <c r="C20" s="6"/>
       <c r="D20" s="1"/>
       <c r="E20" s="6"/>
@@ -6486,8 +6600,8 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="43"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="64"/>
       <c r="C21" s="6"/>
       <c r="D21" s="1"/>
       <c r="E21" s="6"/>
@@ -6496,8 +6610,8 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
-      <c r="B22" s="44"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="65"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -6516,34 +6630,44 @@
         <v>146</v>
       </c>
       <c r="E23" s="26"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="47"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="62"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="1"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>223</v>
+      </c>
       <c r="E24" s="26"/>
       <c r="F24" s="26"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="1"/>
+    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="55"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>224</v>
+      </c>
       <c r="E25" s="26"/>
       <c r="F25" s="26"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="26"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="33" t="s">
+        <v>119</v>
+      </c>
       <c r="D26" s="1"/>
       <c r="E26" s="26"/>
       <c r="F26" s="26"/>
@@ -6551,8 +6675,8 @@
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="43"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="64"/>
       <c r="C27" s="26"/>
       <c r="D27" s="1"/>
       <c r="E27" s="26"/>
@@ -6561,8 +6685,8 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
-      <c r="B28" s="43"/>
+      <c r="A28" s="55"/>
+      <c r="B28" s="64"/>
       <c r="C28" s="26"/>
       <c r="D28" s="1"/>
       <c r="E28" s="26"/>
@@ -6571,8 +6695,8 @@
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="43"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="64"/>
       <c r="C29" s="26"/>
       <c r="D29" s="1"/>
       <c r="E29" s="26"/>
@@ -6581,8 +6705,8 @@
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
-      <c r="B30" s="44"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="65"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
@@ -6601,14 +6725,16 @@
         <v>147</v>
       </c>
       <c r="E31" s="26"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="47"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="62"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="35"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="26"/>
+      <c r="A32" s="53"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="33" t="s">
+        <v>117</v>
+      </c>
       <c r="D32" s="1"/>
       <c r="E32" s="26"/>
       <c r="F32" s="26"/>
@@ -6616,9 +6742,11 @@
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="37"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="26"/>
+      <c r="A33" s="55"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="33" t="s">
+        <v>118</v>
+      </c>
       <c r="D33" s="1"/>
       <c r="E33" s="26"/>
       <c r="F33" s="26"/>
@@ -6626,9 +6754,11 @@
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="37"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="26"/>
+      <c r="A34" s="55"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="33" t="s">
+        <v>119</v>
+      </c>
       <c r="D34" s="1"/>
       <c r="E34" s="26"/>
       <c r="F34" s="26"/>
@@ -6636,8 +6766,8 @@
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="37"/>
-      <c r="B35" s="43"/>
+      <c r="A35" s="55"/>
+      <c r="B35" s="64"/>
       <c r="C35" s="26"/>
       <c r="D35" s="1"/>
       <c r="E35" s="26"/>
@@ -6646,8 +6776,8 @@
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="37"/>
-      <c r="B36" s="43"/>
+      <c r="A36" s="55"/>
+      <c r="B36" s="64"/>
       <c r="C36" s="26"/>
       <c r="D36" s="1"/>
       <c r="E36" s="26"/>
@@ -6656,8 +6786,8 @@
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="37"/>
-      <c r="B37" s="43"/>
+      <c r="A37" s="55"/>
+      <c r="B37" s="64"/>
       <c r="C37" s="26"/>
       <c r="D37" s="1"/>
       <c r="E37" s="26"/>
@@ -6666,8 +6796,8 @@
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="39"/>
-      <c r="B38" s="44"/>
+      <c r="A38" s="57"/>
+      <c r="B38" s="65"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
@@ -6686,43 +6816,55 @@
         <v>149</v>
       </c>
       <c r="E39" s="26"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="47"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="62"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="35"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="1"/>
+      <c r="A40" s="53"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>225</v>
+      </c>
       <c r="E40" s="26"/>
       <c r="F40" s="26"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="37"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="1"/>
+    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="55"/>
+      <c r="B41" s="64"/>
+      <c r="C41" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="E41" s="26"/>
       <c r="F41" s="26"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="37"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="1"/>
+      <c r="A42" s="55"/>
+      <c r="B42" s="64"/>
+      <c r="C42" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>227</v>
+      </c>
       <c r="E42" s="26"/>
       <c r="F42" s="26"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="37"/>
-      <c r="B43" s="43"/>
+      <c r="A43" s="55"/>
+      <c r="B43" s="64"/>
       <c r="C43" s="26"/>
       <c r="D43" s="1"/>
       <c r="E43" s="26"/>
@@ -6731,8 +6873,8 @@
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="37"/>
-      <c r="B44" s="43"/>
+      <c r="A44" s="55"/>
+      <c r="B44" s="64"/>
       <c r="C44" s="26"/>
       <c r="D44" s="1"/>
       <c r="E44" s="26"/>
@@ -6741,8 +6883,8 @@
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="37"/>
-      <c r="B45" s="43"/>
+      <c r="A45" s="55"/>
+      <c r="B45" s="64"/>
       <c r="C45" s="26"/>
       <c r="D45" s="1"/>
       <c r="E45" s="26"/>
@@ -6751,8 +6893,8 @@
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="39"/>
-      <c r="B46" s="44"/>
+      <c r="A46" s="57"/>
+      <c r="B46" s="65"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
@@ -6771,14 +6913,16 @@
         <v>150</v>
       </c>
       <c r="E47" s="26"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="47"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="61"/>
+      <c r="H47" s="62"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="35"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="26"/>
+      <c r="A48" s="53"/>
+      <c r="B48" s="63"/>
+      <c r="C48" s="33" t="s">
+        <v>117</v>
+      </c>
       <c r="D48" s="1"/>
       <c r="E48" s="26"/>
       <c r="F48" s="26"/>
@@ -6786,9 +6930,11 @@
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="37"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="26"/>
+      <c r="A49" s="55"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="33" t="s">
+        <v>118</v>
+      </c>
       <c r="D49" s="1"/>
       <c r="E49" s="26"/>
       <c r="F49" s="26"/>
@@ -6796,9 +6942,11 @@
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="37"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="26"/>
+      <c r="A50" s="55"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="33" t="s">
+        <v>119</v>
+      </c>
       <c r="D50" s="1"/>
       <c r="E50" s="26"/>
       <c r="F50" s="26"/>
@@ -6806,8 +6954,8 @@
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="37"/>
-      <c r="B51" s="43"/>
+      <c r="A51" s="55"/>
+      <c r="B51" s="64"/>
       <c r="C51" s="26"/>
       <c r="D51" s="1"/>
       <c r="E51" s="26"/>
@@ -6816,8 +6964,8 @@
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="37"/>
-      <c r="B52" s="43"/>
+      <c r="A52" s="55"/>
+      <c r="B52" s="64"/>
       <c r="C52" s="26"/>
       <c r="D52" s="1"/>
       <c r="E52" s="26"/>
@@ -6826,8 +6974,8 @@
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="37"/>
-      <c r="B53" s="43"/>
+      <c r="A53" s="55"/>
+      <c r="B53" s="64"/>
       <c r="C53" s="26"/>
       <c r="D53" s="1"/>
       <c r="E53" s="26"/>
@@ -6836,8 +6984,8 @@
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="39"/>
-      <c r="B54" s="44"/>
+      <c r="A54" s="57"/>
+      <c r="B54" s="65"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
@@ -6856,24 +7004,30 @@
         <v>155</v>
       </c>
       <c r="E55" s="26"/>
-      <c r="F55" s="45"/>
-      <c r="G55" s="46"/>
-      <c r="H55" s="47"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="35"/>
-      <c r="B56" s="42"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="1"/>
+      <c r="F55" s="60"/>
+      <c r="G55" s="61"/>
+      <c r="H55" s="62"/>
+    </row>
+    <row r="56" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="53"/>
+      <c r="B56" s="63"/>
+      <c r="C56" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>228</v>
+      </c>
       <c r="E56" s="26"/>
       <c r="F56" s="26"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="37"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="26"/>
+      <c r="A57" s="55"/>
+      <c r="B57" s="64"/>
+      <c r="C57" s="33" t="s">
+        <v>118</v>
+      </c>
       <c r="D57" s="1"/>
       <c r="E57" s="26"/>
       <c r="F57" s="26"/>
@@ -6881,9 +7035,11 @@
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="37"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="26"/>
+      <c r="A58" s="55"/>
+      <c r="B58" s="64"/>
+      <c r="C58" s="33" t="s">
+        <v>119</v>
+      </c>
       <c r="D58" s="1"/>
       <c r="E58" s="26"/>
       <c r="F58" s="26"/>
@@ -6891,8 +7047,8 @@
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="37"/>
-      <c r="B59" s="43"/>
+      <c r="A59" s="55"/>
+      <c r="B59" s="64"/>
       <c r="C59" s="26"/>
       <c r="D59" s="1"/>
       <c r="E59" s="26"/>
@@ -6901,8 +7057,8 @@
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="37"/>
-      <c r="B60" s="43"/>
+      <c r="A60" s="55"/>
+      <c r="B60" s="64"/>
       <c r="C60" s="26"/>
       <c r="D60" s="1"/>
       <c r="E60" s="26"/>
@@ -6911,8 +7067,8 @@
       <c r="H60" s="1"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="37"/>
-      <c r="B61" s="43"/>
+      <c r="A61" s="55"/>
+      <c r="B61" s="64"/>
       <c r="C61" s="26"/>
       <c r="D61" s="1"/>
       <c r="E61" s="26"/>
@@ -6921,8 +7077,8 @@
       <c r="H61" s="1"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="39"/>
-      <c r="B62" s="44"/>
+      <c r="A62" s="57"/>
+      <c r="B62" s="65"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
       <c r="E62" s="10"/>
@@ -6941,14 +7097,16 @@
         <v>156</v>
       </c>
       <c r="E63" s="26"/>
-      <c r="F63" s="45"/>
-      <c r="G63" s="46"/>
-      <c r="H63" s="47"/>
+      <c r="F63" s="60"/>
+      <c r="G63" s="61"/>
+      <c r="H63" s="62"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="35"/>
-      <c r="B64" s="42"/>
-      <c r="C64" s="26"/>
+      <c r="A64" s="53"/>
+      <c r="B64" s="63"/>
+      <c r="C64" s="33" t="s">
+        <v>117</v>
+      </c>
       <c r="D64" s="1"/>
       <c r="E64" s="26"/>
       <c r="F64" s="26"/>
@@ -6956,9 +7114,11 @@
       <c r="H64" s="1"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="37"/>
-      <c r="B65" s="43"/>
-      <c r="C65" s="26"/>
+      <c r="A65" s="55"/>
+      <c r="B65" s="64"/>
+      <c r="C65" s="33" t="s">
+        <v>118</v>
+      </c>
       <c r="D65" s="1"/>
       <c r="E65" s="26"/>
       <c r="F65" s="26"/>
@@ -6966,9 +7126,11 @@
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="37"/>
-      <c r="B66" s="43"/>
-      <c r="C66" s="26"/>
+      <c r="A66" s="55"/>
+      <c r="B66" s="64"/>
+      <c r="C66" s="33" t="s">
+        <v>119</v>
+      </c>
       <c r="D66" s="1"/>
       <c r="E66" s="26"/>
       <c r="F66" s="26"/>
@@ -6976,8 +7138,8 @@
       <c r="H66" s="1"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="37"/>
-      <c r="B67" s="43"/>
+      <c r="A67" s="55"/>
+      <c r="B67" s="64"/>
       <c r="C67" s="26"/>
       <c r="D67" s="1"/>
       <c r="E67" s="26"/>
@@ -6986,8 +7148,8 @@
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="37"/>
-      <c r="B68" s="43"/>
+      <c r="A68" s="55"/>
+      <c r="B68" s="64"/>
       <c r="C68" s="26"/>
       <c r="D68" s="1"/>
       <c r="E68" s="26"/>
@@ -6996,8 +7158,8 @@
       <c r="H68" s="1"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="37"/>
-      <c r="B69" s="43"/>
+      <c r="A69" s="55"/>
+      <c r="B69" s="64"/>
       <c r="C69" s="26"/>
       <c r="D69" s="1"/>
       <c r="E69" s="26"/>
@@ -7006,8 +7168,8 @@
       <c r="H69" s="1"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="39"/>
-      <c r="B70" s="44"/>
+      <c r="A70" s="57"/>
+      <c r="B70" s="65"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
       <c r="E70" s="10"/>
@@ -7026,43 +7188,55 @@
         <v>160</v>
       </c>
       <c r="E71" s="26"/>
-      <c r="F71" s="45"/>
-      <c r="G71" s="46"/>
-      <c r="H71" s="47"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="35"/>
-      <c r="B72" s="42"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="1"/>
+      <c r="F71" s="60"/>
+      <c r="G71" s="61"/>
+      <c r="H71" s="62"/>
+    </row>
+    <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="53"/>
+      <c r="B72" s="63"/>
+      <c r="C72" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="E72" s="26"/>
       <c r="F72" s="26"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="37"/>
-      <c r="B73" s="43"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="1"/>
+      <c r="A73" s="55"/>
+      <c r="B73" s="64"/>
+      <c r="C73" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="E73" s="26"/>
       <c r="F73" s="26"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="37"/>
-      <c r="B74" s="43"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="1"/>
+    <row r="74" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="55"/>
+      <c r="B74" s="64"/>
+      <c r="C74" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>231</v>
+      </c>
       <c r="E74" s="26"/>
       <c r="F74" s="26"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="37"/>
-      <c r="B75" s="43"/>
+      <c r="A75" s="55"/>
+      <c r="B75" s="64"/>
       <c r="C75" s="26"/>
       <c r="D75" s="1"/>
       <c r="E75" s="26"/>
@@ -7071,8 +7245,8 @@
       <c r="H75" s="1"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="37"/>
-      <c r="B76" s="43"/>
+      <c r="A76" s="55"/>
+      <c r="B76" s="64"/>
       <c r="C76" s="26"/>
       <c r="D76" s="1"/>
       <c r="E76" s="26"/>
@@ -7081,8 +7255,8 @@
       <c r="H76" s="1"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="37"/>
-      <c r="B77" s="43"/>
+      <c r="A77" s="55"/>
+      <c r="B77" s="64"/>
       <c r="C77" s="26"/>
       <c r="D77" s="1"/>
       <c r="E77" s="26"/>
@@ -7091,8 +7265,8 @@
       <c r="H77" s="1"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="39"/>
-      <c r="B78" s="44"/>
+      <c r="A78" s="57"/>
+      <c r="B78" s="65"/>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
       <c r="E78" s="10"/>
@@ -7111,13 +7285,13 @@
         <v>159</v>
       </c>
       <c r="E79" s="26"/>
-      <c r="F79" s="45"/>
-      <c r="G79" s="46"/>
-      <c r="H79" s="47"/>
+      <c r="F79" s="60"/>
+      <c r="G79" s="61"/>
+      <c r="H79" s="62"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="35"/>
-      <c r="B80" s="42"/>
+      <c r="A80" s="53"/>
+      <c r="B80" s="63"/>
       <c r="C80" s="26"/>
       <c r="D80" s="1"/>
       <c r="E80" s="26"/>
@@ -7126,8 +7300,8 @@
       <c r="H80" s="1"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="37"/>
-      <c r="B81" s="43"/>
+      <c r="A81" s="55"/>
+      <c r="B81" s="64"/>
       <c r="C81" s="26"/>
       <c r="D81" s="1"/>
       <c r="E81" s="26"/>
@@ -7136,8 +7310,8 @@
       <c r="H81" s="1"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="37"/>
-      <c r="B82" s="43"/>
+      <c r="A82" s="55"/>
+      <c r="B82" s="64"/>
       <c r="C82" s="26"/>
       <c r="D82" s="1"/>
       <c r="E82" s="26"/>
@@ -7146,8 +7320,8 @@
       <c r="H82" s="1"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="37"/>
-      <c r="B83" s="43"/>
+      <c r="A83" s="55"/>
+      <c r="B83" s="64"/>
       <c r="C83" s="26"/>
       <c r="D83" s="1"/>
       <c r="E83" s="26"/>
@@ -7156,8 +7330,8 @@
       <c r="H83" s="1"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="37"/>
-      <c r="B84" s="43"/>
+      <c r="A84" s="55"/>
+      <c r="B84" s="64"/>
       <c r="C84" s="26"/>
       <c r="D84" s="1"/>
       <c r="E84" s="26"/>
@@ -7166,8 +7340,8 @@
       <c r="H84" s="1"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="37"/>
-      <c r="B85" s="43"/>
+      <c r="A85" s="55"/>
+      <c r="B85" s="64"/>
       <c r="C85" s="26"/>
       <c r="D85" s="1"/>
       <c r="E85" s="26"/>
@@ -7176,8 +7350,8 @@
       <c r="H85" s="1"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="39"/>
-      <c r="B86" s="44"/>
+      <c r="A86" s="57"/>
+      <c r="B86" s="65"/>
       <c r="C86" s="10"/>
       <c r="D86" s="10"/>
       <c r="E86" s="10"/>
@@ -7196,24 +7370,30 @@
         <v>73</v>
       </c>
       <c r="E87" s="26"/>
-      <c r="F87" s="45"/>
-      <c r="G87" s="46"/>
-      <c r="H87" s="47"/>
+      <c r="F87" s="60"/>
+      <c r="G87" s="61"/>
+      <c r="H87" s="62"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="35"/>
-      <c r="B88" s="42"/>
-      <c r="C88" s="26"/>
-      <c r="D88" s="1"/>
+      <c r="A88" s="53"/>
+      <c r="B88" s="63"/>
+      <c r="C88" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>232</v>
+      </c>
       <c r="E88" s="26"/>
       <c r="F88" s="26"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="37"/>
-      <c r="B89" s="43"/>
-      <c r="C89" s="26"/>
+      <c r="A89" s="55"/>
+      <c r="B89" s="64"/>
+      <c r="C89" s="33" t="s">
+        <v>118</v>
+      </c>
       <c r="D89" s="1"/>
       <c r="E89" s="26"/>
       <c r="F89" s="26"/>
@@ -7221,9 +7401,11 @@
       <c r="H89" s="1"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="37"/>
-      <c r="B90" s="43"/>
-      <c r="C90" s="26"/>
+      <c r="A90" s="55"/>
+      <c r="B90" s="64"/>
+      <c r="C90" s="33" t="s">
+        <v>119</v>
+      </c>
       <c r="D90" s="1"/>
       <c r="E90" s="26"/>
       <c r="F90" s="26"/>
@@ -7231,8 +7413,8 @@
       <c r="H90" s="1"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="37"/>
-      <c r="B91" s="43"/>
+      <c r="A91" s="55"/>
+      <c r="B91" s="64"/>
       <c r="C91" s="26"/>
       <c r="D91" s="1"/>
       <c r="E91" s="26"/>
@@ -7241,8 +7423,8 @@
       <c r="H91" s="1"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="37"/>
-      <c r="B92" s="43"/>
+      <c r="A92" s="55"/>
+      <c r="B92" s="64"/>
       <c r="C92" s="26"/>
       <c r="D92" s="1"/>
       <c r="E92" s="26"/>
@@ -7251,8 +7433,8 @@
       <c r="H92" s="1"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="37"/>
-      <c r="B93" s="43"/>
+      <c r="A93" s="55"/>
+      <c r="B93" s="64"/>
       <c r="C93" s="26"/>
       <c r="D93" s="1"/>
       <c r="E93" s="26"/>
@@ -7261,8 +7443,8 @@
       <c r="H93" s="1"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="39"/>
-      <c r="B94" s="44"/>
+      <c r="A94" s="57"/>
+      <c r="B94" s="65"/>
       <c r="C94" s="10"/>
       <c r="D94" s="10"/>
       <c r="E94" s="10"/>
@@ -7281,24 +7463,30 @@
         <v>74</v>
       </c>
       <c r="E95" s="26"/>
-      <c r="F95" s="45"/>
-      <c r="G95" s="46"/>
-      <c r="H95" s="47"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="35"/>
-      <c r="B96" s="42"/>
-      <c r="C96" s="26"/>
-      <c r="D96" s="1"/>
+      <c r="F95" s="60"/>
+      <c r="G95" s="61"/>
+      <c r="H95" s="62"/>
+    </row>
+    <row r="96" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A96" s="53"/>
+      <c r="B96" s="63"/>
+      <c r="C96" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>233</v>
+      </c>
       <c r="E96" s="26"/>
       <c r="F96" s="26"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="37"/>
-      <c r="B97" s="43"/>
-      <c r="C97" s="26"/>
+      <c r="A97" s="55"/>
+      <c r="B97" s="64"/>
+      <c r="C97" s="33" t="s">
+        <v>118</v>
+      </c>
       <c r="D97" s="1"/>
       <c r="E97" s="26"/>
       <c r="F97" s="26"/>
@@ -7306,9 +7494,11 @@
       <c r="H97" s="1"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="37"/>
-      <c r="B98" s="43"/>
-      <c r="C98" s="26"/>
+      <c r="A98" s="55"/>
+      <c r="B98" s="64"/>
+      <c r="C98" s="33" t="s">
+        <v>119</v>
+      </c>
       <c r="D98" s="1"/>
       <c r="E98" s="26"/>
       <c r="F98" s="26"/>
@@ -7316,8 +7506,8 @@
       <c r="H98" s="1"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="37"/>
-      <c r="B99" s="43"/>
+      <c r="A99" s="55"/>
+      <c r="B99" s="64"/>
       <c r="C99" s="26"/>
       <c r="D99" s="1"/>
       <c r="E99" s="26"/>
@@ -7326,8 +7516,8 @@
       <c r="H99" s="1"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="37"/>
-      <c r="B100" s="43"/>
+      <c r="A100" s="55"/>
+      <c r="B100" s="64"/>
       <c r="C100" s="26"/>
       <c r="D100" s="1"/>
       <c r="E100" s="26"/>
@@ -7336,8 +7526,8 @@
       <c r="H100" s="1"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="37"/>
-      <c r="B101" s="43"/>
+      <c r="A101" s="55"/>
+      <c r="B101" s="64"/>
       <c r="C101" s="26"/>
       <c r="D101" s="1"/>
       <c r="E101" s="26"/>
@@ -7346,8 +7536,8 @@
       <c r="H101" s="1"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="39"/>
-      <c r="B102" s="44"/>
+      <c r="A102" s="57"/>
+      <c r="B102" s="65"/>
       <c r="C102" s="10"/>
       <c r="D102" s="10"/>
       <c r="E102" s="10"/>
@@ -7366,34 +7556,44 @@
         <v>75</v>
       </c>
       <c r="E103" s="26"/>
-      <c r="F103" s="45"/>
-      <c r="G103" s="46"/>
-      <c r="H103" s="47"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="35"/>
-      <c r="B104" s="42"/>
-      <c r="C104" s="26"/>
-      <c r="D104" s="1"/>
+      <c r="F103" s="60"/>
+      <c r="G103" s="61"/>
+      <c r="H103" s="62"/>
+    </row>
+    <row r="104" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="53"/>
+      <c r="B104" s="63"/>
+      <c r="C104" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>234</v>
+      </c>
       <c r="E104" s="26"/>
       <c r="F104" s="26"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="37"/>
-      <c r="B105" s="43"/>
-      <c r="C105" s="26"/>
-      <c r="D105" s="1"/>
+      <c r="A105" s="55"/>
+      <c r="B105" s="64"/>
+      <c r="C105" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="E105" s="26"/>
       <c r="F105" s="26"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="37"/>
-      <c r="B106" s="43"/>
-      <c r="C106" s="26"/>
+      <c r="A106" s="55"/>
+      <c r="B106" s="64"/>
+      <c r="C106" s="33" t="s">
+        <v>119</v>
+      </c>
       <c r="D106" s="1"/>
       <c r="E106" s="26"/>
       <c r="F106" s="26"/>
@@ -7401,8 +7601,8 @@
       <c r="H106" s="1"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="37"/>
-      <c r="B107" s="43"/>
+      <c r="A107" s="55"/>
+      <c r="B107" s="64"/>
       <c r="C107" s="26"/>
       <c r="D107" s="1"/>
       <c r="E107" s="26"/>
@@ -7411,8 +7611,8 @@
       <c r="H107" s="1"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="37"/>
-      <c r="B108" s="43"/>
+      <c r="A108" s="55"/>
+      <c r="B108" s="64"/>
       <c r="C108" s="26"/>
       <c r="D108" s="1"/>
       <c r="E108" s="26"/>
@@ -7421,8 +7621,8 @@
       <c r="H108" s="1"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="37"/>
-      <c r="B109" s="43"/>
+      <c r="A109" s="55"/>
+      <c r="B109" s="64"/>
       <c r="C109" s="26"/>
       <c r="D109" s="1"/>
       <c r="E109" s="26"/>
@@ -7431,8 +7631,8 @@
       <c r="H109" s="1"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="39"/>
-      <c r="B110" s="44"/>
+      <c r="A110" s="57"/>
+      <c r="B110" s="65"/>
       <c r="C110" s="10"/>
       <c r="D110" s="10"/>
       <c r="E110" s="10"/>
@@ -7451,23 +7651,27 @@
         <v>176</v>
       </c>
       <c r="E111" s="26"/>
-      <c r="F111" s="45"/>
-      <c r="G111" s="46"/>
-      <c r="H111" s="47"/>
+      <c r="F111" s="60"/>
+      <c r="G111" s="61"/>
+      <c r="H111" s="62"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="35"/>
-      <c r="B112" s="42"/>
-      <c r="C112" s="26"/>
-      <c r="D112" s="1"/>
+      <c r="A112" s="53"/>
+      <c r="B112" s="63"/>
+      <c r="C112" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="E112" s="26"/>
       <c r="F112" s="26"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="37"/>
-      <c r="B113" s="43"/>
+      <c r="A113" s="55"/>
+      <c r="B113" s="64"/>
       <c r="C113" s="26"/>
       <c r="D113" s="1"/>
       <c r="E113" s="26"/>
@@ -7476,8 +7680,8 @@
       <c r="H113" s="1"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="37"/>
-      <c r="B114" s="43"/>
+      <c r="A114" s="55"/>
+      <c r="B114" s="64"/>
       <c r="C114" s="26"/>
       <c r="D114" s="1"/>
       <c r="E114" s="26"/>
@@ -7486,8 +7690,8 @@
       <c r="H114" s="1"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="37"/>
-      <c r="B115" s="43"/>
+      <c r="A115" s="55"/>
+      <c r="B115" s="64"/>
       <c r="C115" s="26"/>
       <c r="D115" s="1"/>
       <c r="E115" s="26"/>
@@ -7496,8 +7700,8 @@
       <c r="H115" s="1"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="37"/>
-      <c r="B116" s="43"/>
+      <c r="A116" s="55"/>
+      <c r="B116" s="64"/>
       <c r="C116" s="26"/>
       <c r="D116" s="1"/>
       <c r="E116" s="26"/>
@@ -7506,8 +7710,8 @@
       <c r="H116" s="1"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="37"/>
-      <c r="B117" s="43"/>
+      <c r="A117" s="55"/>
+      <c r="B117" s="64"/>
       <c r="C117" s="26"/>
       <c r="D117" s="1"/>
       <c r="E117" s="26"/>
@@ -7516,8 +7720,8 @@
       <c r="H117" s="1"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="39"/>
-      <c r="B118" s="44"/>
+      <c r="A118" s="57"/>
+      <c r="B118" s="65"/>
       <c r="C118" s="10"/>
       <c r="D118" s="10"/>
       <c r="E118" s="10"/>
@@ -7531,13 +7735,13 @@
       <c r="C119" s="26"/>
       <c r="D119" s="4"/>
       <c r="E119" s="26"/>
-      <c r="F119" s="45"/>
-      <c r="G119" s="46"/>
-      <c r="H119" s="47"/>
+      <c r="F119" s="60"/>
+      <c r="G119" s="61"/>
+      <c r="H119" s="62"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="35"/>
-      <c r="B120" s="42"/>
+      <c r="A120" s="53"/>
+      <c r="B120" s="63"/>
       <c r="C120" s="26"/>
       <c r="D120" s="1"/>
       <c r="E120" s="26"/>
@@ -7546,8 +7750,8 @@
       <c r="H120" s="1"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="37"/>
-      <c r="B121" s="43"/>
+      <c r="A121" s="55"/>
+      <c r="B121" s="64"/>
       <c r="C121" s="26"/>
       <c r="D121" s="1"/>
       <c r="E121" s="26"/>
@@ -7556,8 +7760,8 @@
       <c r="H121" s="1"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="37"/>
-      <c r="B122" s="43"/>
+      <c r="A122" s="55"/>
+      <c r="B122" s="64"/>
       <c r="C122" s="26"/>
       <c r="D122" s="1"/>
       <c r="E122" s="26"/>
@@ -7566,8 +7770,8 @@
       <c r="H122" s="1"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="37"/>
-      <c r="B123" s="43"/>
+      <c r="A123" s="55"/>
+      <c r="B123" s="64"/>
       <c r="C123" s="26"/>
       <c r="D123" s="1"/>
       <c r="E123" s="26"/>
@@ -7576,8 +7780,8 @@
       <c r="H123" s="1"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="37"/>
-      <c r="B124" s="43"/>
+      <c r="A124" s="55"/>
+      <c r="B124" s="64"/>
       <c r="C124" s="26"/>
       <c r="D124" s="1"/>
       <c r="E124" s="26"/>
@@ -7586,8 +7790,8 @@
       <c r="H124" s="1"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="37"/>
-      <c r="B125" s="43"/>
+      <c r="A125" s="55"/>
+      <c r="B125" s="64"/>
       <c r="C125" s="26"/>
       <c r="D125" s="1"/>
       <c r="E125" s="26"/>
@@ -7596,8 +7800,8 @@
       <c r="H125" s="1"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="39"/>
-      <c r="B126" s="44"/>
+      <c r="A126" s="57"/>
+      <c r="B126" s="65"/>
       <c r="C126" s="10"/>
       <c r="D126" s="10"/>
       <c r="E126" s="10"/>
@@ -7607,39 +7811,40 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A1:H5"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="A8:B14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="A16:B22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="A24:B30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="A32:B38"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="A40:B46"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="A48:B54"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="A56:B62"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="A64:B70"/>
-    <mergeCell ref="F71:H71"/>
-    <mergeCell ref="A72:B78"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="A80:B86"/>
-    <mergeCell ref="F87:H87"/>
-    <mergeCell ref="A88:B94"/>
-    <mergeCell ref="F95:H95"/>
-    <mergeCell ref="A96:B102"/>
     <mergeCell ref="A120:B126"/>
     <mergeCell ref="F103:H103"/>
     <mergeCell ref="A104:B110"/>
     <mergeCell ref="F111:H111"/>
     <mergeCell ref="A112:B118"/>
     <mergeCell ref="F119:H119"/>
+    <mergeCell ref="A80:B86"/>
+    <mergeCell ref="F87:H87"/>
+    <mergeCell ref="A88:B94"/>
+    <mergeCell ref="F95:H95"/>
+    <mergeCell ref="A96:B102"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="A64:B70"/>
+    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="A72:B78"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="A40:B46"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="A48:B54"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="A56:B62"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="A24:B30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="A32:B38"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="A1:H5"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="A8:B14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="A16:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7647,8 +7852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7660,56 +7865,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
     </row>
     <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -7748,13 +7953,13 @@
         <v>143</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="47"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="62"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
-      <c r="B8" s="42"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="63"/>
       <c r="C8" s="6"/>
       <c r="D8" s="1"/>
       <c r="E8" s="6"/>
@@ -7763,8 +7968,8 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="43"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="64"/>
       <c r="C9" s="6"/>
       <c r="D9" s="1"/>
       <c r="E9" s="6"/>
@@ -7773,8 +7978,8 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="43"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="6"/>
       <c r="D10" s="1"/>
       <c r="E10" s="6"/>
@@ -7783,8 +7988,8 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="43"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="64"/>
       <c r="C11" s="6"/>
       <c r="D11" s="1"/>
       <c r="E11" s="6"/>
@@ -7793,8 +7998,8 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="43"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="64"/>
       <c r="C12" s="6"/>
       <c r="D12" s="1"/>
       <c r="E12" s="6"/>
@@ -7803,8 +8008,8 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="43"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="6"/>
       <c r="D13" s="1"/>
       <c r="E13" s="6"/>
@@ -7813,8 +8018,8 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
-      <c r="B14" s="44"/>
+      <c r="A14" s="57"/>
+      <c r="B14" s="65"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -7823,23 +8028,24 @@
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="C15" s="67"/>
+      <c r="D15" s="68" t="s">
         <v>144</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="47"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="71"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
-      <c r="B16" s="42"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="63"/>
       <c r="C16" s="6"/>
       <c r="D16" s="1"/>
       <c r="E16" s="6"/>
@@ -7848,8 +8054,8 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="43"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="64"/>
       <c r="C17" s="6"/>
       <c r="D17" s="1"/>
       <c r="E17" s="6"/>
@@ -7858,8 +8064,8 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="43"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="64"/>
       <c r="C18" s="6"/>
       <c r="D18" s="1"/>
       <c r="E18" s="6"/>
@@ -7868,8 +8074,8 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="43"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="64"/>
       <c r="C19" s="6"/>
       <c r="D19" s="1"/>
       <c r="E19" s="6"/>
@@ -7878,8 +8084,8 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="43"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="64"/>
       <c r="C20" s="6"/>
       <c r="D20" s="1"/>
       <c r="E20" s="6"/>
@@ -7888,8 +8094,8 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="43"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="64"/>
       <c r="C21" s="6"/>
       <c r="D21" s="1"/>
       <c r="E21" s="6"/>
@@ -7898,8 +8104,8 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
-      <c r="B22" s="44"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="65"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -7918,13 +8124,13 @@
         <v>153</v>
       </c>
       <c r="E23" s="26"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="47"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="62"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="42"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="63"/>
       <c r="C24" s="26"/>
       <c r="D24" s="1"/>
       <c r="E24" s="26"/>
@@ -7933,8 +8139,8 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="43"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="64"/>
       <c r="C25" s="26"/>
       <c r="D25" s="1"/>
       <c r="E25" s="26"/>
@@ -7943,8 +8149,8 @@
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="43"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="64"/>
       <c r="C26" s="26"/>
       <c r="D26" s="1"/>
       <c r="E26" s="26"/>
@@ -7953,8 +8159,8 @@
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="43"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="64"/>
       <c r="C27" s="26"/>
       <c r="D27" s="1"/>
       <c r="E27" s="26"/>
@@ -7963,8 +8169,8 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
-      <c r="B28" s="43"/>
+      <c r="A28" s="55"/>
+      <c r="B28" s="64"/>
       <c r="C28" s="26"/>
       <c r="D28" s="1"/>
       <c r="E28" s="26"/>
@@ -7973,8 +8179,8 @@
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="43"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="64"/>
       <c r="C29" s="26"/>
       <c r="D29" s="1"/>
       <c r="E29" s="26"/>
@@ -7983,8 +8189,8 @@
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
-      <c r="B30" s="44"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="65"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
@@ -8003,43 +8209,55 @@
         <v>77</v>
       </c>
       <c r="E31" s="26"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="47"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="35"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="1"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="62"/>
+    </row>
+    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="53"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>237</v>
+      </c>
       <c r="E32" s="26"/>
       <c r="F32" s="26"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="37"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="1"/>
+      <c r="A33" s="55"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>238</v>
+      </c>
       <c r="E33" s="26"/>
       <c r="F33" s="26"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="37"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="1"/>
+    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="55"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="E34" s="26"/>
       <c r="F34" s="26"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="37"/>
-      <c r="B35" s="43"/>
+      <c r="A35" s="55"/>
+      <c r="B35" s="64"/>
       <c r="C35" s="26"/>
       <c r="D35" s="1"/>
       <c r="E35" s="26"/>
@@ -8048,8 +8266,8 @@
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="37"/>
-      <c r="B36" s="43"/>
+      <c r="A36" s="55"/>
+      <c r="B36" s="64"/>
       <c r="C36" s="26"/>
       <c r="D36" s="1"/>
       <c r="E36" s="26"/>
@@ -8058,8 +8276,8 @@
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="37"/>
-      <c r="B37" s="43"/>
+      <c r="A37" s="55"/>
+      <c r="B37" s="64"/>
       <c r="C37" s="26"/>
       <c r="D37" s="1"/>
       <c r="E37" s="26"/>
@@ -8068,8 +8286,8 @@
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="39"/>
-      <c r="B38" s="44"/>
+      <c r="A38" s="57"/>
+      <c r="B38" s="65"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
@@ -8088,13 +8306,13 @@
         <v>78</v>
       </c>
       <c r="E39" s="26"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="47"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="62"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="35"/>
-      <c r="B40" s="42"/>
+      <c r="A40" s="53"/>
+      <c r="B40" s="63"/>
       <c r="C40" s="26"/>
       <c r="D40" s="1"/>
       <c r="E40" s="26"/>
@@ -8103,8 +8321,8 @@
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="37"/>
-      <c r="B41" s="43"/>
+      <c r="A41" s="55"/>
+      <c r="B41" s="64"/>
       <c r="C41" s="26"/>
       <c r="D41" s="1"/>
       <c r="E41" s="26"/>
@@ -8113,8 +8331,8 @@
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="37"/>
-      <c r="B42" s="43"/>
+      <c r="A42" s="55"/>
+      <c r="B42" s="64"/>
       <c r="C42" s="26"/>
       <c r="D42" s="1"/>
       <c r="E42" s="26"/>
@@ -8123,8 +8341,8 @@
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="37"/>
-      <c r="B43" s="43"/>
+      <c r="A43" s="55"/>
+      <c r="B43" s="64"/>
       <c r="C43" s="26"/>
       <c r="D43" s="1"/>
       <c r="E43" s="26"/>
@@ -8133,8 +8351,8 @@
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="37"/>
-      <c r="B44" s="43"/>
+      <c r="A44" s="55"/>
+      <c r="B44" s="64"/>
       <c r="C44" s="26"/>
       <c r="D44" s="1"/>
       <c r="E44" s="26"/>
@@ -8143,8 +8361,8 @@
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="37"/>
-      <c r="B45" s="43"/>
+      <c r="A45" s="55"/>
+      <c r="B45" s="64"/>
       <c r="C45" s="26"/>
       <c r="D45" s="1"/>
       <c r="E45" s="26"/>
@@ -8153,8 +8371,8 @@
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="39"/>
-      <c r="B46" s="44"/>
+      <c r="A46" s="57"/>
+      <c r="B46" s="65"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
@@ -8173,13 +8391,13 @@
         <v>79</v>
       </c>
       <c r="E47" s="26"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="47"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="61"/>
+      <c r="H47" s="62"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="35"/>
-      <c r="B48" s="42"/>
+      <c r="A48" s="53"/>
+      <c r="B48" s="63"/>
       <c r="C48" s="26"/>
       <c r="D48" s="1"/>
       <c r="E48" s="26"/>
@@ -8188,8 +8406,8 @@
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="37"/>
-      <c r="B49" s="43"/>
+      <c r="A49" s="55"/>
+      <c r="B49" s="64"/>
       <c r="C49" s="26"/>
       <c r="D49" s="1"/>
       <c r="E49" s="26"/>
@@ -8198,8 +8416,8 @@
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="37"/>
-      <c r="B50" s="43"/>
+      <c r="A50" s="55"/>
+      <c r="B50" s="64"/>
       <c r="C50" s="26"/>
       <c r="D50" s="1"/>
       <c r="E50" s="26"/>
@@ -8208,8 +8426,8 @@
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="37"/>
-      <c r="B51" s="43"/>
+      <c r="A51" s="55"/>
+      <c r="B51" s="64"/>
       <c r="C51" s="26"/>
       <c r="D51" s="1"/>
       <c r="E51" s="26"/>
@@ -8218,8 +8436,8 @@
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="37"/>
-      <c r="B52" s="43"/>
+      <c r="A52" s="55"/>
+      <c r="B52" s="64"/>
       <c r="C52" s="26"/>
       <c r="D52" s="1"/>
       <c r="E52" s="26"/>
@@ -8228,8 +8446,8 @@
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="37"/>
-      <c r="B53" s="43"/>
+      <c r="A53" s="55"/>
+      <c r="B53" s="64"/>
       <c r="C53" s="26"/>
       <c r="D53" s="1"/>
       <c r="E53" s="26"/>
@@ -8238,8 +8456,8 @@
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="39"/>
-      <c r="B54" s="44"/>
+      <c r="A54" s="57"/>
+      <c r="B54" s="65"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
@@ -8253,13 +8471,13 @@
       <c r="C55" s="26"/>
       <c r="D55" s="4"/>
       <c r="E55" s="26"/>
-      <c r="F55" s="45"/>
-      <c r="G55" s="46"/>
-      <c r="H55" s="47"/>
+      <c r="F55" s="60"/>
+      <c r="G55" s="61"/>
+      <c r="H55" s="62"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="35"/>
-      <c r="B56" s="42"/>
+      <c r="A56" s="53"/>
+      <c r="B56" s="63"/>
       <c r="C56" s="26"/>
       <c r="D56" s="1"/>
       <c r="E56" s="26"/>
@@ -8268,8 +8486,8 @@
       <c r="H56" s="1"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="37"/>
-      <c r="B57" s="43"/>
+      <c r="A57" s="55"/>
+      <c r="B57" s="64"/>
       <c r="C57" s="26"/>
       <c r="D57" s="1"/>
       <c r="E57" s="26"/>
@@ -8278,8 +8496,8 @@
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="37"/>
-      <c r="B58" s="43"/>
+      <c r="A58" s="55"/>
+      <c r="B58" s="64"/>
       <c r="C58" s="26"/>
       <c r="D58" s="1"/>
       <c r="E58" s="26"/>
@@ -8288,8 +8506,8 @@
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="37"/>
-      <c r="B59" s="43"/>
+      <c r="A59" s="55"/>
+      <c r="B59" s="64"/>
       <c r="C59" s="26"/>
       <c r="D59" s="1"/>
       <c r="E59" s="26"/>
@@ -8298,8 +8516,8 @@
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="37"/>
-      <c r="B60" s="43"/>
+      <c r="A60" s="55"/>
+      <c r="B60" s="64"/>
       <c r="C60" s="26"/>
       <c r="D60" s="1"/>
       <c r="E60" s="26"/>
@@ -8308,8 +8526,8 @@
       <c r="H60" s="1"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="37"/>
-      <c r="B61" s="43"/>
+      <c r="A61" s="55"/>
+      <c r="B61" s="64"/>
       <c r="C61" s="26"/>
       <c r="D61" s="1"/>
       <c r="E61" s="26"/>
@@ -8318,8 +8536,8 @@
       <c r="H61" s="1"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="39"/>
-      <c r="B62" s="44"/>
+      <c r="A62" s="57"/>
+      <c r="B62" s="65"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
       <c r="E62" s="10"/>
@@ -8333,13 +8551,13 @@
       <c r="C63" s="26"/>
       <c r="D63" s="4"/>
       <c r="E63" s="26"/>
-      <c r="F63" s="45"/>
-      <c r="G63" s="46"/>
-      <c r="H63" s="47"/>
+      <c r="F63" s="60"/>
+      <c r="G63" s="61"/>
+      <c r="H63" s="62"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="35"/>
-      <c r="B64" s="42"/>
+      <c r="A64" s="53"/>
+      <c r="B64" s="63"/>
       <c r="C64" s="26"/>
       <c r="D64" s="1"/>
       <c r="E64" s="26"/>
@@ -8348,8 +8566,8 @@
       <c r="H64" s="1"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="37"/>
-      <c r="B65" s="43"/>
+      <c r="A65" s="55"/>
+      <c r="B65" s="64"/>
       <c r="C65" s="26"/>
       <c r="D65" s="1"/>
       <c r="E65" s="26"/>
@@ -8358,8 +8576,8 @@
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="37"/>
-      <c r="B66" s="43"/>
+      <c r="A66" s="55"/>
+      <c r="B66" s="64"/>
       <c r="C66" s="26"/>
       <c r="D66" s="1"/>
       <c r="E66" s="26"/>
@@ -8368,8 +8586,8 @@
       <c r="H66" s="1"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="37"/>
-      <c r="B67" s="43"/>
+      <c r="A67" s="55"/>
+      <c r="B67" s="64"/>
       <c r="C67" s="26"/>
       <c r="D67" s="1"/>
       <c r="E67" s="26"/>
@@ -8378,8 +8596,8 @@
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="37"/>
-      <c r="B68" s="43"/>
+      <c r="A68" s="55"/>
+      <c r="B68" s="64"/>
       <c r="C68" s="26"/>
       <c r="D68" s="1"/>
       <c r="E68" s="26"/>
@@ -8388,8 +8606,8 @@
       <c r="H68" s="1"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="37"/>
-      <c r="B69" s="43"/>
+      <c r="A69" s="55"/>
+      <c r="B69" s="64"/>
       <c r="C69" s="26"/>
       <c r="D69" s="1"/>
       <c r="E69" s="26"/>
@@ -8398,8 +8616,8 @@
       <c r="H69" s="1"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="39"/>
-      <c r="B70" s="44"/>
+      <c r="A70" s="57"/>
+      <c r="B70" s="65"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
       <c r="E70" s="10"/>
@@ -8413,13 +8631,13 @@
       <c r="C71" s="26"/>
       <c r="D71" s="4"/>
       <c r="E71" s="26"/>
-      <c r="F71" s="45"/>
-      <c r="G71" s="46"/>
-      <c r="H71" s="47"/>
+      <c r="F71" s="60"/>
+      <c r="G71" s="61"/>
+      <c r="H71" s="62"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="35"/>
-      <c r="B72" s="42"/>
+      <c r="A72" s="53"/>
+      <c r="B72" s="63"/>
       <c r="C72" s="26"/>
       <c r="D72" s="1"/>
       <c r="E72" s="26"/>
@@ -8428,8 +8646,8 @@
       <c r="H72" s="1"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="37"/>
-      <c r="B73" s="43"/>
+      <c r="A73" s="55"/>
+      <c r="B73" s="64"/>
       <c r="C73" s="26"/>
       <c r="D73" s="1"/>
       <c r="E73" s="26"/>
@@ -8438,8 +8656,8 @@
       <c r="H73" s="1"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="37"/>
-      <c r="B74" s="43"/>
+      <c r="A74" s="55"/>
+      <c r="B74" s="64"/>
       <c r="C74" s="26"/>
       <c r="D74" s="1"/>
       <c r="E74" s="26"/>
@@ -8448,8 +8666,8 @@
       <c r="H74" s="1"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="37"/>
-      <c r="B75" s="43"/>
+      <c r="A75" s="55"/>
+      <c r="B75" s="64"/>
       <c r="C75" s="26"/>
       <c r="D75" s="1"/>
       <c r="E75" s="26"/>
@@ -8458,8 +8676,8 @@
       <c r="H75" s="1"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="37"/>
-      <c r="B76" s="43"/>
+      <c r="A76" s="55"/>
+      <c r="B76" s="64"/>
       <c r="C76" s="26"/>
       <c r="D76" s="1"/>
       <c r="E76" s="26"/>
@@ -8468,8 +8686,8 @@
       <c r="H76" s="1"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="37"/>
-      <c r="B77" s="43"/>
+      <c r="A77" s="55"/>
+      <c r="B77" s="64"/>
       <c r="C77" s="26"/>
       <c r="D77" s="1"/>
       <c r="E77" s="26"/>
@@ -8478,8 +8696,8 @@
       <c r="H77" s="1"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="39"/>
-      <c r="B78" s="44"/>
+      <c r="A78" s="57"/>
+      <c r="B78" s="65"/>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
       <c r="E78" s="10"/>
@@ -8489,16 +8707,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:H5"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="A8:B14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="A16:B22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="A24:B30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="A32:B38"/>
-    <mergeCell ref="F39:H39"/>
     <mergeCell ref="F63:H63"/>
     <mergeCell ref="A64:B70"/>
     <mergeCell ref="F71:H71"/>
@@ -8508,6 +8716,16 @@
     <mergeCell ref="A48:B54"/>
     <mergeCell ref="F55:H55"/>
     <mergeCell ref="A56:B62"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="A24:B30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="A32:B38"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="A1:H5"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="A8:B14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="A16:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8517,8 +8735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J110"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8530,56 +8748,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
     </row>
     <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -8618,15 +8836,19 @@
         <v>19</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="47"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="1"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="62"/>
+    </row>
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="53"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>240</v>
+      </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="1"/>
@@ -8634,19 +8856,25 @@
       <c r="J8" s="16"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="1"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>241</v>
+      </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="6"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="33" t="s">
+        <v>119</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -8654,8 +8882,8 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="43"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="64"/>
       <c r="C11" s="6"/>
       <c r="D11" s="1"/>
       <c r="E11" s="6"/>
@@ -8664,8 +8892,8 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="43"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="64"/>
       <c r="C12" s="6"/>
       <c r="D12" s="1"/>
       <c r="E12" s="6"/>
@@ -8674,8 +8902,8 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="43"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="6"/>
       <c r="D13" s="1"/>
       <c r="E13" s="6"/>
@@ -8684,8 +8912,8 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
-      <c r="B14" s="44"/>
+      <c r="A14" s="57"/>
+      <c r="B14" s="65"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -8704,13 +8932,13 @@
         <v>19</v>
       </c>
       <c r="E15" s="6"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="47"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="62"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
-      <c r="B16" s="42"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="63"/>
       <c r="C16" s="6"/>
       <c r="D16" s="1"/>
       <c r="E16" s="6"/>
@@ -8719,8 +8947,8 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="43"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="64"/>
       <c r="C17" s="6"/>
       <c r="D17" s="1"/>
       <c r="E17" s="6"/>
@@ -8729,8 +8957,8 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="43"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="64"/>
       <c r="C18" s="6"/>
       <c r="D18" s="1"/>
       <c r="E18" s="6"/>
@@ -8739,8 +8967,8 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="43"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="64"/>
       <c r="C19" s="6"/>
       <c r="D19" s="1"/>
       <c r="E19" s="6"/>
@@ -8749,8 +8977,8 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="43"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="64"/>
       <c r="C20" s="6"/>
       <c r="D20" s="1"/>
       <c r="E20" s="6"/>
@@ -8759,8 +8987,8 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="43"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="64"/>
       <c r="C21" s="6"/>
       <c r="D21" s="1"/>
       <c r="E21" s="6"/>
@@ -8769,8 +8997,8 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
-      <c r="B22" s="44"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="65"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -8789,13 +9017,13 @@
         <v>72</v>
       </c>
       <c r="E23" s="26"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="47"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="62"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="42"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="63"/>
       <c r="C24" s="26"/>
       <c r="D24" s="1"/>
       <c r="E24" s="26"/>
@@ -8804,8 +9032,8 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="43"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="64"/>
       <c r="C25" s="26"/>
       <c r="D25" s="1"/>
       <c r="E25" s="26"/>
@@ -8814,8 +9042,8 @@
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="43"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="64"/>
       <c r="C26" s="26"/>
       <c r="D26" s="1"/>
       <c r="E26" s="26"/>
@@ -8824,8 +9052,8 @@
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="43"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="64"/>
       <c r="C27" s="26"/>
       <c r="D27" s="1"/>
       <c r="E27" s="26"/>
@@ -8834,8 +9062,8 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
-      <c r="B28" s="43"/>
+      <c r="A28" s="55"/>
+      <c r="B28" s="64"/>
       <c r="C28" s="26"/>
       <c r="D28" s="1"/>
       <c r="E28" s="26"/>
@@ -8844,8 +9072,8 @@
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="43"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="64"/>
       <c r="C29" s="26"/>
       <c r="D29" s="1"/>
       <c r="E29" s="26"/>
@@ -8854,8 +9082,8 @@
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
-      <c r="B30" s="44"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="65"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
@@ -8874,13 +9102,13 @@
         <v>80</v>
       </c>
       <c r="E31" s="26"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="47"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="62"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="35"/>
-      <c r="B32" s="42"/>
+      <c r="A32" s="53"/>
+      <c r="B32" s="63"/>
       <c r="C32" s="26"/>
       <c r="D32" s="1"/>
       <c r="E32" s="26"/>
@@ -8889,8 +9117,8 @@
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="37"/>
-      <c r="B33" s="43"/>
+      <c r="A33" s="55"/>
+      <c r="B33" s="64"/>
       <c r="C33" s="26"/>
       <c r="D33" s="1"/>
       <c r="E33" s="26"/>
@@ -8899,8 +9127,8 @@
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="37"/>
-      <c r="B34" s="43"/>
+      <c r="A34" s="55"/>
+      <c r="B34" s="64"/>
       <c r="C34" s="26"/>
       <c r="D34" s="1"/>
       <c r="E34" s="26"/>
@@ -8909,8 +9137,8 @@
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="37"/>
-      <c r="B35" s="43"/>
+      <c r="A35" s="55"/>
+      <c r="B35" s="64"/>
       <c r="C35" s="26"/>
       <c r="D35" s="1"/>
       <c r="E35" s="26"/>
@@ -8919,8 +9147,8 @@
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="37"/>
-      <c r="B36" s="43"/>
+      <c r="A36" s="55"/>
+      <c r="B36" s="64"/>
       <c r="C36" s="26"/>
       <c r="D36" s="1"/>
       <c r="E36" s="26"/>
@@ -8929,8 +9157,8 @@
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="37"/>
-      <c r="B37" s="43"/>
+      <c r="A37" s="55"/>
+      <c r="B37" s="64"/>
       <c r="C37" s="26"/>
       <c r="D37" s="1"/>
       <c r="E37" s="26"/>
@@ -8939,8 +9167,8 @@
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="39"/>
-      <c r="B38" s="44"/>
+      <c r="A38" s="57"/>
+      <c r="B38" s="65"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
@@ -8959,13 +9187,13 @@
         <v>81</v>
       </c>
       <c r="E39" s="26"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="47"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="62"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="35"/>
-      <c r="B40" s="42"/>
+      <c r="A40" s="53"/>
+      <c r="B40" s="63"/>
       <c r="C40" s="26"/>
       <c r="D40" s="1"/>
       <c r="E40" s="26"/>
@@ -8974,8 +9202,8 @@
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="37"/>
-      <c r="B41" s="43"/>
+      <c r="A41" s="55"/>
+      <c r="B41" s="64"/>
       <c r="C41" s="26"/>
       <c r="D41" s="1"/>
       <c r="E41" s="26"/>
@@ -8984,8 +9212,8 @@
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="37"/>
-      <c r="B42" s="43"/>
+      <c r="A42" s="55"/>
+      <c r="B42" s="64"/>
       <c r="C42" s="26"/>
       <c r="D42" s="1"/>
       <c r="E42" s="26"/>
@@ -8994,8 +9222,8 @@
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="37"/>
-      <c r="B43" s="43"/>
+      <c r="A43" s="55"/>
+      <c r="B43" s="64"/>
       <c r="C43" s="26"/>
       <c r="D43" s="1"/>
       <c r="E43" s="26"/>
@@ -9004,8 +9232,8 @@
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="37"/>
-      <c r="B44" s="43"/>
+      <c r="A44" s="55"/>
+      <c r="B44" s="64"/>
       <c r="C44" s="26"/>
       <c r="D44" s="1"/>
       <c r="E44" s="26"/>
@@ -9014,8 +9242,8 @@
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="37"/>
-      <c r="B45" s="43"/>
+      <c r="A45" s="55"/>
+      <c r="B45" s="64"/>
       <c r="C45" s="26"/>
       <c r="D45" s="1"/>
       <c r="E45" s="26"/>
@@ -9024,8 +9252,8 @@
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="39"/>
-      <c r="B46" s="44"/>
+      <c r="A46" s="57"/>
+      <c r="B46" s="65"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
@@ -9044,13 +9272,13 @@
         <v>82</v>
       </c>
       <c r="E47" s="26"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="47"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="61"/>
+      <c r="H47" s="62"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="35"/>
-      <c r="B48" s="42"/>
+      <c r="A48" s="53"/>
+      <c r="B48" s="63"/>
       <c r="C48" s="26"/>
       <c r="D48" s="1"/>
       <c r="E48" s="26"/>
@@ -9059,8 +9287,8 @@
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="37"/>
-      <c r="B49" s="43"/>
+      <c r="A49" s="55"/>
+      <c r="B49" s="64"/>
       <c r="C49" s="26"/>
       <c r="D49" s="1"/>
       <c r="E49" s="26"/>
@@ -9069,8 +9297,8 @@
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="37"/>
-      <c r="B50" s="43"/>
+      <c r="A50" s="55"/>
+      <c r="B50" s="64"/>
       <c r="C50" s="26"/>
       <c r="D50" s="1"/>
       <c r="E50" s="26"/>
@@ -9079,8 +9307,8 @@
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="37"/>
-      <c r="B51" s="43"/>
+      <c r="A51" s="55"/>
+      <c r="B51" s="64"/>
       <c r="C51" s="26"/>
       <c r="D51" s="1"/>
       <c r="E51" s="26"/>
@@ -9089,8 +9317,8 @@
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="37"/>
-      <c r="B52" s="43"/>
+      <c r="A52" s="55"/>
+      <c r="B52" s="64"/>
       <c r="C52" s="26"/>
       <c r="D52" s="1"/>
       <c r="E52" s="26"/>
@@ -9099,8 +9327,8 @@
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="37"/>
-      <c r="B53" s="43"/>
+      <c r="A53" s="55"/>
+      <c r="B53" s="64"/>
       <c r="C53" s="26"/>
       <c r="D53" s="1"/>
       <c r="E53" s="26"/>
@@ -9109,8 +9337,8 @@
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="39"/>
-      <c r="B54" s="44"/>
+      <c r="A54" s="57"/>
+      <c r="B54" s="65"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
@@ -9129,13 +9357,13 @@
         <v>83</v>
       </c>
       <c r="E55" s="26"/>
-      <c r="F55" s="45"/>
-      <c r="G55" s="46"/>
-      <c r="H55" s="47"/>
+      <c r="F55" s="60"/>
+      <c r="G55" s="61"/>
+      <c r="H55" s="62"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="35"/>
-      <c r="B56" s="42"/>
+      <c r="A56" s="53"/>
+      <c r="B56" s="63"/>
       <c r="C56" s="26"/>
       <c r="D56" s="1"/>
       <c r="E56" s="26"/>
@@ -9144,8 +9372,8 @@
       <c r="H56" s="1"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="37"/>
-      <c r="B57" s="43"/>
+      <c r="A57" s="55"/>
+      <c r="B57" s="64"/>
       <c r="C57" s="26"/>
       <c r="D57" s="1"/>
       <c r="E57" s="26"/>
@@ -9154,8 +9382,8 @@
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="37"/>
-      <c r="B58" s="43"/>
+      <c r="A58" s="55"/>
+      <c r="B58" s="64"/>
       <c r="C58" s="26"/>
       <c r="D58" s="1"/>
       <c r="E58" s="26"/>
@@ -9164,8 +9392,8 @@
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="37"/>
-      <c r="B59" s="43"/>
+      <c r="A59" s="55"/>
+      <c r="B59" s="64"/>
       <c r="C59" s="26"/>
       <c r="D59" s="1"/>
       <c r="E59" s="26"/>
@@ -9174,8 +9402,8 @@
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="37"/>
-      <c r="B60" s="43"/>
+      <c r="A60" s="55"/>
+      <c r="B60" s="64"/>
       <c r="C60" s="26"/>
       <c r="D60" s="1"/>
       <c r="E60" s="26"/>
@@ -9184,8 +9412,8 @@
       <c r="H60" s="1"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="37"/>
-      <c r="B61" s="43"/>
+      <c r="A61" s="55"/>
+      <c r="B61" s="64"/>
       <c r="C61" s="26"/>
       <c r="D61" s="1"/>
       <c r="E61" s="26"/>
@@ -9194,8 +9422,8 @@
       <c r="H61" s="1"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="39"/>
-      <c r="B62" s="44"/>
+      <c r="A62" s="57"/>
+      <c r="B62" s="65"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
       <c r="E62" s="10"/>
@@ -9214,13 +9442,13 @@
         <v>84</v>
       </c>
       <c r="E63" s="26"/>
-      <c r="F63" s="45"/>
-      <c r="G63" s="46"/>
-      <c r="H63" s="47"/>
+      <c r="F63" s="60"/>
+      <c r="G63" s="61"/>
+      <c r="H63" s="62"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="35"/>
-      <c r="B64" s="42"/>
+      <c r="A64" s="53"/>
+      <c r="B64" s="63"/>
       <c r="C64" s="26"/>
       <c r="D64" s="1"/>
       <c r="E64" s="26"/>
@@ -9229,8 +9457,8 @@
       <c r="H64" s="1"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="37"/>
-      <c r="B65" s="43"/>
+      <c r="A65" s="55"/>
+      <c r="B65" s="64"/>
       <c r="C65" s="26"/>
       <c r="D65" s="1"/>
       <c r="E65" s="26"/>
@@ -9239,8 +9467,8 @@
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="37"/>
-      <c r="B66" s="43"/>
+      <c r="A66" s="55"/>
+      <c r="B66" s="64"/>
       <c r="C66" s="26"/>
       <c r="D66" s="1"/>
       <c r="E66" s="26"/>
@@ -9249,8 +9477,8 @@
       <c r="H66" s="1"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="37"/>
-      <c r="B67" s="43"/>
+      <c r="A67" s="55"/>
+      <c r="B67" s="64"/>
       <c r="C67" s="26"/>
       <c r="D67" s="1"/>
       <c r="E67" s="26"/>
@@ -9259,8 +9487,8 @@
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="37"/>
-      <c r="B68" s="43"/>
+      <c r="A68" s="55"/>
+      <c r="B68" s="64"/>
       <c r="C68" s="26"/>
       <c r="D68" s="1"/>
       <c r="E68" s="26"/>
@@ -9269,8 +9497,8 @@
       <c r="H68" s="1"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="37"/>
-      <c r="B69" s="43"/>
+      <c r="A69" s="55"/>
+      <c r="B69" s="64"/>
       <c r="C69" s="26"/>
       <c r="D69" s="1"/>
       <c r="E69" s="26"/>
@@ -9279,8 +9507,8 @@
       <c r="H69" s="1"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="39"/>
-      <c r="B70" s="44"/>
+      <c r="A70" s="57"/>
+      <c r="B70" s="65"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
       <c r="E70" s="10"/>
@@ -9299,13 +9527,13 @@
         <v>172</v>
       </c>
       <c r="E71" s="26"/>
-      <c r="F71" s="45"/>
-      <c r="G71" s="46"/>
-      <c r="H71" s="47"/>
+      <c r="F71" s="60"/>
+      <c r="G71" s="61"/>
+      <c r="H71" s="62"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="35"/>
-      <c r="B72" s="42"/>
+      <c r="A72" s="53"/>
+      <c r="B72" s="63"/>
       <c r="C72" s="26"/>
       <c r="D72" s="1"/>
       <c r="E72" s="26"/>
@@ -9314,8 +9542,8 @@
       <c r="H72" s="1"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="37"/>
-      <c r="B73" s="43"/>
+      <c r="A73" s="55"/>
+      <c r="B73" s="64"/>
       <c r="C73" s="26"/>
       <c r="D73" s="1"/>
       <c r="E73" s="26"/>
@@ -9324,8 +9552,8 @@
       <c r="H73" s="1"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="37"/>
-      <c r="B74" s="43"/>
+      <c r="A74" s="55"/>
+      <c r="B74" s="64"/>
       <c r="C74" s="26"/>
       <c r="D74" s="1"/>
       <c r="E74" s="26"/>
@@ -9334,8 +9562,8 @@
       <c r="H74" s="1"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="37"/>
-      <c r="B75" s="43"/>
+      <c r="A75" s="55"/>
+      <c r="B75" s="64"/>
       <c r="C75" s="26"/>
       <c r="D75" s="1"/>
       <c r="E75" s="26"/>
@@ -9344,8 +9572,8 @@
       <c r="H75" s="1"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="37"/>
-      <c r="B76" s="43"/>
+      <c r="A76" s="55"/>
+      <c r="B76" s="64"/>
       <c r="C76" s="26"/>
       <c r="D76" s="1"/>
       <c r="E76" s="26"/>
@@ -9354,8 +9582,8 @@
       <c r="H76" s="1"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="37"/>
-      <c r="B77" s="43"/>
+      <c r="A77" s="55"/>
+      <c r="B77" s="64"/>
       <c r="C77" s="26"/>
       <c r="D77" s="1"/>
       <c r="E77" s="26"/>
@@ -9364,8 +9592,8 @@
       <c r="H77" s="1"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="39"/>
-      <c r="B78" s="44"/>
+      <c r="A78" s="57"/>
+      <c r="B78" s="65"/>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
       <c r="E78" s="10"/>
@@ -9384,13 +9612,13 @@
         <v>174</v>
       </c>
       <c r="E79" s="26"/>
-      <c r="F79" s="45"/>
-      <c r="G79" s="46"/>
-      <c r="H79" s="47"/>
+      <c r="F79" s="60"/>
+      <c r="G79" s="61"/>
+      <c r="H79" s="62"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="35"/>
-      <c r="B80" s="42"/>
+      <c r="A80" s="53"/>
+      <c r="B80" s="63"/>
       <c r="C80" s="26"/>
       <c r="D80" s="1"/>
       <c r="E80" s="26"/>
@@ -9399,8 +9627,8 @@
       <c r="H80" s="1"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="37"/>
-      <c r="B81" s="43"/>
+      <c r="A81" s="55"/>
+      <c r="B81" s="64"/>
       <c r="C81" s="26"/>
       <c r="D81" s="1"/>
       <c r="E81" s="26"/>
@@ -9409,8 +9637,8 @@
       <c r="H81" s="1"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="37"/>
-      <c r="B82" s="43"/>
+      <c r="A82" s="55"/>
+      <c r="B82" s="64"/>
       <c r="C82" s="26"/>
       <c r="D82" s="1"/>
       <c r="E82" s="26"/>
@@ -9419,8 +9647,8 @@
       <c r="H82" s="1"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="37"/>
-      <c r="B83" s="43"/>
+      <c r="A83" s="55"/>
+      <c r="B83" s="64"/>
       <c r="C83" s="26"/>
       <c r="D83" s="1"/>
       <c r="E83" s="26"/>
@@ -9429,8 +9657,8 @@
       <c r="H83" s="1"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="37"/>
-      <c r="B84" s="43"/>
+      <c r="A84" s="55"/>
+      <c r="B84" s="64"/>
       <c r="C84" s="26"/>
       <c r="D84" s="1"/>
       <c r="E84" s="26"/>
@@ -9439,8 +9667,8 @@
       <c r="H84" s="1"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="37"/>
-      <c r="B85" s="43"/>
+      <c r="A85" s="55"/>
+      <c r="B85" s="64"/>
       <c r="C85" s="26"/>
       <c r="D85" s="1"/>
       <c r="E85" s="26"/>
@@ -9449,8 +9677,8 @@
       <c r="H85" s="1"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="39"/>
-      <c r="B86" s="44"/>
+      <c r="A86" s="57"/>
+      <c r="B86" s="65"/>
       <c r="C86" s="10"/>
       <c r="D86" s="10"/>
       <c r="E86" s="10"/>
@@ -9469,13 +9697,13 @@
         <v>76</v>
       </c>
       <c r="E87" s="26"/>
-      <c r="F87" s="45"/>
-      <c r="G87" s="46"/>
-      <c r="H87" s="47"/>
+      <c r="F87" s="60"/>
+      <c r="G87" s="61"/>
+      <c r="H87" s="62"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="35"/>
-      <c r="B88" s="42"/>
+      <c r="A88" s="53"/>
+      <c r="B88" s="63"/>
       <c r="C88" s="26"/>
       <c r="D88" s="1"/>
       <c r="E88" s="26"/>
@@ -9484,8 +9712,8 @@
       <c r="H88" s="1"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="37"/>
-      <c r="B89" s="43"/>
+      <c r="A89" s="55"/>
+      <c r="B89" s="64"/>
       <c r="C89" s="26"/>
       <c r="D89" s="1"/>
       <c r="E89" s="26"/>
@@ -9494,8 +9722,8 @@
       <c r="H89" s="1"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="37"/>
-      <c r="B90" s="43"/>
+      <c r="A90" s="55"/>
+      <c r="B90" s="64"/>
       <c r="C90" s="26"/>
       <c r="D90" s="1"/>
       <c r="E90" s="26"/>
@@ -9504,8 +9732,8 @@
       <c r="H90" s="1"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="37"/>
-      <c r="B91" s="43"/>
+      <c r="A91" s="55"/>
+      <c r="B91" s="64"/>
       <c r="C91" s="26"/>
       <c r="D91" s="1"/>
       <c r="E91" s="26"/>
@@ -9514,8 +9742,8 @@
       <c r="H91" s="1"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="37"/>
-      <c r="B92" s="43"/>
+      <c r="A92" s="55"/>
+      <c r="B92" s="64"/>
       <c r="C92" s="26"/>
       <c r="D92" s="1"/>
       <c r="E92" s="26"/>
@@ -9524,8 +9752,8 @@
       <c r="H92" s="1"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="37"/>
-      <c r="B93" s="43"/>
+      <c r="A93" s="55"/>
+      <c r="B93" s="64"/>
       <c r="C93" s="26"/>
       <c r="D93" s="1"/>
       <c r="E93" s="26"/>
@@ -9534,8 +9762,8 @@
       <c r="H93" s="1"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="39"/>
-      <c r="B94" s="44"/>
+      <c r="A94" s="57"/>
+      <c r="B94" s="65"/>
       <c r="C94" s="10"/>
       <c r="D94" s="10"/>
       <c r="E94" s="10"/>
@@ -9548,13 +9776,13 @@
       <c r="B95" s="26"/>
       <c r="D95" s="5"/>
       <c r="E95" s="26"/>
-      <c r="F95" s="45"/>
-      <c r="G95" s="46"/>
-      <c r="H95" s="47"/>
+      <c r="F95" s="60"/>
+      <c r="G95" s="61"/>
+      <c r="H95" s="62"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="35"/>
-      <c r="B96" s="42"/>
+      <c r="A96" s="53"/>
+      <c r="B96" s="63"/>
       <c r="C96" s="26"/>
       <c r="D96" s="1"/>
       <c r="E96" s="26"/>
@@ -9563,8 +9791,8 @@
       <c r="H96" s="1"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="37"/>
-      <c r="B97" s="43"/>
+      <c r="A97" s="55"/>
+      <c r="B97" s="64"/>
       <c r="C97" s="26"/>
       <c r="D97" s="1"/>
       <c r="E97" s="26"/>
@@ -9573,8 +9801,8 @@
       <c r="H97" s="1"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="37"/>
-      <c r="B98" s="43"/>
+      <c r="A98" s="55"/>
+      <c r="B98" s="64"/>
       <c r="C98" s="26"/>
       <c r="D98" s="1"/>
       <c r="E98" s="26"/>
@@ -9583,8 +9811,8 @@
       <c r="H98" s="1"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="37"/>
-      <c r="B99" s="43"/>
+      <c r="A99" s="55"/>
+      <c r="B99" s="64"/>
       <c r="C99" s="26"/>
       <c r="D99" s="1"/>
       <c r="E99" s="26"/>
@@ -9593,8 +9821,8 @@
       <c r="H99" s="1"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="37"/>
-      <c r="B100" s="43"/>
+      <c r="A100" s="55"/>
+      <c r="B100" s="64"/>
       <c r="C100" s="26"/>
       <c r="D100" s="1"/>
       <c r="E100" s="26"/>
@@ -9603,8 +9831,8 @@
       <c r="H100" s="1"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="37"/>
-      <c r="B101" s="43"/>
+      <c r="A101" s="55"/>
+      <c r="B101" s="64"/>
       <c r="C101" s="26"/>
       <c r="D101" s="1"/>
       <c r="E101" s="26"/>
@@ -9613,8 +9841,8 @@
       <c r="H101" s="1"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="39"/>
-      <c r="B102" s="44"/>
+      <c r="A102" s="57"/>
+      <c r="B102" s="65"/>
       <c r="C102" s="10"/>
       <c r="D102" s="10"/>
       <c r="E102" s="10"/>
@@ -9627,13 +9855,13 @@
       <c r="B103" s="26"/>
       <c r="D103" s="5"/>
       <c r="E103" s="26"/>
-      <c r="F103" s="45"/>
-      <c r="G103" s="46"/>
-      <c r="H103" s="47"/>
+      <c r="F103" s="60"/>
+      <c r="G103" s="61"/>
+      <c r="H103" s="62"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="35"/>
-      <c r="B104" s="42"/>
+      <c r="A104" s="53"/>
+      <c r="B104" s="63"/>
       <c r="C104" s="26"/>
       <c r="D104" s="1"/>
       <c r="E104" s="26"/>
@@ -9642,8 +9870,8 @@
       <c r="H104" s="1"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="37"/>
-      <c r="B105" s="43"/>
+      <c r="A105" s="55"/>
+      <c r="B105" s="64"/>
       <c r="C105" s="26"/>
       <c r="D105" s="1"/>
       <c r="E105" s="26"/>
@@ -9652,8 +9880,8 @@
       <c r="H105" s="1"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="37"/>
-      <c r="B106" s="43"/>
+      <c r="A106" s="55"/>
+      <c r="B106" s="64"/>
       <c r="C106" s="26"/>
       <c r="D106" s="1"/>
       <c r="E106" s="26"/>
@@ -9662,8 +9890,8 @@
       <c r="H106" s="1"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="37"/>
-      <c r="B107" s="43"/>
+      <c r="A107" s="55"/>
+      <c r="B107" s="64"/>
       <c r="C107" s="26"/>
       <c r="D107" s="1"/>
       <c r="E107" s="26"/>
@@ -9672,8 +9900,8 @@
       <c r="H107" s="1"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="37"/>
-      <c r="B108" s="43"/>
+      <c r="A108" s="55"/>
+      <c r="B108" s="64"/>
       <c r="C108" s="26"/>
       <c r="D108" s="1"/>
       <c r="E108" s="26"/>
@@ -9682,8 +9910,8 @@
       <c r="H108" s="1"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="37"/>
-      <c r="B109" s="43"/>
+      <c r="A109" s="55"/>
+      <c r="B109" s="64"/>
       <c r="C109" s="26"/>
       <c r="D109" s="1"/>
       <c r="E109" s="26"/>
@@ -9692,8 +9920,8 @@
       <c r="H109" s="1"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="39"/>
-      <c r="B110" s="44"/>
+      <c r="A110" s="57"/>
+      <c r="B110" s="65"/>
       <c r="C110" s="10"/>
       <c r="D110" s="10"/>
       <c r="E110" s="10"/>
@@ -9703,26 +9931,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:H5"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="A8:B14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="A16:B22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="A24:B30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="A32:B38"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="A40:B46"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="A48:B54"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="A56:B62"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="A64:B70"/>
-    <mergeCell ref="F71:H71"/>
-    <mergeCell ref="A72:B78"/>
-    <mergeCell ref="F79:H79"/>
     <mergeCell ref="F103:H103"/>
     <mergeCell ref="A104:B110"/>
     <mergeCell ref="A80:B86"/>
@@ -9730,6 +9938,26 @@
     <mergeCell ref="A88:B94"/>
     <mergeCell ref="F95:H95"/>
     <mergeCell ref="A96:B102"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="A64:B70"/>
+    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="A72:B78"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="A40:B46"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="A48:B54"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="A56:B62"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="A24:B30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="A32:B38"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="A1:H5"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="A8:B14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="A16:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/documentacion/desarrollo/Product Backlog Sibica.xlsx
+++ b/documentacion/desarrollo/Product Backlog Sibica.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PB" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="266">
   <si>
     <t>Enunciado de la Historia</t>
   </si>
@@ -2320,9 +2320,6 @@
     <t>Enviar reporte de la irregularidad a Orfeo y persistir esta en la base de datos</t>
   </si>
   <si>
-    <t>Consultar mediante la pocision actual, los zonas verdes ubicadas a maximo 400 mtros a la redonda</t>
-  </si>
-  <si>
     <t>Identificar que predios se encuentran reportados con irregularidad de invasion o fraude</t>
   </si>
   <si>
@@ -2335,9 +2332,6 @@
     <t>Realizar CRUD pa tipo de reporte de irregularidad</t>
   </si>
   <si>
-    <t>Al consultar las iregularidades de un predio, y seleccionar alguna, se debe visualizar su detallado y un campo observacion para estipular aluna descripcion del cliente.</t>
-  </si>
-  <si>
     <t>Al pintar el formulario de repotes y escoger el tipo de reporte, en la parte superior se debe pintar un texto que describa sobre ese tipode reporte.</t>
   </si>
   <si>
@@ -2359,7 +2353,85 @@
     <t>Pintar en el menu, la opcoin para visualizar el manual de uso</t>
   </si>
   <si>
-    <t>Descargar o vusualizar el manual de uso</t>
+    <t>Consultar las opciones a las que tiene permiso el usuario al dar clic en el poligono de</t>
+  </si>
+  <si>
+    <t>Pintar opcion de descarga de documentos</t>
+  </si>
+  <si>
+    <t>Pintar modal con los documentos a los que tiene permiso</t>
+  </si>
+  <si>
+    <t>Descargar el documento que el usuario seleccione en el modal</t>
+  </si>
+  <si>
+    <t>Crear tarea para un panorama de riesgo</t>
+  </si>
+  <si>
+    <t>Consultar tareas de un panorama de riesgo</t>
+  </si>
+  <si>
+    <t>Editar tareas de un panorama de riesgo</t>
+  </si>
+  <si>
+    <t>Calificar tareaas de un panorama de riesgo</t>
+  </si>
+  <si>
+    <t>Consultar que tareas de panoramas de riesgos estan proximas a vences</t>
+  </si>
+  <si>
+    <t>Notificar a los usuarios encargados sobre las tareas se panoramas de riesgo, que estan proximas a vencer</t>
+  </si>
+  <si>
+    <t>Pintar campo para adjuntar imágenes</t>
+  </si>
+  <si>
+    <t>Cargar imágenes adjuntas al campo y almacenarlas en el servidor, relacionandolas con el panorama de riesgo</t>
+  </si>
+  <si>
+    <t>Crear CRUD de roles</t>
+  </si>
+  <si>
+    <t>Consultar factores de riesgo</t>
+  </si>
+  <si>
+    <t>Aplicar valoracion al factor de riesgpo</t>
+  </si>
+  <si>
+    <t>Pintar campo validador sintaxis QUERY</t>
+  </si>
+  <si>
+    <t>Generar pdf con los datos arrojados del query</t>
+  </si>
+  <si>
+    <t>Generar excel con los datos arrojados del query</t>
+  </si>
+  <si>
+    <t>Crear panorama de riesgo, de acuerdo al factor de riesgo que este pertenesca</t>
+  </si>
+  <si>
+    <t>Modificar panorama de riesgo</t>
+  </si>
+  <si>
+    <t>Consultar panoramas de riesgo</t>
+  </si>
+  <si>
+    <t>Crear visita tecnica a un predio, permitiendo adjuntar archivo</t>
+  </si>
+  <si>
+    <t>Consultar visitas tecticas de un poredio</t>
+  </si>
+  <si>
+    <t>Modificar visita tecnica realizada a un predio</t>
+  </si>
+  <si>
+    <t>Descargar o visualizar el manual de uso</t>
+  </si>
+  <si>
+    <t>Al consultar las irregularidades de un predio, y seleccionar alguna, se debe visualizar su detallado y un campo observacion para estipular aluna descripcion del cliente.</t>
+  </si>
+  <si>
+    <t>Consultar mediante la pocision actual, los zonas verdes ubicadas a maximo 400 metros a la redonda</t>
   </si>
 </sst>
 </file>
@@ -2682,7 +2754,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2805,6 +2877,22 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2841,6 +2929,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2850,22 +2947,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2874,6 +2955,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3209,56 +3306,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
     </row>
     <row r="2" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
     </row>
     <row r="3" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
     </row>
     <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
     </row>
     <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
     </row>
     <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -4446,11 +4543,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="56" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="52"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="58"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -4535,8 +4632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H145"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="81.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4551,56 +4648,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
     </row>
     <row r="2" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
     </row>
     <row r="3" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
     </row>
     <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
     </row>
     <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
     </row>
     <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -4642,13 +4739,13 @@
       <c r="E7" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
-      <c r="B8" s="54"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="6" t="s">
         <v>117</v>
       </c>
@@ -4663,8 +4760,8 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
-      <c r="B9" s="56"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="62"/>
       <c r="C9" s="6" t="s">
         <v>118</v>
       </c>
@@ -4679,8 +4776,8 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
-      <c r="B10" s="56"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="62"/>
       <c r="C10" s="6" t="s">
         <v>119</v>
       </c>
@@ -4695,8 +4792,8 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
-      <c r="B11" s="56"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="62"/>
       <c r="C11" s="6" t="s">
         <v>120</v>
       </c>
@@ -4711,8 +4808,8 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
-      <c r="B12" s="56"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="62"/>
       <c r="C12" s="6"/>
       <c r="D12" s="1"/>
       <c r="E12" s="6"/>
@@ -4721,8 +4818,8 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
-      <c r="B13" s="56"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="62"/>
       <c r="C13" s="6"/>
       <c r="D13" s="1"/>
       <c r="E13" s="6"/>
@@ -4731,8 +4828,8 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="57"/>
-      <c r="B14" s="58"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="10"/>
       <c r="D14" s="24"/>
       <c r="E14" s="10"/>
@@ -4754,13 +4851,13 @@
       <c r="E15" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="53"/>
-      <c r="B16" s="54"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="60"/>
       <c r="C16" s="6" t="s">
         <v>117</v>
       </c>
@@ -4775,8 +4872,8 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
-      <c r="B17" s="56"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="62"/>
       <c r="C17" s="6" t="s">
         <v>118</v>
       </c>
@@ -4791,8 +4888,8 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="55"/>
-      <c r="B18" s="56"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="62"/>
       <c r="C18" s="6" t="s">
         <v>119</v>
       </c>
@@ -4807,8 +4904,8 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
-      <c r="B19" s="56"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="62"/>
       <c r="C19" s="6" t="s">
         <v>120</v>
       </c>
@@ -4823,8 +4920,8 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="55"/>
-      <c r="B20" s="56"/>
+      <c r="A20" s="61"/>
+      <c r="B20" s="62"/>
       <c r="C20" s="6"/>
       <c r="D20" s="1"/>
       <c r="E20" s="6"/>
@@ -4833,8 +4930,8 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
-      <c r="B21" s="56"/>
+      <c r="A21" s="61"/>
+      <c r="B21" s="62"/>
       <c r="C21" s="6"/>
       <c r="D21" s="1"/>
       <c r="E21" s="6"/>
@@ -4843,8 +4940,8 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="57"/>
-      <c r="B22" s="58"/>
+      <c r="A22" s="63"/>
+      <c r="B22" s="64"/>
       <c r="C22" s="10"/>
       <c r="D22" s="24"/>
       <c r="E22" s="10"/>
@@ -4871,8 +4968,8 @@
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
-      <c r="B24" s="54"/>
+      <c r="A24" s="59"/>
+      <c r="B24" s="60"/>
       <c r="C24" s="6" t="s">
         <v>117</v>
       </c>
@@ -4887,8 +4984,8 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
-      <c r="B25" s="56"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="62"/>
       <c r="C25" s="6" t="s">
         <v>118</v>
       </c>
@@ -4903,8 +5000,8 @@
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
-      <c r="B26" s="56"/>
+      <c r="A26" s="61"/>
+      <c r="B26" s="62"/>
       <c r="C26" s="6"/>
       <c r="D26" s="1"/>
       <c r="E26" s="6"/>
@@ -4913,8 +5010,8 @@
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="55"/>
-      <c r="B27" s="56"/>
+      <c r="A27" s="61"/>
+      <c r="B27" s="62"/>
       <c r="C27" s="6"/>
       <c r="D27" s="1"/>
       <c r="E27" s="6"/>
@@ -4923,8 +5020,8 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
-      <c r="B28" s="56"/>
+      <c r="A28" s="61"/>
+      <c r="B28" s="62"/>
       <c r="C28" s="6"/>
       <c r="D28" s="1"/>
       <c r="E28" s="6"/>
@@ -4933,8 +5030,8 @@
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="55"/>
-      <c r="B29" s="56"/>
+      <c r="A29" s="61"/>
+      <c r="B29" s="62"/>
       <c r="C29" s="6"/>
       <c r="D29" s="1"/>
       <c r="E29" s="6"/>
@@ -4943,8 +5040,8 @@
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="57"/>
-      <c r="B30" s="58"/>
+      <c r="A30" s="63"/>
+      <c r="B30" s="64"/>
       <c r="C30" s="10"/>
       <c r="D30" s="24"/>
       <c r="E30" s="10"/>
@@ -4971,8 +5068,8 @@
       <c r="H31" s="10"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="53"/>
-      <c r="B32" s="54"/>
+      <c r="A32" s="59"/>
+      <c r="B32" s="60"/>
       <c r="C32" s="6" t="s">
         <v>117</v>
       </c>
@@ -4987,8 +5084,8 @@
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="55"/>
-      <c r="B33" s="56"/>
+      <c r="A33" s="61"/>
+      <c r="B33" s="62"/>
       <c r="C33" s="6" t="s">
         <v>118</v>
       </c>
@@ -5003,8 +5100,8 @@
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="55"/>
-      <c r="B34" s="56"/>
+      <c r="A34" s="61"/>
+      <c r="B34" s="62"/>
       <c r="C34" s="6" t="s">
         <v>119</v>
       </c>
@@ -5019,8 +5116,8 @@
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
-      <c r="B35" s="56"/>
+      <c r="A35" s="61"/>
+      <c r="B35" s="62"/>
       <c r="C35" s="6" t="s">
         <v>120</v>
       </c>
@@ -5035,8 +5132,8 @@
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="55"/>
-      <c r="B36" s="56"/>
+      <c r="A36" s="61"/>
+      <c r="B36" s="62"/>
       <c r="C36" s="6" t="s">
         <v>197</v>
       </c>
@@ -5051,8 +5148,8 @@
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="55"/>
-      <c r="B37" s="56"/>
+      <c r="A37" s="61"/>
+      <c r="B37" s="62"/>
       <c r="C37" s="6" t="s">
         <v>198</v>
       </c>
@@ -5067,8 +5164,8 @@
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="57"/>
-      <c r="B38" s="58"/>
+      <c r="A38" s="63"/>
+      <c r="B38" s="64"/>
       <c r="C38" s="10"/>
       <c r="D38" s="24"/>
       <c r="E38" s="10"/>
@@ -5095,8 +5192,8 @@
       <c r="H39" s="10"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="53"/>
-      <c r="B40" s="54"/>
+      <c r="A40" s="59"/>
+      <c r="B40" s="60"/>
       <c r="C40" s="6" t="s">
         <v>117</v>
       </c>
@@ -5111,8 +5208,8 @@
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="55"/>
-      <c r="B41" s="56"/>
+      <c r="A41" s="61"/>
+      <c r="B41" s="62"/>
       <c r="C41" s="6" t="s">
         <v>118</v>
       </c>
@@ -5127,36 +5224,28 @@
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="55"/>
-      <c r="B42" s="56"/>
-      <c r="C42" s="6" t="s">
-        <v>119</v>
-      </c>
+      <c r="A42" s="61"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="6"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="6" t="s">
-        <v>113</v>
-      </c>
+      <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="55"/>
-      <c r="B43" s="56"/>
-      <c r="C43" s="6" t="s">
-        <v>120</v>
-      </c>
+      <c r="A43" s="61"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="6"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="6" t="s">
-        <v>113</v>
-      </c>
+      <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="55"/>
-      <c r="B44" s="56"/>
+      <c r="A44" s="61"/>
+      <c r="B44" s="62"/>
       <c r="C44" s="6"/>
       <c r="D44" s="1"/>
       <c r="E44" s="6"/>
@@ -5165,8 +5254,8 @@
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="55"/>
-      <c r="B45" s="56"/>
+      <c r="A45" s="61"/>
+      <c r="B45" s="62"/>
       <c r="C45" s="6"/>
       <c r="D45" s="1"/>
       <c r="E45" s="6"/>
@@ -5175,8 +5264,8 @@
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="57"/>
-      <c r="B46" s="58"/>
+      <c r="A46" s="63"/>
+      <c r="B46" s="64"/>
       <c r="C46" s="10"/>
       <c r="D46" s="24"/>
       <c r="E46" s="10"/>
@@ -5293,8 +5382,8 @@
       <c r="H54" s="10"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="53"/>
-      <c r="B55" s="54"/>
+      <c r="A55" s="59"/>
+      <c r="B55" s="60"/>
       <c r="C55" s="6" t="s">
         <v>117</v>
       </c>
@@ -5309,8 +5398,8 @@
       <c r="H55" s="1"/>
     </row>
     <row r="56" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="55"/>
-      <c r="B56" s="56"/>
+      <c r="A56" s="61"/>
+      <c r="B56" s="62"/>
       <c r="C56" s="6" t="s">
         <v>118</v>
       </c>
@@ -5325,8 +5414,8 @@
       <c r="H56" s="1"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="55"/>
-      <c r="B57" s="56"/>
+      <c r="A57" s="61"/>
+      <c r="B57" s="62"/>
       <c r="C57" s="6"/>
       <c r="D57" s="1"/>
       <c r="E57" s="6"/>
@@ -5335,8 +5424,8 @@
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="55"/>
-      <c r="B58" s="56"/>
+      <c r="A58" s="61"/>
+      <c r="B58" s="62"/>
       <c r="C58" s="6"/>
       <c r="D58" s="1"/>
       <c r="E58" s="6"/>
@@ -5345,8 +5434,8 @@
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="57"/>
-      <c r="B59" s="58"/>
+      <c r="A59" s="63"/>
+      <c r="B59" s="64"/>
       <c r="C59" s="10"/>
       <c r="D59" s="24"/>
       <c r="E59" s="10"/>
@@ -5373,8 +5462,8 @@
       <c r="H60" s="10"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="53"/>
-      <c r="B61" s="54"/>
+      <c r="A61" s="59"/>
+      <c r="B61" s="60"/>
       <c r="C61" s="6" t="s">
         <v>117</v>
       </c>
@@ -5389,8 +5478,8 @@
       <c r="H61" s="1"/>
     </row>
     <row r="62" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="55"/>
-      <c r="B62" s="56"/>
+      <c r="A62" s="61"/>
+      <c r="B62" s="62"/>
       <c r="C62" s="6" t="s">
         <v>118</v>
       </c>
@@ -5405,8 +5494,8 @@
       <c r="H62" s="1"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="55"/>
-      <c r="B63" s="56"/>
+      <c r="A63" s="61"/>
+      <c r="B63" s="62"/>
       <c r="C63" s="6"/>
       <c r="D63" s="1"/>
       <c r="E63" s="6"/>
@@ -5415,8 +5504,8 @@
       <c r="H63" s="1"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="55"/>
-      <c r="B64" s="56"/>
+      <c r="A64" s="61"/>
+      <c r="B64" s="62"/>
       <c r="C64" s="6"/>
       <c r="D64" s="1"/>
       <c r="E64" s="6"/>
@@ -5425,8 +5514,8 @@
       <c r="H64" s="1"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="57"/>
-      <c r="B65" s="58"/>
+      <c r="A65" s="63"/>
+      <c r="B65" s="64"/>
       <c r="C65" s="10"/>
       <c r="D65" s="24"/>
       <c r="E65" s="10"/>
@@ -5453,8 +5542,8 @@
       <c r="H66" s="10"/>
     </row>
     <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="53"/>
-      <c r="B67" s="54"/>
+      <c r="A67" s="59"/>
+      <c r="B67" s="60"/>
       <c r="C67" s="6" t="s">
         <v>117</v>
       </c>
@@ -5469,8 +5558,8 @@
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="55"/>
-      <c r="B68" s="56"/>
+      <c r="A68" s="61"/>
+      <c r="B68" s="62"/>
       <c r="C68" s="6" t="s">
         <v>118</v>
       </c>
@@ -5485,8 +5574,8 @@
       <c r="H68" s="1"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="55"/>
-      <c r="B69" s="56"/>
+      <c r="A69" s="61"/>
+      <c r="B69" s="62"/>
       <c r="C69" s="6"/>
       <c r="D69" s="1"/>
       <c r="E69" s="6"/>
@@ -5495,8 +5584,8 @@
       <c r="H69" s="1"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="55"/>
-      <c r="B70" s="56"/>
+      <c r="A70" s="61"/>
+      <c r="B70" s="62"/>
       <c r="C70" s="6"/>
       <c r="D70" s="1"/>
       <c r="E70" s="6"/>
@@ -5505,8 +5594,8 @@
       <c r="H70" s="1"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="55"/>
-      <c r="B71" s="56"/>
+      <c r="A71" s="61"/>
+      <c r="B71" s="62"/>
       <c r="C71" s="6"/>
       <c r="D71" s="1"/>
       <c r="E71" s="6"/>
@@ -5515,8 +5604,8 @@
       <c r="H71" s="1"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="55"/>
-      <c r="B72" s="56"/>
+      <c r="A72" s="61"/>
+      <c r="B72" s="62"/>
       <c r="C72" s="6"/>
       <c r="D72" s="1"/>
       <c r="E72" s="6"/>
@@ -5525,8 +5614,8 @@
       <c r="H72" s="1"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="57"/>
-      <c r="B73" s="58"/>
+      <c r="A73" s="63"/>
+      <c r="B73" s="64"/>
       <c r="C73" s="10"/>
       <c r="D73" s="24"/>
       <c r="E73" s="10"/>
@@ -5553,8 +5642,8 @@
       <c r="H74" s="10"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="53"/>
-      <c r="B75" s="54"/>
+      <c r="A75" s="59"/>
+      <c r="B75" s="60"/>
       <c r="C75" s="6" t="s">
         <v>117</v>
       </c>
@@ -5569,8 +5658,8 @@
       <c r="H75" s="1"/>
     </row>
     <row r="76" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="55"/>
-      <c r="B76" s="56"/>
+      <c r="A76" s="61"/>
+      <c r="B76" s="62"/>
       <c r="C76" s="6" t="s">
         <v>118</v>
       </c>
@@ -5585,8 +5674,8 @@
       <c r="H76" s="1"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="55"/>
-      <c r="B77" s="56"/>
+      <c r="A77" s="61"/>
+      <c r="B77" s="62"/>
       <c r="C77" s="6"/>
       <c r="D77" s="1"/>
       <c r="E77" s="6"/>
@@ -5595,8 +5684,8 @@
       <c r="H77" s="1"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="55"/>
-      <c r="B78" s="56"/>
+      <c r="A78" s="61"/>
+      <c r="B78" s="62"/>
       <c r="C78" s="6"/>
       <c r="D78" s="1"/>
       <c r="E78" s="6"/>
@@ -5605,8 +5694,8 @@
       <c r="H78" s="1"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="55"/>
-      <c r="B79" s="56"/>
+      <c r="A79" s="61"/>
+      <c r="B79" s="62"/>
       <c r="C79" s="6"/>
       <c r="D79" s="1"/>
       <c r="E79" s="6"/>
@@ -5615,8 +5704,8 @@
       <c r="H79" s="1"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="55"/>
-      <c r="B80" s="56"/>
+      <c r="A80" s="61"/>
+      <c r="B80" s="62"/>
       <c r="C80" s="6"/>
       <c r="D80" s="1"/>
       <c r="E80" s="6"/>
@@ -5625,8 +5714,8 @@
       <c r="H80" s="1"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="57"/>
-      <c r="B81" s="58"/>
+      <c r="A81" s="63"/>
+      <c r="B81" s="64"/>
       <c r="C81" s="10"/>
       <c r="D81" s="24"/>
       <c r="E81" s="10"/>
@@ -5653,8 +5742,8 @@
       <c r="H82" s="10"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="53"/>
-      <c r="B83" s="54"/>
+      <c r="A83" s="59"/>
+      <c r="B83" s="60"/>
       <c r="C83" s="6" t="s">
         <v>117</v>
       </c>
@@ -5669,8 +5758,8 @@
       <c r="H83" s="1"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="55"/>
-      <c r="B84" s="56"/>
+      <c r="A84" s="61"/>
+      <c r="B84" s="62"/>
       <c r="C84" s="6"/>
       <c r="D84" s="1"/>
       <c r="E84" s="6"/>
@@ -5679,8 +5768,8 @@
       <c r="H84" s="1"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="55"/>
-      <c r="B85" s="56"/>
+      <c r="A85" s="61"/>
+      <c r="B85" s="62"/>
       <c r="C85" s="6"/>
       <c r="D85" s="1"/>
       <c r="E85" s="6"/>
@@ -5689,8 +5778,8 @@
       <c r="H85" s="1"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="55"/>
-      <c r="B86" s="56"/>
+      <c r="A86" s="61"/>
+      <c r="B86" s="62"/>
       <c r="C86" s="6"/>
       <c r="D86" s="1"/>
       <c r="E86" s="6"/>
@@ -5699,8 +5788,8 @@
       <c r="H86" s="1"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="55"/>
-      <c r="B87" s="56"/>
+      <c r="A87" s="61"/>
+      <c r="B87" s="62"/>
       <c r="C87" s="6"/>
       <c r="D87" s="1"/>
       <c r="E87" s="6"/>
@@ -5709,8 +5798,8 @@
       <c r="H87" s="1"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="55"/>
-      <c r="B88" s="56"/>
+      <c r="A88" s="61"/>
+      <c r="B88" s="62"/>
       <c r="C88" s="6"/>
       <c r="D88" s="1"/>
       <c r="E88" s="6"/>
@@ -5719,8 +5808,8 @@
       <c r="H88" s="1"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="57"/>
-      <c r="B89" s="58"/>
+      <c r="A89" s="63"/>
+      <c r="B89" s="64"/>
       <c r="C89" s="10"/>
       <c r="D89" s="24"/>
       <c r="E89" s="10"/>
@@ -5744,8 +5833,8 @@
       <c r="H90" s="10"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="53"/>
-      <c r="B91" s="54"/>
+      <c r="A91" s="59"/>
+      <c r="B91" s="60"/>
       <c r="C91" s="26"/>
       <c r="D91" s="1"/>
       <c r="E91" s="26"/>
@@ -5754,8 +5843,8 @@
       <c r="H91" s="1"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="55"/>
-      <c r="B92" s="56"/>
+      <c r="A92" s="61"/>
+      <c r="B92" s="62"/>
       <c r="C92" s="26"/>
       <c r="D92" s="1"/>
       <c r="E92" s="26"/>
@@ -5764,8 +5853,8 @@
       <c r="H92" s="1"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="55"/>
-      <c r="B93" s="56"/>
+      <c r="A93" s="61"/>
+      <c r="B93" s="62"/>
       <c r="C93" s="26"/>
       <c r="D93" s="1"/>
       <c r="E93" s="26"/>
@@ -5774,8 +5863,8 @@
       <c r="H93" s="1"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="55"/>
-      <c r="B94" s="56"/>
+      <c r="A94" s="61"/>
+      <c r="B94" s="62"/>
       <c r="C94" s="26"/>
       <c r="D94" s="1"/>
       <c r="E94" s="26"/>
@@ -5784,8 +5873,8 @@
       <c r="H94" s="1"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="55"/>
-      <c r="B95" s="56"/>
+      <c r="A95" s="61"/>
+      <c r="B95" s="62"/>
       <c r="C95" s="26"/>
       <c r="D95" s="1"/>
       <c r="E95" s="26"/>
@@ -5794,8 +5883,8 @@
       <c r="H95" s="1"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="55"/>
-      <c r="B96" s="56"/>
+      <c r="A96" s="61"/>
+      <c r="B96" s="62"/>
       <c r="C96" s="26"/>
       <c r="D96" s="1"/>
       <c r="E96" s="26"/>
@@ -5804,8 +5893,8 @@
       <c r="H96" s="1"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="57"/>
-      <c r="B97" s="58"/>
+      <c r="A97" s="63"/>
+      <c r="B97" s="64"/>
       <c r="C97" s="10"/>
       <c r="D97" s="24"/>
       <c r="E97" s="10"/>
@@ -5829,8 +5918,8 @@
       <c r="H98" s="10"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="53"/>
-      <c r="B99" s="54"/>
+      <c r="A99" s="59"/>
+      <c r="B99" s="60"/>
       <c r="C99" s="26"/>
       <c r="D99" s="1"/>
       <c r="E99" s="26"/>
@@ -5839,8 +5928,8 @@
       <c r="H99" s="1"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="55"/>
-      <c r="B100" s="56"/>
+      <c r="A100" s="61"/>
+      <c r="B100" s="62"/>
       <c r="C100" s="26"/>
       <c r="D100" s="1"/>
       <c r="E100" s="26"/>
@@ -5849,8 +5938,8 @@
       <c r="H100" s="1"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="55"/>
-      <c r="B101" s="56"/>
+      <c r="A101" s="61"/>
+      <c r="B101" s="62"/>
       <c r="C101" s="26"/>
       <c r="D101" s="1"/>
       <c r="E101" s="26"/>
@@ -5859,8 +5948,8 @@
       <c r="H101" s="1"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="55"/>
-      <c r="B102" s="56"/>
+      <c r="A102" s="61"/>
+      <c r="B102" s="62"/>
       <c r="C102" s="26"/>
       <c r="D102" s="1"/>
       <c r="E102" s="26"/>
@@ -5869,8 +5958,8 @@
       <c r="H102" s="1"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="55"/>
-      <c r="B103" s="56"/>
+      <c r="A103" s="61"/>
+      <c r="B103" s="62"/>
       <c r="C103" s="26"/>
       <c r="D103" s="1"/>
       <c r="E103" s="26"/>
@@ -5879,8 +5968,8 @@
       <c r="H103" s="1"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="55"/>
-      <c r="B104" s="56"/>
+      <c r="A104" s="61"/>
+      <c r="B104" s="62"/>
       <c r="C104" s="26"/>
       <c r="D104" s="1"/>
       <c r="E104" s="26"/>
@@ -5889,8 +5978,8 @@
       <c r="H104" s="1"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="57"/>
-      <c r="B105" s="58"/>
+      <c r="A105" s="63"/>
+      <c r="B105" s="64"/>
       <c r="C105" s="10"/>
       <c r="D105" s="24"/>
       <c r="E105" s="10"/>
@@ -5914,8 +6003,8 @@
       <c r="H106" s="10"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="53"/>
-      <c r="B107" s="54"/>
+      <c r="A107" s="59"/>
+      <c r="B107" s="60"/>
       <c r="C107" s="26"/>
       <c r="D107" s="1"/>
       <c r="E107" s="26"/>
@@ -5924,8 +6013,8 @@
       <c r="H107" s="1"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="55"/>
-      <c r="B108" s="56"/>
+      <c r="A108" s="61"/>
+      <c r="B108" s="62"/>
       <c r="C108" s="26"/>
       <c r="D108" s="1"/>
       <c r="E108" s="26"/>
@@ -5934,8 +6023,8 @@
       <c r="H108" s="1"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="55"/>
-      <c r="B109" s="56"/>
+      <c r="A109" s="61"/>
+      <c r="B109" s="62"/>
       <c r="C109" s="26"/>
       <c r="D109" s="1"/>
       <c r="E109" s="26"/>
@@ -5944,8 +6033,8 @@
       <c r="H109" s="1"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="55"/>
-      <c r="B110" s="56"/>
+      <c r="A110" s="61"/>
+      <c r="B110" s="62"/>
       <c r="C110" s="26"/>
       <c r="D110" s="1"/>
       <c r="E110" s="26"/>
@@ -5954,8 +6043,8 @@
       <c r="H110" s="1"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="55"/>
-      <c r="B111" s="56"/>
+      <c r="A111" s="61"/>
+      <c r="B111" s="62"/>
       <c r="C111" s="26"/>
       <c r="D111" s="1"/>
       <c r="E111" s="26"/>
@@ -5964,8 +6053,8 @@
       <c r="H111" s="1"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="55"/>
-      <c r="B112" s="56"/>
+      <c r="A112" s="61"/>
+      <c r="B112" s="62"/>
       <c r="C112" s="26"/>
       <c r="D112" s="1"/>
       <c r="E112" s="26"/>
@@ -5974,8 +6063,8 @@
       <c r="H112" s="1"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="57"/>
-      <c r="B113" s="58"/>
+      <c r="A113" s="63"/>
+      <c r="B113" s="64"/>
       <c r="C113" s="10"/>
       <c r="D113" s="24"/>
       <c r="E113" s="10"/>
@@ -5994,8 +6083,8 @@
       <c r="H114" s="10"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="53"/>
-      <c r="B115" s="54"/>
+      <c r="A115" s="59"/>
+      <c r="B115" s="60"/>
       <c r="C115" s="26"/>
       <c r="D115" s="1"/>
       <c r="E115" s="26"/>
@@ -6004,8 +6093,8 @@
       <c r="H115" s="1"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="55"/>
-      <c r="B116" s="56"/>
+      <c r="A116" s="61"/>
+      <c r="B116" s="62"/>
       <c r="C116" s="26"/>
       <c r="D116" s="1"/>
       <c r="E116" s="26"/>
@@ -6014,8 +6103,8 @@
       <c r="H116" s="1"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="55"/>
-      <c r="B117" s="56"/>
+      <c r="A117" s="61"/>
+      <c r="B117" s="62"/>
       <c r="C117" s="26"/>
       <c r="D117" s="1"/>
       <c r="E117" s="26"/>
@@ -6024,8 +6113,8 @@
       <c r="H117" s="1"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="55"/>
-      <c r="B118" s="56"/>
+      <c r="A118" s="61"/>
+      <c r="B118" s="62"/>
       <c r="C118" s="26"/>
       <c r="D118" s="1"/>
       <c r="E118" s="26"/>
@@ -6034,8 +6123,8 @@
       <c r="H118" s="1"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="55"/>
-      <c r="B119" s="56"/>
+      <c r="A119" s="61"/>
+      <c r="B119" s="62"/>
       <c r="C119" s="26"/>
       <c r="D119" s="1"/>
       <c r="E119" s="26"/>
@@ -6044,8 +6133,8 @@
       <c r="H119" s="1"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="55"/>
-      <c r="B120" s="56"/>
+      <c r="A120" s="61"/>
+      <c r="B120" s="62"/>
       <c r="C120" s="26"/>
       <c r="D120" s="1"/>
       <c r="E120" s="26"/>
@@ -6054,8 +6143,8 @@
       <c r="H120" s="1"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="57"/>
-      <c r="B121" s="58"/>
+      <c r="A121" s="63"/>
+      <c r="B121" s="64"/>
       <c r="C121" s="10"/>
       <c r="D121" s="24"/>
       <c r="E121" s="10"/>
@@ -6074,8 +6163,8 @@
       <c r="H122" s="10"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="53"/>
-      <c r="B123" s="54"/>
+      <c r="A123" s="59"/>
+      <c r="B123" s="60"/>
       <c r="C123" s="26"/>
       <c r="D123" s="1"/>
       <c r="E123" s="26"/>
@@ -6084,8 +6173,8 @@
       <c r="H123" s="1"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="55"/>
-      <c r="B124" s="56"/>
+      <c r="A124" s="61"/>
+      <c r="B124" s="62"/>
       <c r="C124" s="26"/>
       <c r="D124" s="1"/>
       <c r="E124" s="26"/>
@@ -6094,8 +6183,8 @@
       <c r="H124" s="1"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="55"/>
-      <c r="B125" s="56"/>
+      <c r="A125" s="61"/>
+      <c r="B125" s="62"/>
       <c r="C125" s="26"/>
       <c r="D125" s="1"/>
       <c r="E125" s="26"/>
@@ -6104,8 +6193,8 @@
       <c r="H125" s="1"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="55"/>
-      <c r="B126" s="56"/>
+      <c r="A126" s="61"/>
+      <c r="B126" s="62"/>
       <c r="C126" s="26"/>
       <c r="D126" s="1"/>
       <c r="E126" s="26"/>
@@ -6114,8 +6203,8 @@
       <c r="H126" s="1"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="55"/>
-      <c r="B127" s="56"/>
+      <c r="A127" s="61"/>
+      <c r="B127" s="62"/>
       <c r="C127" s="26"/>
       <c r="D127" s="1"/>
       <c r="E127" s="26"/>
@@ -6124,8 +6213,8 @@
       <c r="H127" s="1"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="55"/>
-      <c r="B128" s="56"/>
+      <c r="A128" s="61"/>
+      <c r="B128" s="62"/>
       <c r="C128" s="26"/>
       <c r="D128" s="1"/>
       <c r="E128" s="26"/>
@@ -6134,8 +6223,8 @@
       <c r="H128" s="1"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="57"/>
-      <c r="B129" s="58"/>
+      <c r="A129" s="63"/>
+      <c r="B129" s="64"/>
       <c r="C129" s="10"/>
       <c r="D129" s="24"/>
       <c r="E129" s="10"/>
@@ -6154,8 +6243,8 @@
       <c r="H130" s="10"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="53"/>
-      <c r="B131" s="54"/>
+      <c r="A131" s="59"/>
+      <c r="B131" s="60"/>
       <c r="C131" s="26"/>
       <c r="D131" s="1"/>
       <c r="E131" s="26"/>
@@ -6164,8 +6253,8 @@
       <c r="H131" s="1"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="55"/>
-      <c r="B132" s="56"/>
+      <c r="A132" s="61"/>
+      <c r="B132" s="62"/>
       <c r="C132" s="26"/>
       <c r="D132" s="1"/>
       <c r="E132" s="26"/>
@@ -6174,8 +6263,8 @@
       <c r="H132" s="1"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="55"/>
-      <c r="B133" s="56"/>
+      <c r="A133" s="61"/>
+      <c r="B133" s="62"/>
       <c r="C133" s="26"/>
       <c r="D133" s="1"/>
       <c r="E133" s="26"/>
@@ -6184,8 +6273,8 @@
       <c r="H133" s="1"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="55"/>
-      <c r="B134" s="56"/>
+      <c r="A134" s="61"/>
+      <c r="B134" s="62"/>
       <c r="C134" s="26"/>
       <c r="D134" s="1"/>
       <c r="E134" s="26"/>
@@ -6194,8 +6283,8 @@
       <c r="H134" s="1"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="55"/>
-      <c r="B135" s="56"/>
+      <c r="A135" s="61"/>
+      <c r="B135" s="62"/>
       <c r="C135" s="26"/>
       <c r="D135" s="1"/>
       <c r="E135" s="26"/>
@@ -6204,8 +6293,8 @@
       <c r="H135" s="1"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="55"/>
-      <c r="B136" s="56"/>
+      <c r="A136" s="61"/>
+      <c r="B136" s="62"/>
       <c r="C136" s="26"/>
       <c r="D136" s="1"/>
       <c r="E136" s="26"/>
@@ -6214,8 +6303,8 @@
       <c r="H136" s="1"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="57"/>
-      <c r="B137" s="58"/>
+      <c r="A137" s="63"/>
+      <c r="B137" s="64"/>
       <c r="C137" s="10"/>
       <c r="D137" s="24"/>
       <c r="E137" s="10"/>
@@ -6234,8 +6323,8 @@
       <c r="H138" s="10"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="53"/>
-      <c r="B139" s="54"/>
+      <c r="A139" s="59"/>
+      <c r="B139" s="60"/>
       <c r="C139" s="26"/>
       <c r="D139" s="1"/>
       <c r="E139" s="26"/>
@@ -6244,8 +6333,8 @@
       <c r="H139" s="1"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="55"/>
-      <c r="B140" s="56"/>
+      <c r="A140" s="61"/>
+      <c r="B140" s="62"/>
       <c r="C140" s="26"/>
       <c r="D140" s="1"/>
       <c r="E140" s="26"/>
@@ -6254,8 +6343,8 @@
       <c r="H140" s="1"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="55"/>
-      <c r="B141" s="56"/>
+      <c r="A141" s="61"/>
+      <c r="B141" s="62"/>
       <c r="C141" s="26"/>
       <c r="D141" s="1"/>
       <c r="E141" s="26"/>
@@ -6264,8 +6353,8 @@
       <c r="H141" s="1"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="55"/>
-      <c r="B142" s="56"/>
+      <c r="A142" s="61"/>
+      <c r="B142" s="62"/>
       <c r="C142" s="26"/>
       <c r="D142" s="1"/>
       <c r="E142" s="26"/>
@@ -6274,8 +6363,8 @@
       <c r="H142" s="1"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="55"/>
-      <c r="B143" s="56"/>
+      <c r="A143" s="61"/>
+      <c r="B143" s="62"/>
       <c r="C143" s="26"/>
       <c r="D143" s="1"/>
       <c r="E143" s="26"/>
@@ -6284,8 +6373,8 @@
       <c r="H143" s="1"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="55"/>
-      <c r="B144" s="56"/>
+      <c r="A144" s="61"/>
+      <c r="B144" s="62"/>
       <c r="C144" s="26"/>
       <c r="D144" s="1"/>
       <c r="E144" s="26"/>
@@ -6294,8 +6383,8 @@
       <c r="H144" s="1"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="57"/>
-      <c r="B145" s="58"/>
+      <c r="A145" s="63"/>
+      <c r="B145" s="64"/>
       <c r="C145" s="10"/>
       <c r="D145" s="24"/>
       <c r="E145" s="10"/>
@@ -6305,13 +6394,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A131:B137"/>
-    <mergeCell ref="A139:B145"/>
-    <mergeCell ref="A91:B97"/>
-    <mergeCell ref="A99:B105"/>
-    <mergeCell ref="A107:B113"/>
-    <mergeCell ref="A115:B121"/>
-    <mergeCell ref="A123:B129"/>
+    <mergeCell ref="A55:B59"/>
+    <mergeCell ref="A67:B73"/>
+    <mergeCell ref="A75:B81"/>
+    <mergeCell ref="A83:B89"/>
+    <mergeCell ref="A61:B65"/>
     <mergeCell ref="A24:B30"/>
     <mergeCell ref="A32:B38"/>
     <mergeCell ref="A40:B46"/>
@@ -6320,11 +6407,13 @@
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="A16:B22"/>
-    <mergeCell ref="A55:B59"/>
-    <mergeCell ref="A67:B73"/>
-    <mergeCell ref="A75:B81"/>
-    <mergeCell ref="A83:B89"/>
-    <mergeCell ref="A61:B65"/>
+    <mergeCell ref="A131:B137"/>
+    <mergeCell ref="A139:B145"/>
+    <mergeCell ref="A91:B97"/>
+    <mergeCell ref="A99:B105"/>
+    <mergeCell ref="A107:B113"/>
+    <mergeCell ref="A115:B121"/>
+    <mergeCell ref="A123:B129"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6336,8 +6425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H126"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104:C106"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="E112" sqref="E112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="81.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6352,56 +6441,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
     </row>
     <row r="2" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
     </row>
     <row r="3" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
     </row>
     <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
     </row>
     <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
     </row>
     <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -6440,57 +6529,63 @@
         <v>137</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="62"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="71"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="59" t="s">
         <v>219</v>
       </c>
-      <c r="B8" s="63"/>
+      <c r="B8" s="66"/>
       <c r="C8" s="6" t="s">
         <v>117</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="53" t="s">
+        <v>113</v>
+      </c>
       <c r="F8" s="6"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
-      <c r="B9" s="64"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="67"/>
       <c r="C9" s="33" t="s">
         <v>118</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="53" t="s">
+        <v>113</v>
+      </c>
       <c r="F9" s="6"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
-      <c r="B10" s="64"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="67"/>
       <c r="C10" s="33" t="s">
         <v>119</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="53" t="s">
+        <v>113</v>
+      </c>
       <c r="F10" s="6"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
-      <c r="B11" s="64"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="67"/>
       <c r="C11" s="6"/>
       <c r="D11" s="1"/>
       <c r="E11" s="6"/>
@@ -6499,8 +6594,8 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
-      <c r="B12" s="64"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="67"/>
       <c r="C12" s="6"/>
       <c r="D12" s="1"/>
       <c r="E12" s="6"/>
@@ -6509,8 +6604,8 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
-      <c r="B13" s="64"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="67"/>
       <c r="C13" s="6"/>
       <c r="D13" s="1"/>
       <c r="E13" s="6"/>
@@ -6519,8 +6614,8 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="57"/>
-      <c r="B14" s="65"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="68"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -6539,16 +6634,14 @@
         <v>138</v>
       </c>
       <c r="E15" s="6"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="62"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="71"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="53"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="33" t="s">
-        <v>117</v>
-      </c>
+      <c r="A16" s="59"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="1"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -6556,11 +6649,9 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="33" t="s">
-        <v>118</v>
-      </c>
+      <c r="A17" s="61"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="1"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -6568,11 +6659,9 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="55"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="33" t="s">
-        <v>119</v>
-      </c>
+      <c r="A18" s="61"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="33"/>
       <c r="D18" s="1"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -6580,8 +6669,8 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
-      <c r="B19" s="64"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="67"/>
       <c r="C19" s="6"/>
       <c r="D19" s="1"/>
       <c r="E19" s="6"/>
@@ -6590,8 +6679,8 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="55"/>
-      <c r="B20" s="64"/>
+      <c r="A20" s="61"/>
+      <c r="B20" s="67"/>
       <c r="C20" s="6"/>
       <c r="D20" s="1"/>
       <c r="E20" s="6"/>
@@ -6600,8 +6689,8 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
-      <c r="B21" s="64"/>
+      <c r="A21" s="61"/>
+      <c r="B21" s="67"/>
       <c r="C21" s="6"/>
       <c r="D21" s="1"/>
       <c r="E21" s="6"/>
@@ -6610,8 +6699,8 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="57"/>
-      <c r="B22" s="65"/>
+      <c r="A22" s="63"/>
+      <c r="B22" s="68"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -6630,44 +6719,46 @@
         <v>146</v>
       </c>
       <c r="E23" s="26"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="62"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="71"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
-      <c r="B24" s="63"/>
+      <c r="A24" s="59"/>
+      <c r="B24" s="66"/>
       <c r="C24" s="33" t="s">
         <v>117</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E24" s="26"/>
+      <c r="E24" s="26" t="s">
+        <v>113</v>
+      </c>
       <c r="F24" s="26"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
-      <c r="B25" s="64"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="67"/>
       <c r="C25" s="33" t="s">
         <v>118</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E25" s="26"/>
+      <c r="E25" s="53" t="s">
+        <v>113</v>
+      </c>
       <c r="F25" s="26"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="33" t="s">
-        <v>119</v>
-      </c>
+      <c r="A26" s="61"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="33"/>
       <c r="D26" s="1"/>
       <c r="E26" s="26"/>
       <c r="F26" s="26"/>
@@ -6675,8 +6766,8 @@
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="55"/>
-      <c r="B27" s="64"/>
+      <c r="A27" s="61"/>
+      <c r="B27" s="67"/>
       <c r="C27" s="26"/>
       <c r="D27" s="1"/>
       <c r="E27" s="26"/>
@@ -6685,8 +6776,8 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
-      <c r="B28" s="64"/>
+      <c r="A28" s="61"/>
+      <c r="B28" s="67"/>
       <c r="C28" s="26"/>
       <c r="D28" s="1"/>
       <c r="E28" s="26"/>
@@ -6695,8 +6786,8 @@
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="55"/>
-      <c r="B29" s="64"/>
+      <c r="A29" s="61"/>
+      <c r="B29" s="67"/>
       <c r="C29" s="26"/>
       <c r="D29" s="1"/>
       <c r="E29" s="26"/>
@@ -6705,8 +6796,8 @@
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="57"/>
-      <c r="B30" s="65"/>
+      <c r="A30" s="63"/>
+      <c r="B30" s="68"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
@@ -6725,16 +6816,14 @@
         <v>147</v>
       </c>
       <c r="E31" s="26"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="62"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="71"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="53"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="33" t="s">
-        <v>117</v>
-      </c>
+      <c r="A32" s="59"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="33"/>
       <c r="D32" s="1"/>
       <c r="E32" s="26"/>
       <c r="F32" s="26"/>
@@ -6742,11 +6831,9 @@
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="55"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="33" t="s">
-        <v>118</v>
-      </c>
+      <c r="A33" s="61"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="33"/>
       <c r="D33" s="1"/>
       <c r="E33" s="26"/>
       <c r="F33" s="26"/>
@@ -6754,11 +6841,9 @@
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="55"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="33" t="s">
-        <v>119</v>
-      </c>
+      <c r="A34" s="61"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="33"/>
       <c r="D34" s="1"/>
       <c r="E34" s="26"/>
       <c r="F34" s="26"/>
@@ -6766,8 +6851,8 @@
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
-      <c r="B35" s="64"/>
+      <c r="A35" s="61"/>
+      <c r="B35" s="67"/>
       <c r="C35" s="26"/>
       <c r="D35" s="1"/>
       <c r="E35" s="26"/>
@@ -6776,8 +6861,8 @@
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="55"/>
-      <c r="B36" s="64"/>
+      <c r="A36" s="61"/>
+      <c r="B36" s="67"/>
       <c r="C36" s="26"/>
       <c r="D36" s="1"/>
       <c r="E36" s="26"/>
@@ -6786,8 +6871,8 @@
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="55"/>
-      <c r="B37" s="64"/>
+      <c r="A37" s="61"/>
+      <c r="B37" s="67"/>
       <c r="C37" s="26"/>
       <c r="D37" s="1"/>
       <c r="E37" s="26"/>
@@ -6796,8 +6881,8 @@
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="57"/>
-      <c r="B38" s="65"/>
+      <c r="A38" s="63"/>
+      <c r="B38" s="68"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
@@ -6816,55 +6901,61 @@
         <v>149</v>
       </c>
       <c r="E39" s="26"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="62"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="71"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="53"/>
-      <c r="B40" s="63"/>
+      <c r="A40" s="59"/>
+      <c r="B40" s="66"/>
       <c r="C40" s="33" t="s">
         <v>117</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E40" s="26"/>
+      <c r="E40" s="26" t="s">
+        <v>113</v>
+      </c>
       <c r="F40" s="26"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="55"/>
-      <c r="B41" s="64"/>
+      <c r="A41" s="61"/>
+      <c r="B41" s="67"/>
       <c r="C41" s="33" t="s">
         <v>118</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="E41" s="26"/>
+      <c r="E41" s="53" t="s">
+        <v>113</v>
+      </c>
       <c r="F41" s="26"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="55"/>
-      <c r="B42" s="64"/>
+      <c r="A42" s="61"/>
+      <c r="B42" s="67"/>
       <c r="C42" s="33" t="s">
         <v>119</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E42" s="26"/>
+      <c r="E42" s="53" t="s">
+        <v>113</v>
+      </c>
       <c r="F42" s="26"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="55"/>
-      <c r="B43" s="64"/>
+      <c r="A43" s="61"/>
+      <c r="B43" s="67"/>
       <c r="C43" s="26"/>
       <c r="D43" s="1"/>
       <c r="E43" s="26"/>
@@ -6873,8 +6964,8 @@
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="55"/>
-      <c r="B44" s="64"/>
+      <c r="A44" s="61"/>
+      <c r="B44" s="67"/>
       <c r="C44" s="26"/>
       <c r="D44" s="1"/>
       <c r="E44" s="26"/>
@@ -6883,8 +6974,8 @@
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="55"/>
-      <c r="B45" s="64"/>
+      <c r="A45" s="61"/>
+      <c r="B45" s="67"/>
       <c r="C45" s="26"/>
       <c r="D45" s="1"/>
       <c r="E45" s="26"/>
@@ -6893,8 +6984,8 @@
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="57"/>
-      <c r="B46" s="65"/>
+      <c r="A46" s="63"/>
+      <c r="B46" s="68"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
@@ -6913,13 +7004,13 @@
         <v>150</v>
       </c>
       <c r="E47" s="26"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="62"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="70"/>
+      <c r="H47" s="71"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="53"/>
-      <c r="B48" s="63"/>
+      <c r="A48" s="59"/>
+      <c r="B48" s="66"/>
       <c r="C48" s="33" t="s">
         <v>117</v>
       </c>
@@ -6930,8 +7021,8 @@
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="55"/>
-      <c r="B49" s="64"/>
+      <c r="A49" s="61"/>
+      <c r="B49" s="67"/>
       <c r="C49" s="33" t="s">
         <v>118</v>
       </c>
@@ -6942,8 +7033,8 @@
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="55"/>
-      <c r="B50" s="64"/>
+      <c r="A50" s="61"/>
+      <c r="B50" s="67"/>
       <c r="C50" s="33" t="s">
         <v>119</v>
       </c>
@@ -6954,8 +7045,8 @@
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="55"/>
-      <c r="B51" s="64"/>
+      <c r="A51" s="61"/>
+      <c r="B51" s="67"/>
       <c r="C51" s="26"/>
       <c r="D51" s="1"/>
       <c r="E51" s="26"/>
@@ -6964,8 +7055,8 @@
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="55"/>
-      <c r="B52" s="64"/>
+      <c r="A52" s="61"/>
+      <c r="B52" s="67"/>
       <c r="C52" s="26"/>
       <c r="D52" s="1"/>
       <c r="E52" s="26"/>
@@ -6974,8 +7065,8 @@
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="55"/>
-      <c r="B53" s="64"/>
+      <c r="A53" s="61"/>
+      <c r="B53" s="67"/>
       <c r="C53" s="26"/>
       <c r="D53" s="1"/>
       <c r="E53" s="26"/>
@@ -6984,8 +7075,8 @@
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="57"/>
-      <c r="B54" s="65"/>
+      <c r="A54" s="63"/>
+      <c r="B54" s="68"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
@@ -7004,30 +7095,30 @@
         <v>155</v>
       </c>
       <c r="E55" s="26"/>
-      <c r="F55" s="60"/>
-      <c r="G55" s="61"/>
-      <c r="H55" s="62"/>
+      <c r="F55" s="69"/>
+      <c r="G55" s="70"/>
+      <c r="H55" s="71"/>
     </row>
     <row r="56" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="53"/>
-      <c r="B56" s="63"/>
+      <c r="A56" s="59"/>
+      <c r="B56" s="66"/>
       <c r="C56" s="33" t="s">
         <v>117</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E56" s="26"/>
+        <v>265</v>
+      </c>
+      <c r="E56" s="26" t="s">
+        <v>113</v>
+      </c>
       <c r="F56" s="26"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="55"/>
-      <c r="B57" s="64"/>
-      <c r="C57" s="33" t="s">
-        <v>118</v>
-      </c>
+      <c r="A57" s="61"/>
+      <c r="B57" s="67"/>
+      <c r="C57" s="33"/>
       <c r="D57" s="1"/>
       <c r="E57" s="26"/>
       <c r="F57" s="26"/>
@@ -7035,11 +7126,9 @@
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="55"/>
-      <c r="B58" s="64"/>
-      <c r="C58" s="33" t="s">
-        <v>119</v>
-      </c>
+      <c r="A58" s="61"/>
+      <c r="B58" s="67"/>
+      <c r="C58" s="33"/>
       <c r="D58" s="1"/>
       <c r="E58" s="26"/>
       <c r="F58" s="26"/>
@@ -7047,8 +7136,8 @@
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="55"/>
-      <c r="B59" s="64"/>
+      <c r="A59" s="61"/>
+      <c r="B59" s="67"/>
       <c r="C59" s="26"/>
       <c r="D59" s="1"/>
       <c r="E59" s="26"/>
@@ -7057,8 +7146,8 @@
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="55"/>
-      <c r="B60" s="64"/>
+      <c r="A60" s="61"/>
+      <c r="B60" s="67"/>
       <c r="C60" s="26"/>
       <c r="D60" s="1"/>
       <c r="E60" s="26"/>
@@ -7067,8 +7156,8 @@
       <c r="H60" s="1"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="55"/>
-      <c r="B61" s="64"/>
+      <c r="A61" s="61"/>
+      <c r="B61" s="67"/>
       <c r="C61" s="26"/>
       <c r="D61" s="1"/>
       <c r="E61" s="26"/>
@@ -7077,8 +7166,8 @@
       <c r="H61" s="1"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="57"/>
-      <c r="B62" s="65"/>
+      <c r="A62" s="63"/>
+      <c r="B62" s="68"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
       <c r="E62" s="10"/>
@@ -7097,16 +7186,14 @@
         <v>156</v>
       </c>
       <c r="E63" s="26"/>
-      <c r="F63" s="60"/>
-      <c r="G63" s="61"/>
-      <c r="H63" s="62"/>
+      <c r="F63" s="69"/>
+      <c r="G63" s="70"/>
+      <c r="H63" s="71"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="53"/>
-      <c r="B64" s="63"/>
-      <c r="C64" s="33" t="s">
-        <v>117</v>
-      </c>
+      <c r="A64" s="59"/>
+      <c r="B64" s="66"/>
+      <c r="C64" s="33"/>
       <c r="D64" s="1"/>
       <c r="E64" s="26"/>
       <c r="F64" s="26"/>
@@ -7114,11 +7201,9 @@
       <c r="H64" s="1"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="55"/>
-      <c r="B65" s="64"/>
-      <c r="C65" s="33" t="s">
-        <v>118</v>
-      </c>
+      <c r="A65" s="61"/>
+      <c r="B65" s="67"/>
+      <c r="C65" s="33"/>
       <c r="D65" s="1"/>
       <c r="E65" s="26"/>
       <c r="F65" s="26"/>
@@ -7126,11 +7211,9 @@
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="55"/>
-      <c r="B66" s="64"/>
-      <c r="C66" s="33" t="s">
-        <v>119</v>
-      </c>
+      <c r="A66" s="61"/>
+      <c r="B66" s="67"/>
+      <c r="C66" s="33"/>
       <c r="D66" s="1"/>
       <c r="E66" s="26"/>
       <c r="F66" s="26"/>
@@ -7138,8 +7221,8 @@
       <c r="H66" s="1"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="55"/>
-      <c r="B67" s="64"/>
+      <c r="A67" s="61"/>
+      <c r="B67" s="67"/>
       <c r="C67" s="26"/>
       <c r="D67" s="1"/>
       <c r="E67" s="26"/>
@@ -7148,8 +7231,8 @@
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="55"/>
-      <c r="B68" s="64"/>
+      <c r="A68" s="61"/>
+      <c r="B68" s="67"/>
       <c r="C68" s="26"/>
       <c r="D68" s="1"/>
       <c r="E68" s="26"/>
@@ -7158,8 +7241,8 @@
       <c r="H68" s="1"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="55"/>
-      <c r="B69" s="64"/>
+      <c r="A69" s="61"/>
+      <c r="B69" s="67"/>
       <c r="C69" s="26"/>
       <c r="D69" s="1"/>
       <c r="E69" s="26"/>
@@ -7168,8 +7251,8 @@
       <c r="H69" s="1"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="57"/>
-      <c r="B70" s="65"/>
+      <c r="A70" s="63"/>
+      <c r="B70" s="68"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
       <c r="E70" s="10"/>
@@ -7188,55 +7271,61 @@
         <v>160</v>
       </c>
       <c r="E71" s="26"/>
-      <c r="F71" s="60"/>
-      <c r="G71" s="61"/>
-      <c r="H71" s="62"/>
+      <c r="F71" s="69"/>
+      <c r="G71" s="70"/>
+      <c r="H71" s="71"/>
     </row>
     <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="53"/>
-      <c r="B72" s="63"/>
+      <c r="A72" s="59"/>
+      <c r="B72" s="66"/>
       <c r="C72" s="33" t="s">
         <v>117</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E72" s="26"/>
+        <v>228</v>
+      </c>
+      <c r="E72" s="26" t="s">
+        <v>113</v>
+      </c>
       <c r="F72" s="26"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="55"/>
-      <c r="B73" s="64"/>
+      <c r="A73" s="61"/>
+      <c r="B73" s="67"/>
       <c r="C73" s="33" t="s">
         <v>118</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E73" s="26"/>
+        <v>229</v>
+      </c>
+      <c r="E73" s="53" t="s">
+        <v>113</v>
+      </c>
       <c r="F73" s="26"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
     </row>
     <row r="74" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="55"/>
-      <c r="B74" s="64"/>
+      <c r="A74" s="61"/>
+      <c r="B74" s="67"/>
       <c r="C74" s="33" t="s">
         <v>119</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="E74" s="26"/>
+        <v>230</v>
+      </c>
+      <c r="E74" s="53" t="s">
+        <v>113</v>
+      </c>
       <c r="F74" s="26"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="55"/>
-      <c r="B75" s="64"/>
+      <c r="A75" s="61"/>
+      <c r="B75" s="67"/>
       <c r="C75" s="26"/>
       <c r="D75" s="1"/>
       <c r="E75" s="26"/>
@@ -7245,8 +7334,8 @@
       <c r="H75" s="1"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="55"/>
-      <c r="B76" s="64"/>
+      <c r="A76" s="61"/>
+      <c r="B76" s="67"/>
       <c r="C76" s="26"/>
       <c r="D76" s="1"/>
       <c r="E76" s="26"/>
@@ -7255,8 +7344,8 @@
       <c r="H76" s="1"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="55"/>
-      <c r="B77" s="64"/>
+      <c r="A77" s="61"/>
+      <c r="B77" s="67"/>
       <c r="C77" s="26"/>
       <c r="D77" s="1"/>
       <c r="E77" s="26"/>
@@ -7265,8 +7354,8 @@
       <c r="H77" s="1"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="57"/>
-      <c r="B78" s="65"/>
+      <c r="A78" s="63"/>
+      <c r="B78" s="68"/>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
       <c r="E78" s="10"/>
@@ -7285,13 +7374,13 @@
         <v>159</v>
       </c>
       <c r="E79" s="26"/>
-      <c r="F79" s="60"/>
-      <c r="G79" s="61"/>
-      <c r="H79" s="62"/>
+      <c r="F79" s="69"/>
+      <c r="G79" s="70"/>
+      <c r="H79" s="71"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="53"/>
-      <c r="B80" s="63"/>
+      <c r="A80" s="59"/>
+      <c r="B80" s="66"/>
       <c r="C80" s="26"/>
       <c r="D80" s="1"/>
       <c r="E80" s="26"/>
@@ -7300,8 +7389,8 @@
       <c r="H80" s="1"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="55"/>
-      <c r="B81" s="64"/>
+      <c r="A81" s="61"/>
+      <c r="B81" s="67"/>
       <c r="C81" s="26"/>
       <c r="D81" s="1"/>
       <c r="E81" s="26"/>
@@ -7310,8 +7399,8 @@
       <c r="H81" s="1"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="55"/>
-      <c r="B82" s="64"/>
+      <c r="A82" s="61"/>
+      <c r="B82" s="67"/>
       <c r="C82" s="26"/>
       <c r="D82" s="1"/>
       <c r="E82" s="26"/>
@@ -7320,8 +7409,8 @@
       <c r="H82" s="1"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="55"/>
-      <c r="B83" s="64"/>
+      <c r="A83" s="61"/>
+      <c r="B83" s="67"/>
       <c r="C83" s="26"/>
       <c r="D83" s="1"/>
       <c r="E83" s="26"/>
@@ -7330,8 +7419,8 @@
       <c r="H83" s="1"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="55"/>
-      <c r="B84" s="64"/>
+      <c r="A84" s="61"/>
+      <c r="B84" s="67"/>
       <c r="C84" s="26"/>
       <c r="D84" s="1"/>
       <c r="E84" s="26"/>
@@ -7340,8 +7429,8 @@
       <c r="H84" s="1"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="55"/>
-      <c r="B85" s="64"/>
+      <c r="A85" s="61"/>
+      <c r="B85" s="67"/>
       <c r="C85" s="26"/>
       <c r="D85" s="1"/>
       <c r="E85" s="26"/>
@@ -7350,8 +7439,8 @@
       <c r="H85" s="1"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="57"/>
-      <c r="B86" s="65"/>
+      <c r="A86" s="63"/>
+      <c r="B86" s="68"/>
       <c r="C86" s="10"/>
       <c r="D86" s="10"/>
       <c r="E86" s="10"/>
@@ -7370,30 +7459,30 @@
         <v>73</v>
       </c>
       <c r="E87" s="26"/>
-      <c r="F87" s="60"/>
-      <c r="G87" s="61"/>
-      <c r="H87" s="62"/>
+      <c r="F87" s="69"/>
+      <c r="G87" s="70"/>
+      <c r="H87" s="71"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="53"/>
-      <c r="B88" s="63"/>
+      <c r="A88" s="59"/>
+      <c r="B88" s="66"/>
       <c r="C88" s="33" t="s">
         <v>117</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E88" s="26"/>
+        <v>231</v>
+      </c>
+      <c r="E88" s="26" t="s">
+        <v>113</v>
+      </c>
       <c r="F88" s="26"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="55"/>
-      <c r="B89" s="64"/>
-      <c r="C89" s="33" t="s">
-        <v>118</v>
-      </c>
+      <c r="A89" s="61"/>
+      <c r="B89" s="67"/>
+      <c r="C89" s="33"/>
       <c r="D89" s="1"/>
       <c r="E89" s="26"/>
       <c r="F89" s="26"/>
@@ -7401,11 +7490,9 @@
       <c r="H89" s="1"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="55"/>
-      <c r="B90" s="64"/>
-      <c r="C90" s="33" t="s">
-        <v>119</v>
-      </c>
+      <c r="A90" s="61"/>
+      <c r="B90" s="67"/>
+      <c r="C90" s="33"/>
       <c r="D90" s="1"/>
       <c r="E90" s="26"/>
       <c r="F90" s="26"/>
@@ -7413,8 +7500,8 @@
       <c r="H90" s="1"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="55"/>
-      <c r="B91" s="64"/>
+      <c r="A91" s="61"/>
+      <c r="B91" s="67"/>
       <c r="C91" s="26"/>
       <c r="D91" s="1"/>
       <c r="E91" s="26"/>
@@ -7423,8 +7510,8 @@
       <c r="H91" s="1"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="55"/>
-      <c r="B92" s="64"/>
+      <c r="A92" s="61"/>
+      <c r="B92" s="67"/>
       <c r="C92" s="26"/>
       <c r="D92" s="1"/>
       <c r="E92" s="26"/>
@@ -7433,8 +7520,8 @@
       <c r="H92" s="1"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="55"/>
-      <c r="B93" s="64"/>
+      <c r="A93" s="61"/>
+      <c r="B93" s="67"/>
       <c r="C93" s="26"/>
       <c r="D93" s="1"/>
       <c r="E93" s="26"/>
@@ -7443,8 +7530,8 @@
       <c r="H93" s="1"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="57"/>
-      <c r="B94" s="65"/>
+      <c r="A94" s="63"/>
+      <c r="B94" s="68"/>
       <c r="C94" s="10"/>
       <c r="D94" s="10"/>
       <c r="E94" s="10"/>
@@ -7463,30 +7550,30 @@
         <v>74</v>
       </c>
       <c r="E95" s="26"/>
-      <c r="F95" s="60"/>
-      <c r="G95" s="61"/>
-      <c r="H95" s="62"/>
+      <c r="F95" s="69"/>
+      <c r="G95" s="70"/>
+      <c r="H95" s="71"/>
     </row>
     <row r="96" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A96" s="53"/>
-      <c r="B96" s="63"/>
+      <c r="A96" s="59"/>
+      <c r="B96" s="66"/>
       <c r="C96" s="33" t="s">
         <v>117</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E96" s="26"/>
+        <v>264</v>
+      </c>
+      <c r="E96" s="26" t="s">
+        <v>113</v>
+      </c>
       <c r="F96" s="26"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="55"/>
-      <c r="B97" s="64"/>
-      <c r="C97" s="33" t="s">
-        <v>118</v>
-      </c>
+      <c r="A97" s="61"/>
+      <c r="B97" s="67"/>
+      <c r="C97" s="33"/>
       <c r="D97" s="1"/>
       <c r="E97" s="26"/>
       <c r="F97" s="26"/>
@@ -7494,11 +7581,9 @@
       <c r="H97" s="1"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="55"/>
-      <c r="B98" s="64"/>
-      <c r="C98" s="33" t="s">
-        <v>119</v>
-      </c>
+      <c r="A98" s="61"/>
+      <c r="B98" s="67"/>
+      <c r="C98" s="33"/>
       <c r="D98" s="1"/>
       <c r="E98" s="26"/>
       <c r="F98" s="26"/>
@@ -7506,8 +7591,8 @@
       <c r="H98" s="1"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="55"/>
-      <c r="B99" s="64"/>
+      <c r="A99" s="61"/>
+      <c r="B99" s="67"/>
       <c r="C99" s="26"/>
       <c r="D99" s="1"/>
       <c r="E99" s="26"/>
@@ -7516,8 +7601,8 @@
       <c r="H99" s="1"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="55"/>
-      <c r="B100" s="64"/>
+      <c r="A100" s="61"/>
+      <c r="B100" s="67"/>
       <c r="C100" s="26"/>
       <c r="D100" s="1"/>
       <c r="E100" s="26"/>
@@ -7526,8 +7611,8 @@
       <c r="H100" s="1"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="55"/>
-      <c r="B101" s="64"/>
+      <c r="A101" s="61"/>
+      <c r="B101" s="67"/>
       <c r="C101" s="26"/>
       <c r="D101" s="1"/>
       <c r="E101" s="26"/>
@@ -7536,8 +7621,8 @@
       <c r="H101" s="1"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="57"/>
-      <c r="B102" s="65"/>
+      <c r="A102" s="63"/>
+      <c r="B102" s="68"/>
       <c r="C102" s="10"/>
       <c r="D102" s="10"/>
       <c r="E102" s="10"/>
@@ -7556,44 +7641,46 @@
         <v>75</v>
       </c>
       <c r="E103" s="26"/>
-      <c r="F103" s="60"/>
-      <c r="G103" s="61"/>
-      <c r="H103" s="62"/>
+      <c r="F103" s="69"/>
+      <c r="G103" s="70"/>
+      <c r="H103" s="71"/>
     </row>
     <row r="104" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="53"/>
-      <c r="B104" s="63"/>
+      <c r="A104" s="59"/>
+      <c r="B104" s="66"/>
       <c r="C104" s="33" t="s">
         <v>117</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E104" s="26"/>
+        <v>232</v>
+      </c>
+      <c r="E104" s="26" t="s">
+        <v>113</v>
+      </c>
       <c r="F104" s="26"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="55"/>
-      <c r="B105" s="64"/>
+      <c r="A105" s="61"/>
+      <c r="B105" s="67"/>
       <c r="C105" s="33" t="s">
         <v>118</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E105" s="26"/>
+        <v>233</v>
+      </c>
+      <c r="E105" s="53" t="s">
+        <v>113</v>
+      </c>
       <c r="F105" s="26"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="55"/>
-      <c r="B106" s="64"/>
-      <c r="C106" s="33" t="s">
-        <v>119</v>
-      </c>
+      <c r="A106" s="61"/>
+      <c r="B106" s="67"/>
+      <c r="C106" s="33"/>
       <c r="D106" s="1"/>
       <c r="E106" s="26"/>
       <c r="F106" s="26"/>
@@ -7601,8 +7688,8 @@
       <c r="H106" s="1"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="55"/>
-      <c r="B107" s="64"/>
+      <c r="A107" s="61"/>
+      <c r="B107" s="67"/>
       <c r="C107" s="26"/>
       <c r="D107" s="1"/>
       <c r="E107" s="26"/>
@@ -7611,8 +7698,8 @@
       <c r="H107" s="1"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="55"/>
-      <c r="B108" s="64"/>
+      <c r="A108" s="61"/>
+      <c r="B108" s="67"/>
       <c r="C108" s="26"/>
       <c r="D108" s="1"/>
       <c r="E108" s="26"/>
@@ -7621,8 +7708,8 @@
       <c r="H108" s="1"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="55"/>
-      <c r="B109" s="64"/>
+      <c r="A109" s="61"/>
+      <c r="B109" s="67"/>
       <c r="C109" s="26"/>
       <c r="D109" s="1"/>
       <c r="E109" s="26"/>
@@ -7631,8 +7718,8 @@
       <c r="H109" s="1"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="57"/>
-      <c r="B110" s="65"/>
+      <c r="A110" s="63"/>
+      <c r="B110" s="68"/>
       <c r="C110" s="10"/>
       <c r="D110" s="10"/>
       <c r="E110" s="10"/>
@@ -7651,27 +7738,29 @@
         <v>176</v>
       </c>
       <c r="E111" s="26"/>
-      <c r="F111" s="60"/>
-      <c r="G111" s="61"/>
-      <c r="H111" s="62"/>
+      <c r="F111" s="69"/>
+      <c r="G111" s="70"/>
+      <c r="H111" s="71"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="53"/>
-      <c r="B112" s="63"/>
+      <c r="A112" s="59"/>
+      <c r="B112" s="66"/>
       <c r="C112" s="33" t="s">
         <v>117</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E112" s="26"/>
+        <v>234</v>
+      </c>
+      <c r="E112" s="26" t="s">
+        <v>113</v>
+      </c>
       <c r="F112" s="26"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="55"/>
-      <c r="B113" s="64"/>
+      <c r="A113" s="61"/>
+      <c r="B113" s="67"/>
       <c r="C113" s="26"/>
       <c r="D113" s="1"/>
       <c r="E113" s="26"/>
@@ -7680,8 +7769,8 @@
       <c r="H113" s="1"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="55"/>
-      <c r="B114" s="64"/>
+      <c r="A114" s="61"/>
+      <c r="B114" s="67"/>
       <c r="C114" s="26"/>
       <c r="D114" s="1"/>
       <c r="E114" s="26"/>
@@ -7690,8 +7779,8 @@
       <c r="H114" s="1"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="55"/>
-      <c r="B115" s="64"/>
+      <c r="A115" s="61"/>
+      <c r="B115" s="67"/>
       <c r="C115" s="26"/>
       <c r="D115" s="1"/>
       <c r="E115" s="26"/>
@@ -7700,8 +7789,8 @@
       <c r="H115" s="1"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="55"/>
-      <c r="B116" s="64"/>
+      <c r="A116" s="61"/>
+      <c r="B116" s="67"/>
       <c r="C116" s="26"/>
       <c r="D116" s="1"/>
       <c r="E116" s="26"/>
@@ -7710,8 +7799,8 @@
       <c r="H116" s="1"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="55"/>
-      <c r="B117" s="64"/>
+      <c r="A117" s="61"/>
+      <c r="B117" s="67"/>
       <c r="C117" s="26"/>
       <c r="D117" s="1"/>
       <c r="E117" s="26"/>
@@ -7720,8 +7809,8 @@
       <c r="H117" s="1"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="57"/>
-      <c r="B118" s="65"/>
+      <c r="A118" s="63"/>
+      <c r="B118" s="68"/>
       <c r="C118" s="10"/>
       <c r="D118" s="10"/>
       <c r="E118" s="10"/>
@@ -7735,13 +7824,13 @@
       <c r="C119" s="26"/>
       <c r="D119" s="4"/>
       <c r="E119" s="26"/>
-      <c r="F119" s="60"/>
-      <c r="G119" s="61"/>
-      <c r="H119" s="62"/>
+      <c r="F119" s="69"/>
+      <c r="G119" s="70"/>
+      <c r="H119" s="71"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="53"/>
-      <c r="B120" s="63"/>
+      <c r="A120" s="59"/>
+      <c r="B120" s="66"/>
       <c r="C120" s="26"/>
       <c r="D120" s="1"/>
       <c r="E120" s="26"/>
@@ -7750,8 +7839,8 @@
       <c r="H120" s="1"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="55"/>
-      <c r="B121" s="64"/>
+      <c r="A121" s="61"/>
+      <c r="B121" s="67"/>
       <c r="C121" s="26"/>
       <c r="D121" s="1"/>
       <c r="E121" s="26"/>
@@ -7760,8 +7849,8 @@
       <c r="H121" s="1"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="55"/>
-      <c r="B122" s="64"/>
+      <c r="A122" s="61"/>
+      <c r="B122" s="67"/>
       <c r="C122" s="26"/>
       <c r="D122" s="1"/>
       <c r="E122" s="26"/>
@@ -7770,8 +7859,8 @@
       <c r="H122" s="1"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="55"/>
-      <c r="B123" s="64"/>
+      <c r="A123" s="61"/>
+      <c r="B123" s="67"/>
       <c r="C123" s="26"/>
       <c r="D123" s="1"/>
       <c r="E123" s="26"/>
@@ -7780,8 +7869,8 @@
       <c r="H123" s="1"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="55"/>
-      <c r="B124" s="64"/>
+      <c r="A124" s="61"/>
+      <c r="B124" s="67"/>
       <c r="C124" s="26"/>
       <c r="D124" s="1"/>
       <c r="E124" s="26"/>
@@ -7790,8 +7879,8 @@
       <c r="H124" s="1"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="55"/>
-      <c r="B125" s="64"/>
+      <c r="A125" s="61"/>
+      <c r="B125" s="67"/>
       <c r="C125" s="26"/>
       <c r="D125" s="1"/>
       <c r="E125" s="26"/>
@@ -7800,8 +7889,8 @@
       <c r="H125" s="1"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="57"/>
-      <c r="B126" s="65"/>
+      <c r="A126" s="63"/>
+      <c r="B126" s="68"/>
       <c r="C126" s="10"/>
       <c r="D126" s="10"/>
       <c r="E126" s="10"/>
@@ -7811,37 +7900,37 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A1:H5"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="A8:B14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="A16:B22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="A24:B30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="A32:B38"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="A40:B46"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="A48:B54"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="A56:B62"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="A64:B70"/>
+    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="A72:B78"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="A80:B86"/>
+    <mergeCell ref="F87:H87"/>
+    <mergeCell ref="A88:B94"/>
+    <mergeCell ref="F95:H95"/>
+    <mergeCell ref="A96:B102"/>
     <mergeCell ref="A120:B126"/>
     <mergeCell ref="F103:H103"/>
     <mergeCell ref="A104:B110"/>
     <mergeCell ref="F111:H111"/>
     <mergeCell ref="A112:B118"/>
     <mergeCell ref="F119:H119"/>
-    <mergeCell ref="A80:B86"/>
-    <mergeCell ref="F87:H87"/>
-    <mergeCell ref="A88:B94"/>
-    <mergeCell ref="F95:H95"/>
-    <mergeCell ref="A96:B102"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="A64:B70"/>
-    <mergeCell ref="F71:H71"/>
-    <mergeCell ref="A72:B78"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="A40:B46"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="A48:B54"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="A56:B62"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="A24:B30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="A32:B38"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="A1:H5"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="A8:B14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="A16:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -7852,8 +7941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32:C34"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7865,56 +7954,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
     </row>
     <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -7953,13 +8042,13 @@
         <v>143</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="62"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="71"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
-      <c r="B8" s="63"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="66"/>
       <c r="C8" s="6"/>
       <c r="D8" s="1"/>
       <c r="E8" s="6"/>
@@ -7968,8 +8057,8 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
-      <c r="B9" s="64"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="67"/>
       <c r="C9" s="6"/>
       <c r="D9" s="1"/>
       <c r="E9" s="6"/>
@@ -7978,8 +8067,8 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
-      <c r="B10" s="64"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="67"/>
       <c r="C10" s="6"/>
       <c r="D10" s="1"/>
       <c r="E10" s="6"/>
@@ -7988,8 +8077,8 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
-      <c r="B11" s="64"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="67"/>
       <c r="C11" s="6"/>
       <c r="D11" s="1"/>
       <c r="E11" s="6"/>
@@ -7998,8 +8087,8 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
-      <c r="B12" s="64"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="67"/>
       <c r="C12" s="6"/>
       <c r="D12" s="1"/>
       <c r="E12" s="6"/>
@@ -8008,8 +8097,8 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
-      <c r="B13" s="64"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="67"/>
       <c r="C13" s="6"/>
       <c r="D13" s="1"/>
       <c r="E13" s="6"/>
@@ -8018,8 +8107,8 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="57"/>
-      <c r="B14" s="65"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="68"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -8028,24 +8117,24 @@
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="66" t="s">
+      <c r="A15" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="67"/>
-      <c r="D15" s="68" t="s">
+      <c r="C15" s="50"/>
+      <c r="D15" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="E15" s="66"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="71"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="74"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="53"/>
-      <c r="B16" s="63"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="66"/>
       <c r="C16" s="6"/>
       <c r="D16" s="1"/>
       <c r="E16" s="6"/>
@@ -8054,8 +8143,8 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
-      <c r="B17" s="64"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="67"/>
       <c r="C17" s="6"/>
       <c r="D17" s="1"/>
       <c r="E17" s="6"/>
@@ -8064,8 +8153,8 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="55"/>
-      <c r="B18" s="64"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="67"/>
       <c r="C18" s="6"/>
       <c r="D18" s="1"/>
       <c r="E18" s="6"/>
@@ -8074,8 +8163,8 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
-      <c r="B19" s="64"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="67"/>
       <c r="C19" s="6"/>
       <c r="D19" s="1"/>
       <c r="E19" s="6"/>
@@ -8084,8 +8173,8 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="55"/>
-      <c r="B20" s="64"/>
+      <c r="A20" s="61"/>
+      <c r="B20" s="67"/>
       <c r="C20" s="6"/>
       <c r="D20" s="1"/>
       <c r="E20" s="6"/>
@@ -8094,8 +8183,8 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
-      <c r="B21" s="64"/>
+      <c r="A21" s="61"/>
+      <c r="B21" s="67"/>
       <c r="C21" s="6"/>
       <c r="D21" s="1"/>
       <c r="E21" s="6"/>
@@ -8104,8 +8193,8 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="57"/>
-      <c r="B22" s="65"/>
+      <c r="A22" s="63"/>
+      <c r="B22" s="68"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -8124,13 +8213,13 @@
         <v>153</v>
       </c>
       <c r="E23" s="26"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="62"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="71"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
-      <c r="B24" s="63"/>
+      <c r="A24" s="59"/>
+      <c r="B24" s="66"/>
       <c r="C24" s="26"/>
       <c r="D24" s="1"/>
       <c r="E24" s="26"/>
@@ -8139,8 +8228,8 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
-      <c r="B25" s="64"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="67"/>
       <c r="C25" s="26"/>
       <c r="D25" s="1"/>
       <c r="E25" s="26"/>
@@ -8149,8 +8238,8 @@
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
-      <c r="B26" s="64"/>
+      <c r="A26" s="61"/>
+      <c r="B26" s="67"/>
       <c r="C26" s="26"/>
       <c r="D26" s="1"/>
       <c r="E26" s="26"/>
@@ -8159,8 +8248,8 @@
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="55"/>
-      <c r="B27" s="64"/>
+      <c r="A27" s="61"/>
+      <c r="B27" s="67"/>
       <c r="C27" s="26"/>
       <c r="D27" s="1"/>
       <c r="E27" s="26"/>
@@ -8169,8 +8258,8 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
-      <c r="B28" s="64"/>
+      <c r="A28" s="61"/>
+      <c r="B28" s="67"/>
       <c r="C28" s="26"/>
       <c r="D28" s="1"/>
       <c r="E28" s="26"/>
@@ -8179,8 +8268,8 @@
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="55"/>
-      <c r="B29" s="64"/>
+      <c r="A29" s="61"/>
+      <c r="B29" s="67"/>
       <c r="C29" s="26"/>
       <c r="D29" s="1"/>
       <c r="E29" s="26"/>
@@ -8189,8 +8278,8 @@
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="57"/>
-      <c r="B30" s="65"/>
+      <c r="A30" s="63"/>
+      <c r="B30" s="68"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
@@ -8209,18 +8298,18 @@
         <v>77</v>
       </c>
       <c r="E31" s="26"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="62"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="71"/>
     </row>
     <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="53"/>
-      <c r="B32" s="63"/>
+      <c r="A32" s="59"/>
+      <c r="B32" s="66"/>
       <c r="C32" s="33" t="s">
         <v>117</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E32" s="26"/>
       <c r="F32" s="26"/>
@@ -8228,13 +8317,13 @@
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="55"/>
-      <c r="B33" s="64"/>
+      <c r="A33" s="61"/>
+      <c r="B33" s="67"/>
       <c r="C33" s="33" t="s">
         <v>118</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E33" s="26"/>
       <c r="F33" s="26"/>
@@ -8242,13 +8331,13 @@
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="55"/>
-      <c r="B34" s="64"/>
+      <c r="A34" s="61"/>
+      <c r="B34" s="67"/>
       <c r="C34" s="33" t="s">
         <v>119</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E34" s="26"/>
       <c r="F34" s="26"/>
@@ -8256,8 +8345,8 @@
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
-      <c r="B35" s="64"/>
+      <c r="A35" s="61"/>
+      <c r="B35" s="67"/>
       <c r="C35" s="26"/>
       <c r="D35" s="1"/>
       <c r="E35" s="26"/>
@@ -8266,8 +8355,8 @@
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="55"/>
-      <c r="B36" s="64"/>
+      <c r="A36" s="61"/>
+      <c r="B36" s="67"/>
       <c r="C36" s="26"/>
       <c r="D36" s="1"/>
       <c r="E36" s="26"/>
@@ -8276,8 +8365,8 @@
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="55"/>
-      <c r="B37" s="64"/>
+      <c r="A37" s="61"/>
+      <c r="B37" s="67"/>
       <c r="C37" s="26"/>
       <c r="D37" s="1"/>
       <c r="E37" s="26"/>
@@ -8286,8 +8375,8 @@
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="57"/>
-      <c r="B38" s="65"/>
+      <c r="A38" s="63"/>
+      <c r="B38" s="68"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
@@ -8306,43 +8395,51 @@
         <v>78</v>
       </c>
       <c r="E39" s="26"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="62"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="53"/>
-      <c r="B40" s="63"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="1"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="71"/>
+    </row>
+    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="59"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>260</v>
+      </c>
       <c r="E40" s="26"/>
       <c r="F40" s="26"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="55"/>
-      <c r="B41" s="64"/>
+      <c r="A41" s="61"/>
+      <c r="B41" s="67"/>
       <c r="C41" s="26"/>
-      <c r="D41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>261</v>
+      </c>
       <c r="E41" s="26"/>
       <c r="F41" s="26"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="55"/>
-      <c r="B42" s="64"/>
+      <c r="A42" s="61"/>
+      <c r="B42" s="67"/>
       <c r="C42" s="26"/>
-      <c r="D42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>262</v>
+      </c>
       <c r="E42" s="26"/>
       <c r="F42" s="26"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="55"/>
-      <c r="B43" s="64"/>
+      <c r="A43" s="61"/>
+      <c r="B43" s="67"/>
       <c r="C43" s="26"/>
       <c r="D43" s="1"/>
       <c r="E43" s="26"/>
@@ -8351,8 +8448,8 @@
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="55"/>
-      <c r="B44" s="64"/>
+      <c r="A44" s="61"/>
+      <c r="B44" s="67"/>
       <c r="C44" s="26"/>
       <c r="D44" s="1"/>
       <c r="E44" s="26"/>
@@ -8361,8 +8458,8 @@
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="55"/>
-      <c r="B45" s="64"/>
+      <c r="A45" s="61"/>
+      <c r="B45" s="67"/>
       <c r="C45" s="26"/>
       <c r="D45" s="1"/>
       <c r="E45" s="26"/>
@@ -8371,8 +8468,8 @@
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="57"/>
-      <c r="B46" s="65"/>
+      <c r="A46" s="63"/>
+      <c r="B46" s="68"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
@@ -8391,43 +8488,55 @@
         <v>79</v>
       </c>
       <c r="E47" s="26"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="62"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="53"/>
-      <c r="B48" s="63"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="1"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="70"/>
+      <c r="H47" s="71"/>
+    </row>
+    <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="59"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>257</v>
+      </c>
       <c r="E48" s="26"/>
       <c r="F48" s="26"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="55"/>
-      <c r="B49" s="64"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="1"/>
+      <c r="A49" s="61"/>
+      <c r="B49" s="67"/>
+      <c r="C49" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="E49" s="26"/>
       <c r="F49" s="26"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="55"/>
-      <c r="B50" s="64"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="1"/>
+      <c r="A50" s="61"/>
+      <c r="B50" s="67"/>
+      <c r="C50" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>258</v>
+      </c>
       <c r="E50" s="26"/>
       <c r="F50" s="26"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="55"/>
-      <c r="B51" s="64"/>
+      <c r="A51" s="61"/>
+      <c r="B51" s="67"/>
       <c r="C51" s="26"/>
       <c r="D51" s="1"/>
       <c r="E51" s="26"/>
@@ -8436,8 +8545,8 @@
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="55"/>
-      <c r="B52" s="64"/>
+      <c r="A52" s="61"/>
+      <c r="B52" s="67"/>
       <c r="C52" s="26"/>
       <c r="D52" s="1"/>
       <c r="E52" s="26"/>
@@ -8446,8 +8555,8 @@
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="55"/>
-      <c r="B53" s="64"/>
+      <c r="A53" s="61"/>
+      <c r="B53" s="67"/>
       <c r="C53" s="26"/>
       <c r="D53" s="1"/>
       <c r="E53" s="26"/>
@@ -8456,8 +8565,8 @@
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="57"/>
-      <c r="B54" s="65"/>
+      <c r="A54" s="63"/>
+      <c r="B54" s="68"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
@@ -8471,13 +8580,13 @@
       <c r="C55" s="26"/>
       <c r="D55" s="4"/>
       <c r="E55" s="26"/>
-      <c r="F55" s="60"/>
-      <c r="G55" s="61"/>
-      <c r="H55" s="62"/>
+      <c r="F55" s="69"/>
+      <c r="G55" s="70"/>
+      <c r="H55" s="71"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="53"/>
-      <c r="B56" s="63"/>
+      <c r="A56" s="59"/>
+      <c r="B56" s="66"/>
       <c r="C56" s="26"/>
       <c r="D56" s="1"/>
       <c r="E56" s="26"/>
@@ -8486,8 +8595,8 @@
       <c r="H56" s="1"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="55"/>
-      <c r="B57" s="64"/>
+      <c r="A57" s="61"/>
+      <c r="B57" s="67"/>
       <c r="C57" s="26"/>
       <c r="D57" s="1"/>
       <c r="E57" s="26"/>
@@ -8496,8 +8605,8 @@
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="55"/>
-      <c r="B58" s="64"/>
+      <c r="A58" s="61"/>
+      <c r="B58" s="67"/>
       <c r="C58" s="26"/>
       <c r="D58" s="1"/>
       <c r="E58" s="26"/>
@@ -8506,8 +8615,8 @@
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="55"/>
-      <c r="B59" s="64"/>
+      <c r="A59" s="61"/>
+      <c r="B59" s="67"/>
       <c r="C59" s="26"/>
       <c r="D59" s="1"/>
       <c r="E59" s="26"/>
@@ -8516,8 +8625,8 @@
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="55"/>
-      <c r="B60" s="64"/>
+      <c r="A60" s="61"/>
+      <c r="B60" s="67"/>
       <c r="C60" s="26"/>
       <c r="D60" s="1"/>
       <c r="E60" s="26"/>
@@ -8526,8 +8635,8 @@
       <c r="H60" s="1"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="55"/>
-      <c r="B61" s="64"/>
+      <c r="A61" s="61"/>
+      <c r="B61" s="67"/>
       <c r="C61" s="26"/>
       <c r="D61" s="1"/>
       <c r="E61" s="26"/>
@@ -8536,8 +8645,8 @@
       <c r="H61" s="1"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="57"/>
-      <c r="B62" s="65"/>
+      <c r="A62" s="63"/>
+      <c r="B62" s="68"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
       <c r="E62" s="10"/>
@@ -8551,13 +8660,13 @@
       <c r="C63" s="26"/>
       <c r="D63" s="4"/>
       <c r="E63" s="26"/>
-      <c r="F63" s="60"/>
-      <c r="G63" s="61"/>
-      <c r="H63" s="62"/>
+      <c r="F63" s="69"/>
+      <c r="G63" s="70"/>
+      <c r="H63" s="71"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="53"/>
-      <c r="B64" s="63"/>
+      <c r="A64" s="59"/>
+      <c r="B64" s="66"/>
       <c r="C64" s="26"/>
       <c r="D64" s="1"/>
       <c r="E64" s="26"/>
@@ -8566,8 +8675,8 @@
       <c r="H64" s="1"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="55"/>
-      <c r="B65" s="64"/>
+      <c r="A65" s="61"/>
+      <c r="B65" s="67"/>
       <c r="C65" s="26"/>
       <c r="D65" s="1"/>
       <c r="E65" s="26"/>
@@ -8576,8 +8685,8 @@
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="55"/>
-      <c r="B66" s="64"/>
+      <c r="A66" s="61"/>
+      <c r="B66" s="67"/>
       <c r="C66" s="26"/>
       <c r="D66" s="1"/>
       <c r="E66" s="26"/>
@@ -8586,8 +8695,8 @@
       <c r="H66" s="1"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="55"/>
-      <c r="B67" s="64"/>
+      <c r="A67" s="61"/>
+      <c r="B67" s="67"/>
       <c r="C67" s="26"/>
       <c r="D67" s="1"/>
       <c r="E67" s="26"/>
@@ -8596,8 +8705,8 @@
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="55"/>
-      <c r="B68" s="64"/>
+      <c r="A68" s="61"/>
+      <c r="B68" s="67"/>
       <c r="C68" s="26"/>
       <c r="D68" s="1"/>
       <c r="E68" s="26"/>
@@ -8606,8 +8715,8 @@
       <c r="H68" s="1"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="55"/>
-      <c r="B69" s="64"/>
+      <c r="A69" s="61"/>
+      <c r="B69" s="67"/>
       <c r="C69" s="26"/>
       <c r="D69" s="1"/>
       <c r="E69" s="26"/>
@@ -8616,8 +8725,8 @@
       <c r="H69" s="1"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="57"/>
-      <c r="B70" s="65"/>
+      <c r="A70" s="63"/>
+      <c r="B70" s="68"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
       <c r="E70" s="10"/>
@@ -8631,13 +8740,13 @@
       <c r="C71" s="26"/>
       <c r="D71" s="4"/>
       <c r="E71" s="26"/>
-      <c r="F71" s="60"/>
-      <c r="G71" s="61"/>
-      <c r="H71" s="62"/>
+      <c r="F71" s="69"/>
+      <c r="G71" s="70"/>
+      <c r="H71" s="71"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="53"/>
-      <c r="B72" s="63"/>
+      <c r="A72" s="59"/>
+      <c r="B72" s="66"/>
       <c r="C72" s="26"/>
       <c r="D72" s="1"/>
       <c r="E72" s="26"/>
@@ -8646,8 +8755,8 @@
       <c r="H72" s="1"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="55"/>
-      <c r="B73" s="64"/>
+      <c r="A73" s="61"/>
+      <c r="B73" s="67"/>
       <c r="C73" s="26"/>
       <c r="D73" s="1"/>
       <c r="E73" s="26"/>
@@ -8656,8 +8765,8 @@
       <c r="H73" s="1"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="55"/>
-      <c r="B74" s="64"/>
+      <c r="A74" s="61"/>
+      <c r="B74" s="67"/>
       <c r="C74" s="26"/>
       <c r="D74" s="1"/>
       <c r="E74" s="26"/>
@@ -8666,8 +8775,8 @@
       <c r="H74" s="1"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="55"/>
-      <c r="B75" s="64"/>
+      <c r="A75" s="61"/>
+      <c r="B75" s="67"/>
       <c r="C75" s="26"/>
       <c r="D75" s="1"/>
       <c r="E75" s="26"/>
@@ -8676,8 +8785,8 @@
       <c r="H75" s="1"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="55"/>
-      <c r="B76" s="64"/>
+      <c r="A76" s="61"/>
+      <c r="B76" s="67"/>
       <c r="C76" s="26"/>
       <c r="D76" s="1"/>
       <c r="E76" s="26"/>
@@ -8686,8 +8795,8 @@
       <c r="H76" s="1"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="55"/>
-      <c r="B77" s="64"/>
+      <c r="A77" s="61"/>
+      <c r="B77" s="67"/>
       <c r="C77" s="26"/>
       <c r="D77" s="1"/>
       <c r="E77" s="26"/>
@@ -8696,8 +8805,8 @@
       <c r="H77" s="1"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="57"/>
-      <c r="B78" s="65"/>
+      <c r="A78" s="63"/>
+      <c r="B78" s="68"/>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
       <c r="E78" s="10"/>
@@ -8707,6 +8816,16 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:H5"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="A8:B14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="A16:B22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="A24:B30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="A32:B38"/>
+    <mergeCell ref="F39:H39"/>
     <mergeCell ref="F63:H63"/>
     <mergeCell ref="A64:B70"/>
     <mergeCell ref="F71:H71"/>
@@ -8716,16 +8835,6 @@
     <mergeCell ref="A48:B54"/>
     <mergeCell ref="F55:H55"/>
     <mergeCell ref="A56:B62"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="A24:B30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="A32:B38"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="A1:H5"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="A8:B14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="A16:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8735,8 +8844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56:C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8748,56 +8857,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="54" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
     </row>
     <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -8836,18 +8945,18 @@
         <v>19</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="62"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="71"/>
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
-      <c r="B8" s="63"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="66"/>
       <c r="C8" s="33" t="s">
         <v>117</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -8856,13 +8965,13 @@
       <c r="J8" s="16"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
-      <c r="B9" s="64"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="67"/>
       <c r="C9" s="33" t="s">
         <v>118</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -8870,11 +8979,9 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="33" t="s">
-        <v>119</v>
-      </c>
+      <c r="A10" s="61"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="1"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -8882,8 +8989,8 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
-      <c r="B11" s="64"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="67"/>
       <c r="C11" s="6"/>
       <c r="D11" s="1"/>
       <c r="E11" s="6"/>
@@ -8892,8 +8999,8 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
-      <c r="B12" s="64"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="67"/>
       <c r="C12" s="6"/>
       <c r="D12" s="1"/>
       <c r="E12" s="6"/>
@@ -8902,8 +9009,8 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
-      <c r="B13" s="64"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="67"/>
       <c r="C13" s="6"/>
       <c r="D13" s="1"/>
       <c r="E13" s="6"/>
@@ -8912,8 +9019,8 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="57"/>
-      <c r="B14" s="65"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="68"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -8922,23 +9029,24 @@
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="C15" s="75"/>
+      <c r="D15" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="62"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="79"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="53"/>
-      <c r="B16" s="63"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="66"/>
       <c r="C16" s="6"/>
       <c r="D16" s="1"/>
       <c r="E16" s="6"/>
@@ -8947,8 +9055,8 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
-      <c r="B17" s="64"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="67"/>
       <c r="C17" s="6"/>
       <c r="D17" s="1"/>
       <c r="E17" s="6"/>
@@ -8957,8 +9065,8 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="55"/>
-      <c r="B18" s="64"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="67"/>
       <c r="C18" s="6"/>
       <c r="D18" s="1"/>
       <c r="E18" s="6"/>
@@ -8967,8 +9075,8 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
-      <c r="B19" s="64"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="67"/>
       <c r="C19" s="6"/>
       <c r="D19" s="1"/>
       <c r="E19" s="6"/>
@@ -8977,8 +9085,8 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="55"/>
-      <c r="B20" s="64"/>
+      <c r="A20" s="61"/>
+      <c r="B20" s="67"/>
       <c r="C20" s="6"/>
       <c r="D20" s="1"/>
       <c r="E20" s="6"/>
@@ -8987,8 +9095,8 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
-      <c r="B21" s="64"/>
+      <c r="A21" s="61"/>
+      <c r="B21" s="67"/>
       <c r="C21" s="6"/>
       <c r="D21" s="1"/>
       <c r="E21" s="6"/>
@@ -8997,8 +9105,8 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="57"/>
-      <c r="B22" s="65"/>
+      <c r="A22" s="63"/>
+      <c r="B22" s="68"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -9017,53 +9125,69 @@
         <v>72</v>
       </c>
       <c r="E23" s="26"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="62"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="1"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="71"/>
+    </row>
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="59"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="E24" s="26"/>
       <c r="F24" s="26"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="1"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>240</v>
+      </c>
       <c r="E25" s="26"/>
       <c r="F25" s="26"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="1"/>
+    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="61"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>241</v>
+      </c>
       <c r="E26" s="26"/>
       <c r="F26" s="26"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="55"/>
-      <c r="B27" s="64"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="1"/>
+    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="61"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>242</v>
+      </c>
       <c r="E27" s="26"/>
       <c r="F27" s="26"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
-      <c r="B28" s="64"/>
+      <c r="A28" s="61"/>
+      <c r="B28" s="67"/>
       <c r="C28" s="26"/>
       <c r="D28" s="1"/>
       <c r="E28" s="26"/>
@@ -9072,8 +9196,8 @@
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="55"/>
-      <c r="B29" s="64"/>
+      <c r="A29" s="61"/>
+      <c r="B29" s="67"/>
       <c r="C29" s="26"/>
       <c r="D29" s="1"/>
       <c r="E29" s="26"/>
@@ -9082,8 +9206,8 @@
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="57"/>
-      <c r="B30" s="65"/>
+      <c r="A30" s="63"/>
+      <c r="B30" s="68"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
@@ -9102,53 +9226,69 @@
         <v>80</v>
       </c>
       <c r="E31" s="26"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="62"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="71"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="53"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="1"/>
+      <c r="A32" s="59"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>243</v>
+      </c>
       <c r="E32" s="26"/>
       <c r="F32" s="26"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="55"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="1"/>
+      <c r="A33" s="61"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>244</v>
+      </c>
       <c r="E33" s="26"/>
       <c r="F33" s="26"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="55"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="1"/>
+      <c r="A34" s="61"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>245</v>
+      </c>
       <c r="E34" s="26"/>
       <c r="F34" s="26"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
-      <c r="B35" s="64"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="1"/>
+      <c r="A35" s="61"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>246</v>
+      </c>
       <c r="E35" s="26"/>
       <c r="F35" s="26"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="55"/>
-      <c r="B36" s="64"/>
+      <c r="A36" s="61"/>
+      <c r="B36" s="67"/>
       <c r="C36" s="26"/>
       <c r="D36" s="1"/>
       <c r="E36" s="26"/>
@@ -9157,8 +9297,8 @@
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="55"/>
-      <c r="B37" s="64"/>
+      <c r="A37" s="61"/>
+      <c r="B37" s="67"/>
       <c r="C37" s="26"/>
       <c r="D37" s="1"/>
       <c r="E37" s="26"/>
@@ -9167,8 +9307,8 @@
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="57"/>
-      <c r="B38" s="65"/>
+      <c r="A38" s="63"/>
+      <c r="B38" s="68"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
@@ -9187,34 +9327,42 @@
         <v>81</v>
       </c>
       <c r="E39" s="26"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="62"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="53"/>
-      <c r="B40" s="63"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="1"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="71"/>
+    </row>
+    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="59"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="E40" s="26"/>
       <c r="F40" s="26"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="55"/>
-      <c r="B41" s="64"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="1"/>
+    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="61"/>
+      <c r="B41" s="67"/>
+      <c r="C41" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>248</v>
+      </c>
       <c r="E41" s="26"/>
       <c r="F41" s="26"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="55"/>
-      <c r="B42" s="64"/>
-      <c r="C42" s="26"/>
+      <c r="A42" s="61"/>
+      <c r="B42" s="67"/>
+      <c r="C42" s="52"/>
       <c r="D42" s="1"/>
       <c r="E42" s="26"/>
       <c r="F42" s="26"/>
@@ -9222,9 +9370,9 @@
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="55"/>
-      <c r="B43" s="64"/>
-      <c r="C43" s="26"/>
+      <c r="A43" s="61"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="52"/>
       <c r="D43" s="1"/>
       <c r="E43" s="26"/>
       <c r="F43" s="26"/>
@@ -9232,8 +9380,8 @@
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="55"/>
-      <c r="B44" s="64"/>
+      <c r="A44" s="61"/>
+      <c r="B44" s="67"/>
       <c r="C44" s="26"/>
       <c r="D44" s="1"/>
       <c r="E44" s="26"/>
@@ -9242,8 +9390,8 @@
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="55"/>
-      <c r="B45" s="64"/>
+      <c r="A45" s="61"/>
+      <c r="B45" s="67"/>
       <c r="C45" s="26"/>
       <c r="D45" s="1"/>
       <c r="E45" s="26"/>
@@ -9252,8 +9400,8 @@
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="57"/>
-      <c r="B46" s="65"/>
+      <c r="A46" s="63"/>
+      <c r="B46" s="68"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
@@ -9272,34 +9420,42 @@
         <v>82</v>
       </c>
       <c r="E47" s="26"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="62"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="70"/>
+      <c r="H47" s="71"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="53"/>
-      <c r="B48" s="63"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="1"/>
+      <c r="A48" s="59"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="E48" s="26"/>
       <c r="F48" s="26"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="55"/>
-      <c r="B49" s="64"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="1"/>
+    <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="61"/>
+      <c r="B49" s="67"/>
+      <c r="C49" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>250</v>
+      </c>
       <c r="E49" s="26"/>
       <c r="F49" s="26"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="55"/>
-      <c r="B50" s="64"/>
-      <c r="C50" s="26"/>
+      <c r="A50" s="61"/>
+      <c r="B50" s="67"/>
+      <c r="C50" s="52"/>
       <c r="D50" s="1"/>
       <c r="E50" s="26"/>
       <c r="F50" s="26"/>
@@ -9307,9 +9463,9 @@
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="55"/>
-      <c r="B51" s="64"/>
-      <c r="C51" s="26"/>
+      <c r="A51" s="61"/>
+      <c r="B51" s="67"/>
+      <c r="C51" s="52"/>
       <c r="D51" s="1"/>
       <c r="E51" s="26"/>
       <c r="F51" s="26"/>
@@ -9317,8 +9473,8 @@
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="55"/>
-      <c r="B52" s="64"/>
+      <c r="A52" s="61"/>
+      <c r="B52" s="67"/>
       <c r="C52" s="26"/>
       <c r="D52" s="1"/>
       <c r="E52" s="26"/>
@@ -9327,8 +9483,8 @@
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="55"/>
-      <c r="B53" s="64"/>
+      <c r="A53" s="61"/>
+      <c r="B53" s="67"/>
       <c r="C53" s="26"/>
       <c r="D53" s="1"/>
       <c r="E53" s="26"/>
@@ -9337,8 +9493,8 @@
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="57"/>
-      <c r="B54" s="65"/>
+      <c r="A54" s="63"/>
+      <c r="B54" s="68"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
@@ -9357,14 +9513,14 @@
         <v>83</v>
       </c>
       <c r="E55" s="26"/>
-      <c r="F55" s="60"/>
-      <c r="G55" s="61"/>
-      <c r="H55" s="62"/>
+      <c r="F55" s="69"/>
+      <c r="G55" s="70"/>
+      <c r="H55" s="71"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="53"/>
-      <c r="B56" s="63"/>
-      <c r="C56" s="26"/>
+      <c r="A56" s="59"/>
+      <c r="B56" s="66"/>
+      <c r="C56" s="52"/>
       <c r="D56" s="1"/>
       <c r="E56" s="26"/>
       <c r="F56" s="26"/>
@@ -9372,9 +9528,9 @@
       <c r="H56" s="1"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="55"/>
-      <c r="B57" s="64"/>
-      <c r="C57" s="26"/>
+      <c r="A57" s="61"/>
+      <c r="B57" s="67"/>
+      <c r="C57" s="52"/>
       <c r="D57" s="1"/>
       <c r="E57" s="26"/>
       <c r="F57" s="26"/>
@@ -9382,9 +9538,9 @@
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="55"/>
-      <c r="B58" s="64"/>
-      <c r="C58" s="26"/>
+      <c r="A58" s="61"/>
+      <c r="B58" s="67"/>
+      <c r="C58" s="52"/>
       <c r="D58" s="1"/>
       <c r="E58" s="26"/>
       <c r="F58" s="26"/>
@@ -9392,9 +9548,9 @@
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="55"/>
-      <c r="B59" s="64"/>
-      <c r="C59" s="26"/>
+      <c r="A59" s="61"/>
+      <c r="B59" s="67"/>
+      <c r="C59" s="52"/>
       <c r="D59" s="1"/>
       <c r="E59" s="26"/>
       <c r="F59" s="26"/>
@@ -9402,8 +9558,8 @@
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="55"/>
-      <c r="B60" s="64"/>
+      <c r="A60" s="61"/>
+      <c r="B60" s="67"/>
       <c r="C60" s="26"/>
       <c r="D60" s="1"/>
       <c r="E60" s="26"/>
@@ -9412,8 +9568,8 @@
       <c r="H60" s="1"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="55"/>
-      <c r="B61" s="64"/>
+      <c r="A61" s="61"/>
+      <c r="B61" s="67"/>
       <c r="C61" s="26"/>
       <c r="D61" s="1"/>
       <c r="E61" s="26"/>
@@ -9422,8 +9578,8 @@
       <c r="H61" s="1"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="57"/>
-      <c r="B62" s="65"/>
+      <c r="A62" s="63"/>
+      <c r="B62" s="68"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
       <c r="E62" s="10"/>
@@ -9442,34 +9598,42 @@
         <v>84</v>
       </c>
       <c r="E63" s="26"/>
-      <c r="F63" s="60"/>
-      <c r="G63" s="61"/>
-      <c r="H63" s="62"/>
+      <c r="F63" s="69"/>
+      <c r="G63" s="70"/>
+      <c r="H63" s="71"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="53"/>
-      <c r="B64" s="63"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="1"/>
+      <c r="A64" s="59"/>
+      <c r="B64" s="66"/>
+      <c r="C64" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>252</v>
+      </c>
       <c r="E64" s="26"/>
       <c r="F64" s="26"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="55"/>
-      <c r="B65" s="64"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="1"/>
+      <c r="A65" s="61"/>
+      <c r="B65" s="67"/>
+      <c r="C65" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>253</v>
+      </c>
       <c r="E65" s="26"/>
       <c r="F65" s="26"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="55"/>
-      <c r="B66" s="64"/>
-      <c r="C66" s="26"/>
+      <c r="A66" s="61"/>
+      <c r="B66" s="67"/>
+      <c r="C66" s="52"/>
       <c r="D66" s="1"/>
       <c r="E66" s="26"/>
       <c r="F66" s="26"/>
@@ -9477,9 +9641,9 @@
       <c r="H66" s="1"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="55"/>
-      <c r="B67" s="64"/>
-      <c r="C67" s="26"/>
+      <c r="A67" s="61"/>
+      <c r="B67" s="67"/>
+      <c r="C67" s="52"/>
       <c r="D67" s="1"/>
       <c r="E67" s="26"/>
       <c r="F67" s="26"/>
@@ -9487,8 +9651,8 @@
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="55"/>
-      <c r="B68" s="64"/>
+      <c r="A68" s="61"/>
+      <c r="B68" s="67"/>
       <c r="C68" s="26"/>
       <c r="D68" s="1"/>
       <c r="E68" s="26"/>
@@ -9497,8 +9661,8 @@
       <c r="H68" s="1"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="55"/>
-      <c r="B69" s="64"/>
+      <c r="A69" s="61"/>
+      <c r="B69" s="67"/>
       <c r="C69" s="26"/>
       <c r="D69" s="1"/>
       <c r="E69" s="26"/>
@@ -9507,8 +9671,8 @@
       <c r="H69" s="1"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="57"/>
-      <c r="B70" s="65"/>
+      <c r="A70" s="63"/>
+      <c r="B70" s="68"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
       <c r="E70" s="10"/>
@@ -9527,24 +9691,28 @@
         <v>172</v>
       </c>
       <c r="E71" s="26"/>
-      <c r="F71" s="60"/>
-      <c r="G71" s="61"/>
-      <c r="H71" s="62"/>
+      <c r="F71" s="69"/>
+      <c r="G71" s="70"/>
+      <c r="H71" s="71"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="53"/>
-      <c r="B72" s="63"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="1"/>
+      <c r="A72" s="59"/>
+      <c r="B72" s="66"/>
+      <c r="C72" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>251</v>
+      </c>
       <c r="E72" s="26"/>
       <c r="F72" s="26"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="55"/>
-      <c r="B73" s="64"/>
-      <c r="C73" s="26"/>
+      <c r="A73" s="61"/>
+      <c r="B73" s="67"/>
+      <c r="C73" s="52"/>
       <c r="D73" s="1"/>
       <c r="E73" s="26"/>
       <c r="F73" s="26"/>
@@ -9552,9 +9720,9 @@
       <c r="H73" s="1"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="55"/>
-      <c r="B74" s="64"/>
-      <c r="C74" s="26"/>
+      <c r="A74" s="61"/>
+      <c r="B74" s="67"/>
+      <c r="C74" s="52"/>
       <c r="D74" s="1"/>
       <c r="E74" s="26"/>
       <c r="F74" s="26"/>
@@ -9562,9 +9730,9 @@
       <c r="H74" s="1"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="55"/>
-      <c r="B75" s="64"/>
-      <c r="C75" s="26"/>
+      <c r="A75" s="61"/>
+      <c r="B75" s="67"/>
+      <c r="C75" s="52"/>
       <c r="D75" s="1"/>
       <c r="E75" s="26"/>
       <c r="F75" s="26"/>
@@ -9572,8 +9740,8 @@
       <c r="H75" s="1"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="55"/>
-      <c r="B76" s="64"/>
+      <c r="A76" s="61"/>
+      <c r="B76" s="67"/>
       <c r="C76" s="26"/>
       <c r="D76" s="1"/>
       <c r="E76" s="26"/>
@@ -9582,8 +9750,8 @@
       <c r="H76" s="1"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="55"/>
-      <c r="B77" s="64"/>
+      <c r="A77" s="61"/>
+      <c r="B77" s="67"/>
       <c r="C77" s="26"/>
       <c r="D77" s="1"/>
       <c r="E77" s="26"/>
@@ -9592,8 +9760,8 @@
       <c r="H77" s="1"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="57"/>
-      <c r="B78" s="65"/>
+      <c r="A78" s="63"/>
+      <c r="B78" s="68"/>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
       <c r="E78" s="10"/>
@@ -9602,23 +9770,24 @@
       <c r="H78" s="10"/>
     </row>
     <row r="79" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="26" t="s">
+      <c r="A79" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="B79" s="26" t="s">
+      <c r="B79" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="C79" s="75"/>
+      <c r="D79" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="E79" s="26"/>
-      <c r="F79" s="60"/>
-      <c r="G79" s="61"/>
-      <c r="H79" s="62"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="77"/>
+      <c r="G79" s="78"/>
+      <c r="H79" s="79"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="53"/>
-      <c r="B80" s="63"/>
+      <c r="A80" s="59"/>
+      <c r="B80" s="66"/>
       <c r="C80" s="26"/>
       <c r="D80" s="1"/>
       <c r="E80" s="26"/>
@@ -9627,8 +9796,8 @@
       <c r="H80" s="1"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="55"/>
-      <c r="B81" s="64"/>
+      <c r="A81" s="61"/>
+      <c r="B81" s="67"/>
       <c r="C81" s="26"/>
       <c r="D81" s="1"/>
       <c r="E81" s="26"/>
@@ -9637,8 +9806,8 @@
       <c r="H81" s="1"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="55"/>
-      <c r="B82" s="64"/>
+      <c r="A82" s="61"/>
+      <c r="B82" s="67"/>
       <c r="C82" s="26"/>
       <c r="D82" s="1"/>
       <c r="E82" s="26"/>
@@ -9647,8 +9816,8 @@
       <c r="H82" s="1"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="55"/>
-      <c r="B83" s="64"/>
+      <c r="A83" s="61"/>
+      <c r="B83" s="67"/>
       <c r="C83" s="26"/>
       <c r="D83" s="1"/>
       <c r="E83" s="26"/>
@@ -9657,8 +9826,8 @@
       <c r="H83" s="1"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="55"/>
-      <c r="B84" s="64"/>
+      <c r="A84" s="61"/>
+      <c r="B84" s="67"/>
       <c r="C84" s="26"/>
       <c r="D84" s="1"/>
       <c r="E84" s="26"/>
@@ -9667,8 +9836,8 @@
       <c r="H84" s="1"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="55"/>
-      <c r="B85" s="64"/>
+      <c r="A85" s="61"/>
+      <c r="B85" s="67"/>
       <c r="C85" s="26"/>
       <c r="D85" s="1"/>
       <c r="E85" s="26"/>
@@ -9677,8 +9846,8 @@
       <c r="H85" s="1"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="57"/>
-      <c r="B86" s="65"/>
+      <c r="A86" s="63"/>
+      <c r="B86" s="68"/>
       <c r="C86" s="10"/>
       <c r="D86" s="10"/>
       <c r="E86" s="10"/>
@@ -9697,43 +9866,55 @@
         <v>76</v>
       </c>
       <c r="E87" s="26"/>
-      <c r="F87" s="60"/>
-      <c r="G87" s="61"/>
-      <c r="H87" s="62"/>
+      <c r="F87" s="69"/>
+      <c r="G87" s="70"/>
+      <c r="H87" s="71"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="53"/>
-      <c r="B88" s="63"/>
-      <c r="C88" s="26"/>
-      <c r="D88" s="1"/>
+      <c r="A88" s="59"/>
+      <c r="B88" s="66"/>
+      <c r="C88" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>254</v>
+      </c>
       <c r="E88" s="26"/>
       <c r="F88" s="26"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="55"/>
-      <c r="B89" s="64"/>
-      <c r="C89" s="26"/>
-      <c r="D89" s="1"/>
+      <c r="A89" s="61"/>
+      <c r="B89" s="67"/>
+      <c r="C89" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>255</v>
+      </c>
       <c r="E89" s="26"/>
       <c r="F89" s="26"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="55"/>
-      <c r="B90" s="64"/>
-      <c r="C90" s="26"/>
-      <c r="D90" s="1"/>
+      <c r="A90" s="61"/>
+      <c r="B90" s="67"/>
+      <c r="C90" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>256</v>
+      </c>
       <c r="E90" s="26"/>
       <c r="F90" s="26"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="55"/>
-      <c r="B91" s="64"/>
+      <c r="A91" s="61"/>
+      <c r="B91" s="67"/>
       <c r="C91" s="26"/>
       <c r="D91" s="1"/>
       <c r="E91" s="26"/>
@@ -9742,8 +9923,8 @@
       <c r="H91" s="1"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="55"/>
-      <c r="B92" s="64"/>
+      <c r="A92" s="61"/>
+      <c r="B92" s="67"/>
       <c r="C92" s="26"/>
       <c r="D92" s="1"/>
       <c r="E92" s="26"/>
@@ -9752,8 +9933,8 @@
       <c r="H92" s="1"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="55"/>
-      <c r="B93" s="64"/>
+      <c r="A93" s="61"/>
+      <c r="B93" s="67"/>
       <c r="C93" s="26"/>
       <c r="D93" s="1"/>
       <c r="E93" s="26"/>
@@ -9762,8 +9943,8 @@
       <c r="H93" s="1"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="57"/>
-      <c r="B94" s="65"/>
+      <c r="A94" s="63"/>
+      <c r="B94" s="68"/>
       <c r="C94" s="10"/>
       <c r="D94" s="10"/>
       <c r="E94" s="10"/>
@@ -9776,13 +9957,13 @@
       <c r="B95" s="26"/>
       <c r="D95" s="5"/>
       <c r="E95" s="26"/>
-      <c r="F95" s="60"/>
-      <c r="G95" s="61"/>
-      <c r="H95" s="62"/>
+      <c r="F95" s="69"/>
+      <c r="G95" s="70"/>
+      <c r="H95" s="71"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="53"/>
-      <c r="B96" s="63"/>
+      <c r="A96" s="59"/>
+      <c r="B96" s="66"/>
       <c r="C96" s="26"/>
       <c r="D96" s="1"/>
       <c r="E96" s="26"/>
@@ -9791,8 +9972,8 @@
       <c r="H96" s="1"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="55"/>
-      <c r="B97" s="64"/>
+      <c r="A97" s="61"/>
+      <c r="B97" s="67"/>
       <c r="C97" s="26"/>
       <c r="D97" s="1"/>
       <c r="E97" s="26"/>
@@ -9801,8 +9982,8 @@
       <c r="H97" s="1"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="55"/>
-      <c r="B98" s="64"/>
+      <c r="A98" s="61"/>
+      <c r="B98" s="67"/>
       <c r="C98" s="26"/>
       <c r="D98" s="1"/>
       <c r="E98" s="26"/>
@@ -9811,8 +9992,8 @@
       <c r="H98" s="1"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="55"/>
-      <c r="B99" s="64"/>
+      <c r="A99" s="61"/>
+      <c r="B99" s="67"/>
       <c r="C99" s="26"/>
       <c r="D99" s="1"/>
       <c r="E99" s="26"/>
@@ -9821,8 +10002,8 @@
       <c r="H99" s="1"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="55"/>
-      <c r="B100" s="64"/>
+      <c r="A100" s="61"/>
+      <c r="B100" s="67"/>
       <c r="C100" s="26"/>
       <c r="D100" s="1"/>
       <c r="E100" s="26"/>
@@ -9831,8 +10012,8 @@
       <c r="H100" s="1"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="55"/>
-      <c r="B101" s="64"/>
+      <c r="A101" s="61"/>
+      <c r="B101" s="67"/>
       <c r="C101" s="26"/>
       <c r="D101" s="1"/>
       <c r="E101" s="26"/>
@@ -9841,8 +10022,8 @@
       <c r="H101" s="1"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="57"/>
-      <c r="B102" s="65"/>
+      <c r="A102" s="63"/>
+      <c r="B102" s="68"/>
       <c r="C102" s="10"/>
       <c r="D102" s="10"/>
       <c r="E102" s="10"/>
@@ -9855,13 +10036,13 @@
       <c r="B103" s="26"/>
       <c r="D103" s="5"/>
       <c r="E103" s="26"/>
-      <c r="F103" s="60"/>
-      <c r="G103" s="61"/>
-      <c r="H103" s="62"/>
+      <c r="F103" s="69"/>
+      <c r="G103" s="70"/>
+      <c r="H103" s="71"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="53"/>
-      <c r="B104" s="63"/>
+      <c r="A104" s="59"/>
+      <c r="B104" s="66"/>
       <c r="C104" s="26"/>
       <c r="D104" s="1"/>
       <c r="E104" s="26"/>
@@ -9870,8 +10051,8 @@
       <c r="H104" s="1"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="55"/>
-      <c r="B105" s="64"/>
+      <c r="A105" s="61"/>
+      <c r="B105" s="67"/>
       <c r="C105" s="26"/>
       <c r="D105" s="1"/>
       <c r="E105" s="26"/>
@@ -9880,8 +10061,8 @@
       <c r="H105" s="1"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="55"/>
-      <c r="B106" s="64"/>
+      <c r="A106" s="61"/>
+      <c r="B106" s="67"/>
       <c r="C106" s="26"/>
       <c r="D106" s="1"/>
       <c r="E106" s="26"/>
@@ -9890,8 +10071,8 @@
       <c r="H106" s="1"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="55"/>
-      <c r="B107" s="64"/>
+      <c r="A107" s="61"/>
+      <c r="B107" s="67"/>
       <c r="C107" s="26"/>
       <c r="D107" s="1"/>
       <c r="E107" s="26"/>
@@ -9900,8 +10081,8 @@
       <c r="H107" s="1"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="55"/>
-      <c r="B108" s="64"/>
+      <c r="A108" s="61"/>
+      <c r="B108" s="67"/>
       <c r="C108" s="26"/>
       <c r="D108" s="1"/>
       <c r="E108" s="26"/>
@@ -9910,8 +10091,8 @@
       <c r="H108" s="1"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="55"/>
-      <c r="B109" s="64"/>
+      <c r="A109" s="61"/>
+      <c r="B109" s="67"/>
       <c r="C109" s="26"/>
       <c r="D109" s="1"/>
       <c r="E109" s="26"/>
@@ -9920,8 +10101,8 @@
       <c r="H109" s="1"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="57"/>
-      <c r="B110" s="65"/>
+      <c r="A110" s="63"/>
+      <c r="B110" s="68"/>
       <c r="C110" s="10"/>
       <c r="D110" s="10"/>
       <c r="E110" s="10"/>
@@ -9931,6 +10112,26 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A1:H5"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="A8:B14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="A16:B22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="A24:B30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="A32:B38"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="A40:B46"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="A48:B54"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="A56:B62"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="A64:B70"/>
+    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="A72:B78"/>
+    <mergeCell ref="F79:H79"/>
     <mergeCell ref="F103:H103"/>
     <mergeCell ref="A104:B110"/>
     <mergeCell ref="A80:B86"/>
@@ -9938,26 +10139,6 @@
     <mergeCell ref="A88:B94"/>
     <mergeCell ref="F95:H95"/>
     <mergeCell ref="A96:B102"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="A64:B70"/>
-    <mergeCell ref="F71:H71"/>
-    <mergeCell ref="A72:B78"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="A40:B46"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="A48:B54"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="A56:B62"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="A24:B30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="A32:B38"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="A1:H5"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="A8:B14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="A16:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
